--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5208B2AE-347E-40F1-9203-EFB2E01BA043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C988F986-4120-427E-A76F-A21CDE31F70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>WBS</t>
   </si>
@@ -547,13 +547,7 @@
     <t>Make overall class diagrams</t>
   </si>
   <si>
-    <t>Project Preparation</t>
-  </si>
-  <si>
     <t>Gantt chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front end </t>
   </si>
   <si>
     <t>Draft the design of the reports</t>
@@ -577,12 +571,6 @@
     <t xml:space="preserve">Risk management </t>
   </si>
   <si>
-    <t>Practice the selected language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data </t>
-  </si>
-  <si>
     <t xml:space="preserve">Get sample data </t>
   </si>
   <si>
@@ -595,31 +583,10 @@
     <t>Development</t>
   </si>
   <si>
-    <t>Development (User interface)</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Database testing</t>
   </si>
   <si>
-    <t>Usability Testing</t>
-  </si>
-  <si>
-    <t>Accessibility Testing</t>
-  </si>
-  <si>
-    <t>User Experience Testing</t>
-  </si>
-  <si>
     <t>Deployment</t>
-  </si>
-  <si>
-    <t>Meeting with the stakeholders (Teachers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report </t>
   </si>
   <si>
     <t>Maintenance</t>
@@ -636,6 +603,42 @@
   <si>
     <t>User acceptance testing</t>
   </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Development (Forms functionalities)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database </t>
+  </si>
+  <si>
+    <t>Hardware configuration</t>
+  </si>
+  <si>
+    <t>Software configuration</t>
+  </si>
+  <si>
+    <t>Deployment diagram</t>
+  </si>
+  <si>
+    <t>Network configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start technical report </t>
+  </si>
+  <si>
+    <t>Conclude Technical report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw sequence diagram </t>
+  </si>
 </sst>
 </file>
 
@@ -646,7 +649,7 @@
     <numFmt numFmtId="165" formatCode="ddd\ m/dd/yy"/>
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="ddd\ dd/m/yy"/>
+    <numFmt numFmtId="168" formatCode="ddd\ dd/m/yy"/>
   </numFmts>
   <fonts count="45" x14ac:knownFonts="1">
     <font>
@@ -1357,7 +1360,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1532,12 +1535,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="168" fontId="35" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="168" fontId="30" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1548,10 +1553,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1561,17 +1562,16 @@
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="35" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="30" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1620,7 +1620,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="95">
     <dxf>
       <border>
         <left style="thin">
@@ -1684,6 +1684,72 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1864,6 +1930,20 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1938,18 +2018,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1964,18 +2042,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1990,18 +2066,76 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2920,11 +3054,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN67"/>
+  <dimension ref="A1:BN75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2952,29 +3086,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3019,11 +3153,11 @@
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="78">
         <v>44459</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
@@ -3033,97 +3167,97 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="69" t="str">
+      <c r="K4" s="70" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="69" t="str">
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="70" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="69" t="str">
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="70" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="69" t="str">
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="70" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="69" t="str">
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="70" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="69" t="str">
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="70" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="69" t="str">
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="70" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="70"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="69" t="str">
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="70" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="70"/>
-      <c r="BJ4" s="70"/>
-      <c r="BK4" s="70"/>
-      <c r="BL4" s="70"/>
-      <c r="BM4" s="70"/>
-      <c r="BN4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="72"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
@@ -3791,10 +3925,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="62"/>
-      <c r="E9" s="77">
+      <c r="E9" s="67">
         <v>44459</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="69">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
         <v>44461</v>
       </c>
@@ -3878,10 +4012,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="62"/>
-      <c r="E10" s="77">
+      <c r="E10" s="67">
         <v>44459</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="69">
         <f t="shared" ref="F10:F37" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>44461</v>
       </c>
@@ -3959,16 +4093,16 @@
         <v>1.2</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="62"/>
-      <c r="E11" s="77">
+      <c r="E11" s="67">
         <v>44462</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="69">
         <f>IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
         <v>44463</v>
       </c>
@@ -4046,16 +4180,16 @@
         <v>1.3</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="62"/>
-      <c r="E12" s="77">
+      <c r="E12" s="67">
         <v>44463</v>
       </c>
-      <c r="F12" s="79">
+      <c r="F12" s="69">
         <f>IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
         <v>44463</v>
       </c>
@@ -4139,10 +4273,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="62"/>
-      <c r="E13" s="77">
+      <c r="E13" s="67">
         <v>44464</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="69">
         <f t="shared" si="6"/>
         <v>44468</v>
       </c>
@@ -4226,10 +4360,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="62"/>
-      <c r="E14" s="77">
+      <c r="E14" s="67">
         <v>44464</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="69">
         <f t="shared" ref="F14:F15" si="10">IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
         <v>44464</v>
       </c>
@@ -4313,10 +4447,10 @@
         <v>17</v>
       </c>
       <c r="D15" s="62"/>
-      <c r="E15" s="77">
+      <c r="E15" s="67">
         <v>44464</v>
       </c>
-      <c r="F15" s="79">
+      <c r="F15" s="69">
         <f t="shared" si="10"/>
         <v>44464</v>
       </c>
@@ -4400,10 +4534,10 @@
         <v>17</v>
       </c>
       <c r="D16" s="62"/>
-      <c r="E16" s="77">
+      <c r="E16" s="67">
         <v>44465</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="69">
         <f t="shared" ref="F16:F22" si="12">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
         <v>44465</v>
       </c>
@@ -4487,10 +4621,10 @@
         <v>17</v>
       </c>
       <c r="D17" s="62"/>
-      <c r="E17" s="77">
+      <c r="E17" s="67">
         <v>44465</v>
       </c>
-      <c r="F17" s="79">
+      <c r="F17" s="69">
         <f t="shared" si="12"/>
         <v>44465</v>
       </c>
@@ -4574,10 +4708,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="62"/>
-      <c r="E18" s="77">
+      <c r="E18" s="67">
         <v>44466</v>
       </c>
-      <c r="F18" s="79">
+      <c r="F18" s="69">
         <f t="shared" si="12"/>
         <v>44466</v>
       </c>
@@ -4661,10 +4795,10 @@
         <v>17</v>
       </c>
       <c r="D19" s="62"/>
-      <c r="E19" s="77">
+      <c r="E19" s="67">
         <v>44467</v>
       </c>
-      <c r="F19" s="79">
+      <c r="F19" s="69">
         <f t="shared" si="12"/>
         <v>44467</v>
       </c>
@@ -4748,10 +4882,10 @@
         <v>17</v>
       </c>
       <c r="D20" s="62"/>
-      <c r="E20" s="77">
+      <c r="E20" s="67">
         <v>44468</v>
       </c>
-      <c r="F20" s="79">
+      <c r="F20" s="69">
         <f t="shared" si="12"/>
         <v>44468</v>
       </c>
@@ -4835,10 +4969,10 @@
         <v>17</v>
       </c>
       <c r="D21" s="62"/>
-      <c r="E21" s="77">
+      <c r="E21" s="67">
         <v>44468</v>
       </c>
-      <c r="F21" s="79">
+      <c r="F21" s="69">
         <f t="shared" si="12"/>
         <v>44468</v>
       </c>
@@ -4922,10 +5056,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="62"/>
-      <c r="E22" s="77">
+      <c r="E22" s="67">
         <v>44469</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="69">
         <f t="shared" si="12"/>
         <v>44470</v>
       </c>
@@ -5009,10 +5143,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="62"/>
-      <c r="E23" s="77">
+      <c r="E23" s="67">
         <v>44470</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="69">
         <f t="shared" ref="F23" si="15">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
         <v>44471</v>
       </c>
@@ -5096,10 +5230,10 @@
         <v>17</v>
       </c>
       <c r="D24" s="62"/>
-      <c r="E24" s="77">
+      <c r="E24" s="67">
         <v>44471</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="69">
         <f t="shared" ref="F24" si="17">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
         <v>44471</v>
       </c>
@@ -5183,10 +5317,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="62"/>
-      <c r="E25" s="77">
+      <c r="E25" s="67">
         <v>44472</v>
       </c>
-      <c r="F25" s="79">
+      <c r="F25" s="69">
         <f t="shared" ref="F25" si="19">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
         <v>44474</v>
       </c>
@@ -5264,11 +5398,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78" t="str">
+      <c r="E26" s="68"/>
+      <c r="F26" s="68" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -5342,16 +5476,16 @@
         <v>2.1</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="62"/>
-      <c r="E27" s="77">
+      <c r="E27" s="67">
         <v>44460</v>
       </c>
-      <c r="F27" s="79">
+      <c r="F27" s="69">
         <f t="shared" si="6"/>
         <v>44461</v>
       </c>
@@ -5429,16 +5563,16 @@
         <v>2.2</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="62"/>
-      <c r="E28" s="77">
+      <c r="E28" s="67">
         <v>44473</v>
       </c>
-      <c r="F28" s="79">
+      <c r="F28" s="69">
         <f t="shared" si="6"/>
         <v>44475</v>
       </c>
@@ -5516,16 +5650,16 @@
         <v>2.2.1</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="62"/>
-      <c r="E29" s="77">
+      <c r="E29" s="67">
         <v>44473</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="69">
         <f t="shared" si="6"/>
         <v>44473</v>
       </c>
@@ -5609,10 +5743,10 @@
         <v>17</v>
       </c>
       <c r="D30" s="62"/>
-      <c r="E30" s="77">
+      <c r="E30" s="67">
         <v>44474</v>
       </c>
-      <c r="F30" s="79">
+      <c r="F30" s="69">
         <f t="shared" si="6"/>
         <v>44474</v>
       </c>
@@ -5696,10 +5830,10 @@
         <v>17</v>
       </c>
       <c r="D31" s="62"/>
-      <c r="E31" s="77">
+      <c r="E31" s="67">
         <v>44474</v>
       </c>
-      <c r="F31" s="79">
+      <c r="F31" s="69">
         <f t="shared" si="6"/>
         <v>44474</v>
       </c>
@@ -5783,10 +5917,10 @@
         <v>17</v>
       </c>
       <c r="D32" s="62"/>
-      <c r="E32" s="77">
+      <c r="E32" s="67">
         <v>44474</v>
       </c>
-      <c r="F32" s="79">
+      <c r="F32" s="69">
         <f t="shared" si="6"/>
         <v>44474</v>
       </c>
@@ -5870,10 +6004,10 @@
         <v>17</v>
       </c>
       <c r="D33" s="62"/>
-      <c r="E33" s="77">
+      <c r="E33" s="67">
         <v>44475</v>
       </c>
-      <c r="F33" s="79">
+      <c r="F33" s="69">
         <f t="shared" si="6"/>
         <v>44475</v>
       </c>
@@ -5957,10 +6091,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="62"/>
-      <c r="E34" s="77">
+      <c r="E34" s="67">
         <v>44475</v>
       </c>
-      <c r="F34" s="79">
+      <c r="F34" s="69">
         <f t="shared" si="6"/>
         <v>44475</v>
       </c>
@@ -6044,10 +6178,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="62"/>
-      <c r="E35" s="77">
+      <c r="E35" s="67">
         <v>44475</v>
       </c>
-      <c r="F35" s="79">
+      <c r="F35" s="69">
         <f t="shared" si="6"/>
         <v>44475</v>
       </c>
@@ -6125,16 +6259,16 @@
         <v>2.2.1.7</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="62"/>
-      <c r="E36" s="77">
+      <c r="E36" s="67">
         <v>44475</v>
       </c>
-      <c r="F36" s="79">
+      <c r="F36" s="69">
         <f t="shared" ref="F36" si="22">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
         <v>44475</v>
       </c>
@@ -6212,16 +6346,16 @@
         <v>2.3</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="62"/>
-      <c r="E37" s="77">
+      <c r="E37" s="67">
         <v>44475</v>
       </c>
-      <c r="F37" s="79">
+      <c r="F37" s="69">
         <f t="shared" si="6"/>
         <v>44475</v>
       </c>
@@ -6299,16 +6433,16 @@
         <v>2.3.1</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="62"/>
-      <c r="E38" s="77">
+      <c r="E38" s="67">
         <v>44475</v>
       </c>
-      <c r="F38" s="79">
+      <c r="F38" s="69">
         <f t="shared" ref="F38" si="24">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
         <v>44475</v>
       </c>
@@ -6386,17 +6520,17 @@
         <v>2.3.2</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="62"/>
-      <c r="E39" s="77">
+      <c r="E39" s="67">
         <v>44475</v>
       </c>
-      <c r="F39" s="79">
-        <f t="shared" ref="F39:F40" si="26">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+      <c r="F39" s="69">
+        <f t="shared" ref="F39" si="26">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
         <v>44475</v>
       </c>
       <c r="G39" s="25">
@@ -6406,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="27">
-        <f t="shared" ref="I39:I40" si="27">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
+        <f t="shared" ref="I39" si="27">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
         <v>1</v>
       </c>
       <c r="J39" s="40"/>
@@ -6467,34 +6601,34 @@
       <c r="BM39" s="43"/>
       <c r="BN39" s="43"/>
     </row>
-    <row r="40" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="62"/>
-      <c r="E40" s="77">
+      <c r="E40" s="67">
         <v>44476</v>
       </c>
-      <c r="F40" s="79">
-        <f t="shared" si="26"/>
-        <v>44480</v>
+      <c r="F40" s="69">
+        <f>IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+        <v>44478</v>
       </c>
       <c r="G40" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40" s="26">
         <v>0</v>
       </c>
       <c r="I40" s="27">
-        <f t="shared" si="27"/>
-        <v>3</v>
+        <f>IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
+        <v>2</v>
       </c>
       <c r="J40" s="40"/>
       <c r="K40" s="43"/>
@@ -6554,112 +6688,121 @@
       <c r="BM40" s="43"/>
       <c r="BN40" s="43"/>
     </row>
-    <row r="41" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78" t="str">
+    <row r="41" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="62"/>
+      <c r="E41" s="67">
+        <v>44481</v>
+      </c>
+      <c r="F41" s="69">
         <f>IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22" t="str">
+        <v>44484</v>
+      </c>
+      <c r="G41" s="25">
+        <v>4</v>
+      </c>
+      <c r="H41" s="26">
+        <v>0</v>
+      </c>
+      <c r="I41" s="27">
         <f>IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="44"/>
-      <c r="AH41" s="44"/>
-      <c r="AI41" s="44"/>
-      <c r="AJ41" s="44"/>
-      <c r="AK41" s="44"/>
-      <c r="AL41" s="44"/>
-      <c r="AM41" s="44"/>
-      <c r="AN41" s="44"/>
-      <c r="AO41" s="44"/>
-      <c r="AP41" s="44"/>
-      <c r="AQ41" s="44"/>
-      <c r="AR41" s="44"/>
-      <c r="AS41" s="44"/>
-      <c r="AT41" s="44"/>
-      <c r="AU41" s="44"/>
-      <c r="AV41" s="44"/>
-      <c r="AW41" s="44"/>
-      <c r="AX41" s="44"/>
-      <c r="AY41" s="44"/>
-      <c r="AZ41" s="44"/>
-      <c r="BA41" s="44"/>
-      <c r="BB41" s="44"/>
-      <c r="BC41" s="44"/>
-      <c r="BD41" s="44"/>
-      <c r="BE41" s="44"/>
-      <c r="BF41" s="44"/>
-      <c r="BG41" s="44"/>
-      <c r="BH41" s="44"/>
-      <c r="BI41" s="44"/>
-      <c r="BJ41" s="44"/>
-      <c r="BK41" s="44"/>
-      <c r="BL41" s="44"/>
-      <c r="BM41" s="44"/>
-      <c r="BN41" s="44"/>
+        <v>4</v>
+      </c>
+      <c r="J41" s="40"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="43"/>
+      <c r="AN41" s="43"/>
+      <c r="AO41" s="43"/>
+      <c r="AP41" s="43"/>
+      <c r="AQ41" s="43"/>
+      <c r="AR41" s="43"/>
+      <c r="AS41" s="43"/>
+      <c r="AT41" s="43"/>
+      <c r="AU41" s="43"/>
+      <c r="AV41" s="43"/>
+      <c r="AW41" s="43"/>
+      <c r="AX41" s="43"/>
+      <c r="AY41" s="43"/>
+      <c r="AZ41" s="43"/>
+      <c r="BA41" s="43"/>
+      <c r="BB41" s="43"/>
+      <c r="BC41" s="43"/>
+      <c r="BD41" s="43"/>
+      <c r="BE41" s="43"/>
+      <c r="BF41" s="43"/>
+      <c r="BG41" s="43"/>
+      <c r="BH41" s="43"/>
+      <c r="BI41" s="43"/>
+      <c r="BJ41" s="43"/>
+      <c r="BK41" s="43"/>
+      <c r="BL41" s="43"/>
+      <c r="BM41" s="43"/>
+      <c r="BN41" s="43"/>
     </row>
     <row r="42" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B42" s="61" t="s">
-        <v>44</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.5.1</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="62"/>
-      <c r="E42" s="77">
+      <c r="E42" s="67">
         <v>44481</v>
       </c>
-      <c r="F42" s="79">
-        <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
-        <v>44484</v>
+      <c r="F42" s="69">
+        <f t="shared" ref="F42:F44" si="28">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <v>44481</v>
       </c>
       <c r="G42" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H42" s="26">
         <v>0</v>
       </c>
       <c r="I42" s="27">
-        <f>IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
-        <v>4</v>
+        <f t="shared" ref="I42:I44" si="29">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+        <v>1</v>
       </c>
       <c r="J42" s="40"/>
       <c r="K42" s="43"/>
@@ -6719,24 +6862,24 @@
       <c r="BM42" s="43"/>
       <c r="BN42" s="43"/>
     </row>
-    <row r="43" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
+        <v>2.5.2</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="62"/>
-      <c r="E43" s="77">
-        <v>44481</v>
-      </c>
-      <c r="F43" s="79">
-        <f t="shared" ref="F43" si="28">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
-        <v>44481</v>
+      <c r="E43" s="67">
+        <v>44482</v>
+      </c>
+      <c r="F43" s="69">
+        <f t="shared" si="28"/>
+        <v>44482</v>
       </c>
       <c r="G43" s="25">
         <v>1</v>
@@ -6745,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="27">
-        <f t="shared" ref="I43" si="29">IF(OR(F43=0,E43=0)," - ",NETWORKDAYS(E43,F43))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J43" s="40"/>
@@ -6806,34 +6949,34 @@
       <c r="BM43" s="43"/>
       <c r="BN43" s="43"/>
     </row>
-    <row r="44" spans="1:66" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.2</v>
+        <v>2.5.3</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="62"/>
-      <c r="E44" s="77">
-        <v>44482</v>
-      </c>
-      <c r="F44" s="79">
-        <f t="shared" ref="F44" si="30">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
-        <v>44482</v>
+      <c r="E44" s="67">
+        <v>44483</v>
+      </c>
+      <c r="F44" s="69">
+        <f t="shared" si="28"/>
+        <v>44484</v>
       </c>
       <c r="G44" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="26">
         <v>0</v>
       </c>
       <c r="I44" s="27">
-        <f t="shared" ref="I44" si="31">IF(OR(F44=0,E44=0)," - ",NETWORKDAYS(E44,F44))</f>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>2</v>
       </c>
       <c r="J44" s="40"/>
       <c r="K44" s="43"/>
@@ -6895,32 +7038,32 @@
     </row>
     <row r="45" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.3</v>
-      </c>
-      <c r="B45" s="63" t="s">
-        <v>47</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.6</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>61</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="62"/>
-      <c r="E45" s="77">
+      <c r="E45" s="67">
         <v>44483</v>
       </c>
-      <c r="F45" s="79">
-        <f t="shared" ref="F45" si="32">IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
-        <v>44484</v>
+      <c r="F45" s="69">
+        <f>IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
+        <v>44483</v>
       </c>
       <c r="G45" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="26">
         <v>0</v>
       </c>
       <c r="I45" s="27">
-        <f t="shared" ref="I45" si="33">IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
-        <v>2</v>
+        <f>IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
+        <v>1</v>
       </c>
       <c r="J45" s="40"/>
       <c r="K45" s="43"/>
@@ -6980,120 +7123,111 @@
       <c r="BM45" s="43"/>
       <c r="BN45" s="43"/>
     </row>
-    <row r="46" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="77">
-        <v>44484</v>
-      </c>
-      <c r="F46" s="79">
+    <row r="46" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68" t="str">
         <f>IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
-        <v>44497</v>
-      </c>
-      <c r="G46" s="25">
-        <v>14</v>
-      </c>
-      <c r="H46" s="26">
-        <v>0</v>
-      </c>
-      <c r="I46" s="27">
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22" t="str">
         <f>IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
-        <v>10</v>
-      </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="43"/>
-      <c r="AC46" s="43"/>
-      <c r="AD46" s="43"/>
-      <c r="AE46" s="43"/>
-      <c r="AF46" s="43"/>
-      <c r="AG46" s="43"/>
-      <c r="AH46" s="43"/>
-      <c r="AI46" s="43"/>
-      <c r="AJ46" s="43"/>
-      <c r="AK46" s="43"/>
-      <c r="AL46" s="43"/>
-      <c r="AM46" s="43"/>
-      <c r="AN46" s="43"/>
-      <c r="AO46" s="43"/>
-      <c r="AP46" s="43"/>
-      <c r="AQ46" s="43"/>
-      <c r="AR46" s="43"/>
-      <c r="AS46" s="43"/>
-      <c r="AT46" s="43"/>
-      <c r="AU46" s="43"/>
-      <c r="AV46" s="43"/>
-      <c r="AW46" s="43"/>
-      <c r="AX46" s="43"/>
-      <c r="AY46" s="43"/>
-      <c r="AZ46" s="43"/>
-      <c r="BA46" s="43"/>
-      <c r="BB46" s="43"/>
-      <c r="BC46" s="43"/>
-      <c r="BD46" s="43"/>
-      <c r="BE46" s="43"/>
-      <c r="BF46" s="43"/>
-      <c r="BG46" s="43"/>
-      <c r="BH46" s="43"/>
-      <c r="BI46" s="43"/>
-      <c r="BJ46" s="43"/>
-      <c r="BK46" s="43"/>
-      <c r="BL46" s="43"/>
-      <c r="BM46" s="43"/>
-      <c r="BN46" s="43"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="44"/>
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44"/>
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="44"/>
+      <c r="AT46" s="44"/>
+      <c r="AU46" s="44"/>
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="44"/>
+      <c r="AX46" s="44"/>
+      <c r="AY46" s="44"/>
+      <c r="AZ46" s="44"/>
+      <c r="BA46" s="44"/>
+      <c r="BB46" s="44"/>
+      <c r="BC46" s="44"/>
+      <c r="BD46" s="44"/>
+      <c r="BE46" s="44"/>
+      <c r="BF46" s="44"/>
+      <c r="BG46" s="44"/>
+      <c r="BH46" s="44"/>
+      <c r="BI46" s="44"/>
+      <c r="BJ46" s="44"/>
+      <c r="BK46" s="44"/>
+      <c r="BL46" s="44"/>
+      <c r="BM46" s="44"/>
+      <c r="BN46" s="44"/>
     </row>
     <row r="47" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="str">
-        <f t="shared" ref="A47:A54" si="34">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="62"/>
-      <c r="E47" s="77">
+      <c r="E47" s="67">
         <v>44484</v>
       </c>
-      <c r="F47" s="79">
-        <f t="shared" ref="F47:F54" si="35">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
-        <v>44485</v>
+      <c r="F47" s="69">
+        <f t="shared" ref="F47" si="30">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
+        <v>44484</v>
       </c>
       <c r="G47" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="26">
         <v>0</v>
       </c>
       <c r="I47" s="27">
-        <f t="shared" ref="I47:I54" si="36">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
+        <f t="shared" ref="I47" si="31">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
         <v>1</v>
       </c>
       <c r="J47" s="40"/>
@@ -7154,34 +7288,34 @@
       <c r="BM47" s="43"/>
       <c r="BN47" s="43"/>
     </row>
-    <row r="48" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.2</v>
-      </c>
-      <c r="B48" s="63" t="s">
-        <v>19</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>54</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="62"/>
-      <c r="E48" s="77">
-        <v>44485</v>
-      </c>
-      <c r="F48" s="79">
+      <c r="E48" s="67">
+        <v>44484</v>
+      </c>
+      <c r="F48" s="69">
         <f>IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
-        <v>44486</v>
+        <v>44497</v>
       </c>
       <c r="G48" s="25">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H48" s="26">
         <v>0</v>
       </c>
       <c r="I48" s="27">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f>IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
+        <v>10</v>
       </c>
       <c r="J48" s="40"/>
       <c r="K48" s="43"/>
@@ -7243,22 +7377,22 @@
     </row>
     <row r="49" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.3</v>
+        <f t="shared" ref="A49:A63" si="32">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="62"/>
-      <c r="E49" s="77">
-        <v>44486</v>
-      </c>
-      <c r="F49" s="79">
-        <f t="shared" si="35"/>
-        <v>44487</v>
+      <c r="E49" s="67">
+        <v>44484</v>
+      </c>
+      <c r="F49" s="69">
+        <f t="shared" ref="F49:F64" si="33">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <v>44485</v>
       </c>
       <c r="G49" s="25">
         <v>2</v>
@@ -7267,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I49:I64" si="34">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
         <v>1</v>
       </c>
       <c r="J49" s="40"/>
@@ -7330,22 +7464,22 @@
     </row>
     <row r="50" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.4</v>
+        <f t="shared" ref="A50:A64" si="35">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.2.1.1</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="62"/>
-      <c r="E50" s="77">
-        <v>44487</v>
-      </c>
-      <c r="F50" s="79">
-        <f t="shared" ref="F50" si="37">IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
-        <v>44487</v>
+      <c r="E50" s="67">
+        <v>44485</v>
+      </c>
+      <c r="F50" s="69">
+        <f t="shared" si="33"/>
+        <v>44485</v>
       </c>
       <c r="G50" s="25">
         <v>1</v>
@@ -7354,8 +7488,8 @@
         <v>0</v>
       </c>
       <c r="I50" s="27">
-        <f t="shared" ref="I50" si="38">IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="J50" s="40"/>
       <c r="K50" s="43"/>
@@ -7417,32 +7551,32 @@
     </row>
     <row r="51" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.5</v>
+        <f t="shared" si="32"/>
+        <v>3.2.2</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="62"/>
-      <c r="E51" s="77">
-        <v>44488</v>
-      </c>
-      <c r="F51" s="79">
-        <f t="shared" si="35"/>
-        <v>44490</v>
+      <c r="E51" s="67">
+        <v>44485</v>
+      </c>
+      <c r="F51" s="69">
+        <f>IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
+        <v>44486</v>
       </c>
       <c r="G51" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="26">
         <v>0</v>
       </c>
       <c r="I51" s="27">
-        <f t="shared" si="36"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="J51" s="40"/>
       <c r="K51" s="43"/>
@@ -7502,34 +7636,34 @@
       <c r="BM51" s="43"/>
       <c r="BN51" s="43"/>
     </row>
-    <row r="52" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.6</v>
+        <f t="shared" si="35"/>
+        <v>3.2.2.1</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="62"/>
-      <c r="E52" s="77">
-        <v>44490</v>
-      </c>
-      <c r="F52" s="79">
-        <f t="shared" si="35"/>
-        <v>44491</v>
+      <c r="E52" s="67">
+        <v>44486</v>
+      </c>
+      <c r="F52" s="69">
+        <f t="shared" ref="F52" si="36">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
+        <v>44486</v>
       </c>
       <c r="G52" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="26">
         <v>0</v>
       </c>
       <c r="I52" s="27">
-        <f t="shared" si="36"/>
-        <v>2</v>
+        <f t="shared" ref="I52" si="37">IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
+        <v>0</v>
       </c>
       <c r="J52" s="40"/>
       <c r="K52" s="43"/>
@@ -7589,33 +7723,33 @@
       <c r="BM52" s="43"/>
       <c r="BN52" s="43"/>
     </row>
-    <row r="53" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.7</v>
+        <f t="shared" si="32"/>
+        <v>3.2.3</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="62"/>
-      <c r="E53" s="77">
-        <v>44492</v>
-      </c>
-      <c r="F53" s="79">
-        <f t="shared" ref="F53" si="39">IF(ISBLANK(E53)," - ",IF(G53=0,E53,E53+G53-1))</f>
-        <v>44494</v>
+      <c r="E53" s="67">
+        <v>44486</v>
+      </c>
+      <c r="F53" s="69">
+        <f t="shared" si="33"/>
+        <v>44487</v>
       </c>
       <c r="G53" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="26">
         <v>0</v>
       </c>
       <c r="I53" s="27">
-        <f t="shared" ref="I53" si="40">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="J53" s="40"/>
@@ -7676,34 +7810,34 @@
       <c r="BM53" s="43"/>
       <c r="BN53" s="43"/>
     </row>
-    <row r="54" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.8</v>
+        <f t="shared" si="35"/>
+        <v>3.2.3.1</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="62"/>
-      <c r="E54" s="77">
-        <v>44495</v>
-      </c>
-      <c r="F54" s="79">
-        <f t="shared" si="35"/>
-        <v>44497</v>
+      <c r="E54" s="67">
+        <v>44487</v>
+      </c>
+      <c r="F54" s="69">
+        <f t="shared" si="33"/>
+        <v>44487</v>
       </c>
       <c r="G54" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" s="26">
         <v>0</v>
       </c>
       <c r="I54" s="27">
-        <f t="shared" si="36"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="J54" s="40"/>
       <c r="K54" s="43"/>
@@ -7765,31 +7899,31 @@
     </row>
     <row r="55" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B55" s="61" t="s">
-        <v>50</v>
+        <f t="shared" si="32"/>
+        <v>3.2.4</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>23</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="62"/>
-      <c r="E55" s="77">
-        <v>44498</v>
-      </c>
-      <c r="F55" s="79">
-        <f>IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
-        <v>44499</v>
+      <c r="E55" s="67">
+        <v>44487</v>
+      </c>
+      <c r="F55" s="69">
+        <f t="shared" ref="F55:F56" si="38">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+        <v>44487</v>
       </c>
       <c r="G55" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="26">
         <v>0</v>
       </c>
       <c r="I55" s="27">
-        <f>IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
+        <f t="shared" ref="I55:I56" si="39">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
         <v>1</v>
       </c>
       <c r="J55" s="40"/>
@@ -7852,22 +7986,22 @@
     </row>
     <row r="56" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.1</v>
+        <f t="shared" si="35"/>
+        <v>3.2.4.1</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="62"/>
-      <c r="E56" s="77">
-        <v>44498</v>
-      </c>
-      <c r="F56" s="79">
-        <f t="shared" ref="F56" si="41">IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
-        <v>44498</v>
+      <c r="E56" s="67">
+        <v>44487</v>
+      </c>
+      <c r="F56" s="69">
+        <f t="shared" si="38"/>
+        <v>44487</v>
       </c>
       <c r="G56" s="25">
         <v>1</v>
@@ -7876,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="27">
-        <f t="shared" ref="I56" si="42">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="J56" s="40"/>
@@ -7939,32 +8073,32 @@
     </row>
     <row r="57" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.2</v>
+        <f t="shared" si="32"/>
+        <v>3.2.5</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="62"/>
-      <c r="E57" s="77">
-        <v>44498</v>
-      </c>
-      <c r="F57" s="79">
-        <f t="shared" ref="F57" si="43">IF(ISBLANK(E57)," - ",IF(G57=0,E57,E57+G57-1))</f>
-        <v>44498</v>
+      <c r="E57" s="67">
+        <v>44488</v>
+      </c>
+      <c r="F57" s="69">
+        <f t="shared" si="33"/>
+        <v>44490</v>
       </c>
       <c r="G57" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" s="26">
         <v>0</v>
       </c>
       <c r="I57" s="27">
-        <f t="shared" ref="I57" si="44">IF(OR(F57=0,E57=0)," - ",NETWORKDAYS(E57,F57))</f>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="J57" s="40"/>
       <c r="K57" s="43"/>
@@ -8026,22 +8160,22 @@
     </row>
     <row r="58" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.3</v>
+        <f t="shared" si="35"/>
+        <v>3.2.5.1</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="62"/>
-      <c r="E58" s="77">
-        <v>44499</v>
-      </c>
-      <c r="F58" s="79">
-        <f t="shared" ref="F58" si="45">IF(ISBLANK(E58)," - ",IF(G58=0,E58,E58+G58-1))</f>
-        <v>44499</v>
+      <c r="E58" s="67">
+        <v>44490</v>
+      </c>
+      <c r="F58" s="69">
+        <f t="shared" si="33"/>
+        <v>44490</v>
       </c>
       <c r="G58" s="25">
         <v>1</v>
@@ -8050,8 +8184,8 @@
         <v>0</v>
       </c>
       <c r="I58" s="27">
-        <f t="shared" ref="I58" si="46">IF(OR(F58=0,E58=0)," - ",NETWORKDAYS(E58,F58))</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="J58" s="40"/>
       <c r="K58" s="43"/>
@@ -8113,34 +8247,34 @@
     </row>
     <row r="59" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.4</v>
+        <f t="shared" si="32"/>
+        <v>3.2.6</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="62"/>
-      <c r="E59" s="77">
-        <v>44499</v>
-      </c>
-      <c r="F59" s="79">
-        <f t="shared" ref="F59" si="47">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
-        <v>44499</v>
+      <c r="E59" s="67">
+        <v>44490</v>
+      </c>
+      <c r="F59" s="69">
+        <f t="shared" si="33"/>
+        <v>44491</v>
       </c>
       <c r="G59" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="26">
         <v>0</v>
       </c>
       <c r="I59" s="27">
-        <f t="shared" ref="I59" si="48">IF(OR(F59=0,E59=0)," - ",NETWORKDAYS(E59,F59))</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="76"/>
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="J59" s="40"/>
       <c r="K59" s="43"/>
       <c r="L59" s="43"/>
       <c r="M59" s="43"/>
@@ -8198,111 +8332,120 @@
       <c r="BM59" s="43"/>
       <c r="BN59" s="43"/>
     </row>
-    <row r="60" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78" t="str">
-        <f>IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="22" t="str">
-        <f>IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J60" s="41"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="44"/>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
-      <c r="V60" s="44"/>
-      <c r="W60" s="44"/>
-      <c r="X60" s="44"/>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="44"/>
-      <c r="AA60" s="44"/>
-      <c r="AB60" s="44"/>
-      <c r="AC60" s="44"/>
-      <c r="AD60" s="44"/>
-      <c r="AE60" s="44"/>
-      <c r="AF60" s="44"/>
-      <c r="AG60" s="44"/>
-      <c r="AH60" s="44"/>
-      <c r="AI60" s="44"/>
-      <c r="AJ60" s="44"/>
-      <c r="AK60" s="44"/>
-      <c r="AL60" s="44"/>
-      <c r="AM60" s="44"/>
-      <c r="AN60" s="44"/>
-      <c r="AO60" s="44"/>
-      <c r="AP60" s="44"/>
-      <c r="AQ60" s="44"/>
-      <c r="AR60" s="44"/>
-      <c r="AS60" s="44"/>
-      <c r="AT60" s="44"/>
-      <c r="AU60" s="44"/>
-      <c r="AV60" s="44"/>
-      <c r="AW60" s="44"/>
-      <c r="AX60" s="44"/>
-      <c r="AY60" s="44"/>
-      <c r="AZ60" s="44"/>
-      <c r="BA60" s="44"/>
-      <c r="BB60" s="44"/>
-      <c r="BC60" s="44"/>
-      <c r="BD60" s="44"/>
-      <c r="BE60" s="44"/>
-      <c r="BF60" s="44"/>
-      <c r="BG60" s="44"/>
-      <c r="BH60" s="44"/>
-      <c r="BI60" s="44"/>
-      <c r="BJ60" s="44"/>
-      <c r="BK60" s="44"/>
-      <c r="BL60" s="44"/>
-      <c r="BM60" s="44"/>
-      <c r="BN60" s="44"/>
+    <row r="60" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="str">
+        <f t="shared" si="35"/>
+        <v>3.2.6.1</v>
+      </c>
+      <c r="B60" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="62"/>
+      <c r="E60" s="67">
+        <v>44491</v>
+      </c>
+      <c r="F60" s="69">
+        <f t="shared" ref="F60" si="40">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
+        <v>44491</v>
+      </c>
+      <c r="G60" s="25">
+        <v>1</v>
+      </c>
+      <c r="H60" s="26">
+        <v>0</v>
+      </c>
+      <c r="I60" s="27">
+        <f t="shared" ref="I60" si="41">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
+        <v>1</v>
+      </c>
+      <c r="J60" s="40"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="43"/>
+      <c r="AA60" s="43"/>
+      <c r="AB60" s="43"/>
+      <c r="AC60" s="43"/>
+      <c r="AD60" s="43"/>
+      <c r="AE60" s="43"/>
+      <c r="AF60" s="43"/>
+      <c r="AG60" s="43"/>
+      <c r="AH60" s="43"/>
+      <c r="AI60" s="43"/>
+      <c r="AJ60" s="43"/>
+      <c r="AK60" s="43"/>
+      <c r="AL60" s="43"/>
+      <c r="AM60" s="43"/>
+      <c r="AN60" s="43"/>
+      <c r="AO60" s="43"/>
+      <c r="AP60" s="43"/>
+      <c r="AQ60" s="43"/>
+      <c r="AR60" s="43"/>
+      <c r="AS60" s="43"/>
+      <c r="AT60" s="43"/>
+      <c r="AU60" s="43"/>
+      <c r="AV60" s="43"/>
+      <c r="AW60" s="43"/>
+      <c r="AX60" s="43"/>
+      <c r="AY60" s="43"/>
+      <c r="AZ60" s="43"/>
+      <c r="BA60" s="43"/>
+      <c r="BB60" s="43"/>
+      <c r="BC60" s="43"/>
+      <c r="BD60" s="43"/>
+      <c r="BE60" s="43"/>
+      <c r="BF60" s="43"/>
+      <c r="BG60" s="43"/>
+      <c r="BH60" s="43"/>
+      <c r="BI60" s="43"/>
+      <c r="BJ60" s="43"/>
+      <c r="BK60" s="43"/>
+      <c r="BL60" s="43"/>
+      <c r="BM60" s="43"/>
+      <c r="BN60" s="43"/>
     </row>
     <row r="61" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B61" s="61" t="s">
-        <v>56</v>
+        <f t="shared" si="32"/>
+        <v>3.2.7</v>
+      </c>
+      <c r="B61" s="63" t="s">
+        <v>21</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="62"/>
-      <c r="E61" s="77">
-        <v>44501</v>
-      </c>
-      <c r="F61" s="79">
-        <f>IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
-        <v>44501</v>
+      <c r="E61" s="67">
+        <v>44492</v>
+      </c>
+      <c r="F61" s="69">
+        <f t="shared" ref="F61:F62" si="42">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <v>44494</v>
       </c>
       <c r="G61" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" s="26">
         <v>0</v>
       </c>
       <c r="I61" s="27">
-        <f>IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
+        <f t="shared" ref="I61:I62" si="43">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
         <v>1</v>
       </c>
       <c r="J61" s="40"/>
@@ -8365,32 +8508,32 @@
     </row>
     <row r="62" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B62" s="61" t="s">
-        <v>57</v>
+        <f t="shared" si="35"/>
+        <v>3.2.7.1</v>
+      </c>
+      <c r="B62" s="63" t="s">
+        <v>60</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="62"/>
-      <c r="E62" s="77">
-        <v>44502</v>
-      </c>
-      <c r="F62" s="79">
-        <f>IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
-        <v>44504</v>
+      <c r="E62" s="67">
+        <v>44494</v>
+      </c>
+      <c r="F62" s="69">
+        <f t="shared" si="42"/>
+        <v>44494</v>
       </c>
       <c r="G62" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="26">
         <v>0</v>
       </c>
       <c r="I62" s="27">
-        <f>IF(OR(F62=0,E62=0)," - ",NETWORKDAYS(E62,F62))</f>
-        <v>3</v>
+        <f t="shared" si="43"/>
+        <v>1</v>
       </c>
       <c r="J62" s="40"/>
       <c r="K62" s="43"/>
@@ -8450,112 +8593,121 @@
       <c r="BM62" s="43"/>
       <c r="BN62" s="43"/>
     </row>
-    <row r="63" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78" t="str">
-        <f>IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="22" t="str">
-        <f>IF(OR(F63=0,E63=0)," - ",NETWORKDAYS(E63,F63))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J63" s="41"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="44"/>
-      <c r="X63" s="44"/>
-      <c r="Y63" s="44"/>
-      <c r="Z63" s="44"/>
-      <c r="AA63" s="44"/>
-      <c r="AB63" s="44"/>
-      <c r="AC63" s="44"/>
-      <c r="AD63" s="44"/>
-      <c r="AE63" s="44"/>
-      <c r="AF63" s="44"/>
-      <c r="AG63" s="44"/>
-      <c r="AH63" s="44"/>
-      <c r="AI63" s="44"/>
-      <c r="AJ63" s="44"/>
-      <c r="AK63" s="44"/>
-      <c r="AL63" s="44"/>
-      <c r="AM63" s="44"/>
-      <c r="AN63" s="44"/>
-      <c r="AO63" s="44"/>
-      <c r="AP63" s="44"/>
-      <c r="AQ63" s="44"/>
-      <c r="AR63" s="44"/>
-      <c r="AS63" s="44"/>
-      <c r="AT63" s="44"/>
-      <c r="AU63" s="44"/>
-      <c r="AV63" s="44"/>
-      <c r="AW63" s="44"/>
-      <c r="AX63" s="44"/>
-      <c r="AY63" s="44"/>
-      <c r="AZ63" s="44"/>
-      <c r="BA63" s="44"/>
-      <c r="BB63" s="44"/>
-      <c r="BC63" s="44"/>
-      <c r="BD63" s="44"/>
-      <c r="BE63" s="44"/>
-      <c r="BF63" s="44"/>
-      <c r="BG63" s="44"/>
-      <c r="BH63" s="44"/>
-      <c r="BI63" s="44"/>
-      <c r="BJ63" s="44"/>
-      <c r="BK63" s="44"/>
-      <c r="BL63" s="44"/>
-      <c r="BM63" s="44"/>
-      <c r="BN63" s="44"/>
+    <row r="63" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="str">
+        <f t="shared" si="32"/>
+        <v>3.2.8</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="62"/>
+      <c r="E63" s="67">
+        <v>44495</v>
+      </c>
+      <c r="F63" s="69">
+        <f t="shared" si="33"/>
+        <v>44497</v>
+      </c>
+      <c r="G63" s="25">
+        <v>3</v>
+      </c>
+      <c r="H63" s="26">
+        <v>0</v>
+      </c>
+      <c r="I63" s="27">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="J63" s="40"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="43"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="43"/>
+      <c r="AA63" s="43"/>
+      <c r="AB63" s="43"/>
+      <c r="AC63" s="43"/>
+      <c r="AD63" s="43"/>
+      <c r="AE63" s="43"/>
+      <c r="AF63" s="43"/>
+      <c r="AG63" s="43"/>
+      <c r="AH63" s="43"/>
+      <c r="AI63" s="43"/>
+      <c r="AJ63" s="43"/>
+      <c r="AK63" s="43"/>
+      <c r="AL63" s="43"/>
+      <c r="AM63" s="43"/>
+      <c r="AN63" s="43"/>
+      <c r="AO63" s="43"/>
+      <c r="AP63" s="43"/>
+      <c r="AQ63" s="43"/>
+      <c r="AR63" s="43"/>
+      <c r="AS63" s="43"/>
+      <c r="AT63" s="43"/>
+      <c r="AU63" s="43"/>
+      <c r="AV63" s="43"/>
+      <c r="AW63" s="43"/>
+      <c r="AX63" s="43"/>
+      <c r="AY63" s="43"/>
+      <c r="AZ63" s="43"/>
+      <c r="BA63" s="43"/>
+      <c r="BB63" s="43"/>
+      <c r="BC63" s="43"/>
+      <c r="BD63" s="43"/>
+      <c r="BE63" s="43"/>
+      <c r="BF63" s="43"/>
+      <c r="BG63" s="43"/>
+      <c r="BH63" s="43"/>
+      <c r="BI63" s="43"/>
+      <c r="BJ63" s="43"/>
+      <c r="BK63" s="43"/>
+      <c r="BL63" s="43"/>
+      <c r="BM63" s="43"/>
+      <c r="BN63" s="43"/>
     </row>
     <row r="64" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>59</v>
+        <f t="shared" si="35"/>
+        <v>3.2.8.1</v>
+      </c>
+      <c r="B64" s="63" t="s">
+        <v>60</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="62"/>
-      <c r="E64" s="77">
-        <v>44505</v>
-      </c>
-      <c r="F64" s="79">
-        <f>IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
-        <v>44508</v>
+      <c r="E64" s="67">
+        <v>44497</v>
+      </c>
+      <c r="F64" s="69">
+        <f t="shared" si="33"/>
+        <v>44497</v>
       </c>
       <c r="G64" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" s="26">
         <v>0</v>
       </c>
       <c r="I64" s="27">
-        <f>IF(OR(F64=0,E64=0)," - ",NETWORKDAYS(E64,F64))</f>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="J64" s="40"/>
       <c r="K64" s="43"/>
@@ -8615,120 +8767,111 @@
       <c r="BM64" s="43"/>
       <c r="BN64" s="43"/>
     </row>
-    <row r="65" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.1.1</v>
-      </c>
-      <c r="B65" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="77">
-        <v>44505</v>
-      </c>
-      <c r="F65" s="79">
-        <f t="shared" ref="F65:F66" si="49">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
-        <v>44506</v>
-      </c>
-      <c r="G65" s="25">
-        <v>2</v>
-      </c>
-      <c r="H65" s="26">
-        <v>0</v>
-      </c>
-      <c r="I65" s="27">
-        <f t="shared" ref="I65:I66" si="50">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
-        <v>1</v>
-      </c>
-      <c r="J65" s="40"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="43"/>
-      <c r="Z65" s="43"/>
-      <c r="AA65" s="43"/>
-      <c r="AB65" s="43"/>
-      <c r="AC65" s="43"/>
-      <c r="AD65" s="43"/>
-      <c r="AE65" s="43"/>
-      <c r="AF65" s="43"/>
-      <c r="AG65" s="43"/>
-      <c r="AH65" s="43"/>
-      <c r="AI65" s="43"/>
-      <c r="AJ65" s="43"/>
-      <c r="AK65" s="43"/>
-      <c r="AL65" s="43"/>
-      <c r="AM65" s="43"/>
-      <c r="AN65" s="43"/>
-      <c r="AO65" s="43"/>
-      <c r="AP65" s="43"/>
-      <c r="AQ65" s="43"/>
-      <c r="AR65" s="43"/>
-      <c r="AS65" s="43"/>
-      <c r="AT65" s="43"/>
-      <c r="AU65" s="43"/>
-      <c r="AV65" s="43"/>
-      <c r="AW65" s="43"/>
-      <c r="AX65" s="43"/>
-      <c r="AY65" s="43"/>
-      <c r="AZ65" s="43"/>
-      <c r="BA65" s="43"/>
-      <c r="BB65" s="43"/>
-      <c r="BC65" s="43"/>
-      <c r="BD65" s="43"/>
-      <c r="BE65" s="43"/>
-      <c r="BF65" s="43"/>
-      <c r="BG65" s="43"/>
-      <c r="BH65" s="43"/>
-      <c r="BI65" s="43"/>
-      <c r="BJ65" s="43"/>
-      <c r="BK65" s="43"/>
-      <c r="BL65" s="43"/>
-      <c r="BM65" s="43"/>
-      <c r="BN65" s="43"/>
+    <row r="65" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68" t="str">
+        <f>IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="22" t="str">
+        <f>IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J65" s="41"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="44"/>
+      <c r="AD65" s="44"/>
+      <c r="AE65" s="44"/>
+      <c r="AF65" s="44"/>
+      <c r="AG65" s="44"/>
+      <c r="AH65" s="44"/>
+      <c r="AI65" s="44"/>
+      <c r="AJ65" s="44"/>
+      <c r="AK65" s="44"/>
+      <c r="AL65" s="44"/>
+      <c r="AM65" s="44"/>
+      <c r="AN65" s="44"/>
+      <c r="AO65" s="44"/>
+      <c r="AP65" s="44"/>
+      <c r="AQ65" s="44"/>
+      <c r="AR65" s="44"/>
+      <c r="AS65" s="44"/>
+      <c r="AT65" s="44"/>
+      <c r="AU65" s="44"/>
+      <c r="AV65" s="44"/>
+      <c r="AW65" s="44"/>
+      <c r="AX65" s="44"/>
+      <c r="AY65" s="44"/>
+      <c r="AZ65" s="44"/>
+      <c r="BA65" s="44"/>
+      <c r="BB65" s="44"/>
+      <c r="BC65" s="44"/>
+      <c r="BD65" s="44"/>
+      <c r="BE65" s="44"/>
+      <c r="BF65" s="44"/>
+      <c r="BG65" s="44"/>
+      <c r="BH65" s="44"/>
+      <c r="BI65" s="44"/>
+      <c r="BJ65" s="44"/>
+      <c r="BK65" s="44"/>
+      <c r="BL65" s="44"/>
+      <c r="BM65" s="44"/>
+      <c r="BN65" s="44"/>
     </row>
     <row r="66" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.1.2</v>
-      </c>
-      <c r="B66" s="63" t="s">
-        <v>61</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B66" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="62"/>
-      <c r="E66" s="77">
-        <v>44507</v>
-      </c>
-      <c r="F66" s="79">
-        <f t="shared" si="49"/>
-        <v>44508</v>
+      <c r="E66" s="67">
+        <v>44501</v>
+      </c>
+      <c r="F66" s="69">
+        <f>IF(ISBLANK(E66)," - ",IF(G66=0,E66,E66+G66-1))</f>
+        <v>44501</v>
       </c>
       <c r="G66" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="26">
         <v>0</v>
       </c>
       <c r="I66" s="27">
-        <f t="shared" si="50"/>
+        <f>IF(OR(F66=0,E66=0)," - ",NETWORKDAYS(E66,F66))</f>
         <v>1</v>
       </c>
       <c r="J66" s="40"/>
@@ -8792,31 +8935,31 @@
     <row r="67" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="62"/>
-      <c r="E67" s="77">
-        <v>44509</v>
-      </c>
-      <c r="F67" s="79">
+      <c r="E67" s="67">
+        <v>44502</v>
+      </c>
+      <c r="F67" s="69">
         <f>IF(ISBLANK(E67)," - ",IF(G67=0,E67,E67+G67-1))</f>
-        <v>44512</v>
+        <v>44503</v>
       </c>
       <c r="G67" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67" s="26">
         <v>0</v>
       </c>
       <c r="I67" s="27">
         <f>IF(OR(F67=0,E67=0)," - ",NETWORKDAYS(E67,F67))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67" s="40"/>
       <c r="K67" s="43"/>
@@ -8876,9 +9019,705 @@
       <c r="BM67" s="43"/>
       <c r="BN67" s="43"/>
     </row>
+    <row r="68" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B68" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="62"/>
+      <c r="E68" s="67">
+        <v>44503</v>
+      </c>
+      <c r="F68" s="69">
+        <f>IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
+        <v>44504</v>
+      </c>
+      <c r="G68" s="25">
+        <v>2</v>
+      </c>
+      <c r="H68" s="26">
+        <v>0</v>
+      </c>
+      <c r="I68" s="27">
+        <f>IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
+        <v>2</v>
+      </c>
+      <c r="J68" s="40"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="43"/>
+      <c r="Z68" s="43"/>
+      <c r="AA68" s="43"/>
+      <c r="AB68" s="43"/>
+      <c r="AC68" s="43"/>
+      <c r="AD68" s="43"/>
+      <c r="AE68" s="43"/>
+      <c r="AF68" s="43"/>
+      <c r="AG68" s="43"/>
+      <c r="AH68" s="43"/>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="43"/>
+      <c r="AK68" s="43"/>
+      <c r="AL68" s="43"/>
+      <c r="AM68" s="43"/>
+      <c r="AN68" s="43"/>
+      <c r="AO68" s="43"/>
+      <c r="AP68" s="43"/>
+      <c r="AQ68" s="43"/>
+      <c r="AR68" s="43"/>
+      <c r="AS68" s="43"/>
+      <c r="AT68" s="43"/>
+      <c r="AU68" s="43"/>
+      <c r="AV68" s="43"/>
+      <c r="AW68" s="43"/>
+      <c r="AX68" s="43"/>
+      <c r="AY68" s="43"/>
+      <c r="AZ68" s="43"/>
+      <c r="BA68" s="43"/>
+      <c r="BB68" s="43"/>
+      <c r="BC68" s="43"/>
+      <c r="BD68" s="43"/>
+      <c r="BE68" s="43"/>
+      <c r="BF68" s="43"/>
+      <c r="BG68" s="43"/>
+      <c r="BH68" s="43"/>
+      <c r="BI68" s="43"/>
+      <c r="BJ68" s="43"/>
+      <c r="BK68" s="43"/>
+      <c r="BL68" s="43"/>
+      <c r="BM68" s="43"/>
+      <c r="BN68" s="43"/>
+    </row>
+    <row r="69" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B69" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="62"/>
+      <c r="E69" s="67">
+        <v>44505</v>
+      </c>
+      <c r="F69" s="69">
+        <f>IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
+        <v>44506</v>
+      </c>
+      <c r="G69" s="25">
+        <v>2</v>
+      </c>
+      <c r="H69" s="26">
+        <v>0</v>
+      </c>
+      <c r="I69" s="27">
+        <f>IF(OR(F69=0,E69=0)," - ",NETWORKDAYS(E69,F69))</f>
+        <v>1</v>
+      </c>
+      <c r="J69" s="40"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="43"/>
+      <c r="AB69" s="43"/>
+      <c r="AC69" s="43"/>
+      <c r="AD69" s="43"/>
+      <c r="AE69" s="43"/>
+      <c r="AF69" s="43"/>
+      <c r="AG69" s="43"/>
+      <c r="AH69" s="43"/>
+      <c r="AI69" s="43"/>
+      <c r="AJ69" s="43"/>
+      <c r="AK69" s="43"/>
+      <c r="AL69" s="43"/>
+      <c r="AM69" s="43"/>
+      <c r="AN69" s="43"/>
+      <c r="AO69" s="43"/>
+      <c r="AP69" s="43"/>
+      <c r="AQ69" s="43"/>
+      <c r="AR69" s="43"/>
+      <c r="AS69" s="43"/>
+      <c r="AT69" s="43"/>
+      <c r="AU69" s="43"/>
+      <c r="AV69" s="43"/>
+      <c r="AW69" s="43"/>
+      <c r="AX69" s="43"/>
+      <c r="AY69" s="43"/>
+      <c r="AZ69" s="43"/>
+      <c r="BA69" s="43"/>
+      <c r="BB69" s="43"/>
+      <c r="BC69" s="43"/>
+      <c r="BD69" s="43"/>
+      <c r="BE69" s="43"/>
+      <c r="BF69" s="43"/>
+      <c r="BG69" s="43"/>
+      <c r="BH69" s="43"/>
+      <c r="BI69" s="43"/>
+      <c r="BJ69" s="43"/>
+      <c r="BK69" s="43"/>
+      <c r="BL69" s="43"/>
+      <c r="BM69" s="43"/>
+      <c r="BN69" s="43"/>
+    </row>
+    <row r="70" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68" t="str">
+        <f>IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G70" s="20"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="22" t="str">
+        <f>IF(OR(F70=0,E70=0)," - ",NETWORKDAYS(E70,F70))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J70" s="41"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="44"/>
+      <c r="X70" s="44"/>
+      <c r="Y70" s="44"/>
+      <c r="Z70" s="44"/>
+      <c r="AA70" s="44"/>
+      <c r="AB70" s="44"/>
+      <c r="AC70" s="44"/>
+      <c r="AD70" s="44"/>
+      <c r="AE70" s="44"/>
+      <c r="AF70" s="44"/>
+      <c r="AG70" s="44"/>
+      <c r="AH70" s="44"/>
+      <c r="AI70" s="44"/>
+      <c r="AJ70" s="44"/>
+      <c r="AK70" s="44"/>
+      <c r="AL70" s="44"/>
+      <c r="AM70" s="44"/>
+      <c r="AN70" s="44"/>
+      <c r="AO70" s="44"/>
+      <c r="AP70" s="44"/>
+      <c r="AQ70" s="44"/>
+      <c r="AR70" s="44"/>
+      <c r="AS70" s="44"/>
+      <c r="AT70" s="44"/>
+      <c r="AU70" s="44"/>
+      <c r="AV70" s="44"/>
+      <c r="AW70" s="44"/>
+      <c r="AX70" s="44"/>
+      <c r="AY70" s="44"/>
+      <c r="AZ70" s="44"/>
+      <c r="BA70" s="44"/>
+      <c r="BB70" s="44"/>
+      <c r="BC70" s="44"/>
+      <c r="BD70" s="44"/>
+      <c r="BE70" s="44"/>
+      <c r="BF70" s="44"/>
+      <c r="BG70" s="44"/>
+      <c r="BH70" s="44"/>
+      <c r="BI70" s="44"/>
+      <c r="BJ70" s="44"/>
+      <c r="BK70" s="44"/>
+      <c r="BL70" s="44"/>
+      <c r="BM70" s="44"/>
+      <c r="BN70" s="44"/>
+    </row>
+    <row r="71" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B71" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="62"/>
+      <c r="E71" s="67">
+        <v>44505</v>
+      </c>
+      <c r="F71" s="69">
+        <f>IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
+        <v>44508</v>
+      </c>
+      <c r="G71" s="25">
+        <v>4</v>
+      </c>
+      <c r="H71" s="26">
+        <v>0</v>
+      </c>
+      <c r="I71" s="27">
+        <f>IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
+        <v>2</v>
+      </c>
+      <c r="J71" s="40"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="43"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="43"/>
+      <c r="AB71" s="43"/>
+      <c r="AC71" s="43"/>
+      <c r="AD71" s="43"/>
+      <c r="AE71" s="43"/>
+      <c r="AF71" s="43"/>
+      <c r="AG71" s="43"/>
+      <c r="AH71" s="43"/>
+      <c r="AI71" s="43"/>
+      <c r="AJ71" s="43"/>
+      <c r="AK71" s="43"/>
+      <c r="AL71" s="43"/>
+      <c r="AM71" s="43"/>
+      <c r="AN71" s="43"/>
+      <c r="AO71" s="43"/>
+      <c r="AP71" s="43"/>
+      <c r="AQ71" s="43"/>
+      <c r="AR71" s="43"/>
+      <c r="AS71" s="43"/>
+      <c r="AT71" s="43"/>
+      <c r="AU71" s="43"/>
+      <c r="AV71" s="43"/>
+      <c r="AW71" s="43"/>
+      <c r="AX71" s="43"/>
+      <c r="AY71" s="43"/>
+      <c r="AZ71" s="43"/>
+      <c r="BA71" s="43"/>
+      <c r="BB71" s="43"/>
+      <c r="BC71" s="43"/>
+      <c r="BD71" s="43"/>
+      <c r="BE71" s="43"/>
+      <c r="BF71" s="43"/>
+      <c r="BG71" s="43"/>
+      <c r="BH71" s="43"/>
+      <c r="BI71" s="43"/>
+      <c r="BJ71" s="43"/>
+      <c r="BK71" s="43"/>
+      <c r="BL71" s="43"/>
+      <c r="BM71" s="43"/>
+      <c r="BN71" s="43"/>
+    </row>
+    <row r="72" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.1.1</v>
+      </c>
+      <c r="B72" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="62"/>
+      <c r="E72" s="67">
+        <v>44505</v>
+      </c>
+      <c r="F72" s="69">
+        <f t="shared" ref="F72:F73" si="44">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
+        <v>44506</v>
+      </c>
+      <c r="G72" s="25">
+        <v>2</v>
+      </c>
+      <c r="H72" s="26">
+        <v>0</v>
+      </c>
+      <c r="I72" s="27">
+        <f t="shared" ref="I72:I73" si="45">IF(OR(F72=0,E72=0)," - ",NETWORKDAYS(E72,F72))</f>
+        <v>1</v>
+      </c>
+      <c r="J72" s="40"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="43"/>
+      <c r="Z72" s="43"/>
+      <c r="AA72" s="43"/>
+      <c r="AB72" s="43"/>
+      <c r="AC72" s="43"/>
+      <c r="AD72" s="43"/>
+      <c r="AE72" s="43"/>
+      <c r="AF72" s="43"/>
+      <c r="AG72" s="43"/>
+      <c r="AH72" s="43"/>
+      <c r="AI72" s="43"/>
+      <c r="AJ72" s="43"/>
+      <c r="AK72" s="43"/>
+      <c r="AL72" s="43"/>
+      <c r="AM72" s="43"/>
+      <c r="AN72" s="43"/>
+      <c r="AO72" s="43"/>
+      <c r="AP72" s="43"/>
+      <c r="AQ72" s="43"/>
+      <c r="AR72" s="43"/>
+      <c r="AS72" s="43"/>
+      <c r="AT72" s="43"/>
+      <c r="AU72" s="43"/>
+      <c r="AV72" s="43"/>
+      <c r="AW72" s="43"/>
+      <c r="AX72" s="43"/>
+      <c r="AY72" s="43"/>
+      <c r="AZ72" s="43"/>
+      <c r="BA72" s="43"/>
+      <c r="BB72" s="43"/>
+      <c r="BC72" s="43"/>
+      <c r="BD72" s="43"/>
+      <c r="BE72" s="43"/>
+      <c r="BF72" s="43"/>
+      <c r="BG72" s="43"/>
+      <c r="BH72" s="43"/>
+      <c r="BI72" s="43"/>
+      <c r="BJ72" s="43"/>
+      <c r="BK72" s="43"/>
+      <c r="BL72" s="43"/>
+      <c r="BM72" s="43"/>
+      <c r="BN72" s="43"/>
+    </row>
+    <row r="73" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.1.2</v>
+      </c>
+      <c r="B73" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="62"/>
+      <c r="E73" s="67">
+        <v>44507</v>
+      </c>
+      <c r="F73" s="69">
+        <f t="shared" si="44"/>
+        <v>44508</v>
+      </c>
+      <c r="G73" s="25">
+        <v>2</v>
+      </c>
+      <c r="H73" s="26">
+        <v>0</v>
+      </c>
+      <c r="I73" s="27">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="J73" s="40"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="43"/>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="43"/>
+      <c r="AD73" s="43"/>
+      <c r="AE73" s="43"/>
+      <c r="AF73" s="43"/>
+      <c r="AG73" s="43"/>
+      <c r="AH73" s="43"/>
+      <c r="AI73" s="43"/>
+      <c r="AJ73" s="43"/>
+      <c r="AK73" s="43"/>
+      <c r="AL73" s="43"/>
+      <c r="AM73" s="43"/>
+      <c r="AN73" s="43"/>
+      <c r="AO73" s="43"/>
+      <c r="AP73" s="43"/>
+      <c r="AQ73" s="43"/>
+      <c r="AR73" s="43"/>
+      <c r="AS73" s="43"/>
+      <c r="AT73" s="43"/>
+      <c r="AU73" s="43"/>
+      <c r="AV73" s="43"/>
+      <c r="AW73" s="43"/>
+      <c r="AX73" s="43"/>
+      <c r="AY73" s="43"/>
+      <c r="AZ73" s="43"/>
+      <c r="BA73" s="43"/>
+      <c r="BB73" s="43"/>
+      <c r="BC73" s="43"/>
+      <c r="BD73" s="43"/>
+      <c r="BE73" s="43"/>
+      <c r="BF73" s="43"/>
+      <c r="BG73" s="43"/>
+      <c r="BH73" s="43"/>
+      <c r="BI73" s="43"/>
+      <c r="BJ73" s="43"/>
+      <c r="BK73" s="43"/>
+      <c r="BL73" s="43"/>
+      <c r="BM73" s="43"/>
+      <c r="BN73" s="43"/>
+    </row>
+    <row r="74" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B74" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="62"/>
+      <c r="E74" s="67">
+        <v>44509</v>
+      </c>
+      <c r="F74" s="69">
+        <f>IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
+        <v>44512</v>
+      </c>
+      <c r="G74" s="25">
+        <v>4</v>
+      </c>
+      <c r="H74" s="26">
+        <v>0</v>
+      </c>
+      <c r="I74" s="27">
+        <f>IF(OR(F74=0,E74=0)," - ",NETWORKDAYS(E74,F74))</f>
+        <v>4</v>
+      </c>
+      <c r="J74" s="40"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="43"/>
+      <c r="Z74" s="43"/>
+      <c r="AA74" s="43"/>
+      <c r="AB74" s="43"/>
+      <c r="AC74" s="43"/>
+      <c r="AD74" s="43"/>
+      <c r="AE74" s="43"/>
+      <c r="AF74" s="43"/>
+      <c r="AG74" s="43"/>
+      <c r="AH74" s="43"/>
+      <c r="AI74" s="43"/>
+      <c r="AJ74" s="43"/>
+      <c r="AK74" s="43"/>
+      <c r="AL74" s="43"/>
+      <c r="AM74" s="43"/>
+      <c r="AN74" s="43"/>
+      <c r="AO74" s="43"/>
+      <c r="AP74" s="43"/>
+      <c r="AQ74" s="43"/>
+      <c r="AR74" s="43"/>
+      <c r="AS74" s="43"/>
+      <c r="AT74" s="43"/>
+      <c r="AU74" s="43"/>
+      <c r="AV74" s="43"/>
+      <c r="AW74" s="43"/>
+      <c r="AX74" s="43"/>
+      <c r="AY74" s="43"/>
+      <c r="AZ74" s="43"/>
+      <c r="BA74" s="43"/>
+      <c r="BB74" s="43"/>
+      <c r="BC74" s="43"/>
+      <c r="BD74" s="43"/>
+      <c r="BE74" s="43"/>
+      <c r="BF74" s="43"/>
+      <c r="BG74" s="43"/>
+      <c r="BH74" s="43"/>
+      <c r="BI74" s="43"/>
+      <c r="BJ74" s="43"/>
+      <c r="BK74" s="43"/>
+      <c r="BL74" s="43"/>
+      <c r="BM74" s="43"/>
+      <c r="BN74" s="43"/>
+    </row>
+    <row r="75" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.3</v>
+      </c>
+      <c r="B75" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="62"/>
+      <c r="E75" s="67">
+        <v>44513</v>
+      </c>
+      <c r="F75" s="69">
+        <f>IF(ISBLANK(E75)," - ",IF(G75=0,E75,E75+G75-1))</f>
+        <v>44519</v>
+      </c>
+      <c r="G75" s="25">
+        <v>7</v>
+      </c>
+      <c r="H75" s="26">
+        <v>0</v>
+      </c>
+      <c r="I75" s="27">
+        <f>IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
+        <v>5</v>
+      </c>
+      <c r="J75" s="40"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="43"/>
+      <c r="AD75" s="43"/>
+      <c r="AE75" s="43"/>
+      <c r="AF75" s="43"/>
+      <c r="AG75" s="43"/>
+      <c r="AH75" s="43"/>
+      <c r="AI75" s="43"/>
+      <c r="AJ75" s="43"/>
+      <c r="AK75" s="43"/>
+      <c r="AL75" s="43"/>
+      <c r="AM75" s="43"/>
+      <c r="AN75" s="43"/>
+      <c r="AO75" s="43"/>
+      <c r="AP75" s="43"/>
+      <c r="AQ75" s="43"/>
+      <c r="AR75" s="43"/>
+      <c r="AS75" s="43"/>
+      <c r="AT75" s="43"/>
+      <c r="AU75" s="43"/>
+      <c r="AV75" s="43"/>
+      <c r="AW75" s="43"/>
+      <c r="AX75" s="43"/>
+      <c r="AY75" s="43"/>
+      <c r="AZ75" s="43"/>
+      <c r="BA75" s="43"/>
+      <c r="BB75" s="43"/>
+      <c r="BC75" s="43"/>
+      <c r="BD75" s="43"/>
+      <c r="BE75" s="43"/>
+      <c r="BF75" s="43"/>
+      <c r="BG75" s="43"/>
+      <c r="BH75" s="43"/>
+      <c r="BI75" s="43"/>
+      <c r="BJ75" s="43"/>
+      <c r="BK75" s="43"/>
+      <c r="BL75" s="43"/>
+      <c r="BM75" s="43"/>
+      <c r="BN75" s="43"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8889,19 +9728,10 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H26:H28 H8:H10 H37 H41:H42 H13 H46 H60:H62">
-    <cfRule type="dataBar" priority="173">
+  <conditionalFormatting sqref="H26:H28 H8:H10 H37 H13 H46 H65:H67 H48">
+    <cfRule type="dataBar" priority="241">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8915,25 +9745,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="82" priority="216">
+    <cfRule type="expression" dxfId="94" priority="284">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN10 K26:BN28 K30:BN39 K13:BN21 K41:BN42 K46:BN49 K51:BN54 K60:BN64 K67:BN67">
-    <cfRule type="expression" dxfId="81" priority="219">
+  <conditionalFormatting sqref="K8:BN10 K26:BN28 K13:BN21 K30:BN39 K46:BN46 K48:BN51 K53:BN53 K55:BN55 K57:BN57 K59:BN59 K61:BN61 K63:BN63 K65:BN74">
+    <cfRule type="expression" dxfId="93" priority="287">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="220">
+    <cfRule type="expression" dxfId="92" priority="288">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:BN28 K6:BN10 K37:BN37 K41:BN42 K13:BN13 K46:BN46 K60:BN62">
-    <cfRule type="expression" dxfId="79" priority="179">
+  <conditionalFormatting sqref="K26:BN28 K6:BN10 K37:BN37 K13:BN13 K46:BN46 K65:BN67 K48:BN48">
+    <cfRule type="expression" dxfId="91" priority="247">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="168">
+    <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8947,12 +9777,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="78" priority="169">
+    <cfRule type="expression" dxfId="90" priority="237">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="164">
+    <cfRule type="dataBar" priority="232">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8966,12 +9796,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="77" priority="165">
+    <cfRule type="expression" dxfId="89" priority="233">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8985,12 +9815,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="76" priority="161">
+    <cfRule type="expression" dxfId="88" priority="229">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="156">
+    <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9004,12 +9834,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="75" priority="157">
+    <cfRule type="expression" dxfId="87" priority="225">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="220">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9023,12 +9853,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="74" priority="153">
+    <cfRule type="expression" dxfId="86" priority="221">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="148">
+    <cfRule type="dataBar" priority="216">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9042,12 +9872,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="73" priority="149">
+    <cfRule type="expression" dxfId="85" priority="217">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="136">
+    <cfRule type="dataBar" priority="204">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9061,12 +9891,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="72" priority="137">
+    <cfRule type="expression" dxfId="84" priority="205">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="140">
+    <cfRule type="dataBar" priority="208">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9080,12 +9910,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="71" priority="141">
+    <cfRule type="expression" dxfId="83" priority="209">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="128">
+    <cfRule type="dataBar" priority="196">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9099,20 +9929,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="70" priority="130">
+    <cfRule type="expression" dxfId="82" priority="198">
       <formula>AND($E22&lt;=K$6,ROUNDDOWN(($F22-$E22+1)*$H22,0)+$E22-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="131">
+    <cfRule type="expression" dxfId="81" priority="199">
       <formula>AND(NOT(ISBLANK($E22)),$E22&lt;=K$6,$F22&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="68" priority="129">
+    <cfRule type="expression" dxfId="80" priority="197">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="124">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9126,20 +9956,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="67" priority="126">
+    <cfRule type="expression" dxfId="79" priority="194">
       <formula>AND($E23&lt;=K$6,ROUNDDOWN(($F23-$E23+1)*$H23,0)+$E23-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="127">
+    <cfRule type="expression" dxfId="78" priority="195">
       <formula>AND(NOT(ISBLANK($E23)),$E23&lt;=K$6,$F23&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="65" priority="125">
+    <cfRule type="expression" dxfId="77" priority="193">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9153,20 +9983,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="64" priority="122">
+    <cfRule type="expression" dxfId="76" priority="190">
       <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="123">
+    <cfRule type="expression" dxfId="75" priority="191">
       <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="62" priority="121">
+    <cfRule type="expression" dxfId="74" priority="189">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9180,28 +10010,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="61" priority="118">
+    <cfRule type="expression" dxfId="73" priority="186">
       <formula>AND($E25&lt;=K$6,ROUNDDOWN(($F25-$E25+1)*$H25,0)+$E25-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="119">
+    <cfRule type="expression" dxfId="72" priority="187">
       <formula>AND(NOT(ISBLANK($E25)),$E25&lt;=K$6,$F25&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="59" priority="117">
+    <cfRule type="expression" dxfId="71" priority="185">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="58" priority="114">
+    <cfRule type="expression" dxfId="70" priority="182">
       <formula>AND($E29&lt;=K$6,ROUNDDOWN(($F29-$E29+1)*$H29,0)+$E29-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="115">
+    <cfRule type="expression" dxfId="69" priority="183">
       <formula>AND(NOT(ISBLANK($E29)),$E29&lt;=K$6,$F29&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="112">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9215,12 +10045,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="56" priority="113">
+    <cfRule type="expression" dxfId="68" priority="181">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9234,12 +10064,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="55" priority="109">
+    <cfRule type="expression" dxfId="67" priority="177">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9253,12 +10083,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="54" priority="105">
+    <cfRule type="expression" dxfId="66" priority="173">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="100">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9272,12 +10102,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="53" priority="101">
+    <cfRule type="expression" dxfId="65" priority="169">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9291,12 +10121,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="52" priority="97">
+    <cfRule type="expression" dxfId="64" priority="165">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="94">
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9310,12 +10140,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="51" priority="95">
+    <cfRule type="expression" dxfId="63" priority="163">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="92">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9329,12 +10159,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="50" priority="93">
+    <cfRule type="expression" dxfId="62" priority="161">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9348,12 +10178,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="49" priority="89">
+    <cfRule type="expression" dxfId="61" priority="157">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="86">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9367,12 +10197,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="48" priority="87">
+    <cfRule type="expression" dxfId="60" priority="155">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9386,12 +10216,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="47" priority="85">
+    <cfRule type="expression" dxfId="59" priority="153">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="dataBar" priority="80">
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9405,20 +10235,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="46" priority="82">
+    <cfRule type="expression" dxfId="58" priority="150">
       <formula>AND($E11&lt;=K$6,ROUNDDOWN(($F11-$E11+1)*$H11,0)+$E11-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="83">
+    <cfRule type="expression" dxfId="57" priority="151">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$6,$F11&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="44" priority="81">
+    <cfRule type="expression" dxfId="56" priority="149">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9432,128 +10262,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="43" priority="78">
+    <cfRule type="expression" dxfId="55" priority="146">
       <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="79">
+    <cfRule type="expression" dxfId="54" priority="147">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="41" priority="77">
+    <cfRule type="expression" dxfId="53" priority="145">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="72">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{27CEB1D0-AA62-4680-BBD2-65C6F5AC016F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="40" priority="74">
-      <formula>AND($E40&lt;=K$6,ROUNDDOWN(($F40-$E40+1)*$H40,0)+$E40-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="75">
-      <formula>AND(NOT(ISBLANK($E40)),$E40&lt;=K$6,$F40&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="38" priority="73">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="37" priority="70">
-      <formula>AND($E43&lt;=K$6,ROUNDDOWN(($F43-$E43+1)*$H43,0)+$E43-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="71">
-      <formula>AND(NOT(ISBLANK($E43)),$E43&lt;=K$6,$F43&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="68">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D11A4D02-EFB2-4149-B3D1-84F489253051}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="35" priority="69">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="34" priority="66">
-      <formula>AND($E44&lt;=K$6,ROUNDDOWN(($F44-$E44+1)*$H44,0)+$E44-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="67">
-      <formula>AND(NOT(ISBLANK($E44)),$E44&lt;=K$6,$F44&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="64">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28B5F909-8EA4-4231-BEAD-353B2F6A304C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="32" priority="65">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="31" priority="62">
-      <formula>AND($E45&lt;=K$6,ROUNDDOWN(($F45-$E45+1)*$H45,0)+$E45-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="63">
-      <formula>AND(NOT(ISBLANK($E45)),$E45&lt;=K$6,$F45&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="60">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CCFE0815-DF6E-4701-8E93-7B27D800D996}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="29" priority="61">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="52">
+  <conditionalFormatting sqref="H49">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9566,13 +10288,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="28" priority="53">
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="52" priority="121">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="50">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9585,13 +10307,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="27" priority="51">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="51" priority="119">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="48">
+  <conditionalFormatting sqref="H53">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9604,13 +10326,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="26" priority="49">
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="50" priority="117">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="44">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9623,13 +10345,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="25" priority="45">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="49" priority="113">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="38">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9642,13 +10364,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="24" priority="39">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="48" priority="107">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="40">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9661,13 +10383,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="23" priority="41">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="47" priority="109">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="34">
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9680,21 +10402,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="22" priority="35">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="46" priority="103">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="21" priority="32">
-      <formula>AND($E50&lt;=K$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="33">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=K$6,$F50&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="dataBar" priority="30">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9707,135 +10421,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="19" priority="31">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="45" priority="99">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{282D5583-2117-461C-B10B-9FA50C934A8D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="18" priority="28">
-      <formula>AND($E55&lt;=K$6,ROUNDDOWN(($F55-$E55+1)*$H55,0)+$E55-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="29">
-      <formula>AND(NOT(ISBLANK($E55)),$E55&lt;=K$6,$F55&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="16" priority="27">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="15" priority="24">
-      <formula>AND($E56&lt;=K$6,ROUNDDOWN(($F56-$E56+1)*$H56,0)+$E56-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="25">
-      <formula>AND(NOT(ISBLANK($E56)),$E56&lt;=K$6,$F56&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3A067372-848C-4342-8C01-B331CB41CB8D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="13" priority="23">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="12" priority="20">
-      <formula>AND($E57&lt;=K$6,ROUNDDOWN(($F57-$E57+1)*$H57,0)+$E57-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="21">
-      <formula>AND(NOT(ISBLANK($E57)),$E57&lt;=K$6,$F57&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5FE49F30-D3C6-415A-B926-A7C75D5D028A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="10" priority="19">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN59">
-    <cfRule type="expression" dxfId="9" priority="16">
-      <formula>AND($E58&lt;=K$6,ROUNDDOWN(($F58-$E58+1)*$H58,0)+$E58-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="17">
-      <formula>AND(NOT(ISBLANK($E58)),$E58&lt;=K$6,$F58&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5A5CF262-9DBE-48C6-B7AC-F55D27BC02FC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN59">
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83FFB626-062D-4139-9178-17E45ABAA2C8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63:H64 H67">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="H70:H71 H74">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9848,21 +10440,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN64 K67:BN67">
-    <cfRule type="expression" dxfId="6" priority="10">
+  <conditionalFormatting sqref="K70:BN71 K74:BN74">
+    <cfRule type="expression" dxfId="44" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND($E65&lt;=K$6,ROUNDDOWN(($F65-$E65+1)*$H65,0)+$E65-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND(NOT(ISBLANK($E65)),$E65&lt;=K$6,$F65&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="H72">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9875,21 +10459,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="K72:BN72">
+    <cfRule type="expression" dxfId="43" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E66&lt;=K$6,ROUNDDOWN(($F66-$E66+1)*$H66,0)+$E66-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK($E66)),$E66&lt;=K$6,$F66&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H73">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9902,7 +10478,445 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="42" priority="70">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F0BB4220-F045-4A7B-B213-4C370DB0FDF3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:BN44">
+    <cfRule type="expression" dxfId="41" priority="67">
+      <formula>AND($E41&lt;=K$6,ROUNDDOWN(($F41-$E41+1)*$H41,0)+$E41-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="68">
+      <formula>AND(NOT(ISBLANK($E41)),$E41&lt;=K$6,$F41&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="39" priority="66">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="63">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D05A7261-1687-42BA-9C7A-BE780C1B9748}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="38" priority="64">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="61">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2E2D14B-B1C9-4C94-B98C-1FF10C49C3CD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="37" priority="62">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="59">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D3C4557-8138-4691-95AC-6B5AC1D3D9FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="36" priority="60">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="35" priority="57">
+      <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="58">
+      <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="dataBar" priority="55">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17272C0C-E1AA-4F4A-AF4F-51740FABDC6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="33" priority="56">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="dataBar" priority="51">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{244463A8-2C09-48DD-9B25-E9B4D3B75AC7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69:BN69">
+    <cfRule type="expression" dxfId="32" priority="52">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{15DECAB3-CA3B-49A0-950D-FD82995C6384}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="31" priority="48">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="dataBar" priority="43">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5BCAEF73-815D-4404-976A-A447BC1FDCEF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="30" priority="44">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="29" priority="39">
+      <formula>AND($E52&lt;=K$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="40">
+      <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=K$6,$F52&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{25FA016E-6803-4E22-9C76-663074DE3501}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="27" priority="38">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="26" priority="35">
+      <formula>AND($E54&lt;=K$6,ROUNDDOWN(($F54-$E54+1)*$H54,0)+$E54-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="36">
+      <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=K$6,$F54&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{93F908A3-1FF8-4D9B-8EFF-60F796C59B73}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="24" priority="34">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="23" priority="31">
+      <formula>AND($E56&lt;=K$6,ROUNDDOWN(($F56-$E56+1)*$H56,0)+$E56-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="32">
+      <formula>AND(NOT(ISBLANK($E56)),$E56&lt;=K$6,$F56&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C9CD4C7A-232F-4EDC-94FD-A5A31C464A29}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="21" priority="30">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="20" priority="27">
+      <formula>AND($E58&lt;=K$6,ROUNDDOWN(($F58-$E58+1)*$H58,0)+$E58-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="28">
+      <formula>AND(NOT(ISBLANK($E58)),$E58&lt;=K$6,$F58&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C40B286B-F49F-4C25-B272-FE733A695459}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="18" priority="26">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>AND($E60&lt;=K$6,ROUNDDOWN(($F60-$E60+1)*$H60,0)+$E60-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>AND(NOT(ISBLANK($E60)),$E60&lt;=K$6,$F60&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{32AAC8E5-7840-4B83-A4A3-3991FE10D0CA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="15" priority="22">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>AND($E62&lt;=K$6,ROUNDDOWN(($F62-$E62+1)*$H62,0)+$E62-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>AND(NOT(ISBLANK($E62)),$E62&lt;=K$6,$F62&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9B939AED-C1EC-4F3B-95B9-6B540A5A31A2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>AND($E64&lt;=K$6,ROUNDDOWN(($F64-$E64+1)*$H64,0)+$E64-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>AND(NOT(ISBLANK($E64)),$E64&lt;=K$6,$F64&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B1A73DCF-EC56-4BEB-A4C3-D6BEDBE7248B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D30E9DB7-6469-4A74-8541-458DA506F362}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND($E45&lt;=K$6,ROUNDDOWN(($F45-$E45+1)*$H45,0)+$E45-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>AND(NOT(ISBLANK($E45)),$E45&lt;=K$6,$F45&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:BN75">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND($E75&lt;=K$6,ROUNDDOWN(($F75-$E75+1)*$H75,0)+$E75-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(NOT(ISBLANK($E75)),$E75&lt;=K$6,$F75&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6F5DCAA9-E51B-41E1-ABED-98B4180687C9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:BN75">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F7D37A11-F81A-43B9-9013-6FC0D07E8F9D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E40&lt;=K$6,ROUNDDOWN(($F40-$E40+1)*$H40,0)+$E40-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E40)),$E40&lt;=K$6,$F40&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -9917,8 +10931,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E26 E41 E60 G26:H26 G41:H41 G60:H61 H37 H28 H42 H62" unlockedFormula="1"/>
-    <ignoredError sqref="A60 A41 A26" formula="1"/>
+    <ignoredError sqref="H9 E26 E46 E65 G26:H26 G46:H46 G65:H66 H37 H28 H67" unlockedFormula="1"/>
+    <ignoredError sqref="A65 A46 A26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -9966,7 +10980,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H26:H28 H8:H10 H37 H41:H42 H13 H46 H60:H62</xm:sqref>
+          <xm:sqref>H26:H28 H8:H10 H37 H13 H46 H65:H67 H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59B11CE9-8D87-48BF-BF74-F1713D212F51}">
@@ -10329,7 +11343,7 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{27CEB1D0-AA62-4680-BBD2-65C6F5AC016F}">
+          <x14:cfRule type="dataBar" id="{C8F6A87F-0895-4951-B02A-EC0CFE8FF46C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10341,10 +11355,190 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D11A4D02-EFB2-4149-B3D1-84F489253051}">
+          <x14:cfRule type="dataBar" id="{F5B88501-27FF-4CC8-84E9-D9610DFAFC9C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2ADCC9E0-CFB5-4DED-9CCD-A8BDE5EE6779}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EE84C52D-6157-4E7F-B877-539A39A2D79F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FC173D3B-A71F-4841-8FEE-9D3D1C1C6AAD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{93820E9B-DFA8-4118-B762-3FD0E66C0003}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{92FA5D0A-F65A-4CF7-AE23-4592944CB9F3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{51520B4E-13B4-4505-9824-AF1555C8DC52}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9A0558DD-38BD-42B8-9B31-1F96890FC709}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H70:H71 H74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{84AB0ABF-A82B-4950-BC7F-9E3DE674CBEE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{19041C87-12FB-4339-B66F-2ED2C9BB9BE4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F0BB4220-F045-4A7B-B213-4C370DB0FDF3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D05A7261-1687-42BA-9C7A-BE780C1B9748}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E2E2D14B-B1C9-4C94-B98C-1FF10C49C3CD}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10359,7 +11553,7 @@
           <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28B5F909-8EA4-4231-BEAD-353B2F6A304C}">
+          <x14:cfRule type="dataBar" id="{4D3C4557-8138-4691-95AC-6B5AC1D3D9FB}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10374,7 +11568,172 @@
           <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CCFE0815-DF6E-4701-8E93-7B27D800D996}">
+          <x14:cfRule type="dataBar" id="{17272C0C-E1AA-4F4A-AF4F-51740FABDC6A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{244463A8-2C09-48DD-9B25-E9B4D3B75AC7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{15DECAB3-CA3B-49A0-950D-FD82995C6384}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H68</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5BCAEF73-815D-4404-976A-A447BC1FDCEF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{25FA016E-6803-4E22-9C76-663074DE3501}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{93F908A3-1FF8-4D9B-8EFF-60F796C59B73}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C9CD4C7A-232F-4EDC-94FD-A5A31C464A29}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C40B286B-F49F-4C25-B272-FE733A695459}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{32AAC8E5-7840-4B83-A4A3-3991FE10D0CA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9B939AED-C1EC-4F3B-95B9-6B540A5A31A2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1A73DCF-EC56-4BEB-A4C3-D6BEDBE7248B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D30E9DB7-6469-4A74-8541-458DA506F362}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10389,7 +11748,7 @@
           <xm:sqref>H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C8F6A87F-0895-4951-B02A-EC0CFE8FF46C}">
+          <x14:cfRule type="dataBar" id="{6F5DCAA9-E51B-41E1-ABED-98B4180687C9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10401,10 +11760,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
+          <xm:sqref>H75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F5B88501-27FF-4CC8-84E9-D9610DFAFC9C}">
+          <x14:cfRule type="dataBar" id="{F7D37A11-F81A-43B9-9013-6FC0D07E8F9D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10416,217 +11775,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2ADCC9E0-CFB5-4DED-9CCD-A8BDE5EE6779}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EE84C52D-6157-4E7F-B877-539A39A2D79F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FC173D3B-A71F-4841-8FEE-9D3D1C1C6AAD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93820E9B-DFA8-4118-B762-3FD0E66C0003}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{92FA5D0A-F65A-4CF7-AE23-4592944CB9F3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51520B4E-13B4-4505-9824-AF1555C8DC52}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{282D5583-2117-461C-B10B-9FA50C934A8D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A067372-848C-4342-8C01-B331CB41CB8D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5FE49F30-D3C6-415A-B926-A7C75D5D028A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A5CF262-9DBE-48C6-B7AC-F55D27BC02FC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83FFB626-062D-4139-9178-17E45ABAA2C8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A0558DD-38BD-42B8-9B31-1F96890FC709}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H63:H64 H67</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84AB0ABF-A82B-4950-BC7F-9E3DE674CBEE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H65</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{19041C87-12FB-4339-B66F-2ED2C9BB9BE4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H66</xm:sqref>
+          <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C988F986-4120-427E-A76F-A21CDE31F70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA93B9CF-13B0-47DC-9315-796EEE5AAC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,9 +565,6 @@
     <t>Draft of how the forms will look like</t>
   </si>
   <si>
-    <t>Tech review</t>
-  </si>
-  <si>
     <t xml:space="preserve">Risk management </t>
   </si>
   <si>
@@ -638,6 +635,9 @@
   </si>
   <si>
     <t xml:space="preserve">Draw sequence diagram </t>
+  </si>
+  <si>
+    <t>Technology review</t>
   </si>
 </sst>
 </file>
@@ -1620,241 +1620,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <border>
         <left style="thin">
@@ -1930,18 +1696,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1992,18 +1756,112 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2308,20 +2166,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2663,7 +2507,7 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>11853</xdr:rowOff>
+      <xdr:rowOff>78528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3058,7 +2902,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3915,32 +3759,32 @@
     </row>
     <row r="9" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="str">
-        <f t="shared" ref="A9:A13" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="67">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="F9" s="69">
-        <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
+        <f t="shared" ref="F9" si="5">IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
         <v>44461</v>
       </c>
       <c r="G9" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="26">
         <v>1</v>
       </c>
       <c r="I9" s="27">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" ref="I9" si="6">IF(OR(F9=0,E9=0)," - ",NETWORKDAYS(E9,F9))</f>
+        <v>2</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="43"/>
@@ -4000,13 +3844,13 @@
       <c r="BM9" s="43"/>
       <c r="BN9" s="43"/>
     </row>
-    <row r="10" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>27</v>
+        <f t="shared" ref="A10:A14" si="7">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.2</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>17</v>
@@ -4016,7 +3860,7 @@
         <v>44459</v>
       </c>
       <c r="F10" s="69">
-        <f t="shared" ref="F10:F37" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f>IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>44461</v>
       </c>
       <c r="G10" s="25">
@@ -4087,34 +3931,34 @@
       <c r="BM10" s="43"/>
       <c r="BN10" s="43"/>
     </row>
-    <row r="11" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>39</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.2.1</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="67">
-        <v>44462</v>
+        <v>44459</v>
       </c>
       <c r="F11" s="69">
-        <f>IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
-        <v>44463</v>
+        <f t="shared" ref="F11:F37" si="8">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <v>44461</v>
       </c>
       <c r="G11" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="27">
-        <f t="shared" ref="I11" si="7">IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="43"/>
@@ -4176,32 +4020,32 @@
     </row>
     <row r="12" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="67">
-        <v>44463</v>
+        <v>44462</v>
       </c>
       <c r="F12" s="69">
         <f>IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
         <v>44463</v>
       </c>
       <c r="G12" s="25">
+        <v>2</v>
+      </c>
+      <c r="H12" s="26">
         <v>1</v>
       </c>
-      <c r="H12" s="26">
-        <v>0</v>
-      </c>
       <c r="I12" s="27">
-        <f t="shared" ref="I12" si="8">IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
-        <v>1</v>
+        <f t="shared" ref="I12" si="9">IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
+        <v>2</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="43"/>
@@ -4261,34 +4105,34 @@
       <c r="BM12" s="43"/>
       <c r="BN12" s="43"/>
     </row>
-    <row r="13" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="67">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="F13" s="69">
-        <f t="shared" si="6"/>
-        <v>44468</v>
+        <f>IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
+        <v>44463</v>
       </c>
       <c r="G13" s="25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="27">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" ref="I13" si="10">IF(OR(F13=0,E13=0)," - ",NETWORKDAYS(E13,F13))</f>
+        <v>1</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="43"/>
@@ -4348,13 +4192,13 @@
       <c r="BM13" s="43"/>
       <c r="BN13" s="43"/>
     </row>
-    <row r="14" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="str">
-        <f t="shared" ref="A14:A21" si="9">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.4.1</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>17</v>
@@ -4364,18 +4208,18 @@
         <v>44464</v>
       </c>
       <c r="F14" s="69">
-        <f t="shared" ref="F14:F15" si="10">IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
-        <v>44464</v>
+        <f t="shared" si="8"/>
+        <v>44468</v>
       </c>
       <c r="G14" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" s="26">
         <v>0</v>
       </c>
       <c r="I14" s="27">
-        <f t="shared" ref="I14:I15" si="11">IF(OR(F14=0,E14=0)," - ",NETWORKDAYS(E14,F14))</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="43"/>
@@ -4437,11 +4281,11 @@
     </row>
     <row r="15" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>1.4.2</v>
+        <f t="shared" ref="A15:A22" si="11">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.5.1</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>17</v>
@@ -4451,7 +4295,7 @@
         <v>44464</v>
       </c>
       <c r="F15" s="69">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F15:F16" si="12">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
         <v>44464</v>
       </c>
       <c r="G15" s="25">
@@ -4461,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I15:I16" si="13">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
         <v>0</v>
       </c>
       <c r="J15" s="40"/>
@@ -4524,22 +4368,22 @@
     </row>
     <row r="16" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>1.4.3</v>
+        <f t="shared" si="11"/>
+        <v>1.5.2</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="67">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="F16" s="69">
-        <f t="shared" ref="F16:F22" si="12">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
-        <v>44465</v>
+        <f t="shared" si="12"/>
+        <v>44464</v>
       </c>
       <c r="G16" s="25">
         <v>1</v>
@@ -4548,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27">
-        <f t="shared" ref="I16:I22" si="13">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J16" s="40"/>
@@ -4609,13 +4453,13 @@
       <c r="BM16" s="43"/>
       <c r="BN16" s="43"/>
     </row>
-    <row r="17" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>1.4.4</v>
+        <f t="shared" si="11"/>
+        <v>1.5.3</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>17</v>
@@ -4625,7 +4469,7 @@
         <v>44465</v>
       </c>
       <c r="F17" s="69">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F17:F23" si="14">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
         <v>44465</v>
       </c>
       <c r="G17" s="25">
@@ -4635,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I17:I23" si="15">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
         <v>0</v>
       </c>
       <c r="J17" s="40"/>
@@ -4696,24 +4540,24 @@
       <c r="BM17" s="43"/>
       <c r="BN17" s="43"/>
     </row>
-    <row r="18" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>1.4.5</v>
+        <f t="shared" si="11"/>
+        <v>1.5.4</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="67">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="F18" s="69">
-        <f t="shared" si="12"/>
-        <v>44466</v>
+        <f t="shared" si="14"/>
+        <v>44465</v>
       </c>
       <c r="G18" s="25">
         <v>1</v>
@@ -4722,8 +4566,8 @@
         <v>0</v>
       </c>
       <c r="I18" s="27">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="43"/>
@@ -4785,22 +4629,22 @@
     </row>
     <row r="19" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>1.4.6</v>
+        <f t="shared" si="11"/>
+        <v>1.5.5</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="67">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="F19" s="69">
-        <f t="shared" si="12"/>
-        <v>44467</v>
+        <f t="shared" si="14"/>
+        <v>44466</v>
       </c>
       <c r="G19" s="25">
         <v>1</v>
@@ -4809,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J19" s="40"/>
@@ -4870,24 +4714,24 @@
       <c r="BM19" s="43"/>
       <c r="BN19" s="43"/>
     </row>
-    <row r="20" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>1.4.7</v>
+        <f t="shared" si="11"/>
+        <v>1.5.6</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="62"/>
       <c r="E20" s="67">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="F20" s="69">
-        <f t="shared" si="12"/>
-        <v>44468</v>
+        <f t="shared" si="14"/>
+        <v>44467</v>
       </c>
       <c r="G20" s="25">
         <v>1</v>
@@ -4896,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J20" s="40"/>
@@ -4959,11 +4803,11 @@
     </row>
     <row r="21" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>1.4.8</v>
+        <f t="shared" si="11"/>
+        <v>1.5.7</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>17</v>
@@ -4973,7 +4817,7 @@
         <v>44468</v>
       </c>
       <c r="F21" s="69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44468</v>
       </c>
       <c r="G21" s="25">
@@ -4983,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J21" s="40"/>
@@ -5046,32 +4890,32 @@
     </row>
     <row r="22" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="str">
-        <f t="shared" ref="A22:A25" si="14">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.5</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>31</v>
+        <f t="shared" si="11"/>
+        <v>1.5.8</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>25</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="67">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="F22" s="69">
-        <f t="shared" si="12"/>
-        <v>44470</v>
+        <f t="shared" si="14"/>
+        <v>44468</v>
       </c>
       <c r="G22" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="26">
         <v>0</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="J22" s="40"/>
       <c r="K22" s="43"/>
@@ -5133,22 +4977,22 @@
     </row>
     <row r="23" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A23:A26" si="16">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.6</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="67">
+        <v>44469</v>
+      </c>
+      <c r="F23" s="69">
+        <f t="shared" si="14"/>
         <v>44470</v>
-      </c>
-      <c r="F23" s="69">
-        <f t="shared" ref="F23" si="15">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
-        <v>44471</v>
       </c>
       <c r="G23" s="25">
         <v>2</v>
@@ -5157,8 +5001,8 @@
         <v>0</v>
       </c>
       <c r="I23" s="27">
-        <f t="shared" ref="I23" si="16">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="43"/>
@@ -5220,32 +5064,32 @@
     </row>
     <row r="24" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.7</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="62"/>
       <c r="E24" s="67">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="F24" s="69">
         <f t="shared" ref="F24" si="17">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
         <v>44471</v>
       </c>
       <c r="G24" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="26">
         <v>0</v>
       </c>
       <c r="I24" s="27">
         <f t="shared" ref="I24" si="18">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="40"/>
       <c r="K24" s="43"/>
@@ -5307,32 +5151,32 @@
     </row>
     <row r="25" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.8</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="67">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="F25" s="69">
         <f t="shared" ref="F25" si="19">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
-        <v>44474</v>
+        <v>44471</v>
       </c>
       <c r="G25" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="26">
         <v>0</v>
       </c>
       <c r="I25" s="27">
         <f t="shared" ref="I25" si="20">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="43"/>
@@ -5392,178 +5236,178 @@
       <c r="BM25" s="43"/>
       <c r="BN25" s="43"/>
     </row>
-    <row r="26" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="str">
+    <row r="26" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>1.9</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="67">
+        <v>44472</v>
+      </c>
+      <c r="F26" s="69">
+        <f t="shared" ref="F26" si="21">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>44474</v>
+      </c>
+      <c r="G26" s="25">
+        <v>3</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" ref="I26" si="22">IF(OR(F26=0,E26=0)," - ",NETWORKDAYS(E26,F26))</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43"/>
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="43"/>
+      <c r="AS26" s="43"/>
+      <c r="AT26" s="43"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="43"/>
+      <c r="AW26" s="43"/>
+      <c r="AX26" s="43"/>
+      <c r="AY26" s="43"/>
+      <c r="AZ26" s="43"/>
+      <c r="BA26" s="43"/>
+      <c r="BB26" s="43"/>
+      <c r="BC26" s="43"/>
+      <c r="BD26" s="43"/>
+      <c r="BE26" s="43"/>
+      <c r="BF26" s="43"/>
+      <c r="BG26" s="43"/>
+      <c r="BH26" s="43"/>
+      <c r="BI26" s="43"/>
+      <c r="BJ26" s="43"/>
+      <c r="BK26" s="43"/>
+      <c r="BL26" s="43"/>
+      <c r="BM26" s="43"/>
+      <c r="BN26" s="43"/>
+    </row>
+    <row r="27" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68" t="str">
-        <f t="shared" si="6"/>
+      <c r="B27" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22" t="str">
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="44"/>
-      <c r="BA26" s="44"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="44"/>
-      <c r="BD26" s="44"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="44"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="44"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="44"/>
-      <c r="BK26" s="44"/>
-      <c r="BL26" s="44"/>
-      <c r="BM26" s="44"/>
-      <c r="BN26" s="44"/>
-    </row>
-    <row r="27" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="67">
-        <v>44460</v>
-      </c>
-      <c r="F27" s="69">
-        <f t="shared" si="6"/>
-        <v>44461</v>
-      </c>
-      <c r="G27" s="25">
-        <v>2</v>
-      </c>
-      <c r="H27" s="26">
-        <v>0</v>
-      </c>
-      <c r="I27" s="27">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="43"/>
-      <c r="AJ27" s="43"/>
-      <c r="AK27" s="43"/>
-      <c r="AL27" s="43"/>
-      <c r="AM27" s="43"/>
-      <c r="AN27" s="43"/>
-      <c r="AO27" s="43"/>
-      <c r="AP27" s="43"/>
-      <c r="AQ27" s="43"/>
-      <c r="AR27" s="43"/>
-      <c r="AS27" s="43"/>
-      <c r="AT27" s="43"/>
-      <c r="AU27" s="43"/>
-      <c r="AV27" s="43"/>
-      <c r="AW27" s="43"/>
-      <c r="AX27" s="43"/>
-      <c r="AY27" s="43"/>
-      <c r="AZ27" s="43"/>
-      <c r="BA27" s="43"/>
-      <c r="BB27" s="43"/>
-      <c r="BC27" s="43"/>
-      <c r="BD27" s="43"/>
-      <c r="BE27" s="43"/>
-      <c r="BF27" s="43"/>
-      <c r="BG27" s="43"/>
-      <c r="BH27" s="43"/>
-      <c r="BI27" s="43"/>
-      <c r="BJ27" s="43"/>
-      <c r="BK27" s="43"/>
-      <c r="BL27" s="43"/>
-      <c r="BM27" s="43"/>
-      <c r="BN27" s="43"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="44"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="44"/>
+      <c r="BC27" s="44"/>
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="44"/>
+      <c r="BF27" s="44"/>
+      <c r="BG27" s="44"/>
+      <c r="BH27" s="44"/>
+      <c r="BI27" s="44"/>
+      <c r="BJ27" s="44"/>
+      <c r="BK27" s="44"/>
+      <c r="BL27" s="44"/>
+      <c r="BM27" s="44"/>
+      <c r="BN27" s="44"/>
     </row>
     <row r="28" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>17</v>
@@ -5573,7 +5417,7 @@
         <v>44473</v>
       </c>
       <c r="F28" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44475</v>
       </c>
       <c r="G28" s="25">
@@ -5647,7 +5491,7 @@
     <row r="29" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.1</v>
+        <v>2.1.1</v>
       </c>
       <c r="B29" s="63" t="s">
         <v>38</v>
@@ -5660,7 +5504,7 @@
         <v>44473</v>
       </c>
       <c r="F29" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44473</v>
       </c>
       <c r="G29" s="25">
@@ -5733,8 +5577,8 @@
     </row>
     <row r="30" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
-        <f t="shared" ref="A30:A36" si="21">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>2.2.1.1</v>
+        <f t="shared" ref="A30:A36" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>2.1.1.1</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>18</v>
@@ -5747,7 +5591,7 @@
         <v>44474</v>
       </c>
       <c r="F30" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44474</v>
       </c>
       <c r="G30" s="25">
@@ -5820,8 +5664,8 @@
     </row>
     <row r="31" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.2.1.2</v>
+        <f t="shared" si="23"/>
+        <v>2.1.1.2</v>
       </c>
       <c r="B31" s="63" t="s">
         <v>19</v>
@@ -5834,7 +5678,7 @@
         <v>44474</v>
       </c>
       <c r="F31" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44474</v>
       </c>
       <c r="G31" s="25">
@@ -5907,8 +5751,8 @@
     </row>
     <row r="32" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.2.1.3</v>
+        <f t="shared" si="23"/>
+        <v>2.1.1.3</v>
       </c>
       <c r="B32" s="63" t="s">
         <v>20</v>
@@ -5921,7 +5765,7 @@
         <v>44474</v>
       </c>
       <c r="F32" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44474</v>
       </c>
       <c r="G32" s="25">
@@ -5994,8 +5838,8 @@
     </row>
     <row r="33" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.2.1.4</v>
+        <f t="shared" si="23"/>
+        <v>2.1.1.4</v>
       </c>
       <c r="B33" s="63" t="s">
         <v>22</v>
@@ -6008,7 +5852,7 @@
         <v>44475</v>
       </c>
       <c r="F33" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44475</v>
       </c>
       <c r="G33" s="25">
@@ -6081,8 +5925,8 @@
     </row>
     <row r="34" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.2.1.5</v>
+        <f t="shared" si="23"/>
+        <v>2.1.1.5</v>
       </c>
       <c r="B34" s="63" t="s">
         <v>23</v>
@@ -6095,7 +5939,7 @@
         <v>44475</v>
       </c>
       <c r="F34" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44475</v>
       </c>
       <c r="G34" s="25">
@@ -6168,8 +6012,8 @@
     </row>
     <row r="35" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.2.1.6</v>
+        <f t="shared" si="23"/>
+        <v>2.1.1.6</v>
       </c>
       <c r="B35" s="63" t="s">
         <v>24</v>
@@ -6182,7 +6026,7 @@
         <v>44475</v>
       </c>
       <c r="F35" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44475</v>
       </c>
       <c r="G35" s="25">
@@ -6255,8 +6099,8 @@
     </row>
     <row r="36" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.2.1.7</v>
+        <f t="shared" si="23"/>
+        <v>2.1.1.7</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>34</v>
@@ -6269,7 +6113,7 @@
         <v>44475</v>
       </c>
       <c r="F36" s="69">
-        <f t="shared" ref="F36" si="22">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <f t="shared" ref="F36" si="24">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
         <v>44475</v>
       </c>
       <c r="G36" s="25">
@@ -6279,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="27">
-        <f t="shared" ref="I36" si="23">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
+        <f t="shared" ref="I36" si="25">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
         <v>1</v>
       </c>
       <c r="J36" s="40"/>
@@ -6343,7 +6187,7 @@
     <row r="37" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="B37" s="61" t="s">
         <v>35</v>
@@ -6356,7 +6200,7 @@
         <v>44475</v>
       </c>
       <c r="F37" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44475</v>
       </c>
       <c r="G37" s="25">
@@ -6430,7 +6274,7 @@
     <row r="38" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.3.1</v>
+        <v>2.2.1</v>
       </c>
       <c r="B38" s="63" t="s">
         <v>36</v>
@@ -6443,7 +6287,7 @@
         <v>44475</v>
       </c>
       <c r="F38" s="69">
-        <f t="shared" ref="F38" si="24">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
+        <f t="shared" ref="F38" si="26">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
         <v>44475</v>
       </c>
       <c r="G38" s="25">
@@ -6453,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="27">
-        <f t="shared" ref="I38" si="25">IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
+        <f t="shared" ref="I38" si="27">IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
         <v>1</v>
       </c>
       <c r="J38" s="40"/>
@@ -6517,7 +6361,7 @@
     <row r="39" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.3.2</v>
+        <v>2.2.2</v>
       </c>
       <c r="B39" s="63" t="s">
         <v>37</v>
@@ -6530,7 +6374,7 @@
         <v>44475</v>
       </c>
       <c r="F39" s="69">
-        <f t="shared" ref="F39" si="26">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <f t="shared" ref="F39" si="28">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
         <v>44475</v>
       </c>
       <c r="G39" s="25">
@@ -6540,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="27">
-        <f t="shared" ref="I39" si="27">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
+        <f t="shared" ref="I39" si="29">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
         <v>1</v>
       </c>
       <c r="J39" s="40"/>
@@ -6604,10 +6448,10 @@
     <row r="40" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>17</v>
@@ -6691,10 +6535,10 @@
     <row r="41" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>17</v>
@@ -6778,10 +6622,10 @@
     <row r="42" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.5.1</v>
+        <v>2.4.1</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>17</v>
@@ -6791,7 +6635,7 @@
         <v>44481</v>
       </c>
       <c r="F42" s="69">
-        <f t="shared" ref="F42:F44" si="28">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <f t="shared" ref="F42:F44" si="30">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
         <v>44481</v>
       </c>
       <c r="G42" s="25">
@@ -6801,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="27">
-        <f t="shared" ref="I42:I44" si="29">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+        <f t="shared" ref="I42:I44" si="31">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
         <v>1</v>
       </c>
       <c r="J42" s="40"/>
@@ -6865,10 +6709,10 @@
     <row r="43" spans="1:66" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.5.2</v>
+        <v>2.4.2</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>17</v>
@@ -6878,7 +6722,7 @@
         <v>44482</v>
       </c>
       <c r="F43" s="69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>44482</v>
       </c>
       <c r="G43" s="25">
@@ -6888,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J43" s="40"/>
@@ -6952,10 +6796,10 @@
     <row r="44" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.5.3</v>
+        <v>2.4.3</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>17</v>
@@ -6965,7 +6809,7 @@
         <v>44483</v>
       </c>
       <c r="F44" s="69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>44484</v>
       </c>
       <c r="G44" s="25">
@@ -6975,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="J44" s="40"/>
@@ -7039,10 +6883,10 @@
     <row r="45" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>17</v>
@@ -7129,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="68"/>
@@ -7207,7 +7051,7 @@
         <v>3.1</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>17</v>
@@ -7217,7 +7061,7 @@
         <v>44484</v>
       </c>
       <c r="F47" s="69">
-        <f t="shared" ref="F47" si="30">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
+        <f t="shared" ref="F47" si="32">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
         <v>44484</v>
       </c>
       <c r="G47" s="25">
@@ -7227,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="27">
-        <f t="shared" ref="I47" si="31">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
+        <f t="shared" ref="I47" si="33">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
         <v>1</v>
       </c>
       <c r="J47" s="40"/>
@@ -7294,7 +7138,7 @@
         <v>3.2</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>17</v>
@@ -7377,7 +7221,7 @@
     </row>
     <row r="49" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="str">
-        <f t="shared" ref="A49:A63" si="32">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A49:A63" si="34">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.1</v>
       </c>
       <c r="B49" s="63" t="s">
@@ -7391,7 +7235,7 @@
         <v>44484</v>
       </c>
       <c r="F49" s="69">
-        <f t="shared" ref="F49:F64" si="33">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <f t="shared" ref="F49:F64" si="35">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
         <v>44485</v>
       </c>
       <c r="G49" s="25">
@@ -7401,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="27">
-        <f t="shared" ref="I49:I64" si="34">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
+        <f t="shared" ref="I49:I64" si="36">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
         <v>1</v>
       </c>
       <c r="J49" s="40"/>
@@ -7464,11 +7308,11 @@
     </row>
     <row r="50" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="str">
-        <f t="shared" ref="A50:A64" si="35">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <f t="shared" ref="A50:A64" si="37">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.2.1.1</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>17</v>
@@ -7478,7 +7322,7 @@
         <v>44485</v>
       </c>
       <c r="F50" s="69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44485</v>
       </c>
       <c r="G50" s="25">
@@ -7488,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J50" s="40"/>
@@ -7551,7 +7395,7 @@
     </row>
     <row r="51" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.2.2</v>
       </c>
       <c r="B51" s="63" t="s">
@@ -7575,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J51" s="40"/>
@@ -7638,11 +7482,11 @@
     </row>
     <row r="52" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.2.2.1</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>17</v>
@@ -7652,7 +7496,7 @@
         <v>44486</v>
       </c>
       <c r="F52" s="69">
-        <f t="shared" ref="F52" si="36">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
+        <f t="shared" ref="F52" si="38">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
         <v>44486</v>
       </c>
       <c r="G52" s="25">
@@ -7662,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="27">
-        <f t="shared" ref="I52" si="37">IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
+        <f t="shared" ref="I52" si="39">IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
         <v>0</v>
       </c>
       <c r="J52" s="40"/>
@@ -7725,7 +7569,7 @@
     </row>
     <row r="53" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.2.3</v>
       </c>
       <c r="B53" s="63" t="s">
@@ -7739,7 +7583,7 @@
         <v>44486</v>
       </c>
       <c r="F53" s="69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44487</v>
       </c>
       <c r="G53" s="25">
@@ -7749,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J53" s="40"/>
@@ -7812,11 +7656,11 @@
     </row>
     <row r="54" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.2.3.1</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>17</v>
@@ -7826,7 +7670,7 @@
         <v>44487</v>
       </c>
       <c r="F54" s="69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44487</v>
       </c>
       <c r="G54" s="25">
@@ -7836,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J54" s="40"/>
@@ -7899,7 +7743,7 @@
     </row>
     <row r="55" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.2.4</v>
       </c>
       <c r="B55" s="63" t="s">
@@ -7913,7 +7757,7 @@
         <v>44487</v>
       </c>
       <c r="F55" s="69">
-        <f t="shared" ref="F55:F56" si="38">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+        <f t="shared" ref="F55:F56" si="40">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
         <v>44487</v>
       </c>
       <c r="G55" s="25">
@@ -7923,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="27">
-        <f t="shared" ref="I55:I56" si="39">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
+        <f t="shared" ref="I55:I56" si="41">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
         <v>1</v>
       </c>
       <c r="J55" s="40"/>
@@ -7986,11 +7830,11 @@
     </row>
     <row r="56" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.2.4.1</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>17</v>
@@ -8000,7 +7844,7 @@
         <v>44487</v>
       </c>
       <c r="F56" s="69">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>44487</v>
       </c>
       <c r="G56" s="25">
@@ -8010,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="27">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J56" s="40"/>
@@ -8073,7 +7917,7 @@
     </row>
     <row r="57" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.2.5</v>
       </c>
       <c r="B57" s="63" t="s">
@@ -8087,7 +7931,7 @@
         <v>44488</v>
       </c>
       <c r="F57" s="69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44490</v>
       </c>
       <c r="G57" s="25">
@@ -8097,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="J57" s="40"/>
@@ -8160,11 +8004,11 @@
     </row>
     <row r="58" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.2.5.1</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>17</v>
@@ -8174,7 +8018,7 @@
         <v>44490</v>
       </c>
       <c r="F58" s="69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44490</v>
       </c>
       <c r="G58" s="25">
@@ -8184,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J58" s="40"/>
@@ -8247,7 +8091,7 @@
     </row>
     <row r="59" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.2.6</v>
       </c>
       <c r="B59" s="63" t="s">
@@ -8261,7 +8105,7 @@
         <v>44490</v>
       </c>
       <c r="F59" s="69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44491</v>
       </c>
       <c r="G59" s="25">
@@ -8271,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="J59" s="40"/>
@@ -8334,11 +8178,11 @@
     </row>
     <row r="60" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.2.6.1</v>
       </c>
       <c r="B60" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>17</v>
@@ -8348,7 +8192,7 @@
         <v>44491</v>
       </c>
       <c r="F60" s="69">
-        <f t="shared" ref="F60" si="40">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
+        <f t="shared" ref="F60" si="42">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
         <v>44491</v>
       </c>
       <c r="G60" s="25">
@@ -8358,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="27">
-        <f t="shared" ref="I60" si="41">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
+        <f t="shared" ref="I60" si="43">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
         <v>1</v>
       </c>
       <c r="J60" s="40"/>
@@ -8421,7 +8265,7 @@
     </row>
     <row r="61" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.2.7</v>
       </c>
       <c r="B61" s="63" t="s">
@@ -8435,7 +8279,7 @@
         <v>44492</v>
       </c>
       <c r="F61" s="69">
-        <f t="shared" ref="F61:F62" si="42">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <f t="shared" ref="F61:F62" si="44">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
         <v>44494</v>
       </c>
       <c r="G61" s="25">
@@ -8445,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="27">
-        <f t="shared" ref="I61:I62" si="43">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
+        <f t="shared" ref="I61:I62" si="45">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
         <v>1</v>
       </c>
       <c r="J61" s="40"/>
@@ -8508,11 +8352,11 @@
     </row>
     <row r="62" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.2.7.1</v>
       </c>
       <c r="B62" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>17</v>
@@ -8522,7 +8366,7 @@
         <v>44494</v>
       </c>
       <c r="F62" s="69">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>44494</v>
       </c>
       <c r="G62" s="25">
@@ -8532,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J62" s="40"/>
@@ -8595,7 +8439,7 @@
     </row>
     <row r="63" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.2.8</v>
       </c>
       <c r="B63" s="63" t="s">
@@ -8609,7 +8453,7 @@
         <v>44495</v>
       </c>
       <c r="F63" s="69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44497</v>
       </c>
       <c r="G63" s="25">
@@ -8619,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="J63" s="40"/>
@@ -8682,11 +8526,11 @@
     </row>
     <row r="64" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.2.8.1</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>17</v>
@@ -8696,7 +8540,7 @@
         <v>44497</v>
       </c>
       <c r="F64" s="69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44497</v>
       </c>
       <c r="G64" s="25">
@@ -8706,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J64" s="40"/>
@@ -8773,18 +8617,18 @@
         <v>4</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="68"/>
       <c r="F65" s="68" t="str">
-        <f>IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
+        <f t="shared" ref="F65:F71" si="46">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="21"/>
       <c r="I65" s="22" t="str">
-        <f>IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
+        <f t="shared" ref="I65:I71" si="47">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J65" s="41"/>
@@ -8851,7 +8695,7 @@
         <v>4.1</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>17</v>
@@ -8861,7 +8705,7 @@
         <v>44501</v>
       </c>
       <c r="F66" s="69">
-        <f>IF(ISBLANK(E66)," - ",IF(G66=0,E66,E66+G66-1))</f>
+        <f t="shared" si="46"/>
         <v>44501</v>
       </c>
       <c r="G66" s="25">
@@ -8871,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="27">
-        <f>IF(OR(F66=0,E66=0)," - ",NETWORKDAYS(E66,F66))</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="J66" s="40"/>
@@ -8938,7 +8782,7 @@
         <v>4.2</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>17</v>
@@ -8948,7 +8792,7 @@
         <v>44502</v>
       </c>
       <c r="F67" s="69">
-        <f>IF(ISBLANK(E67)," - ",IF(G67=0,E67,E67+G67-1))</f>
+        <f t="shared" si="46"/>
         <v>44503</v>
       </c>
       <c r="G67" s="25">
@@ -8958,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="27">
-        <f>IF(OR(F67=0,E67=0)," - ",NETWORKDAYS(E67,F67))</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="J67" s="40"/>
@@ -9025,7 +8869,7 @@
         <v>4.3</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>17</v>
@@ -9035,7 +8879,7 @@
         <v>44503</v>
       </c>
       <c r="F68" s="69">
-        <f>IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
+        <f t="shared" si="46"/>
         <v>44504</v>
       </c>
       <c r="G68" s="25">
@@ -9045,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="27">
-        <f>IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="J68" s="40"/>
@@ -9112,7 +8956,7 @@
         <v>4.4</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>17</v>
@@ -9122,7 +8966,7 @@
         <v>44505</v>
       </c>
       <c r="F69" s="69">
-        <f>IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
+        <f t="shared" si="46"/>
         <v>44506</v>
       </c>
       <c r="G69" s="25">
@@ -9132,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="27">
-        <f>IF(OR(F69=0,E69=0)," - ",NETWORKDAYS(E69,F69))</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="J69" s="40"/>
@@ -9199,18 +9043,18 @@
         <v>5</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="68"/>
       <c r="F70" s="68" t="str">
-        <f>IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="21"/>
       <c r="I70" s="22" t="str">
-        <f>IF(OR(F70=0,E70=0)," - ",NETWORKDAYS(E70,F70))</f>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J70" s="41"/>
@@ -9277,7 +9121,7 @@
         <v>5.1</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>17</v>
@@ -9287,7 +9131,7 @@
         <v>44505</v>
       </c>
       <c r="F71" s="69">
-        <f>IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
+        <f t="shared" si="46"/>
         <v>44508</v>
       </c>
       <c r="G71" s="25">
@@ -9297,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="27">
-        <f>IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="J71" s="40"/>
@@ -9364,7 +9208,7 @@
         <v>5.1.1</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>17</v>
@@ -9374,7 +9218,7 @@
         <v>44505</v>
       </c>
       <c r="F72" s="69">
-        <f t="shared" ref="F72:F73" si="44">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
+        <f t="shared" ref="F72:F73" si="48">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
         <v>44506</v>
       </c>
       <c r="G72" s="25">
@@ -9384,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="27">
-        <f t="shared" ref="I72:I73" si="45">IF(OR(F72=0,E72=0)," - ",NETWORKDAYS(E72,F72))</f>
+        <f t="shared" ref="I72:I73" si="49">IF(OR(F72=0,E72=0)," - ",NETWORKDAYS(E72,F72))</f>
         <v>1</v>
       </c>
       <c r="J72" s="40"/>
@@ -9451,7 +9295,7 @@
         <v>5.1.2</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>17</v>
@@ -9461,7 +9305,7 @@
         <v>44507</v>
       </c>
       <c r="F73" s="69">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>44508</v>
       </c>
       <c r="G73" s="25">
@@ -9471,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="J73" s="40"/>
@@ -9538,7 +9382,7 @@
         <v>5.2</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>17</v>
@@ -9625,7 +9469,7 @@
         <v>5.3</v>
       </c>
       <c r="B75" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>17</v>
@@ -9730,8 +9574,8 @@
     <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H26:H28 H8:H10 H37 H13 H46 H65:H67 H48">
-    <cfRule type="dataBar" priority="241">
+  <conditionalFormatting sqref="H8 H37 H14 H46 H65:H67 H48 H10:H11 H27:H28">
+    <cfRule type="dataBar" priority="245">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9745,25 +9589,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="94" priority="284">
+    <cfRule type="expression" dxfId="71" priority="288">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN10 K26:BN28 K13:BN21 K30:BN39 K46:BN46 K48:BN51 K53:BN53 K55:BN55 K57:BN57 K59:BN59 K61:BN61 K63:BN63 K65:BN74">
-    <cfRule type="expression" dxfId="93" priority="287">
+  <conditionalFormatting sqref="K8:BN8 K14:BN22 K10:BN11 K27:BN75">
+    <cfRule type="expression" dxfId="70" priority="291">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="288">
+    <cfRule type="expression" dxfId="69" priority="292">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:BN28 K6:BN10 K37:BN37 K13:BN13 K46:BN46 K65:BN67 K48:BN48">
-    <cfRule type="expression" dxfId="91" priority="247">
+  <conditionalFormatting sqref="K6:BN8 K37:BN37 K14:BN14 K46:BN46 K65:BN67 K48:BN48 K10:BN11 K27:BN28">
+    <cfRule type="expression" dxfId="68" priority="251">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="236">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9776,13 +9620,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="90" priority="237">
+  <conditionalFormatting sqref="K15:BN15">
+    <cfRule type="expression" dxfId="67" priority="241">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="232">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9795,13 +9639,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="89" priority="233">
+  <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="66" priority="237">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="228">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="dataBar" priority="232">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9814,13 +9658,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="88" priority="229">
+  <conditionalFormatting sqref="K17:BN17">
+    <cfRule type="expression" dxfId="65" priority="233">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="224">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9833,13 +9677,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="87" priority="225">
+  <conditionalFormatting sqref="K18:BN18">
+    <cfRule type="expression" dxfId="64" priority="229">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="220">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9852,13 +9696,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="86" priority="221">
+  <conditionalFormatting sqref="K19:BN19">
+    <cfRule type="expression" dxfId="63" priority="225">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="216">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="dataBar" priority="220">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9871,13 +9715,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="85" priority="217">
+  <conditionalFormatting sqref="K20:BN20">
+    <cfRule type="expression" dxfId="62" priority="221">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="204">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="dataBar" priority="208">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9890,13 +9734,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="84" priority="205">
+  <conditionalFormatting sqref="K22:BN22">
+    <cfRule type="expression" dxfId="61" priority="209">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="208">
+  <conditionalFormatting sqref="H21">
+    <cfRule type="dataBar" priority="212">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9909,13 +9753,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="83" priority="209">
+  <conditionalFormatting sqref="K21:BN21">
+    <cfRule type="expression" dxfId="60" priority="213">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="196">
+  <conditionalFormatting sqref="H23">
+    <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9928,21 +9772,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="82" priority="198">
-      <formula>AND($E22&lt;=K$6,ROUNDDOWN(($F22-$E22+1)*$H22,0)+$E22-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="199">
-      <formula>AND(NOT(ISBLANK($E22)),$E22&lt;=K$6,$F22&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="80" priority="197">
+  <conditionalFormatting sqref="K23:BN23">
+    <cfRule type="expression" dxfId="59" priority="202">
+      <formula>AND($E23&lt;=K$6,ROUNDDOWN(($F23-$E23+1)*$H23,0)+$E23-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="203">
+      <formula>AND(NOT(ISBLANK($E23)),$E23&lt;=K$6,$F23&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:BN23">
+    <cfRule type="expression" dxfId="57" priority="201">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="192">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="dataBar" priority="196">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9955,21 +9799,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="79" priority="194">
-      <formula>AND($E23&lt;=K$6,ROUNDDOWN(($F23-$E23+1)*$H23,0)+$E23-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="195">
-      <formula>AND(NOT(ISBLANK($E23)),$E23&lt;=K$6,$F23&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="77" priority="193">
+  <conditionalFormatting sqref="K24:BN24">
+    <cfRule type="expression" dxfId="56" priority="198">
+      <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="199">
+      <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:BN24">
+    <cfRule type="expression" dxfId="54" priority="197">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="188">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9982,21 +9826,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="76" priority="190">
-      <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="191">
-      <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="74" priority="189">
+  <conditionalFormatting sqref="K25:BN25">
+    <cfRule type="expression" dxfId="53" priority="194">
+      <formula>AND($E25&lt;=K$6,ROUNDDOWN(($F25-$E25+1)*$H25,0)+$E25-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="195">
+      <formula>AND(NOT(ISBLANK($E25)),$E25&lt;=K$6,$F25&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:BN25">
+    <cfRule type="expression" dxfId="51" priority="193">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="184">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10009,29 +9853,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="73" priority="186">
-      <formula>AND($E25&lt;=K$6,ROUNDDOWN(($F25-$E25+1)*$H25,0)+$E25-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="187">
-      <formula>AND(NOT(ISBLANK($E25)),$E25&lt;=K$6,$F25&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="71" priority="185">
+  <conditionalFormatting sqref="K26:BN26">
+    <cfRule type="expression" dxfId="50" priority="190">
+      <formula>AND($E26&lt;=K$6,ROUNDDOWN(($F26-$E26+1)*$H26,0)+$E26-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="191">
+      <formula>AND(NOT(ISBLANK($E26)),$E26&lt;=K$6,$F26&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:BN26">
+    <cfRule type="expression" dxfId="48" priority="189">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="70" priority="182">
-      <formula>AND($E29&lt;=K$6,ROUNDDOWN(($F29-$E29+1)*$H29,0)+$E29-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="183">
-      <formula>AND(NOT(ISBLANK($E29)),$E29&lt;=K$6,$F29&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="180">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10045,12 +9881,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="68" priority="181">
+    <cfRule type="expression" dxfId="47" priority="185">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10064,12 +9900,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="67" priority="177">
+    <cfRule type="expression" dxfId="46" priority="181">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="172">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10083,12 +9919,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="66" priority="173">
+    <cfRule type="expression" dxfId="45" priority="177">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="168">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10102,12 +9938,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="65" priority="169">
+    <cfRule type="expression" dxfId="44" priority="173">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="164">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10121,12 +9957,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="64" priority="165">
+    <cfRule type="expression" dxfId="43" priority="169">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="162">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10140,12 +9976,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="63" priority="163">
+    <cfRule type="expression" dxfId="42" priority="167">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10159,12 +9995,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="62" priority="161">
+    <cfRule type="expression" dxfId="41" priority="165">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="156">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10178,12 +10014,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="61" priority="157">
+    <cfRule type="expression" dxfId="40" priority="161">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="154">
+    <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10197,12 +10033,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="60" priority="155">
+    <cfRule type="expression" dxfId="39" priority="159">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10216,12 +10052,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="59" priority="153">
+    <cfRule type="expression" dxfId="38" priority="157">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="dataBar" priority="148">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10234,21 +10070,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="58" priority="150">
-      <formula>AND($E11&lt;=K$6,ROUNDDOWN(($F11-$E11+1)*$H11,0)+$E11-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="151">
-      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$6,$F11&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="56" priority="149">
+  <conditionalFormatting sqref="K12:BN12">
+    <cfRule type="expression" dxfId="37" priority="154">
+      <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="155">
+      <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:BN12">
+    <cfRule type="expression" dxfId="35" priority="153">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="144">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10261,21 +10097,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="55" priority="146">
-      <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="147">
-      <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="53" priority="145">
+  <conditionalFormatting sqref="K13:BN13">
+    <cfRule type="expression" dxfId="34" priority="150">
+      <formula>AND($E13&lt;=K$6,ROUNDDOWN(($F13-$E13+1)*$H13,0)+$E13-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="151">
+      <formula>AND(NOT(ISBLANK($E13)),$E13&lt;=K$6,$F13&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:BN13">
+    <cfRule type="expression" dxfId="32" priority="149">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10289,12 +10125,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="52" priority="121">
+    <cfRule type="expression" dxfId="31" priority="125">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="118">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10308,12 +10144,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="51" priority="119">
+    <cfRule type="expression" dxfId="30" priority="123">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10327,12 +10163,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="50" priority="117">
+    <cfRule type="expression" dxfId="29" priority="121">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="112">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10346,12 +10182,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="49" priority="113">
+    <cfRule type="expression" dxfId="28" priority="117">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="106">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10365,12 +10201,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="48" priority="107">
+    <cfRule type="expression" dxfId="27" priority="111">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10384,12 +10220,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="47" priority="109">
+    <cfRule type="expression" dxfId="26" priority="113">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="102">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10403,12 +10239,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="46" priority="103">
+    <cfRule type="expression" dxfId="25" priority="107">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10422,12 +10258,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="45" priority="99">
+    <cfRule type="expression" dxfId="24" priority="103">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:H71 H74">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10441,12 +10277,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70:BN71 K74:BN74">
-    <cfRule type="expression" dxfId="44" priority="78">
+    <cfRule type="expression" dxfId="23" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10460,12 +10296,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="43" priority="74">
+    <cfRule type="expression" dxfId="22" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10479,12 +10315,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="42" priority="70">
+    <cfRule type="expression" dxfId="21" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10497,21 +10333,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN44">
-    <cfRule type="expression" dxfId="41" priority="67">
-      <formula>AND($E41&lt;=K$6,ROUNDDOWN(($F41-$E41+1)*$H41,0)+$E41-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="68">
-      <formula>AND(NOT(ISBLANK($E41)),$E41&lt;=K$6,$F41&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="39" priority="66">
+    <cfRule type="expression" dxfId="20" priority="70">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="63">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10525,12 +10353,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="38" priority="64">
+    <cfRule type="expression" dxfId="19" priority="68">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10544,12 +10372,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="37" priority="62">
+    <cfRule type="expression" dxfId="18" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="59">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10563,20 +10391,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="36" priority="60">
+    <cfRule type="expression" dxfId="17" priority="64">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="35" priority="57">
-      <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="58">
-      <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="55">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10590,12 +10410,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="33" priority="56">
+    <cfRule type="expression" dxfId="16" priority="60">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="dataBar" priority="51">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10609,12 +10429,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="32" priority="52">
+    <cfRule type="expression" dxfId="15" priority="56">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10628,12 +10448,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="31" priority="48">
+    <cfRule type="expression" dxfId="14" priority="52">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10647,20 +10467,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="30" priority="44">
+    <cfRule type="expression" dxfId="13" priority="48">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="29" priority="39">
-      <formula>AND($E52&lt;=K$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="40">
-      <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=K$6,$F52&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10674,20 +10486,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="12" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="26" priority="35">
-      <formula>AND($E54&lt;=K$6,ROUNDDOWN(($F54-$E54+1)*$H54,0)+$E54-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="36">
-      <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=K$6,$F54&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10701,20 +10505,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="24" priority="34">
+    <cfRule type="expression" dxfId="11" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>AND($E56&lt;=K$6,ROUNDDOWN(($F56-$E56+1)*$H56,0)+$E56-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32">
-      <formula>AND(NOT(ISBLANK($E56)),$E56&lt;=K$6,$F56&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10728,20 +10524,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="10" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="20" priority="27">
-      <formula>AND($E58&lt;=K$6,ROUNDDOWN(($F58-$E58+1)*$H58,0)+$E58-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
-      <formula>AND(NOT(ISBLANK($E58)),$E58&lt;=K$6,$F58&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10755,20 +10543,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="18" priority="26">
+    <cfRule type="expression" dxfId="9" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>AND($E60&lt;=K$6,ROUNDDOWN(($F60-$E60+1)*$H60,0)+$E60-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>AND(NOT(ISBLANK($E60)),$E60&lt;=K$6,$F60&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10782,20 +10562,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="8" priority="26">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="14" priority="19">
-      <formula>AND($E62&lt;=K$6,ROUNDDOWN(($F62-$E62+1)*$H62,0)+$E62-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20">
-      <formula>AND(NOT(ISBLANK($E62)),$E62&lt;=K$6,$F62&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10809,20 +10581,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="7" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>AND($E64&lt;=K$6,ROUNDDOWN(($F64-$E64+1)*$H64,0)+$E64-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>AND(NOT(ISBLANK($E64)),$E64&lt;=K$6,$F64&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10836,12 +10600,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10855,28 +10619,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($E45&lt;=K$6,ROUNDDOWN(($F45-$E45+1)*$H45,0)+$E45-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>AND(NOT(ISBLANK($E45)),$E45&lt;=K$6,$F45&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND($E75&lt;=K$6,ROUNDDOWN(($F75-$E75+1)*$H75,0)+$E75-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND(NOT(ISBLANK($E75)),$E75&lt;=K$6,$F75&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10890,12 +10638,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10909,14 +10657,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{231F956C-6F8E-400D-95A0-95D859A5C02E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:BN9">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E40&lt;=K$6,ROUNDDOWN(($F40-$E40+1)*$H40,0)+$E40-1&gt;=K$6)</formula>
+      <formula>AND($E9&lt;=K$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=K$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK($E40)),$E40&lt;=K$6,$F40&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
+      <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=K$6,$F9&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:BN9">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -10931,8 +10698,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E26 E46 E65 G26:H26 G46:H46 G65:H66 H37 H28 H67" unlockedFormula="1"/>
-    <ignoredError sqref="A65 A46 A26" formula="1"/>
+    <ignoredError sqref="H10 E27 E46 E65 G27:H27 G46:H46 G65:H66 H37 H28 H67" unlockedFormula="1"/>
+    <ignoredError sqref="A65 A46 A27" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -10980,7 +10747,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H26:H28 H8:H10 H37 H13 H46 H65:H67 H48</xm:sqref>
+          <xm:sqref>H8 H37 H14 H46 H65:H67 H48 H10:H11 H27:H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59B11CE9-8D87-48BF-BF74-F1713D212F51}">
@@ -10995,7 +10762,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
+          <xm:sqref>H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{26298849-C3DF-421D-B1F5-9C05159E48C2}">
@@ -11010,7 +10777,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
+          <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{000E9F1E-0838-4E3E-9001-0AE1E446E6D4}">
@@ -11025,7 +10792,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
+          <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3974BECB-F62E-40EF-B7B9-6E60CFEA6B84}">
@@ -11040,7 +10807,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H17</xm:sqref>
+          <xm:sqref>H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D39096DD-3CAF-4058-A64A-B4DA89815299}">
@@ -11055,7 +10822,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H18</xm:sqref>
+          <xm:sqref>H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F44046CB-17AE-4883-A9B7-9BB6DD16C51F}">
@@ -11070,7 +10837,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H19</xm:sqref>
+          <xm:sqref>H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{919E46F7-70B0-4E80-B512-D790B7B5A633}">
@@ -11085,7 +10852,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H21</xm:sqref>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2ED03B47-EE01-4BB6-96B9-42BA0F309DA5}">
@@ -11100,7 +10867,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H20</xm:sqref>
+          <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{54C25685-29E6-483A-A497-6FC896326047}">
@@ -11115,7 +10882,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
+          <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E2337CE2-B5A9-43E9-A176-7AD6ACADDA1E}">
@@ -11130,7 +10897,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H23</xm:sqref>
+          <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E617A5C2-D1F5-4999-B54E-36AA92C09C3D}">
@@ -11145,7 +10912,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H24</xm:sqref>
+          <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CA7D3CA-7D2C-41CD-B9D9-15B6D2B75B7F}">
@@ -11160,7 +10927,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
+          <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0D82FF46-5137-40A3-A6D8-BE03B33EB610}">
@@ -11325,7 +11092,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
+          <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A8072983-43B2-46FF-9694-2E5936EE54BB}">
@@ -11340,7 +11107,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H12</xm:sqref>
+          <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C8F6A87F-0895-4951-B02A-EC0CFE8FF46C}">
@@ -11777,6 +11544,21 @@
           </x14:cfRule>
           <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{231F956C-6F8E-400D-95A0-95D859A5C02E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA93B9CF-13B0-47DC-9315-796EEE5AAC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB775EB-6BAB-4BA1-B489-9B8A4024FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$66</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>WBS</t>
   </si>
@@ -496,9 +496,6 @@
     <t>Saint Albert Hospital</t>
   </si>
   <si>
-    <t>Information Gathering</t>
-  </si>
-  <si>
     <t>Jorge C.</t>
   </si>
   <si>
@@ -532,19 +529,7 @@
     <t>Identify the high priority use cases</t>
   </si>
   <si>
-    <t>Draft System use case description</t>
-  </si>
-  <si>
-    <t>Make business use case descriptors</t>
-  </si>
-  <si>
     <t>Make use case activity diagrams</t>
-  </si>
-  <si>
-    <t>Make system use case diagrams</t>
-  </si>
-  <si>
-    <t>Make overall class diagrams</t>
   </si>
   <si>
     <t>Gantt chart</t>
@@ -638,6 +623,18 @@
   </si>
   <si>
     <t>Technology review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Gathering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis </t>
+  </si>
+  <si>
+    <t>Use case diagram</t>
+  </si>
+  <si>
+    <t>Use case description</t>
   </si>
 </sst>
 </file>
@@ -1544,6 +1541,13 @@
     <xf numFmtId="168" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1553,6 +1557,10 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1561,17 +1569,6 @@
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1620,7 +1617,59 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="67">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2178,98 +2227,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2898,11 +2855,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN75"/>
+  <dimension ref="A1:BN74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2930,29 +2887,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -2997,11 +2954,11 @@
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="75">
         <v>44459</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
@@ -3011,182 +2968,182 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="70" t="str">
+      <c r="K4" s="72" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="70" t="str">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="72" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="70" t="str">
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="72" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="70" t="str">
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="72" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="70" t="str">
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="72" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="70" t="str">
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="72" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="70" t="str">
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="72" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="70" t="str">
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="73"/>
+      <c r="BD4" s="73"/>
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="73"/>
+      <c r="BG4" s="74"/>
+      <c r="BH4" s="72" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="72"/>
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="73"/>
+      <c r="BM4" s="73"/>
+      <c r="BN4" s="74"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="73">
+      <c r="K5" s="76">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="73">
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="76">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="73">
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="76">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="73">
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="76">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="73">
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="76">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="75"/>
-      <c r="AT5" s="73">
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="76">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="73">
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="77"/>
+      <c r="AX5" s="77"/>
+      <c r="AY5" s="77"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="76">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="74"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="75"/>
-      <c r="BH5" s="73">
+      <c r="BB5" s="77"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="77"/>
+      <c r="BE5" s="77"/>
+      <c r="BF5" s="77"/>
+      <c r="BG5" s="78"/>
+      <c r="BH5" s="76">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="74"/>
-      <c r="BK5" s="74"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="74"/>
-      <c r="BN5" s="75"/>
+      <c r="BI5" s="77"/>
+      <c r="BJ5" s="77"/>
+      <c r="BK5" s="77"/>
+      <c r="BL5" s="77"/>
+      <c r="BM5" s="77"/>
+      <c r="BN5" s="78"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -3684,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="32"/>
@@ -3696,7 +3653,7 @@
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
       <c r="I8" s="36" t="str">
-        <f t="shared" ref="I8:I37" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I36" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="39"/>
@@ -3763,10 +3720,10 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="67">
@@ -3846,14 +3803,14 @@
     </row>
     <row r="10" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
-        <f t="shared" ref="A10:A14" si="7">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A10:A13" si="7">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.2</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="67">
@@ -3937,17 +3894,17 @@
         <v>1.2.1</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="67">
         <v>44459</v>
       </c>
       <c r="F11" s="69">
-        <f t="shared" ref="F11:F37" si="8">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <f t="shared" ref="F11:F36" si="8">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
         <v>44461</v>
       </c>
       <c r="G11" s="25">
@@ -4024,10 +3981,10 @@
         <v>1.3</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="67">
@@ -4111,10 +4068,10 @@
         <v>1.4</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="67">
@@ -4131,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="27">
-        <f t="shared" ref="I13" si="10">IF(OR(F13=0,E13=0)," - ",NETWORKDAYS(E13,F13))</f>
+        <f t="shared" ref="I13:I14" si="10">IF(OR(F13=0,E13=0)," - ",NETWORKDAYS(E13,F13))</f>
         <v>1</v>
       </c>
       <c r="J13" s="40"/>
@@ -4192,120 +4149,112 @@
       <c r="BM13" s="43"/>
       <c r="BN13" s="43"/>
     </row>
-    <row r="14" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="67">
-        <v>44464</v>
-      </c>
-      <c r="F14" s="69">
-        <f t="shared" si="8"/>
-        <v>44468</v>
-      </c>
-      <c r="G14" s="25">
-        <v>5</v>
-      </c>
-      <c r="H14" s="26">
-        <v>0</v>
-      </c>
-      <c r="I14" s="27">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="43"/>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="43"/>
-      <c r="AO14" s="43"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="43"/>
-      <c r="AR14" s="43"/>
-      <c r="AS14" s="43"/>
-      <c r="AT14" s="43"/>
-      <c r="AU14" s="43"/>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="43"/>
-      <c r="AX14" s="43"/>
-      <c r="AY14" s="43"/>
-      <c r="AZ14" s="43"/>
-      <c r="BA14" s="43"/>
-      <c r="BB14" s="43"/>
-      <c r="BC14" s="43"/>
-      <c r="BD14" s="43"/>
-      <c r="BE14" s="43"/>
-      <c r="BF14" s="43"/>
-      <c r="BG14" s="43"/>
-      <c r="BH14" s="43"/>
-      <c r="BI14" s="43"/>
-      <c r="BJ14" s="43"/>
-      <c r="BK14" s="43"/>
-      <c r="BL14" s="43"/>
-      <c r="BM14" s="43"/>
-      <c r="BN14" s="43"/>
+    <row r="14" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>2</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="50" t="str">
+        <f>IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="42"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="42"/>
+      <c r="BL14" s="42"/>
+      <c r="BM14" s="42"/>
+      <c r="BN14" s="42"/>
     </row>
     <row r="15" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="str">
-        <f t="shared" ref="A15:A22" si="11">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.5.1</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>18</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>61</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="67">
         <v>44464</v>
       </c>
       <c r="F15" s="69">
-        <f t="shared" ref="F15:F16" si="12">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
+        <f t="shared" si="8"/>
         <v>44464</v>
       </c>
       <c r="G15" s="25">
         <v>1</v>
       </c>
       <c r="H15" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="27">
-        <f t="shared" ref="I15:I16" si="13">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J15" s="40"/>
@@ -4368,31 +4317,31 @@
     </row>
     <row r="16" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v>1.5.2</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>19</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>62</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="67">
         <v>44464</v>
       </c>
       <c r="F16" s="69">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F16" si="11">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
         <v>44464</v>
       </c>
       <c r="G16" s="25">
         <v>1</v>
       </c>
       <c r="H16" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I16" si="12">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
         <v>0</v>
       </c>
       <c r="J16" s="40"/>
@@ -4455,31 +4404,31 @@
     </row>
     <row r="17" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v>1.5.3</v>
+        <f t="shared" ref="A17:A24" si="13">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.1</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="67">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="F17" s="69">
-        <f t="shared" ref="F17:F23" si="14">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v>44465</v>
+        <f t="shared" ref="F17:F18" si="14">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
+        <v>44464</v>
       </c>
       <c r="G17" s="25">
         <v>1</v>
       </c>
       <c r="H17" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="27">
-        <f t="shared" ref="I17:I23" si="15">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
+        <f t="shared" ref="I17:I18" si="15">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
         <v>0</v>
       </c>
       <c r="J17" s="40"/>
@@ -4540,30 +4489,30 @@
       <c r="BM17" s="43"/>
       <c r="BN17" s="43"/>
     </row>
-    <row r="18" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v>1.5.4</v>
+        <f t="shared" si="13"/>
+        <v>2.2.2</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="67">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="F18" s="69">
         <f t="shared" si="14"/>
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="G18" s="25">
         <v>1</v>
       </c>
       <c r="H18" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="27">
         <f t="shared" si="15"/>
@@ -4629,22 +4578,22 @@
     </row>
     <row r="19" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v>1.5.5</v>
+        <f t="shared" si="13"/>
+        <v>2.2.3</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="67">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="F19" s="69">
-        <f t="shared" si="14"/>
-        <v>44466</v>
+        <f t="shared" ref="F19:F24" si="16">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v>44465</v>
       </c>
       <c r="G19" s="25">
         <v>1</v>
@@ -4653,8 +4602,8 @@
         <v>0</v>
       </c>
       <c r="I19" s="27">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" ref="I19:I24" si="17">IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
+        <v>0</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="43"/>
@@ -4714,24 +4663,24 @@
       <c r="BM19" s="43"/>
       <c r="BN19" s="43"/>
     </row>
-    <row r="20" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v>1.5.6</v>
+        <f t="shared" si="13"/>
+        <v>2.2.4</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="62"/>
       <c r="E20" s="67">
-        <v>44467</v>
+        <v>44465</v>
       </c>
       <c r="F20" s="69">
-        <f t="shared" si="14"/>
-        <v>44467</v>
+        <f t="shared" si="16"/>
+        <v>44465</v>
       </c>
       <c r="G20" s="25">
         <v>1</v>
@@ -4740,8 +4689,8 @@
         <v>0</v>
       </c>
       <c r="I20" s="27">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="43"/>
@@ -4801,24 +4750,24 @@
       <c r="BM20" s="43"/>
       <c r="BN20" s="43"/>
     </row>
-    <row r="21" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v>1.5.7</v>
+        <f t="shared" si="13"/>
+        <v>2.2.5</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="62"/>
       <c r="E21" s="67">
-        <v>44468</v>
+        <v>44466</v>
       </c>
       <c r="F21" s="69">
-        <f t="shared" si="14"/>
-        <v>44468</v>
+        <f t="shared" si="16"/>
+        <v>44466</v>
       </c>
       <c r="G21" s="25">
         <v>1</v>
@@ -4827,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J21" s="40"/>
@@ -4888,24 +4837,24 @@
       <c r="BM21" s="43"/>
       <c r="BN21" s="43"/>
     </row>
-    <row r="22" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v>1.5.8</v>
+        <f t="shared" si="13"/>
+        <v>2.2.6</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="67">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="F22" s="69">
-        <f t="shared" si="14"/>
-        <v>44468</v>
+        <f t="shared" si="16"/>
+        <v>44467</v>
       </c>
       <c r="G22" s="25">
         <v>1</v>
@@ -4914,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J22" s="40"/>
@@ -4977,32 +4926,32 @@
     </row>
     <row r="23" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="str">
-        <f t="shared" ref="A23:A26" si="16">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.6</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>31</v>
+        <f t="shared" si="13"/>
+        <v>2.2.7</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>23</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="67">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="F23" s="69">
-        <f t="shared" si="14"/>
-        <v>44470</v>
+        <f t="shared" si="16"/>
+        <v>44468</v>
       </c>
       <c r="G23" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="26">
         <v>0</v>
       </c>
       <c r="I23" s="27">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="43"/>
@@ -5064,31 +5013,31 @@
     </row>
     <row r="24" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>1.7</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>32</v>
+        <f t="shared" si="13"/>
+        <v>2.2.8</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="62"/>
       <c r="E24" s="67">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="F24" s="69">
-        <f t="shared" ref="F24" si="17">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
-        <v>44471</v>
+        <f t="shared" si="16"/>
+        <v>44468</v>
       </c>
       <c r="G24" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="26">
         <v>0</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" ref="I24" si="18">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J24" s="40"/>
@@ -5151,32 +5100,32 @@
     </row>
     <row r="25" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>1.8</v>
+        <f t="shared" ref="A25" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.3</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="67">
-        <v>44471</v>
+        <v>44469</v>
       </c>
       <c r="F25" s="69">
         <f t="shared" ref="F25" si="19">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
         <v>44471</v>
       </c>
       <c r="G25" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="26">
         <v>0</v>
       </c>
       <c r="I25" s="27">
         <f t="shared" ref="I25" si="20">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="43"/>
@@ -5236,181 +5185,181 @@
       <c r="BM25" s="43"/>
       <c r="BN25" s="43"/>
     </row>
-    <row r="26" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>1.9</v>
-      </c>
-      <c r="B26" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="67">
-        <v>44472</v>
-      </c>
-      <c r="F26" s="69">
-        <f t="shared" ref="F26" si="21">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
-        <v>44474</v>
-      </c>
-      <c r="G26" s="25">
+    <row r="26" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="H26" s="26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="27">
-        <f t="shared" ref="I26" si="22">IF(OR(F26=0,E26=0)," - ",NETWORKDAYS(E26,F26))</f>
-        <v>2</v>
-      </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="43"/>
-      <c r="AG26" s="43"/>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="43"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="43"/>
-      <c r="AP26" s="43"/>
-      <c r="AQ26" s="43"/>
-      <c r="AR26" s="43"/>
-      <c r="AS26" s="43"/>
-      <c r="AT26" s="43"/>
-      <c r="AU26" s="43"/>
-      <c r="AV26" s="43"/>
-      <c r="AW26" s="43"/>
-      <c r="AX26" s="43"/>
-      <c r="AY26" s="43"/>
-      <c r="AZ26" s="43"/>
-      <c r="BA26" s="43"/>
-      <c r="BB26" s="43"/>
-      <c r="BC26" s="43"/>
-      <c r="BD26" s="43"/>
-      <c r="BE26" s="43"/>
-      <c r="BF26" s="43"/>
-      <c r="BG26" s="43"/>
-      <c r="BH26" s="43"/>
-      <c r="BI26" s="43"/>
-      <c r="BJ26" s="43"/>
-      <c r="BK26" s="43"/>
-      <c r="BL26" s="43"/>
-      <c r="BM26" s="43"/>
-      <c r="BN26" s="43"/>
-    </row>
-    <row r="27" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68" t="str">
+      <c r="B26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22" t="str">
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="44"/>
-      <c r="AW27" s="44"/>
-      <c r="AX27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="44"/>
-      <c r="BA27" s="44"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="44"/>
-      <c r="BD27" s="44"/>
-      <c r="BE27" s="44"/>
-      <c r="BF27" s="44"/>
-      <c r="BG27" s="44"/>
-      <c r="BH27" s="44"/>
-      <c r="BI27" s="44"/>
-      <c r="BJ27" s="44"/>
-      <c r="BK27" s="44"/>
-      <c r="BL27" s="44"/>
-      <c r="BM27" s="44"/>
-      <c r="BN27" s="44"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="44"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="44"/>
+      <c r="BC26" s="44"/>
+      <c r="BD26" s="44"/>
+      <c r="BE26" s="44"/>
+      <c r="BF26" s="44"/>
+      <c r="BG26" s="44"/>
+      <c r="BH26" s="44"/>
+      <c r="BI26" s="44"/>
+      <c r="BJ26" s="44"/>
+      <c r="BK26" s="44"/>
+      <c r="BL26" s="44"/>
+      <c r="BM26" s="44"/>
+      <c r="BN26" s="44"/>
     </row>
-    <row r="28" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="67">
+        <v>44473</v>
+      </c>
+      <c r="F27" s="69">
+        <f t="shared" si="8"/>
+        <v>44475</v>
+      </c>
+      <c r="G27" s="25">
+        <v>3</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="43"/>
+      <c r="AS27" s="43"/>
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="43"/>
+      <c r="AW27" s="43"/>
+      <c r="AX27" s="43"/>
+      <c r="AY27" s="43"/>
+      <c r="AZ27" s="43"/>
+      <c r="BA27" s="43"/>
+      <c r="BB27" s="43"/>
+      <c r="BC27" s="43"/>
+      <c r="BD27" s="43"/>
+      <c r="BE27" s="43"/>
+      <c r="BF27" s="43"/>
+      <c r="BG27" s="43"/>
+      <c r="BH27" s="43"/>
+      <c r="BI27" s="43"/>
+      <c r="BJ27" s="43"/>
+      <c r="BK27" s="43"/>
+      <c r="BL27" s="43"/>
+      <c r="BM27" s="43"/>
+      <c r="BN27" s="43"/>
+    </row>
+    <row r="28" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>52</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="62"/>
       <c r="E28" s="67">
@@ -5418,17 +5367,17 @@
       </c>
       <c r="F28" s="69">
         <f t="shared" si="8"/>
-        <v>44475</v>
+        <v>44473</v>
       </c>
       <c r="G28" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" s="26">
         <v>0</v>
       </c>
       <c r="I28" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" s="40"/>
       <c r="K28" s="43"/>
@@ -5488,24 +5437,24 @@
       <c r="BM28" s="43"/>
       <c r="BN28" s="43"/>
     </row>
-    <row r="29" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.1</v>
+        <f t="shared" ref="A29:A35" si="21">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.1</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="67">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="F29" s="69">
         <f t="shared" si="8"/>
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="G29" s="25">
         <v>1</v>
@@ -5577,14 +5526,14 @@
     </row>
     <row r="30" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
-        <f t="shared" ref="A30:A36" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>2.1.1.1</v>
+        <f t="shared" si="21"/>
+        <v>3.1.1.2</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="62"/>
       <c r="E30" s="67">
@@ -5664,14 +5613,14 @@
     </row>
     <row r="31" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>2.1.1.2</v>
+        <f t="shared" si="21"/>
+        <v>3.1.1.3</v>
       </c>
       <c r="B31" s="63" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="67">
@@ -5751,22 +5700,22 @@
     </row>
     <row r="32" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>2.1.1.3</v>
+        <f t="shared" si="21"/>
+        <v>3.1.1.4</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="62"/>
       <c r="E32" s="67">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="F32" s="69">
         <f t="shared" si="8"/>
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="G32" s="25">
         <v>1</v>
@@ -5838,14 +5787,14 @@
     </row>
     <row r="33" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>2.1.1.4</v>
+        <f t="shared" si="21"/>
+        <v>3.1.1.5</v>
       </c>
       <c r="B33" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="62"/>
       <c r="E33" s="67">
@@ -5923,16 +5872,16 @@
       <c r="BM33" s="43"/>
       <c r="BN33" s="43"/>
     </row>
-    <row r="34" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>2.1.1.5</v>
+        <f t="shared" si="21"/>
+        <v>3.1.1.6</v>
       </c>
       <c r="B34" s="63" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="62"/>
       <c r="E34" s="67">
@@ -6012,21 +5961,21 @@
     </row>
     <row r="35" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>2.1.1.6</v>
+        <f t="shared" si="21"/>
+        <v>3.1.1.7</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="62"/>
       <c r="E35" s="67">
         <v>44475</v>
       </c>
       <c r="F35" s="69">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F35" si="22">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
         <v>44475</v>
       </c>
       <c r="G35" s="25">
@@ -6036,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I35" si="23">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
         <v>1</v>
       </c>
       <c r="J35" s="40"/>
@@ -6099,21 +6048,21 @@
     </row>
     <row r="36" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>2.1.1.7</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>34</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>30</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="62"/>
       <c r="E36" s="67">
         <v>44475</v>
       </c>
       <c r="F36" s="69">
-        <f t="shared" ref="F36" si="24">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <f t="shared" si="8"/>
         <v>44475</v>
       </c>
       <c r="G36" s="25">
@@ -6123,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="27">
-        <f t="shared" ref="I36" si="25">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J36" s="40"/>
@@ -6184,23 +6133,23 @@
       <c r="BM36" s="43"/>
       <c r="BN36" s="43"/>
     </row>
-    <row r="37" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B37" s="61" t="s">
-        <v>35</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>31</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="62"/>
       <c r="E37" s="67">
         <v>44475</v>
       </c>
       <c r="F37" s="69">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F37" si="24">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
         <v>44475</v>
       </c>
       <c r="G37" s="25">
@@ -6210,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I37" si="25">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
         <v>1</v>
       </c>
       <c r="J37" s="40"/>
@@ -6274,13 +6223,13 @@
     <row r="38" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.1</v>
+        <v>3.2.2</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="62"/>
       <c r="E38" s="67">
@@ -6360,32 +6309,32 @@
     </row>
     <row r="39" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.2</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>37</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>57</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" s="62"/>
       <c r="E39" s="67">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="F39" s="69">
-        <f t="shared" ref="F39" si="28">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
-        <v>44475</v>
+        <f>IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <v>44478</v>
       </c>
       <c r="G39" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="26">
         <v>0</v>
       </c>
       <c r="I39" s="27">
-        <f t="shared" ref="I39" si="29">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
-        <v>1</v>
+        <f>IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
+        <v>2</v>
       </c>
       <c r="J39" s="40"/>
       <c r="K39" s="43"/>
@@ -6448,31 +6397,31 @@
     <row r="40" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="62"/>
       <c r="E40" s="67">
-        <v>44476</v>
+        <v>44481</v>
       </c>
       <c r="F40" s="69">
         <f>IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
-        <v>44478</v>
+        <v>44484</v>
       </c>
       <c r="G40" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="26">
         <v>0</v>
       </c>
       <c r="I40" s="27">
         <f>IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" s="40"/>
       <c r="K40" s="43"/>
@@ -6534,32 +6483,32 @@
     </row>
     <row r="41" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
-      </c>
-      <c r="B41" s="61" t="s">
-        <v>54</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.4.1</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>35</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="62"/>
       <c r="E41" s="67">
         <v>44481</v>
       </c>
       <c r="F41" s="69">
-        <f>IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
-        <v>44484</v>
+        <f t="shared" ref="F41:F43" si="28">IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
+        <v>44481</v>
       </c>
       <c r="G41" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H41" s="26">
         <v>0</v>
       </c>
       <c r="I41" s="27">
-        <f>IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
-        <v>4</v>
+        <f t="shared" ref="I41:I43" si="29">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
+        <v>1</v>
       </c>
       <c r="J41" s="40"/>
       <c r="K41" s="43"/>
@@ -6619,24 +6568,24 @@
       <c r="BM41" s="43"/>
       <c r="BN41" s="43"/>
     </row>
-    <row r="42" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.4.1</v>
+        <v>3.4.2</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="62"/>
       <c r="E42" s="67">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="F42" s="69">
-        <f t="shared" ref="F42:F44" si="30">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
-        <v>44481</v>
+        <f t="shared" si="28"/>
+        <v>44482</v>
       </c>
       <c r="G42" s="25">
         <v>1</v>
@@ -6645,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="27">
-        <f t="shared" ref="I42:I44" si="31">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J42" s="40"/>
@@ -6706,34 +6655,34 @@
       <c r="BM42" s="43"/>
       <c r="BN42" s="43"/>
     </row>
-    <row r="43" spans="1:66" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.4.2</v>
+        <v>3.4.3</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="62"/>
       <c r="E43" s="67">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="F43" s="69">
-        <f t="shared" si="30"/>
-        <v>44482</v>
+        <f t="shared" si="28"/>
+        <v>44484</v>
       </c>
       <c r="G43" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="26">
         <v>0</v>
       </c>
       <c r="I43" s="27">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>2</v>
       </c>
       <c r="J43" s="40"/>
       <c r="K43" s="43"/>
@@ -6795,32 +6744,32 @@
     </row>
     <row r="44" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.4.3</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>42</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>55</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="62"/>
       <c r="E44" s="67">
         <v>44483</v>
       </c>
       <c r="F44" s="69">
-        <f t="shared" si="30"/>
-        <v>44484</v>
+        <f>IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
+        <v>44483</v>
       </c>
       <c r="G44" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="26">
         <v>0</v>
       </c>
       <c r="I44" s="27">
-        <f t="shared" si="31"/>
-        <v>2</v>
+        <f>IF(OR(F44=0,E44=0)," - ",NETWORKDAYS(E44,F44))</f>
+        <v>1</v>
       </c>
       <c r="J44" s="40"/>
       <c r="K44" s="43"/>
@@ -6880,199 +6829,199 @@
       <c r="BM44" s="43"/>
       <c r="BN44" s="43"/>
     </row>
-    <row r="45" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="str">
+    <row r="45" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68" t="str">
+        <f>IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="22" t="str">
+        <f>IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="44"/>
+      <c r="AL45" s="44"/>
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="44"/>
+      <c r="AO45" s="44"/>
+      <c r="AP45" s="44"/>
+      <c r="AQ45" s="44"/>
+      <c r="AR45" s="44"/>
+      <c r="AS45" s="44"/>
+      <c r="AT45" s="44"/>
+      <c r="AU45" s="44"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
+      <c r="BB45" s="44"/>
+      <c r="BC45" s="44"/>
+      <c r="BD45" s="44"/>
+      <c r="BE45" s="44"/>
+      <c r="BF45" s="44"/>
+      <c r="BG45" s="44"/>
+      <c r="BH45" s="44"/>
+      <c r="BI45" s="44"/>
+      <c r="BJ45" s="44"/>
+      <c r="BK45" s="44"/>
+      <c r="BL45" s="44"/>
+      <c r="BM45" s="44"/>
+      <c r="BN45" s="44"/>
+    </row>
+    <row r="46" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="62"/>
+      <c r="E46" s="67">
+        <v>44484</v>
+      </c>
+      <c r="F46" s="69">
+        <f t="shared" ref="F46" si="30">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
+        <v>44484</v>
+      </c>
+      <c r="G46" s="25">
+        <v>1</v>
+      </c>
+      <c r="H46" s="26">
+        <v>0</v>
+      </c>
+      <c r="I46" s="27">
+        <f t="shared" ref="I46" si="31">IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
+        <v>1</v>
+      </c>
+      <c r="J46" s="40"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="43"/>
+      <c r="AB46" s="43"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="43"/>
+      <c r="AE46" s="43"/>
+      <c r="AF46" s="43"/>
+      <c r="AG46" s="43"/>
+      <c r="AH46" s="43"/>
+      <c r="AI46" s="43"/>
+      <c r="AJ46" s="43"/>
+      <c r="AK46" s="43"/>
+      <c r="AL46" s="43"/>
+      <c r="AM46" s="43"/>
+      <c r="AN46" s="43"/>
+      <c r="AO46" s="43"/>
+      <c r="AP46" s="43"/>
+      <c r="AQ46" s="43"/>
+      <c r="AR46" s="43"/>
+      <c r="AS46" s="43"/>
+      <c r="AT46" s="43"/>
+      <c r="AU46" s="43"/>
+      <c r="AV46" s="43"/>
+      <c r="AW46" s="43"/>
+      <c r="AX46" s="43"/>
+      <c r="AY46" s="43"/>
+      <c r="AZ46" s="43"/>
+      <c r="BA46" s="43"/>
+      <c r="BB46" s="43"/>
+      <c r="BC46" s="43"/>
+      <c r="BD46" s="43"/>
+      <c r="BE46" s="43"/>
+      <c r="BF46" s="43"/>
+      <c r="BG46" s="43"/>
+      <c r="BH46" s="43"/>
+      <c r="BI46" s="43"/>
+      <c r="BJ46" s="43"/>
+      <c r="BK46" s="43"/>
+      <c r="BL46" s="43"/>
+      <c r="BM46" s="43"/>
+      <c r="BN46" s="43"/>
+    </row>
+    <row r="47" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="B45" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="67">
-        <v>44483</v>
-      </c>
-      <c r="F45" s="69">
-        <f>IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
-        <v>44483</v>
-      </c>
-      <c r="G45" s="25">
-        <v>1</v>
-      </c>
-      <c r="H45" s="26">
-        <v>0</v>
-      </c>
-      <c r="I45" s="27">
-        <f>IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
-        <v>1</v>
-      </c>
-      <c r="J45" s="40"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="43"/>
-      <c r="AE45" s="43"/>
-      <c r="AF45" s="43"/>
-      <c r="AG45" s="43"/>
-      <c r="AH45" s="43"/>
-      <c r="AI45" s="43"/>
-      <c r="AJ45" s="43"/>
-      <c r="AK45" s="43"/>
-      <c r="AL45" s="43"/>
-      <c r="AM45" s="43"/>
-      <c r="AN45" s="43"/>
-      <c r="AO45" s="43"/>
-      <c r="AP45" s="43"/>
-      <c r="AQ45" s="43"/>
-      <c r="AR45" s="43"/>
-      <c r="AS45" s="43"/>
-      <c r="AT45" s="43"/>
-      <c r="AU45" s="43"/>
-      <c r="AV45" s="43"/>
-      <c r="AW45" s="43"/>
-      <c r="AX45" s="43"/>
-      <c r="AY45" s="43"/>
-      <c r="AZ45" s="43"/>
-      <c r="BA45" s="43"/>
-      <c r="BB45" s="43"/>
-      <c r="BC45" s="43"/>
-      <c r="BD45" s="43"/>
-      <c r="BE45" s="43"/>
-      <c r="BF45" s="43"/>
-      <c r="BG45" s="43"/>
-      <c r="BH45" s="43"/>
-      <c r="BI45" s="43"/>
-      <c r="BJ45" s="43"/>
-      <c r="BK45" s="43"/>
-      <c r="BL45" s="43"/>
-      <c r="BM45" s="43"/>
-      <c r="BN45" s="43"/>
-    </row>
-    <row r="46" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68" t="str">
-        <f>IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22" t="str">
-        <f>IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="44"/>
-      <c r="AC46" s="44"/>
-      <c r="AD46" s="44"/>
-      <c r="AE46" s="44"/>
-      <c r="AF46" s="44"/>
-      <c r="AG46" s="44"/>
-      <c r="AH46" s="44"/>
-      <c r="AI46" s="44"/>
-      <c r="AJ46" s="44"/>
-      <c r="AK46" s="44"/>
-      <c r="AL46" s="44"/>
-      <c r="AM46" s="44"/>
-      <c r="AN46" s="44"/>
-      <c r="AO46" s="44"/>
-      <c r="AP46" s="44"/>
-      <c r="AQ46" s="44"/>
-      <c r="AR46" s="44"/>
-      <c r="AS46" s="44"/>
-      <c r="AT46" s="44"/>
-      <c r="AU46" s="44"/>
-      <c r="AV46" s="44"/>
-      <c r="AW46" s="44"/>
-      <c r="AX46" s="44"/>
-      <c r="AY46" s="44"/>
-      <c r="AZ46" s="44"/>
-      <c r="BA46" s="44"/>
-      <c r="BB46" s="44"/>
-      <c r="BC46" s="44"/>
-      <c r="BD46" s="44"/>
-      <c r="BE46" s="44"/>
-      <c r="BF46" s="44"/>
-      <c r="BG46" s="44"/>
-      <c r="BH46" s="44"/>
-      <c r="BI46" s="44"/>
-      <c r="BJ46" s="44"/>
-      <c r="BK46" s="44"/>
-      <c r="BL46" s="44"/>
-      <c r="BM46" s="44"/>
-      <c r="BN46" s="44"/>
-    </row>
-    <row r="47" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B47" s="63" t="s">
-        <v>44</v>
+        <v>4.2</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" s="62"/>
       <c r="E47" s="67">
         <v>44484</v>
       </c>
       <c r="F47" s="69">
-        <f t="shared" ref="F47" si="32">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
-        <v>44484</v>
+        <f>IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
+        <v>44497</v>
       </c>
       <c r="G47" s="25">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H47" s="26">
         <v>0</v>
       </c>
       <c r="I47" s="27">
-        <f t="shared" ref="I47" si="33">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
-        <v>1</v>
+        <f>IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
+        <v>10</v>
       </c>
       <c r="J47" s="40"/>
       <c r="K47" s="43"/>
@@ -7132,34 +7081,34 @@
       <c r="BM47" s="43"/>
       <c r="BN47" s="43"/>
     </row>
-    <row r="48" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B48" s="61" t="s">
-        <v>53</v>
+        <f t="shared" ref="A48:A62" si="32">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.1</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="62"/>
       <c r="E48" s="67">
         <v>44484</v>
       </c>
       <c r="F48" s="69">
-        <f>IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
-        <v>44497</v>
+        <f t="shared" ref="F48:F63" si="33">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
+        <v>44485</v>
       </c>
       <c r="G48" s="25">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H48" s="26">
         <v>0</v>
       </c>
       <c r="I48" s="27">
-        <f>IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
-        <v>10</v>
+        <f t="shared" ref="I48:I63" si="34">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
+        <v>1</v>
       </c>
       <c r="J48" s="40"/>
       <c r="K48" s="43"/>
@@ -7221,32 +7170,32 @@
     </row>
     <row r="49" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="str">
-        <f t="shared" ref="A49:A63" si="34">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
+        <f t="shared" ref="A49:A63" si="35">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>4.2.1.1</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" s="62"/>
       <c r="E49" s="67">
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="F49" s="69">
-        <f t="shared" ref="F49:F64" si="35">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <f t="shared" si="33"/>
         <v>44485</v>
       </c>
       <c r="G49" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="26">
         <v>0</v>
       </c>
       <c r="I49" s="27">
-        <f t="shared" ref="I49:I64" si="36">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="J49" s="40"/>
       <c r="K49" s="43"/>
@@ -7308,31 +7257,31 @@
     </row>
     <row r="50" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="str">
-        <f t="shared" ref="A50:A64" si="37">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.2.1.1</v>
+        <f t="shared" si="32"/>
+        <v>4.2.2</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="62"/>
       <c r="E50" s="67">
         <v>44485</v>
       </c>
       <c r="F50" s="69">
-        <f t="shared" si="35"/>
-        <v>44485</v>
+        <f>IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
+        <v>44486</v>
       </c>
       <c r="G50" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="26">
         <v>0</v>
       </c>
       <c r="I50" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J50" s="40"/>
@@ -7395,31 +7344,31 @@
     </row>
     <row r="51" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.2</v>
+        <f t="shared" si="35"/>
+        <v>4.2.2.1</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" s="62"/>
       <c r="E51" s="67">
-        <v>44485</v>
+        <v>44486</v>
       </c>
       <c r="F51" s="69">
-        <f>IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
+        <f t="shared" ref="F51" si="36">IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
         <v>44486</v>
       </c>
       <c r="G51" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="26">
         <v>0</v>
       </c>
       <c r="I51" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I51" si="37">IF(OR(F51=0,E51=0)," - ",NETWORKDAYS(E51,F51))</f>
         <v>0</v>
       </c>
       <c r="J51" s="40"/>
@@ -7482,32 +7431,32 @@
     </row>
     <row r="52" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>3.2.2.1</v>
+        <f t="shared" si="32"/>
+        <v>4.2.3</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" s="62"/>
       <c r="E52" s="67">
         <v>44486</v>
       </c>
       <c r="F52" s="69">
-        <f t="shared" ref="F52" si="38">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
-        <v>44486</v>
+        <f t="shared" si="33"/>
+        <v>44487</v>
       </c>
       <c r="G52" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="26">
         <v>0</v>
       </c>
       <c r="I52" s="27">
-        <f t="shared" ref="I52" si="39">IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="J52" s="40"/>
       <c r="K52" s="43"/>
@@ -7569,31 +7518,31 @@
     </row>
     <row r="53" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.3</v>
+        <f t="shared" si="35"/>
+        <v>4.2.3.1</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" s="62"/>
       <c r="E53" s="67">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="F53" s="69">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>44487</v>
       </c>
       <c r="G53" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="26">
         <v>0</v>
       </c>
       <c r="I53" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="J53" s="40"/>
@@ -7656,21 +7605,21 @@
     </row>
     <row r="54" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>3.2.3.1</v>
+        <f t="shared" si="32"/>
+        <v>4.2.4</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="62"/>
       <c r="E54" s="67">
         <v>44487</v>
       </c>
       <c r="F54" s="69">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="F54:F55" si="38">IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
         <v>44487</v>
       </c>
       <c r="G54" s="25">
@@ -7680,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I54:I55" si="39">IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
         <v>1</v>
       </c>
       <c r="J54" s="40"/>
@@ -7743,21 +7692,21 @@
     </row>
     <row r="55" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.4</v>
+        <f t="shared" si="35"/>
+        <v>4.2.4.1</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" s="62"/>
       <c r="E55" s="67">
         <v>44487</v>
       </c>
       <c r="F55" s="69">
-        <f t="shared" ref="F55:F56" si="40">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+        <f t="shared" si="38"/>
         <v>44487</v>
       </c>
       <c r="G55" s="25">
@@ -7767,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="27">
-        <f t="shared" ref="I55:I56" si="41">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="J55" s="40"/>
@@ -7830,32 +7779,32 @@
     </row>
     <row r="56" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>3.2.4.1</v>
+        <f t="shared" si="32"/>
+        <v>4.2.5</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" s="62"/>
       <c r="E56" s="67">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="F56" s="69">
-        <f t="shared" si="40"/>
-        <v>44487</v>
+        <f t="shared" si="33"/>
+        <v>44490</v>
       </c>
       <c r="G56" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" s="26">
         <v>0</v>
       </c>
       <c r="I56" s="27">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="J56" s="40"/>
       <c r="K56" s="43"/>
@@ -7917,32 +7866,32 @@
     </row>
     <row r="57" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.5</v>
+        <f t="shared" si="35"/>
+        <v>4.2.5.1</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="62"/>
       <c r="E57" s="67">
-        <v>44488</v>
+        <v>44490</v>
       </c>
       <c r="F57" s="69">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>44490</v>
       </c>
       <c r="G57" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" s="26">
         <v>0</v>
       </c>
       <c r="I57" s="27">
-        <f t="shared" si="36"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="J57" s="40"/>
       <c r="K57" s="43"/>
@@ -8002,34 +7951,34 @@
       <c r="BM57" s="43"/>
       <c r="BN57" s="43"/>
     </row>
-    <row r="58" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>3.2.5.1</v>
+        <f t="shared" si="32"/>
+        <v>4.2.6</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" s="62"/>
       <c r="E58" s="67">
         <v>44490</v>
       </c>
       <c r="F58" s="69">
-        <f t="shared" si="35"/>
-        <v>44490</v>
+        <f t="shared" si="33"/>
+        <v>44491</v>
       </c>
       <c r="G58" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="26">
         <v>0</v>
       </c>
       <c r="I58" s="27">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="J58" s="40"/>
       <c r="K58" s="43"/>
@@ -8089,34 +8038,34 @@
       <c r="BM58" s="43"/>
       <c r="BN58" s="43"/>
     </row>
-    <row r="59" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.6</v>
+        <f t="shared" si="35"/>
+        <v>4.2.6.1</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="62"/>
       <c r="E59" s="67">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="F59" s="69">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="F59" si="40">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
         <v>44491</v>
       </c>
       <c r="G59" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="26">
         <v>0</v>
       </c>
       <c r="I59" s="27">
-        <f t="shared" si="36"/>
-        <v>2</v>
+        <f t="shared" ref="I59" si="41">IF(OR(F59=0,E59=0)," - ",NETWORKDAYS(E59,F59))</f>
+        <v>1</v>
       </c>
       <c r="J59" s="40"/>
       <c r="K59" s="43"/>
@@ -8176,33 +8125,33 @@
       <c r="BM59" s="43"/>
       <c r="BN59" s="43"/>
     </row>
-    <row r="60" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>3.2.6.1</v>
+        <f t="shared" si="32"/>
+        <v>4.2.7</v>
       </c>
       <c r="B60" s="63" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="62"/>
       <c r="E60" s="67">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="F60" s="69">
-        <f t="shared" ref="F60" si="42">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
-        <v>44491</v>
+        <f t="shared" ref="F60:F61" si="42">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
+        <v>44494</v>
       </c>
       <c r="G60" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60" s="26">
         <v>0</v>
       </c>
       <c r="I60" s="27">
-        <f t="shared" ref="I60" si="43">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
+        <f t="shared" ref="I60:I61" si="43">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
         <v>1</v>
       </c>
       <c r="J60" s="40"/>
@@ -8263,33 +8212,33 @@
       <c r="BM60" s="43"/>
       <c r="BN60" s="43"/>
     </row>
-    <row r="61" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.7</v>
+        <f t="shared" si="35"/>
+        <v>4.2.7.1</v>
       </c>
       <c r="B61" s="63" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="62"/>
       <c r="E61" s="67">
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="F61" s="69">
-        <f t="shared" ref="F61:F62" si="44">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <f t="shared" si="42"/>
         <v>44494</v>
       </c>
       <c r="G61" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" s="26">
         <v>0</v>
       </c>
       <c r="I61" s="27">
-        <f t="shared" ref="I61:I62" si="45">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="J61" s="40"/>
@@ -8350,34 +8299,34 @@
       <c r="BM61" s="43"/>
       <c r="BN61" s="43"/>
     </row>
-    <row r="62" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>3.2.7.1</v>
+        <f t="shared" si="32"/>
+        <v>4.2.8</v>
       </c>
       <c r="B62" s="63" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="62"/>
       <c r="E62" s="67">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="F62" s="69">
-        <f t="shared" si="44"/>
-        <v>44494</v>
+        <f t="shared" si="33"/>
+        <v>44497</v>
       </c>
       <c r="G62" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" s="26">
         <v>0</v>
       </c>
       <c r="I62" s="27">
-        <f t="shared" si="45"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="J62" s="40"/>
       <c r="K62" s="43"/>
@@ -8437,34 +8386,34 @@
       <c r="BM62" s="43"/>
       <c r="BN62" s="43"/>
     </row>
-    <row r="63" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>3.2.8</v>
+        <f t="shared" si="35"/>
+        <v>4.2.8.1</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" s="62"/>
       <c r="E63" s="67">
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="F63" s="69">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>44497</v>
       </c>
       <c r="G63" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" s="26">
         <v>0</v>
       </c>
       <c r="I63" s="27">
-        <f t="shared" si="36"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="J63" s="40"/>
       <c r="K63" s="43"/>
@@ -8524,199 +8473,199 @@
       <c r="BM63" s="43"/>
       <c r="BN63" s="43"/>
     </row>
-    <row r="64" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>3.2.8.1</v>
-      </c>
-      <c r="B64" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="62"/>
-      <c r="E64" s="67">
-        <v>44497</v>
-      </c>
-      <c r="F64" s="69">
-        <f t="shared" si="35"/>
-        <v>44497</v>
-      </c>
-      <c r="G64" s="25">
+    <row r="64" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68" t="str">
+        <f t="shared" ref="F64:F70" si="44">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="22" t="str">
+        <f t="shared" ref="I64:I70" si="45">IF(OR(F64=0,E64=0)," - ",NETWORKDAYS(E64,F64))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J64" s="41"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="44"/>
+      <c r="AD64" s="44"/>
+      <c r="AE64" s="44"/>
+      <c r="AF64" s="44"/>
+      <c r="AG64" s="44"/>
+      <c r="AH64" s="44"/>
+      <c r="AI64" s="44"/>
+      <c r="AJ64" s="44"/>
+      <c r="AK64" s="44"/>
+      <c r="AL64" s="44"/>
+      <c r="AM64" s="44"/>
+      <c r="AN64" s="44"/>
+      <c r="AO64" s="44"/>
+      <c r="AP64" s="44"/>
+      <c r="AQ64" s="44"/>
+      <c r="AR64" s="44"/>
+      <c r="AS64" s="44"/>
+      <c r="AT64" s="44"/>
+      <c r="AU64" s="44"/>
+      <c r="AV64" s="44"/>
+      <c r="AW64" s="44"/>
+      <c r="AX64" s="44"/>
+      <c r="AY64" s="44"/>
+      <c r="AZ64" s="44"/>
+      <c r="BA64" s="44"/>
+      <c r="BB64" s="44"/>
+      <c r="BC64" s="44"/>
+      <c r="BD64" s="44"/>
+      <c r="BE64" s="44"/>
+      <c r="BF64" s="44"/>
+      <c r="BG64" s="44"/>
+      <c r="BH64" s="44"/>
+      <c r="BI64" s="44"/>
+      <c r="BJ64" s="44"/>
+      <c r="BK64" s="44"/>
+      <c r="BL64" s="44"/>
+      <c r="BM64" s="44"/>
+      <c r="BN64" s="44"/>
+    </row>
+    <row r="65" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B65" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="62"/>
+      <c r="E65" s="67">
+        <v>44501</v>
+      </c>
+      <c r="F65" s="69">
+        <f t="shared" si="44"/>
+        <v>44501</v>
+      </c>
+      <c r="G65" s="25">
         <v>1</v>
       </c>
-      <c r="H64" s="26">
+      <c r="H65" s="26">
         <v>0</v>
       </c>
-      <c r="I64" s="27">
-        <f t="shared" si="36"/>
+      <c r="I65" s="27">
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="J64" s="40"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="43"/>
-      <c r="Z64" s="43"/>
-      <c r="AA64" s="43"/>
-      <c r="AB64" s="43"/>
-      <c r="AC64" s="43"/>
-      <c r="AD64" s="43"/>
-      <c r="AE64" s="43"/>
-      <c r="AF64" s="43"/>
-      <c r="AG64" s="43"/>
-      <c r="AH64" s="43"/>
-      <c r="AI64" s="43"/>
-      <c r="AJ64" s="43"/>
-      <c r="AK64" s="43"/>
-      <c r="AL64" s="43"/>
-      <c r="AM64" s="43"/>
-      <c r="AN64" s="43"/>
-      <c r="AO64" s="43"/>
-      <c r="AP64" s="43"/>
-      <c r="AQ64" s="43"/>
-      <c r="AR64" s="43"/>
-      <c r="AS64" s="43"/>
-      <c r="AT64" s="43"/>
-      <c r="AU64" s="43"/>
-      <c r="AV64" s="43"/>
-      <c r="AW64" s="43"/>
-      <c r="AX64" s="43"/>
-      <c r="AY64" s="43"/>
-      <c r="AZ64" s="43"/>
-      <c r="BA64" s="43"/>
-      <c r="BB64" s="43"/>
-      <c r="BC64" s="43"/>
-      <c r="BD64" s="43"/>
-      <c r="BE64" s="43"/>
-      <c r="BF64" s="43"/>
-      <c r="BG64" s="43"/>
-      <c r="BH64" s="43"/>
-      <c r="BI64" s="43"/>
-      <c r="BJ64" s="43"/>
-      <c r="BK64" s="43"/>
-      <c r="BL64" s="43"/>
-      <c r="BM64" s="43"/>
-      <c r="BN64" s="43"/>
-    </row>
-    <row r="65" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68" t="str">
-        <f t="shared" ref="F65:F71" si="46">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="22" t="str">
-        <f t="shared" ref="I65:I71" si="47">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J65" s="41"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="44"/>
-      <c r="Y65" s="44"/>
-      <c r="Z65" s="44"/>
-      <c r="AA65" s="44"/>
-      <c r="AB65" s="44"/>
-      <c r="AC65" s="44"/>
-      <c r="AD65" s="44"/>
-      <c r="AE65" s="44"/>
-      <c r="AF65" s="44"/>
-      <c r="AG65" s="44"/>
-      <c r="AH65" s="44"/>
-      <c r="AI65" s="44"/>
-      <c r="AJ65" s="44"/>
-      <c r="AK65" s="44"/>
-      <c r="AL65" s="44"/>
-      <c r="AM65" s="44"/>
-      <c r="AN65" s="44"/>
-      <c r="AO65" s="44"/>
-      <c r="AP65" s="44"/>
-      <c r="AQ65" s="44"/>
-      <c r="AR65" s="44"/>
-      <c r="AS65" s="44"/>
-      <c r="AT65" s="44"/>
-      <c r="AU65" s="44"/>
-      <c r="AV65" s="44"/>
-      <c r="AW65" s="44"/>
-      <c r="AX65" s="44"/>
-      <c r="AY65" s="44"/>
-      <c r="AZ65" s="44"/>
-      <c r="BA65" s="44"/>
-      <c r="BB65" s="44"/>
-      <c r="BC65" s="44"/>
-      <c r="BD65" s="44"/>
-      <c r="BE65" s="44"/>
-      <c r="BF65" s="44"/>
-      <c r="BG65" s="44"/>
-      <c r="BH65" s="44"/>
-      <c r="BI65" s="44"/>
-      <c r="BJ65" s="44"/>
-      <c r="BK65" s="44"/>
-      <c r="BL65" s="44"/>
-      <c r="BM65" s="44"/>
-      <c r="BN65" s="44"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="43"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="43"/>
+      <c r="AB65" s="43"/>
+      <c r="AC65" s="43"/>
+      <c r="AD65" s="43"/>
+      <c r="AE65" s="43"/>
+      <c r="AF65" s="43"/>
+      <c r="AG65" s="43"/>
+      <c r="AH65" s="43"/>
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="43"/>
+      <c r="AK65" s="43"/>
+      <c r="AL65" s="43"/>
+      <c r="AM65" s="43"/>
+      <c r="AN65" s="43"/>
+      <c r="AO65" s="43"/>
+      <c r="AP65" s="43"/>
+      <c r="AQ65" s="43"/>
+      <c r="AR65" s="43"/>
+      <c r="AS65" s="43"/>
+      <c r="AT65" s="43"/>
+      <c r="AU65" s="43"/>
+      <c r="AV65" s="43"/>
+      <c r="AW65" s="43"/>
+      <c r="AX65" s="43"/>
+      <c r="AY65" s="43"/>
+      <c r="AZ65" s="43"/>
+      <c r="BA65" s="43"/>
+      <c r="BB65" s="43"/>
+      <c r="BC65" s="43"/>
+      <c r="BD65" s="43"/>
+      <c r="BE65" s="43"/>
+      <c r="BF65" s="43"/>
+      <c r="BG65" s="43"/>
+      <c r="BH65" s="43"/>
+      <c r="BI65" s="43"/>
+      <c r="BJ65" s="43"/>
+      <c r="BK65" s="43"/>
+      <c r="BL65" s="43"/>
+      <c r="BM65" s="43"/>
+      <c r="BN65" s="43"/>
     </row>
     <row r="66" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" s="62"/>
       <c r="E66" s="67">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="F66" s="69">
-        <f t="shared" si="46"/>
-        <v>44501</v>
+        <f t="shared" si="44"/>
+        <v>44503</v>
       </c>
       <c r="G66" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="26">
         <v>0</v>
       </c>
       <c r="I66" s="27">
-        <f t="shared" si="47"/>
-        <v>1</v>
+        <f t="shared" si="45"/>
+        <v>2</v>
       </c>
       <c r="J66" s="40"/>
       <c r="K66" s="43"/>
@@ -8779,21 +8728,21 @@
     <row r="67" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" s="62"/>
       <c r="E67" s="67">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="F67" s="69">
-        <f t="shared" si="46"/>
-        <v>44503</v>
+        <f t="shared" si="44"/>
+        <v>44504</v>
       </c>
       <c r="G67" s="25">
         <v>2</v>
@@ -8802,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="J67" s="40"/>
@@ -8866,21 +8815,21 @@
     <row r="68" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" s="62"/>
       <c r="E68" s="67">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="F68" s="69">
-        <f t="shared" si="46"/>
-        <v>44504</v>
+        <f t="shared" si="44"/>
+        <v>44506</v>
       </c>
       <c r="G68" s="25">
         <v>2</v>
@@ -8889,8 +8838,8 @@
         <v>0</v>
       </c>
       <c r="I68" s="27">
-        <f t="shared" si="47"/>
-        <v>2</v>
+        <f t="shared" si="45"/>
+        <v>1</v>
       </c>
       <c r="J68" s="40"/>
       <c r="K68" s="43"/>
@@ -8950,199 +8899,199 @@
       <c r="BM68" s="43"/>
       <c r="BN68" s="43"/>
     </row>
-    <row r="69" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="str">
+    <row r="69" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>6</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G69" s="20"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="22" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J69" s="41"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="44"/>
+      <c r="V69" s="44"/>
+      <c r="W69" s="44"/>
+      <c r="X69" s="44"/>
+      <c r="Y69" s="44"/>
+      <c r="Z69" s="44"/>
+      <c r="AA69" s="44"/>
+      <c r="AB69" s="44"/>
+      <c r="AC69" s="44"/>
+      <c r="AD69" s="44"/>
+      <c r="AE69" s="44"/>
+      <c r="AF69" s="44"/>
+      <c r="AG69" s="44"/>
+      <c r="AH69" s="44"/>
+      <c r="AI69" s="44"/>
+      <c r="AJ69" s="44"/>
+      <c r="AK69" s="44"/>
+      <c r="AL69" s="44"/>
+      <c r="AM69" s="44"/>
+      <c r="AN69" s="44"/>
+      <c r="AO69" s="44"/>
+      <c r="AP69" s="44"/>
+      <c r="AQ69" s="44"/>
+      <c r="AR69" s="44"/>
+      <c r="AS69" s="44"/>
+      <c r="AT69" s="44"/>
+      <c r="AU69" s="44"/>
+      <c r="AV69" s="44"/>
+      <c r="AW69" s="44"/>
+      <c r="AX69" s="44"/>
+      <c r="AY69" s="44"/>
+      <c r="AZ69" s="44"/>
+      <c r="BA69" s="44"/>
+      <c r="BB69" s="44"/>
+      <c r="BC69" s="44"/>
+      <c r="BD69" s="44"/>
+      <c r="BE69" s="44"/>
+      <c r="BF69" s="44"/>
+      <c r="BG69" s="44"/>
+      <c r="BH69" s="44"/>
+      <c r="BI69" s="44"/>
+      <c r="BJ69" s="44"/>
+      <c r="BK69" s="44"/>
+      <c r="BL69" s="44"/>
+      <c r="BM69" s="44"/>
+      <c r="BN69" s="44"/>
+    </row>
+    <row r="70" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B69" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="67">
+        <v>6.1</v>
+      </c>
+      <c r="B70" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="62"/>
+      <c r="E70" s="67">
         <v>44505</v>
       </c>
-      <c r="F69" s="69">
-        <f t="shared" si="46"/>
-        <v>44506</v>
-      </c>
-      <c r="G69" s="25">
+      <c r="F70" s="69">
+        <f t="shared" si="44"/>
+        <v>44508</v>
+      </c>
+      <c r="G70" s="25">
+        <v>4</v>
+      </c>
+      <c r="H70" s="26">
+        <v>0</v>
+      </c>
+      <c r="I70" s="27">
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
-      <c r="H69" s="26">
-        <v>0</v>
-      </c>
-      <c r="I69" s="27">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="J69" s="40"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="43"/>
-      <c r="Z69" s="43"/>
-      <c r="AA69" s="43"/>
-      <c r="AB69" s="43"/>
-      <c r="AC69" s="43"/>
-      <c r="AD69" s="43"/>
-      <c r="AE69" s="43"/>
-      <c r="AF69" s="43"/>
-      <c r="AG69" s="43"/>
-      <c r="AH69" s="43"/>
-      <c r="AI69" s="43"/>
-      <c r="AJ69" s="43"/>
-      <c r="AK69" s="43"/>
-      <c r="AL69" s="43"/>
-      <c r="AM69" s="43"/>
-      <c r="AN69" s="43"/>
-      <c r="AO69" s="43"/>
-      <c r="AP69" s="43"/>
-      <c r="AQ69" s="43"/>
-      <c r="AR69" s="43"/>
-      <c r="AS69" s="43"/>
-      <c r="AT69" s="43"/>
-      <c r="AU69" s="43"/>
-      <c r="AV69" s="43"/>
-      <c r="AW69" s="43"/>
-      <c r="AX69" s="43"/>
-      <c r="AY69" s="43"/>
-      <c r="AZ69" s="43"/>
-      <c r="BA69" s="43"/>
-      <c r="BB69" s="43"/>
-      <c r="BC69" s="43"/>
-      <c r="BD69" s="43"/>
-      <c r="BE69" s="43"/>
-      <c r="BF69" s="43"/>
-      <c r="BG69" s="43"/>
-      <c r="BH69" s="43"/>
-      <c r="BI69" s="43"/>
-      <c r="BJ69" s="43"/>
-      <c r="BK69" s="43"/>
-      <c r="BL69" s="43"/>
-      <c r="BM69" s="43"/>
-      <c r="BN69" s="43"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="43"/>
+      <c r="X70" s="43"/>
+      <c r="Y70" s="43"/>
+      <c r="Z70" s="43"/>
+      <c r="AA70" s="43"/>
+      <c r="AB70" s="43"/>
+      <c r="AC70" s="43"/>
+      <c r="AD70" s="43"/>
+      <c r="AE70" s="43"/>
+      <c r="AF70" s="43"/>
+      <c r="AG70" s="43"/>
+      <c r="AH70" s="43"/>
+      <c r="AI70" s="43"/>
+      <c r="AJ70" s="43"/>
+      <c r="AK70" s="43"/>
+      <c r="AL70" s="43"/>
+      <c r="AM70" s="43"/>
+      <c r="AN70" s="43"/>
+      <c r="AO70" s="43"/>
+      <c r="AP70" s="43"/>
+      <c r="AQ70" s="43"/>
+      <c r="AR70" s="43"/>
+      <c r="AS70" s="43"/>
+      <c r="AT70" s="43"/>
+      <c r="AU70" s="43"/>
+      <c r="AV70" s="43"/>
+      <c r="AW70" s="43"/>
+      <c r="AX70" s="43"/>
+      <c r="AY70" s="43"/>
+      <c r="AZ70" s="43"/>
+      <c r="BA70" s="43"/>
+      <c r="BB70" s="43"/>
+      <c r="BC70" s="43"/>
+      <c r="BD70" s="43"/>
+      <c r="BE70" s="43"/>
+      <c r="BF70" s="43"/>
+      <c r="BG70" s="43"/>
+      <c r="BH70" s="43"/>
+      <c r="BI70" s="43"/>
+      <c r="BJ70" s="43"/>
+      <c r="BK70" s="43"/>
+      <c r="BL70" s="43"/>
+      <c r="BM70" s="43"/>
+      <c r="BN70" s="43"/>
     </row>
-    <row r="70" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="22" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J70" s="41"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="44"/>
-      <c r="R70" s="44"/>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="44"/>
-      <c r="X70" s="44"/>
-      <c r="Y70" s="44"/>
-      <c r="Z70" s="44"/>
-      <c r="AA70" s="44"/>
-      <c r="AB70" s="44"/>
-      <c r="AC70" s="44"/>
-      <c r="AD70" s="44"/>
-      <c r="AE70" s="44"/>
-      <c r="AF70" s="44"/>
-      <c r="AG70" s="44"/>
-      <c r="AH70" s="44"/>
-      <c r="AI70" s="44"/>
-      <c r="AJ70" s="44"/>
-      <c r="AK70" s="44"/>
-      <c r="AL70" s="44"/>
-      <c r="AM70" s="44"/>
-      <c r="AN70" s="44"/>
-      <c r="AO70" s="44"/>
-      <c r="AP70" s="44"/>
-      <c r="AQ70" s="44"/>
-      <c r="AR70" s="44"/>
-      <c r="AS70" s="44"/>
-      <c r="AT70" s="44"/>
-      <c r="AU70" s="44"/>
-      <c r="AV70" s="44"/>
-      <c r="AW70" s="44"/>
-      <c r="AX70" s="44"/>
-      <c r="AY70" s="44"/>
-      <c r="AZ70" s="44"/>
-      <c r="BA70" s="44"/>
-      <c r="BB70" s="44"/>
-      <c r="BC70" s="44"/>
-      <c r="BD70" s="44"/>
-      <c r="BE70" s="44"/>
-      <c r="BF70" s="44"/>
-      <c r="BG70" s="44"/>
-      <c r="BH70" s="44"/>
-      <c r="BI70" s="44"/>
-      <c r="BJ70" s="44"/>
-      <c r="BK70" s="44"/>
-      <c r="BL70" s="44"/>
-      <c r="BM70" s="44"/>
-      <c r="BN70" s="44"/>
-    </row>
-    <row r="71" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B71" s="61" t="s">
-        <v>47</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.1.1</v>
+      </c>
+      <c r="B71" s="63" t="s">
+        <v>43</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" s="62"/>
       <c r="E71" s="67">
         <v>44505</v>
       </c>
       <c r="F71" s="69">
-        <f t="shared" si="46"/>
-        <v>44508</v>
+        <f t="shared" ref="F71:F72" si="46">IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
+        <v>44506</v>
       </c>
       <c r="G71" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H71" s="26">
         <v>0</v>
       </c>
       <c r="I71" s="27">
-        <f t="shared" si="47"/>
-        <v>2</v>
+        <f t="shared" ref="I71:I72" si="47">IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
+        <v>1</v>
       </c>
       <c r="J71" s="40"/>
       <c r="K71" s="43"/>
@@ -9202,24 +9151,24 @@
       <c r="BM71" s="43"/>
       <c r="BN71" s="43"/>
     </row>
-    <row r="72" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.1.1</v>
+        <v>6.1.2</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" s="62"/>
       <c r="E72" s="67">
-        <v>44505</v>
+        <v>44507</v>
       </c>
       <c r="F72" s="69">
-        <f t="shared" ref="F72:F73" si="48">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
-        <v>44506</v>
+        <f t="shared" si="46"/>
+        <v>44508</v>
       </c>
       <c r="G72" s="25">
         <v>2</v>
@@ -9228,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="27">
-        <f t="shared" ref="I72:I73" si="49">IF(OR(F72=0,E72=0)," - ",NETWORKDAYS(E72,F72))</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="J72" s="40"/>
@@ -9291,32 +9240,32 @@
     </row>
     <row r="73" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.1.2</v>
-      </c>
-      <c r="B73" s="63" t="s">
-        <v>49</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.2</v>
+      </c>
+      <c r="B73" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" s="62"/>
       <c r="E73" s="67">
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="F73" s="69">
-        <f t="shared" si="48"/>
-        <v>44508</v>
+        <f>IF(ISBLANK(E73)," - ",IF(G73=0,E73,E73+G73-1))</f>
+        <v>44512</v>
       </c>
       <c r="G73" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H73" s="26">
         <v>0</v>
       </c>
       <c r="I73" s="27">
-        <f t="shared" si="49"/>
-        <v>1</v>
+        <f>IF(OR(F73=0,E73=0)," - ",NETWORKDAYS(E73,F73))</f>
+        <v>4</v>
       </c>
       <c r="J73" s="40"/>
       <c r="K73" s="43"/>
@@ -9376,34 +9325,34 @@
       <c r="BM73" s="43"/>
       <c r="BN73" s="43"/>
     </row>
-    <row r="74" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" s="62"/>
       <c r="E74" s="67">
-        <v>44509</v>
+        <v>44513</v>
       </c>
       <c r="F74" s="69">
         <f>IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="G74" s="25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H74" s="26">
         <v>0</v>
       </c>
       <c r="I74" s="27">
         <f>IF(OR(F74=0,E74=0)," - ",NETWORKDAYS(E74,F74))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J74" s="40"/>
       <c r="K74" s="43"/>
@@ -9463,105 +9412,9 @@
       <c r="BM74" s="43"/>
       <c r="BN74" s="43"/>
     </row>
-    <row r="75" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
-      </c>
-      <c r="B75" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="67">
-        <v>44513</v>
-      </c>
-      <c r="F75" s="69">
-        <f>IF(ISBLANK(E75)," - ",IF(G75=0,E75,E75+G75-1))</f>
-        <v>44519</v>
-      </c>
-      <c r="G75" s="25">
-        <v>7</v>
-      </c>
-      <c r="H75" s="26">
-        <v>0</v>
-      </c>
-      <c r="I75" s="27">
-        <f>IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
-        <v>5</v>
-      </c>
-      <c r="J75" s="40"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="43"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="43"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="43"/>
-      <c r="AD75" s="43"/>
-      <c r="AE75" s="43"/>
-      <c r="AF75" s="43"/>
-      <c r="AG75" s="43"/>
-      <c r="AH75" s="43"/>
-      <c r="AI75" s="43"/>
-      <c r="AJ75" s="43"/>
-      <c r="AK75" s="43"/>
-      <c r="AL75" s="43"/>
-      <c r="AM75" s="43"/>
-      <c r="AN75" s="43"/>
-      <c r="AO75" s="43"/>
-      <c r="AP75" s="43"/>
-      <c r="AQ75" s="43"/>
-      <c r="AR75" s="43"/>
-      <c r="AS75" s="43"/>
-      <c r="AT75" s="43"/>
-      <c r="AU75" s="43"/>
-      <c r="AV75" s="43"/>
-      <c r="AW75" s="43"/>
-      <c r="AX75" s="43"/>
-      <c r="AY75" s="43"/>
-      <c r="AZ75" s="43"/>
-      <c r="BA75" s="43"/>
-      <c r="BB75" s="43"/>
-      <c r="BC75" s="43"/>
-      <c r="BD75" s="43"/>
-      <c r="BE75" s="43"/>
-      <c r="BF75" s="43"/>
-      <c r="BG75" s="43"/>
-      <c r="BH75" s="43"/>
-      <c r="BI75" s="43"/>
-      <c r="BJ75" s="43"/>
-      <c r="BK75" s="43"/>
-      <c r="BL75" s="43"/>
-      <c r="BM75" s="43"/>
-      <c r="BN75" s="43"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9572,10 +9425,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8 H37 H14 H46 H65:H67 H48 H10:H11 H27:H28">
-    <cfRule type="dataBar" priority="245">
+  <conditionalFormatting sqref="H8 H36 H15 H45 H64:H66 H47 H10:H11 H26:H27">
+    <cfRule type="dataBar" priority="253">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9589,25 +9451,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="71" priority="288">
+    <cfRule type="expression" dxfId="66" priority="296">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN8 K14:BN22 K10:BN11 K27:BN75">
-    <cfRule type="expression" dxfId="70" priority="291">
+  <conditionalFormatting sqref="K8:BN8 K15:BN15 K10:BN11 K17:BN74">
+    <cfRule type="expression" dxfId="65" priority="299">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="292">
+    <cfRule type="expression" dxfId="64" priority="300">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN8 K37:BN37 K14:BN14 K46:BN46 K65:BN67 K48:BN48 K10:BN11 K27:BN28">
-    <cfRule type="expression" dxfId="68" priority="251">
+  <conditionalFormatting sqref="K6:BN8 K36:BN36 K15:BN15 K45:BN45 K64:BN66 K47:BN47 K10:BN11 K26:BN27">
+    <cfRule type="expression" dxfId="63" priority="259">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="240">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9620,13 +9482,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="67" priority="241">
+  <conditionalFormatting sqref="K17:BN17">
+    <cfRule type="expression" dxfId="62" priority="249">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="236">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9639,13 +9501,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="66" priority="237">
+  <conditionalFormatting sqref="K18:BN18">
+    <cfRule type="expression" dxfId="61" priority="245">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="232">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9658,13 +9520,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="65" priority="233">
+  <conditionalFormatting sqref="K19:BN19">
+    <cfRule type="expression" dxfId="60" priority="241">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="228">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9677,13 +9539,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="64" priority="229">
+  <conditionalFormatting sqref="K20:BN20">
+    <cfRule type="expression" dxfId="59" priority="237">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="224">
+  <conditionalFormatting sqref="H21">
+    <cfRule type="dataBar" priority="232">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9696,13 +9558,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="63" priority="225">
+  <conditionalFormatting sqref="K21:BN21">
+    <cfRule type="expression" dxfId="58" priority="233">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="220">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9715,13 +9577,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="62" priority="221">
+  <conditionalFormatting sqref="K22:BN22">
+    <cfRule type="expression" dxfId="57" priority="229">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="208">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="dataBar" priority="216">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9734,13 +9596,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="61" priority="209">
+  <conditionalFormatting sqref="K24:BN24">
+    <cfRule type="expression" dxfId="56" priority="217">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="212">
+  <conditionalFormatting sqref="H23">
+    <cfRule type="dataBar" priority="220">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9753,94 +9615,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="60" priority="213">
+  <conditionalFormatting sqref="K23:BN23">
+    <cfRule type="expression" dxfId="55" priority="221">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="200">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{54C25685-29E6-483A-A497-6FC896326047}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="59" priority="202">
-      <formula>AND($E23&lt;=K$6,ROUNDDOWN(($F23-$E23+1)*$H23,0)+$E23-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="203">
-      <formula>AND(NOT(ISBLANK($E23)),$E23&lt;=K$6,$F23&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="57" priority="201">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H25">
     <cfRule type="dataBar" priority="196">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2337CE2-B5A9-43E9-A176-7AD6ACADDA1E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="56" priority="198">
-      <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="199">
-      <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="54" priority="197">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="192">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E617A5C2-D1F5-4999-B54E-36AA92C09C3D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="53" priority="194">
-      <formula>AND($E25&lt;=K$6,ROUNDDOWN(($F25-$E25+1)*$H25,0)+$E25-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="195">
-      <formula>AND(NOT(ISBLANK($E25)),$E25&lt;=K$6,$F25&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="51" priority="193">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9853,21 +9634,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="50" priority="190">
-      <formula>AND($E26&lt;=K$6,ROUNDDOWN(($F26-$E26+1)*$H26,0)+$E26-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="191">
-      <formula>AND(NOT(ISBLANK($E26)),$E26&lt;=K$6,$F26&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="48" priority="189">
+  <conditionalFormatting sqref="K25:BN25">
+    <cfRule type="expression" dxfId="54" priority="197">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="184">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9880,13 +9653,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="47" priority="185">
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="53" priority="193">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="180">
+  <conditionalFormatting sqref="H35">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9899,13 +9672,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="46" priority="181">
+  <conditionalFormatting sqref="K35:BN35">
+    <cfRule type="expression" dxfId="52" priority="189">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="176">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9918,13 +9691,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="45" priority="177">
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="51" priority="185">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="172">
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9937,13 +9710,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="44" priority="173">
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="50" priority="181">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="168">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9956,13 +9729,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="43" priority="169">
+  <conditionalFormatting sqref="K29:BN29">
+    <cfRule type="expression" dxfId="49" priority="177">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="166">
+  <conditionalFormatting sqref="H30">
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9975,13 +9748,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="42" priority="167">
+  <conditionalFormatting sqref="K30:BN30">
+    <cfRule type="expression" dxfId="48" priority="175">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="164">
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9994,13 +9767,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="41" priority="165">
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="47" priority="173">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="160">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10013,13 +9786,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="40" priority="161">
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="46" priority="169">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="158">
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10032,13 +9805,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="39" priority="159">
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="45" priority="167">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="156">
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10051,13 +9824,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="38" priority="157">
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="44" priority="165">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10071,20 +9844,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="37" priority="154">
+    <cfRule type="expression" dxfId="43" priority="162">
       <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="155">
+    <cfRule type="expression" dxfId="42" priority="163">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="35" priority="153">
+    <cfRule type="expression" dxfId="41" priority="161">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="148">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10098,20 +9871,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="34" priority="150">
+    <cfRule type="expression" dxfId="40" priority="158">
       <formula>AND($E13&lt;=K$6,ROUNDDOWN(($F13-$E13+1)*$H13,0)+$E13-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="151">
+    <cfRule type="expression" dxfId="39" priority="159">
       <formula>AND(NOT(ISBLANK($E13)),$E13&lt;=K$6,$F13&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="32" priority="149">
+    <cfRule type="expression" dxfId="38" priority="157">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="124">
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10124,13 +9897,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="31" priority="125">
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="37" priority="133">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="122">
+  <conditionalFormatting sqref="H50">
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10143,13 +9916,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="30" priority="123">
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="36" priority="131">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="120">
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10162,13 +9935,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="29" priority="121">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="35" priority="129">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="116">
+  <conditionalFormatting sqref="H56">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10181,13 +9954,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="28" priority="117">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="34" priority="125">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="110">
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10200,13 +9973,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="27" priority="111">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="33" priority="119">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="112">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10219,13 +9992,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="26" priority="113">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="32" priority="121">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="106">
+  <conditionalFormatting sqref="H60">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10238,13 +10011,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="25" priority="107">
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="31" priority="115">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="102">
+  <conditionalFormatting sqref="H54">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10257,13 +10030,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="24" priority="103">
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="30" priority="111">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:H71 H74">
-    <cfRule type="dataBar" priority="81">
+  <conditionalFormatting sqref="H69:H70 H73">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10276,13 +10049,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN71 K74:BN74">
-    <cfRule type="expression" dxfId="23" priority="82">
+  <conditionalFormatting sqref="K69:BN70 K73:BN73">
+    <cfRule type="expression" dxfId="29" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="dataBar" priority="77">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10295,13 +10068,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="22" priority="78">
+  <conditionalFormatting sqref="K71:BN71">
+    <cfRule type="expression" dxfId="28" priority="86">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="dataBar" priority="73">
+  <conditionalFormatting sqref="H72">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10314,13 +10087,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="21" priority="74">
+  <conditionalFormatting sqref="K72:BN72">
+    <cfRule type="expression" dxfId="27" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10333,13 +10106,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="20" priority="70">
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="26" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="67">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10352,13 +10125,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="19" priority="68">
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="25" priority="76">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10371,13 +10144,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="18" priority="66">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="24" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="63">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10390,13 +10163,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="17" priority="64">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="23" priority="72">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10409,13 +10182,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="16" priority="60">
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="22" priority="68">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="dataBar" priority="55">
+  <conditionalFormatting sqref="H68">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10428,13 +10201,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="15" priority="56">
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="21" priority="64">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="dataBar" priority="51">
+  <conditionalFormatting sqref="H67">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10447,13 +10220,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="14" priority="52">
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="20" priority="60">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="H49">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10466,13 +10239,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="13" priority="48">
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="19" priority="56">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10485,13 +10258,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="12" priority="42">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="18" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="H53">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10504,13 +10277,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="11" priority="38">
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="17" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10523,13 +10296,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="10" priority="34">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="16" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10542,13 +10315,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="9" priority="30">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="15" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10561,13 +10334,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="8" priority="26">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="14" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10580,13 +10353,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="7" priority="22">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="13" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10599,13 +10372,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="6" priority="18">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10618,13 +10391,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="5" priority="14">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="11" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="H74">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10637,13 +10410,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="4" priority="10">
+  <conditionalFormatting sqref="K74:BN74">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10656,13 +10429,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10676,14 +10449,68 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:BN9">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND($E9&lt;=K$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=K$6,$F9&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:BN9">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EBC06A60-A831-4A9B-AD6D-BCA74C28EA32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:BN14">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND($E14&lt;=K$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$6,$F14&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:BN14">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3AE4715B-DA40-4B4C-B7F9-4968EF664782}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:BN16">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E9&lt;=K$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=K$6)</formula>
+      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=K$6,$F9&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:BN9">
+      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:BN16">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -10698,8 +10525,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H10 E27 E46 E65 G27:H27 G46:H46 G65:H66 H37 H28 H67" unlockedFormula="1"/>
-    <ignoredError sqref="A65 A46 A27" formula="1"/>
+    <ignoredError sqref="H10 E26 E45 E64 G26:H26 G45:H45 G64:H65 H36 H27 H66" unlockedFormula="1"/>
+    <ignoredError sqref="A64 A45 A26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -10747,7 +10574,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8 H37 H14 H46 H65:H67 H48 H10:H11 H27:H28</xm:sqref>
+          <xm:sqref>H8 H36 H15 H45 H64:H66 H47 H10:H11 H26:H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59B11CE9-8D87-48BF-BF74-F1713D212F51}">
@@ -10762,7 +10589,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
+          <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{26298849-C3DF-421D-B1F5-9C05159E48C2}">
@@ -10777,7 +10604,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
+          <xm:sqref>H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{000E9F1E-0838-4E3E-9001-0AE1E446E6D4}">
@@ -10792,7 +10619,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H17</xm:sqref>
+          <xm:sqref>H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3974BECB-F62E-40EF-B7B9-6E60CFEA6B84}">
@@ -10807,7 +10634,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H18</xm:sqref>
+          <xm:sqref>H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D39096DD-3CAF-4058-A64A-B4DA89815299}">
@@ -10822,7 +10649,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H19</xm:sqref>
+          <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F44046CB-17AE-4883-A9B7-9BB6DD16C51F}">
@@ -10837,7 +10664,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H20</xm:sqref>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{919E46F7-70B0-4E80-B512-D790B7B5A633}">
@@ -10852,7 +10679,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
+          <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2ED03B47-EE01-4BB6-96B9-42BA0F309DA5}">
@@ -10867,40 +10694,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{54C25685-29E6-483A-A497-6FC896326047}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
           <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E2337CE2-B5A9-43E9-A176-7AD6ACADDA1E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E617A5C2-D1F5-4999-B54E-36AA92C09C3D}">
+          <x14:cfRule type="dataBar" id="{6CA7D3CA-7D2C-41CD-B9D9-15B6D2B75B7F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10915,7 +10712,7 @@
           <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6CA7D3CA-7D2C-41CD-B9D9-15B6D2B75B7F}">
+          <x14:cfRule type="dataBar" id="{0D82FF46-5137-40A3-A6D8-BE03B33EB610}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10927,10 +10724,55 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
+          <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0D82FF46-5137-40A3-A6D8-BE03B33EB610}">
+          <x14:cfRule type="dataBar" id="{E1771E53-3AD1-430E-A8E6-F4743135981B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{80ED302E-9A51-4525-993F-2B76381C0769}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{23F127D9-9575-4355-BD03-1BB9057DD4DD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0E337609-ACBA-4668-B5A0-2BDD495BE39D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10945,52 +10787,7 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1771E53-3AD1-430E-A8E6-F4743135981B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{80ED302E-9A51-4525-993F-2B76381C0769}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{23F127D9-9575-4355-BD03-1BB9057DD4DD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0E337609-ACBA-4668-B5A0-2BDD495BE39D}">
+          <x14:cfRule type="dataBar" id="{554A9F1E-BF5C-467E-8086-9B01909C20E5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11005,7 +10802,7 @@
           <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{554A9F1E-BF5C-467E-8086-9B01909C20E5}">
+          <x14:cfRule type="dataBar" id="{8F15EAED-48CB-4BDE-A4C3-8C904165ED0E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11020,7 +10817,7 @@
           <xm:sqref>H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8F15EAED-48CB-4BDE-A4C3-8C904165ED0E}">
+          <x14:cfRule type="dataBar" id="{CDA1F19A-65EB-4458-BAFE-7B95F2F3950D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11035,7 +10832,7 @@
           <xm:sqref>H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CDA1F19A-65EB-4458-BAFE-7B95F2F3950D}">
+          <x14:cfRule type="dataBar" id="{36EA0327-A3EF-4FA9-8EF4-AE533F50DEA9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11050,7 +10847,7 @@
           <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{36EA0327-A3EF-4FA9-8EF4-AE533F50DEA9}">
+          <x14:cfRule type="dataBar" id="{7ADB1AF6-20D8-4DB6-9648-ADCC9AF97510}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11063,21 +10860,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7ADB1AF6-20D8-4DB6-9648-ADCC9AF97510}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0185AD77-8DD3-4A88-B2FB-B7A6B63A3C2A}">
@@ -11122,7 +10904,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
+          <xm:sqref>H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F5B88501-27FF-4CC8-84E9-D9610DFAFC9C}">
@@ -11137,7 +10919,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
+          <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2ADCC9E0-CFB5-4DED-9CCD-A8BDE5EE6779}">
@@ -11152,7 +10934,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
+          <xm:sqref>H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EE84C52D-6157-4E7F-B877-539A39A2D79F}">
@@ -11167,7 +10949,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
+          <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FC173D3B-A71F-4841-8FEE-9D3D1C1C6AAD}">
@@ -11182,7 +10964,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H63</xm:sqref>
+          <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93820E9B-DFA8-4118-B762-3FD0E66C0003}">
@@ -11197,7 +10979,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
+          <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{92FA5D0A-F65A-4CF7-AE23-4592944CB9F3}">
@@ -11212,7 +10994,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
+          <xm:sqref>H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51520B4E-13B4-4505-9824-AF1555C8DC52}">
@@ -11227,7 +11009,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
+          <xm:sqref>H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A0558DD-38BD-42B8-9B31-1F96890FC709}">
@@ -11242,7 +11024,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H70:H71 H74</xm:sqref>
+          <xm:sqref>H69:H70 H73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{84AB0ABF-A82B-4950-BC7F-9E3DE674CBEE}">
@@ -11257,7 +11039,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
+          <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{19041C87-12FB-4339-B66F-2ED2C9BB9BE4}">
@@ -11272,7 +11054,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H73</xm:sqref>
+          <xm:sqref>H72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F0BB4220-F045-4A7B-B213-4C370DB0FDF3}">
@@ -11287,7 +11069,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
+          <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D05A7261-1687-42BA-9C7A-BE780C1B9748}">
@@ -11302,7 +11084,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
+          <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E2E2D14B-B1C9-4C94-B98C-1FF10C49C3CD}">
@@ -11317,7 +11099,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
+          <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D3C4557-8138-4691-95AC-6B5AC1D3D9FB}">
@@ -11332,7 +11114,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17272C0C-E1AA-4F4A-AF4F-51740FABDC6A}">
@@ -11347,7 +11129,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
+          <xm:sqref>H46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{244463A8-2C09-48DD-9B25-E9B4D3B75AC7}">
@@ -11362,7 +11144,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
+          <xm:sqref>H68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{15DECAB3-CA3B-49A0-950D-FD82995C6384}">
@@ -11377,7 +11159,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H68</xm:sqref>
+          <xm:sqref>H67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BCAEF73-815D-4404-976A-A447BC1FDCEF}">
@@ -11392,7 +11174,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
+          <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{25FA016E-6803-4E22-9C76-663074DE3501}">
@@ -11407,7 +11189,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
+          <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93F908A3-1FF8-4D9B-8EFF-60F796C59B73}">
@@ -11422,7 +11204,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
+          <xm:sqref>H53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C9CD4C7A-232F-4EDC-94FD-A5A31C464A29}">
@@ -11437,7 +11219,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C40B286B-F49F-4C25-B272-FE733A695459}">
@@ -11452,7 +11234,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
+          <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{32AAC8E5-7840-4B83-A4A3-3991FE10D0CA}">
@@ -11467,7 +11249,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
+          <xm:sqref>H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B939AED-C1EC-4F3B-95B9-6B540A5A31A2}">
@@ -11482,7 +11264,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B1A73DCF-EC56-4BEB-A4C3-D6BEDBE7248B}">
@@ -11497,7 +11279,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
+          <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D30E9DB7-6469-4A74-8541-458DA506F362}">
@@ -11512,7 +11294,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
+          <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F5DCAA9-E51B-41E1-ABED-98B4180687C9}">
@@ -11527,7 +11309,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H75</xm:sqref>
+          <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F7D37A11-F81A-43B9-9013-6FC0D07E8F9D}">
@@ -11542,7 +11324,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{231F956C-6F8E-400D-95A0-95D859A5C02E}">
@@ -11559,6 +11341,36 @@
           </x14:cfRule>
           <xm:sqref>H9</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EBC06A60-A831-4A9B-AD6D-BCA74C28EA32}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3AE4715B-DA40-4B4C-B7F9-4968EF664782}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H16</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB775EB-6BAB-4BA1-B489-9B8A4024FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752947DB-D8DA-4F5A-B6DE-8CAC100199C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,13 +1541,6 @@
     <xf numFmtId="168" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1557,10 +1550,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,6 +1558,17 @@
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2858,8 +2858,8 @@
   <dimension ref="A1:BN74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2887,29 +2887,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -2954,11 +2954,11 @@
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="78">
         <v>44459</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
@@ -2968,182 +2968,182 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="72" t="str">
+      <c r="K4" s="70" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="72" t="str">
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="70" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="72" t="str">
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="70" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="72" t="str">
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="70" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="72" t="str">
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="70" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="72" t="str">
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="70" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="72" t="str">
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="70" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="73"/>
-      <c r="BG4" s="74"/>
-      <c r="BH4" s="72" t="str">
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="70" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="73"/>
-      <c r="BM4" s="73"/>
-      <c r="BN4" s="74"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="72"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="76">
+      <c r="K5" s="73">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="76">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="73">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="76">
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="73">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="76">
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="73">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="76">
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="73">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="78"/>
-      <c r="AT5" s="76">
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="73">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="77"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="78"/>
-      <c r="BA5" s="76">
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="73">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="77"/>
-      <c r="BF5" s="77"/>
-      <c r="BG5" s="78"/>
-      <c r="BH5" s="76">
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74"/>
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="75"/>
+      <c r="BH5" s="73">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="77"/>
-      <c r="BJ5" s="77"/>
-      <c r="BK5" s="77"/>
-      <c r="BL5" s="77"/>
-      <c r="BM5" s="77"/>
-      <c r="BN5" s="78"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="74"/>
+      <c r="BK5" s="74"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="74"/>
+      <c r="BN5" s="75"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -4599,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="27">
         <f t="shared" ref="I19:I24" si="17">IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="27">
         <f t="shared" si="17"/>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="27">
         <f t="shared" si="17"/>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="27">
         <f t="shared" si="17"/>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="27">
         <f t="shared" si="17"/>
@@ -5034,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="27">
         <f t="shared" si="17"/>
@@ -9415,6 +9415,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9425,15 +9434,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8 H36 H15 H45 H64:H66 H47 H10:H11 H26:H27">

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752947DB-D8DA-4F5A-B6DE-8CAC100199C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5190E75-F256-4D4E-8BED-FE067EF16288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>WBS</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>Use case description</t>
+  </si>
+  <si>
+    <t>Make class diagram</t>
   </si>
 </sst>
 </file>
@@ -1541,6 +1544,13 @@
     <xf numFmtId="168" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1550,6 +1560,10 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1558,17 +1572,6 @@
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1617,7 +1620,33 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="70">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2855,11 +2884,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN74"/>
+  <dimension ref="A1:BN75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2887,29 +2916,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -2954,11 +2983,11 @@
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="75">
         <v>44459</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
@@ -2968,182 +2997,182 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="70" t="str">
+      <c r="K4" s="72" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="70" t="str">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="72" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="70" t="str">
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="72" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="70" t="str">
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="72" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="70" t="str">
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="72" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="70" t="str">
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="72" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="70" t="str">
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="72" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="70" t="str">
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="73"/>
+      <c r="BD4" s="73"/>
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="73"/>
+      <c r="BG4" s="74"/>
+      <c r="BH4" s="72" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="72"/>
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="73"/>
+      <c r="BM4" s="73"/>
+      <c r="BN4" s="74"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="73">
+      <c r="K5" s="76">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="73">
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="76">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="73">
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="76">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="73">
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="76">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="73">
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="76">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="75"/>
-      <c r="AT5" s="73">
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="76">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="73">
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="77"/>
+      <c r="AX5" s="77"/>
+      <c r="AY5" s="77"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="76">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="74"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="75"/>
-      <c r="BH5" s="73">
+      <c r="BB5" s="77"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="77"/>
+      <c r="BE5" s="77"/>
+      <c r="BF5" s="77"/>
+      <c r="BG5" s="78"/>
+      <c r="BH5" s="76">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="74"/>
-      <c r="BK5" s="74"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="74"/>
-      <c r="BN5" s="75"/>
+      <c r="BI5" s="77"/>
+      <c r="BJ5" s="77"/>
+      <c r="BK5" s="77"/>
+      <c r="BL5" s="77"/>
+      <c r="BM5" s="77"/>
+      <c r="BN5" s="78"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -3653,7 +3682,7 @@
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
       <c r="I8" s="36" t="str">
-        <f t="shared" ref="I8:I36" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I37" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="39"/>
@@ -3904,7 +3933,7 @@
         <v>44459</v>
       </c>
       <c r="F11" s="69">
-        <f t="shared" ref="F11:F36" si="8">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <f t="shared" ref="F11:F37" si="8">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
         <v>44461</v>
       </c>
       <c r="G11" s="25">
@@ -5100,7 +5129,7 @@
     </row>
     <row r="25" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="str">
-        <f t="shared" ref="A25" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A25:A26" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
       <c r="B25" s="61" t="s">
@@ -5115,17 +5144,17 @@
       </c>
       <c r="F25" s="69">
         <f t="shared" ref="F25" si="19">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
-        <v>44471</v>
+        <v>44475</v>
       </c>
       <c r="G25" s="25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H25" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="27">
         <f t="shared" ref="I25" si="20">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="43"/>
@@ -5185,199 +5214,199 @@
       <c r="BM25" s="43"/>
       <c r="BN25" s="43"/>
     </row>
-    <row r="26" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="str">
+    <row r="26" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="18"/>
+        <v>2.4</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="67">
+        <v>44476</v>
+      </c>
+      <c r="F26" s="69">
+        <f t="shared" ref="F26" si="21">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>44476</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" ref="I26" si="22">IF(OR(F26=0,E26=0)," - ",NETWORKDAYS(E26,F26))</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43"/>
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="43"/>
+      <c r="AS26" s="43"/>
+      <c r="AT26" s="43"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="43"/>
+      <c r="AW26" s="43"/>
+      <c r="AX26" s="43"/>
+      <c r="AY26" s="43"/>
+      <c r="AZ26" s="43"/>
+      <c r="BA26" s="43"/>
+      <c r="BB26" s="43"/>
+      <c r="BC26" s="43"/>
+      <c r="BD26" s="43"/>
+      <c r="BE26" s="43"/>
+      <c r="BF26" s="43"/>
+      <c r="BG26" s="43"/>
+      <c r="BH26" s="43"/>
+      <c r="BI26" s="43"/>
+      <c r="BJ26" s="43"/>
+      <c r="BK26" s="43"/>
+      <c r="BL26" s="43"/>
+      <c r="BM26" s="43"/>
+      <c r="BN26" s="43"/>
+    </row>
+    <row r="27" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68" t="str">
+      <c r="D27" s="19"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22" t="str">
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="44"/>
-      <c r="BA26" s="44"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="44"/>
-      <c r="BD26" s="44"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="44"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="44"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="44"/>
-      <c r="BK26" s="44"/>
-      <c r="BL26" s="44"/>
-      <c r="BM26" s="44"/>
-      <c r="BN26" s="44"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="44"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="44"/>
+      <c r="BC27" s="44"/>
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="44"/>
+      <c r="BF27" s="44"/>
+      <c r="BG27" s="44"/>
+      <c r="BH27" s="44"/>
+      <c r="BI27" s="44"/>
+      <c r="BJ27" s="44"/>
+      <c r="BK27" s="44"/>
+      <c r="BL27" s="44"/>
+      <c r="BM27" s="44"/>
+      <c r="BN27" s="44"/>
     </row>
-    <row r="27" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="str">
+    <row r="28" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B28" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C28" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="67">
-        <v>44473</v>
-      </c>
-      <c r="F27" s="69">
+      <c r="D28" s="62"/>
+      <c r="E28" s="67">
+        <v>44487</v>
+      </c>
+      <c r="F28" s="69">
         <f t="shared" si="8"/>
-        <v>44475</v>
-      </c>
-      <c r="G27" s="25">
+        <v>44489</v>
+      </c>
+      <c r="G28" s="25">
         <v>3</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H28" s="26">
         <v>0</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I28" s="27">
         <f t="shared" si="4"/>
         <v>3</v>
-      </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="43"/>
-      <c r="AJ27" s="43"/>
-      <c r="AK27" s="43"/>
-      <c r="AL27" s="43"/>
-      <c r="AM27" s="43"/>
-      <c r="AN27" s="43"/>
-      <c r="AO27" s="43"/>
-      <c r="AP27" s="43"/>
-      <c r="AQ27" s="43"/>
-      <c r="AR27" s="43"/>
-      <c r="AS27" s="43"/>
-      <c r="AT27" s="43"/>
-      <c r="AU27" s="43"/>
-      <c r="AV27" s="43"/>
-      <c r="AW27" s="43"/>
-      <c r="AX27" s="43"/>
-      <c r="AY27" s="43"/>
-      <c r="AZ27" s="43"/>
-      <c r="BA27" s="43"/>
-      <c r="BB27" s="43"/>
-      <c r="BC27" s="43"/>
-      <c r="BD27" s="43"/>
-      <c r="BE27" s="43"/>
-      <c r="BF27" s="43"/>
-      <c r="BG27" s="43"/>
-      <c r="BH27" s="43"/>
-      <c r="BI27" s="43"/>
-      <c r="BJ27" s="43"/>
-      <c r="BK27" s="43"/>
-      <c r="BL27" s="43"/>
-      <c r="BM27" s="43"/>
-      <c r="BN27" s="43"/>
-    </row>
-    <row r="28" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="67">
-        <v>44473</v>
-      </c>
-      <c r="F28" s="69">
-        <f t="shared" si="8"/>
-        <v>44473</v>
-      </c>
-      <c r="G28" s="25">
-        <v>1</v>
-      </c>
-      <c r="H28" s="26">
-        <v>0</v>
-      </c>
-      <c r="I28" s="27">
-        <f t="shared" si="4"/>
-        <v>1</v>
       </c>
       <c r="J28" s="40"/>
       <c r="K28" s="43"/>
@@ -5437,24 +5466,24 @@
       <c r="BM28" s="43"/>
       <c r="BN28" s="43"/>
     </row>
-    <row r="29" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
-        <f t="shared" ref="A29:A35" si="21">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="67">
-        <v>44474</v>
+        <v>44487</v>
       </c>
       <c r="F29" s="69">
         <f t="shared" si="8"/>
-        <v>44474</v>
+        <v>44487</v>
       </c>
       <c r="G29" s="25">
         <v>1</v>
@@ -5526,22 +5555,22 @@
     </row>
     <row r="30" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>3.1.1.2</v>
+        <f t="shared" ref="A30:A36" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.1</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="62"/>
       <c r="E30" s="67">
-        <v>44474</v>
+        <v>44488</v>
       </c>
       <c r="F30" s="69">
         <f t="shared" si="8"/>
-        <v>44474</v>
+        <v>44488</v>
       </c>
       <c r="G30" s="25">
         <v>1</v>
@@ -5613,22 +5642,22 @@
     </row>
     <row r="31" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>3.1.1.3</v>
+        <f t="shared" si="23"/>
+        <v>3.1.1.2</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="67">
-        <v>44474</v>
+        <v>44488</v>
       </c>
       <c r="F31" s="69">
         <f t="shared" si="8"/>
-        <v>44474</v>
+        <v>44488</v>
       </c>
       <c r="G31" s="25">
         <v>1</v>
@@ -5700,22 +5729,22 @@
     </row>
     <row r="32" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>3.1.1.4</v>
+        <f t="shared" si="23"/>
+        <v>3.1.1.3</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="62"/>
       <c r="E32" s="67">
-        <v>44475</v>
+        <v>44488</v>
       </c>
       <c r="F32" s="69">
         <f t="shared" si="8"/>
-        <v>44475</v>
+        <v>44488</v>
       </c>
       <c r="G32" s="25">
         <v>1</v>
@@ -5787,22 +5816,22 @@
     </row>
     <row r="33" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>3.1.1.5</v>
+        <f t="shared" si="23"/>
+        <v>3.1.1.4</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="62"/>
       <c r="E33" s="67">
-        <v>44475</v>
+        <v>44489</v>
       </c>
       <c r="F33" s="69">
         <f t="shared" si="8"/>
-        <v>44475</v>
+        <v>44489</v>
       </c>
       <c r="G33" s="25">
         <v>1</v>
@@ -5872,24 +5901,24 @@
       <c r="BM33" s="43"/>
       <c r="BN33" s="43"/>
     </row>
-    <row r="34" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>3.1.1.6</v>
+        <f t="shared" si="23"/>
+        <v>3.1.1.5</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="62"/>
       <c r="E34" s="67">
-        <v>44475</v>
+        <v>44489</v>
       </c>
       <c r="F34" s="69">
         <f t="shared" si="8"/>
-        <v>44475</v>
+        <v>44489</v>
       </c>
       <c r="G34" s="25">
         <v>1</v>
@@ -5961,22 +5990,22 @@
     </row>
     <row r="35" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>3.1.1.7</v>
+        <f t="shared" si="23"/>
+        <v>3.1.1.6</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="62"/>
       <c r="E35" s="67">
-        <v>44475</v>
+        <v>44489</v>
       </c>
       <c r="F35" s="69">
-        <f t="shared" ref="F35" si="22">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
-        <v>44475</v>
+        <f t="shared" si="8"/>
+        <v>44489</v>
       </c>
       <c r="G35" s="25">
         <v>1</v>
@@ -5985,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="27">
-        <f t="shared" ref="I35" si="23">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J35" s="40"/>
@@ -6048,22 +6077,22 @@
     </row>
     <row r="36" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B36" s="61" t="s">
-        <v>30</v>
+        <f t="shared" si="23"/>
+        <v>3.1.1.7</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>29</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="62"/>
       <c r="E36" s="67">
-        <v>44475</v>
+        <v>44489</v>
       </c>
       <c r="F36" s="69">
-        <f t="shared" si="8"/>
-        <v>44475</v>
+        <f t="shared" ref="F36" si="24">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <v>44489</v>
       </c>
       <c r="G36" s="25">
         <v>1</v>
@@ -6072,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I36" si="25">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
         <v>1</v>
       </c>
       <c r="J36" s="40"/>
@@ -6133,24 +6162,24 @@
       <c r="BM36" s="43"/>
       <c r="BN36" s="43"/>
     </row>
-    <row r="37" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
-      </c>
-      <c r="B37" s="63" t="s">
-        <v>31</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>30</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="62"/>
       <c r="E37" s="67">
-        <v>44475</v>
+        <v>44489</v>
       </c>
       <c r="F37" s="69">
-        <f t="shared" ref="F37" si="24">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
-        <v>44475</v>
+        <f t="shared" si="8"/>
+        <v>44489</v>
       </c>
       <c r="G37" s="25">
         <v>1</v>
@@ -6159,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="27">
-        <f t="shared" ref="I37" si="25">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J37" s="40"/>
@@ -6223,21 +6252,21 @@
     <row r="38" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.2</v>
+        <v>3.2.1</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="62"/>
       <c r="E38" s="67">
-        <v>44475</v>
+        <v>44489</v>
       </c>
       <c r="F38" s="69">
         <f t="shared" ref="F38" si="26">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
-        <v>44475</v>
+        <v>44489</v>
       </c>
       <c r="G38" s="25">
         <v>1</v>
@@ -6309,32 +6338,32 @@
     </row>
     <row r="39" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B39" s="61" t="s">
-        <v>57</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.2</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>32</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="62"/>
       <c r="E39" s="67">
-        <v>44476</v>
+        <v>44489</v>
       </c>
       <c r="F39" s="69">
-        <f>IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
-        <v>44478</v>
+        <f t="shared" ref="F39" si="28">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <v>44489</v>
       </c>
       <c r="G39" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" s="26">
         <v>0</v>
       </c>
       <c r="I39" s="27">
-        <f>IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
-        <v>2</v>
+        <f t="shared" ref="I39" si="29">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
+        <v>1</v>
       </c>
       <c r="J39" s="40"/>
       <c r="K39" s="43"/>
@@ -6397,31 +6426,31 @@
     <row r="40" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="62"/>
       <c r="E40" s="67">
-        <v>44481</v>
+        <v>44490</v>
       </c>
       <c r="F40" s="69">
         <f>IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
-        <v>44484</v>
+        <v>44492</v>
       </c>
       <c r="G40" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="26">
         <v>0</v>
       </c>
       <c r="I40" s="27">
         <f>IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J40" s="40"/>
       <c r="K40" s="43"/>
@@ -6483,32 +6512,32 @@
     </row>
     <row r="41" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.1</v>
-      </c>
-      <c r="B41" s="63" t="s">
-        <v>35</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>49</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="62"/>
       <c r="E41" s="67">
-        <v>44481</v>
+        <v>44493</v>
       </c>
       <c r="F41" s="69">
-        <f t="shared" ref="F41:F43" si="28">IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
-        <v>44481</v>
+        <f>IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
+        <v>44496</v>
       </c>
       <c r="G41" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41" s="26">
         <v>0</v>
       </c>
       <c r="I41" s="27">
-        <f t="shared" ref="I41:I43" si="29">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
-        <v>1</v>
+        <f>IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
+        <v>3</v>
       </c>
       <c r="J41" s="40"/>
       <c r="K41" s="43"/>
@@ -6568,24 +6597,24 @@
       <c r="BM41" s="43"/>
       <c r="BN41" s="43"/>
     </row>
-    <row r="42" spans="1:66" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.2</v>
+        <v>3.4.1</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="62"/>
       <c r="E42" s="67">
-        <v>44482</v>
+        <v>44493</v>
       </c>
       <c r="F42" s="69">
-        <f t="shared" si="28"/>
-        <v>44482</v>
+        <f t="shared" ref="F42:F44" si="30">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <v>44493</v>
       </c>
       <c r="G42" s="25">
         <v>1</v>
@@ -6594,8 +6623,8 @@
         <v>0</v>
       </c>
       <c r="I42" s="27">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" ref="I42:I44" si="31">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+        <v>0</v>
       </c>
       <c r="J42" s="40"/>
       <c r="K42" s="43"/>
@@ -6655,34 +6684,34 @@
       <c r="BM42" s="43"/>
       <c r="BN42" s="43"/>
     </row>
-    <row r="43" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.3</v>
+        <v>3.4.2</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="62"/>
       <c r="E43" s="67">
-        <v>44483</v>
+        <v>44493</v>
       </c>
       <c r="F43" s="69">
-        <f t="shared" si="28"/>
-        <v>44484</v>
+        <f t="shared" si="30"/>
+        <v>44493</v>
       </c>
       <c r="G43" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="26">
         <v>0</v>
       </c>
       <c r="I43" s="27">
-        <f t="shared" si="29"/>
-        <v>2</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="J43" s="40"/>
       <c r="K43" s="43"/>
@@ -6744,31 +6773,31 @@
     </row>
     <row r="44" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B44" s="61" t="s">
-        <v>55</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.4.3</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="62"/>
       <c r="E44" s="67">
-        <v>44483</v>
+        <v>44493</v>
       </c>
       <c r="F44" s="69">
-        <f>IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
-        <v>44483</v>
+        <f t="shared" si="30"/>
+        <v>44494</v>
       </c>
       <c r="G44" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="26">
         <v>0</v>
       </c>
       <c r="I44" s="27">
-        <f>IF(OR(F44=0,E44=0)," - ",NETWORKDAYS(E44,F44))</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J44" s="40"/>
@@ -6829,199 +6858,199 @@
       <c r="BM44" s="43"/>
       <c r="BN44" s="43"/>
     </row>
-    <row r="45" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="str">
+    <row r="45" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="62"/>
+      <c r="E45" s="67">
+        <v>44493</v>
+      </c>
+      <c r="F45" s="69">
+        <f>IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
+        <v>44493</v>
+      </c>
+      <c r="G45" s="25">
+        <v>1</v>
+      </c>
+      <c r="H45" s="26">
+        <v>0</v>
+      </c>
+      <c r="I45" s="27">
+        <f>IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="40"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="43"/>
+      <c r="AE45" s="43"/>
+      <c r="AF45" s="43"/>
+      <c r="AG45" s="43"/>
+      <c r="AH45" s="43"/>
+      <c r="AI45" s="43"/>
+      <c r="AJ45" s="43"/>
+      <c r="AK45" s="43"/>
+      <c r="AL45" s="43"/>
+      <c r="AM45" s="43"/>
+      <c r="AN45" s="43"/>
+      <c r="AO45" s="43"/>
+      <c r="AP45" s="43"/>
+      <c r="AQ45" s="43"/>
+      <c r="AR45" s="43"/>
+      <c r="AS45" s="43"/>
+      <c r="AT45" s="43"/>
+      <c r="AU45" s="43"/>
+      <c r="AV45" s="43"/>
+      <c r="AW45" s="43"/>
+      <c r="AX45" s="43"/>
+      <c r="AY45" s="43"/>
+      <c r="AZ45" s="43"/>
+      <c r="BA45" s="43"/>
+      <c r="BB45" s="43"/>
+      <c r="BC45" s="43"/>
+      <c r="BD45" s="43"/>
+      <c r="BE45" s="43"/>
+      <c r="BF45" s="43"/>
+      <c r="BG45" s="43"/>
+      <c r="BH45" s="43"/>
+      <c r="BI45" s="43"/>
+      <c r="BJ45" s="43"/>
+      <c r="BK45" s="43"/>
+      <c r="BL45" s="43"/>
+      <c r="BM45" s="43"/>
+      <c r="BN45" s="43"/>
+    </row>
+    <row r="46" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B46" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68" t="str">
-        <f>IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
+      <c r="D46" s="19"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68" t="str">
+        <f>IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="22" t="str">
-        <f>IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22" t="str">
+        <f>IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J45" s="41"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AF45" s="44"/>
-      <c r="AG45" s="44"/>
-      <c r="AH45" s="44"/>
-      <c r="AI45" s="44"/>
-      <c r="AJ45" s="44"/>
-      <c r="AK45" s="44"/>
-      <c r="AL45" s="44"/>
-      <c r="AM45" s="44"/>
-      <c r="AN45" s="44"/>
-      <c r="AO45" s="44"/>
-      <c r="AP45" s="44"/>
-      <c r="AQ45" s="44"/>
-      <c r="AR45" s="44"/>
-      <c r="AS45" s="44"/>
-      <c r="AT45" s="44"/>
-      <c r="AU45" s="44"/>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
-      <c r="BB45" s="44"/>
-      <c r="BC45" s="44"/>
-      <c r="BD45" s="44"/>
-      <c r="BE45" s="44"/>
-      <c r="BF45" s="44"/>
-      <c r="BG45" s="44"/>
-      <c r="BH45" s="44"/>
-      <c r="BI45" s="44"/>
-      <c r="BJ45" s="44"/>
-      <c r="BK45" s="44"/>
-      <c r="BL45" s="44"/>
-      <c r="BM45" s="44"/>
-      <c r="BN45" s="44"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="44"/>
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44"/>
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="44"/>
+      <c r="AT46" s="44"/>
+      <c r="AU46" s="44"/>
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="44"/>
+      <c r="AX46" s="44"/>
+      <c r="AY46" s="44"/>
+      <c r="AZ46" s="44"/>
+      <c r="BA46" s="44"/>
+      <c r="BB46" s="44"/>
+      <c r="BC46" s="44"/>
+      <c r="BD46" s="44"/>
+      <c r="BE46" s="44"/>
+      <c r="BF46" s="44"/>
+      <c r="BG46" s="44"/>
+      <c r="BH46" s="44"/>
+      <c r="BI46" s="44"/>
+      <c r="BJ46" s="44"/>
+      <c r="BK46" s="44"/>
+      <c r="BL46" s="44"/>
+      <c r="BM46" s="44"/>
+      <c r="BN46" s="44"/>
     </row>
-    <row r="46" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="str">
+    <row r="47" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B47" s="63" t="s">
         <v>39</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="67">
-        <v>44484</v>
-      </c>
-      <c r="F46" s="69">
-        <f t="shared" ref="F46" si="30">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
-        <v>44484</v>
-      </c>
-      <c r="G46" s="25">
-        <v>1</v>
-      </c>
-      <c r="H46" s="26">
-        <v>0</v>
-      </c>
-      <c r="I46" s="27">
-        <f t="shared" ref="I46" si="31">IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
-        <v>1</v>
-      </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="43"/>
-      <c r="AC46" s="43"/>
-      <c r="AD46" s="43"/>
-      <c r="AE46" s="43"/>
-      <c r="AF46" s="43"/>
-      <c r="AG46" s="43"/>
-      <c r="AH46" s="43"/>
-      <c r="AI46" s="43"/>
-      <c r="AJ46" s="43"/>
-      <c r="AK46" s="43"/>
-      <c r="AL46" s="43"/>
-      <c r="AM46" s="43"/>
-      <c r="AN46" s="43"/>
-      <c r="AO46" s="43"/>
-      <c r="AP46" s="43"/>
-      <c r="AQ46" s="43"/>
-      <c r="AR46" s="43"/>
-      <c r="AS46" s="43"/>
-      <c r="AT46" s="43"/>
-      <c r="AU46" s="43"/>
-      <c r="AV46" s="43"/>
-      <c r="AW46" s="43"/>
-      <c r="AX46" s="43"/>
-      <c r="AY46" s="43"/>
-      <c r="AZ46" s="43"/>
-      <c r="BA46" s="43"/>
-      <c r="BB46" s="43"/>
-      <c r="BC46" s="43"/>
-      <c r="BD46" s="43"/>
-      <c r="BE46" s="43"/>
-      <c r="BF46" s="43"/>
-      <c r="BG46" s="43"/>
-      <c r="BH46" s="43"/>
-      <c r="BI46" s="43"/>
-      <c r="BJ46" s="43"/>
-      <c r="BK46" s="43"/>
-      <c r="BL46" s="43"/>
-      <c r="BM46" s="43"/>
-      <c r="BN46" s="43"/>
-    </row>
-    <row r="47" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B47" s="61" t="s">
-        <v>48</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="62"/>
       <c r="E47" s="67">
-        <v>44484</v>
+        <v>44494</v>
       </c>
       <c r="F47" s="69">
-        <f>IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
-        <v>44497</v>
+        <f t="shared" ref="F47" si="32">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
+        <v>44494</v>
       </c>
       <c r="G47" s="25">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H47" s="26">
         <v>0</v>
       </c>
       <c r="I47" s="27">
-        <f>IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
-        <v>10</v>
+        <f t="shared" ref="I47" si="33">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
+        <v>1</v>
       </c>
       <c r="J47" s="40"/>
       <c r="K47" s="43"/>
@@ -7081,34 +7110,34 @@
       <c r="BM47" s="43"/>
       <c r="BN47" s="43"/>
     </row>
-    <row r="48" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="str">
-        <f t="shared" ref="A48:A62" si="32">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.1</v>
-      </c>
-      <c r="B48" s="63" t="s">
-        <v>17</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="62"/>
       <c r="E48" s="67">
-        <v>44484</v>
+        <v>44494</v>
       </c>
       <c r="F48" s="69">
-        <f t="shared" ref="F48:F63" si="33">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
-        <v>44485</v>
+        <f>IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
+        <v>44507</v>
       </c>
       <c r="G48" s="25">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H48" s="26">
         <v>0</v>
       </c>
       <c r="I48" s="27">
-        <f t="shared" ref="I48:I63" si="34">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
-        <v>1</v>
+        <f>IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
+        <v>10</v>
       </c>
       <c r="J48" s="40"/>
       <c r="K48" s="43"/>
@@ -7170,32 +7199,32 @@
     </row>
     <row r="49" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="str">
-        <f t="shared" ref="A49:A63" si="35">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>4.2.1.1</v>
+        <f t="shared" ref="A49:A63" si="34">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.1</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="62"/>
       <c r="E49" s="67">
-        <v>44485</v>
+        <v>44494</v>
       </c>
       <c r="F49" s="69">
-        <f t="shared" si="33"/>
-        <v>44485</v>
+        <f t="shared" ref="F49:F64" si="35">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <v>44495</v>
       </c>
       <c r="G49" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="26">
         <v>0</v>
       </c>
       <c r="I49" s="27">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" ref="I49:I64" si="36">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
+        <v>2</v>
       </c>
       <c r="J49" s="40"/>
       <c r="K49" s="43"/>
@@ -7257,32 +7286,32 @@
     </row>
     <row r="50" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>4.2.2</v>
+        <f t="shared" ref="A50:A64" si="37">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>4.2.1.1</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="62"/>
       <c r="E50" s="67">
-        <v>44485</v>
+        <v>44495</v>
       </c>
       <c r="F50" s="69">
-        <f>IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
-        <v>44486</v>
+        <f t="shared" si="35"/>
+        <v>44495</v>
       </c>
       <c r="G50" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="26">
         <v>0</v>
       </c>
       <c r="I50" s="27">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>1</v>
       </c>
       <c r="J50" s="40"/>
       <c r="K50" s="43"/>
@@ -7344,32 +7373,32 @@
     </row>
     <row r="51" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.2.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.2</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="62"/>
       <c r="E51" s="67">
-        <v>44486</v>
+        <v>44495</v>
       </c>
       <c r="F51" s="69">
-        <f t="shared" ref="F51" si="36">IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
-        <v>44486</v>
+        <f>IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
+        <v>44496</v>
       </c>
       <c r="G51" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="26">
         <v>0</v>
       </c>
       <c r="I51" s="27">
-        <f t="shared" ref="I51" si="37">IF(OR(F51=0,E51=0)," - ",NETWORKDAYS(E51,F51))</f>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
       <c r="J51" s="40"/>
       <c r="K51" s="43"/>
@@ -7431,31 +7460,31 @@
     </row>
     <row r="52" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>4.2.3</v>
+        <f t="shared" si="37"/>
+        <v>4.2.2.1</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="62"/>
       <c r="E52" s="67">
-        <v>44486</v>
+        <v>44496</v>
       </c>
       <c r="F52" s="69">
-        <f t="shared" si="33"/>
-        <v>44487</v>
+        <f t="shared" ref="F52" si="38">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
+        <v>44496</v>
       </c>
       <c r="G52" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="26">
         <v>0</v>
       </c>
       <c r="I52" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="I52" si="39">IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
         <v>1</v>
       </c>
       <c r="J52" s="40"/>
@@ -7518,32 +7547,32 @@
     </row>
     <row r="53" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.3.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.3</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="62"/>
       <c r="E53" s="67">
-        <v>44487</v>
+        <v>44496</v>
       </c>
       <c r="F53" s="69">
-        <f t="shared" si="33"/>
-        <v>44487</v>
+        <f t="shared" si="35"/>
+        <v>44497</v>
       </c>
       <c r="G53" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="26">
         <v>0</v>
       </c>
       <c r="I53" s="27">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
       <c r="J53" s="40"/>
       <c r="K53" s="43"/>
@@ -7605,22 +7634,22 @@
     </row>
     <row r="54" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>4.2.4</v>
+        <f t="shared" si="37"/>
+        <v>4.2.3.1</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="62"/>
       <c r="E54" s="67">
-        <v>44487</v>
+        <v>44497</v>
       </c>
       <c r="F54" s="69">
-        <f t="shared" ref="F54:F55" si="38">IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
-        <v>44487</v>
+        <f t="shared" si="35"/>
+        <v>44497</v>
       </c>
       <c r="G54" s="25">
         <v>1</v>
@@ -7629,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="27">
-        <f t="shared" ref="I54:I55" si="39">IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J54" s="40"/>
@@ -7692,22 +7721,22 @@
     </row>
     <row r="55" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.4.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.4</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="62"/>
       <c r="E55" s="67">
-        <v>44487</v>
+        <v>44497</v>
       </c>
       <c r="F55" s="69">
-        <f t="shared" si="38"/>
-        <v>44487</v>
+        <f t="shared" ref="F55:F56" si="40">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+        <v>44497</v>
       </c>
       <c r="G55" s="25">
         <v>1</v>
@@ -7716,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="27">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="I55:I56" si="41">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
         <v>1</v>
       </c>
       <c r="J55" s="40"/>
@@ -7779,32 +7808,32 @@
     </row>
     <row r="56" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>4.2.5</v>
+        <f t="shared" si="37"/>
+        <v>4.2.4.1</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="62"/>
       <c r="E56" s="67">
-        <v>44488</v>
+        <v>44497</v>
       </c>
       <c r="F56" s="69">
-        <f t="shared" si="33"/>
-        <v>44490</v>
+        <f t="shared" si="40"/>
+        <v>44497</v>
       </c>
       <c r="G56" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" s="26">
         <v>0</v>
       </c>
       <c r="I56" s="27">
-        <f t="shared" si="34"/>
-        <v>3</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="J56" s="40"/>
       <c r="K56" s="43"/>
@@ -7866,31 +7895,31 @@
     </row>
     <row r="57" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.5.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.5</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="62"/>
       <c r="E57" s="67">
-        <v>44490</v>
+        <v>44498</v>
       </c>
       <c r="F57" s="69">
-        <f t="shared" si="33"/>
-        <v>44490</v>
+        <f t="shared" si="35"/>
+        <v>44500</v>
       </c>
       <c r="G57" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" s="26">
         <v>0</v>
       </c>
       <c r="I57" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J57" s="40"/>
@@ -7951,34 +7980,34 @@
       <c r="BM57" s="43"/>
       <c r="BN57" s="43"/>
     </row>
-    <row r="58" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>4.2.6</v>
+        <f t="shared" si="37"/>
+        <v>4.2.5.1</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="62"/>
       <c r="E58" s="67">
-        <v>44490</v>
+        <v>44500</v>
       </c>
       <c r="F58" s="69">
-        <f t="shared" si="33"/>
-        <v>44491</v>
+        <f t="shared" si="35"/>
+        <v>44500</v>
       </c>
       <c r="G58" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="26">
         <v>0</v>
       </c>
       <c r="I58" s="27">
-        <f t="shared" si="34"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="J58" s="40"/>
       <c r="K58" s="43"/>
@@ -8038,33 +8067,33 @@
       <c r="BM58" s="43"/>
       <c r="BN58" s="43"/>
     </row>
-    <row r="59" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.6.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.6</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="62"/>
       <c r="E59" s="67">
-        <v>44491</v>
+        <v>44500</v>
       </c>
       <c r="F59" s="69">
-        <f t="shared" ref="F59" si="40">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
-        <v>44491</v>
+        <f t="shared" si="35"/>
+        <v>44501</v>
       </c>
       <c r="G59" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="26">
         <v>0</v>
       </c>
       <c r="I59" s="27">
-        <f t="shared" ref="I59" si="41">IF(OR(F59=0,E59=0)," - ",NETWORKDAYS(E59,F59))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J59" s="40"/>
@@ -8125,33 +8154,33 @@
       <c r="BM59" s="43"/>
       <c r="BN59" s="43"/>
     </row>
-    <row r="60" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>4.2.7</v>
+        <f t="shared" si="37"/>
+        <v>4.2.6.1</v>
       </c>
       <c r="B60" s="63" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="62"/>
       <c r="E60" s="67">
-        <v>44492</v>
+        <v>44501</v>
       </c>
       <c r="F60" s="69">
-        <f t="shared" ref="F60:F61" si="42">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
-        <v>44494</v>
+        <f t="shared" ref="F60" si="42">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
+        <v>44501</v>
       </c>
       <c r="G60" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60" s="26">
         <v>0</v>
       </c>
       <c r="I60" s="27">
-        <f t="shared" ref="I60:I61" si="43">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
+        <f t="shared" ref="I60" si="43">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
         <v>1</v>
       </c>
       <c r="J60" s="40"/>
@@ -8212,34 +8241,34 @@
       <c r="BM60" s="43"/>
       <c r="BN60" s="43"/>
     </row>
-    <row r="61" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.7.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.7</v>
       </c>
       <c r="B61" s="63" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="62"/>
       <c r="E61" s="67">
-        <v>44494</v>
+        <v>44502</v>
       </c>
       <c r="F61" s="69">
-        <f t="shared" si="42"/>
-        <v>44494</v>
+        <f t="shared" ref="F61:F62" si="44">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <v>44504</v>
       </c>
       <c r="G61" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" s="26">
         <v>0</v>
       </c>
       <c r="I61" s="27">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <f t="shared" ref="I61:I62" si="45">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
+        <v>3</v>
       </c>
       <c r="J61" s="40"/>
       <c r="K61" s="43"/>
@@ -8299,34 +8328,34 @@
       <c r="BM61" s="43"/>
       <c r="BN61" s="43"/>
     </row>
-    <row r="62" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>4.2.8</v>
+        <f t="shared" si="37"/>
+        <v>4.2.7.1</v>
       </c>
       <c r="B62" s="63" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="62"/>
       <c r="E62" s="67">
-        <v>44495</v>
+        <v>44504</v>
       </c>
       <c r="F62" s="69">
-        <f t="shared" si="33"/>
-        <v>44497</v>
+        <f t="shared" si="44"/>
+        <v>44504</v>
       </c>
       <c r="G62" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="26">
         <v>0</v>
       </c>
       <c r="I62" s="27">
-        <f t="shared" si="34"/>
-        <v>3</v>
+        <f t="shared" si="45"/>
+        <v>1</v>
       </c>
       <c r="J62" s="40"/>
       <c r="K62" s="43"/>
@@ -8386,33 +8415,33 @@
       <c r="BM62" s="43"/>
       <c r="BN62" s="43"/>
     </row>
-    <row r="63" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.8.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.8</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="62"/>
       <c r="E63" s="67">
-        <v>44497</v>
+        <v>44505</v>
       </c>
       <c r="F63" s="69">
-        <f t="shared" si="33"/>
-        <v>44497</v>
+        <f t="shared" si="35"/>
+        <v>44507</v>
       </c>
       <c r="G63" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" s="26">
         <v>0</v>
       </c>
       <c r="I63" s="27">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J63" s="40"/>
@@ -8473,199 +8502,199 @@
       <c r="BM63" s="43"/>
       <c r="BN63" s="43"/>
     </row>
-    <row r="64" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="str">
+    <row r="64" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>4.2.8.1</v>
+      </c>
+      <c r="B64" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="62"/>
+      <c r="E64" s="67">
+        <v>44507</v>
+      </c>
+      <c r="F64" s="69">
+        <f t="shared" si="35"/>
+        <v>44507</v>
+      </c>
+      <c r="G64" s="25">
+        <v>1</v>
+      </c>
+      <c r="H64" s="26">
+        <v>0</v>
+      </c>
+      <c r="I64" s="27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="40"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="43"/>
+      <c r="Z64" s="43"/>
+      <c r="AA64" s="43"/>
+      <c r="AB64" s="43"/>
+      <c r="AC64" s="43"/>
+      <c r="AD64" s="43"/>
+      <c r="AE64" s="43"/>
+      <c r="AF64" s="43"/>
+      <c r="AG64" s="43"/>
+      <c r="AH64" s="43"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="43"/>
+      <c r="AK64" s="43"/>
+      <c r="AL64" s="43"/>
+      <c r="AM64" s="43"/>
+      <c r="AN64" s="43"/>
+      <c r="AO64" s="43"/>
+      <c r="AP64" s="43"/>
+      <c r="AQ64" s="43"/>
+      <c r="AR64" s="43"/>
+      <c r="AS64" s="43"/>
+      <c r="AT64" s="43"/>
+      <c r="AU64" s="43"/>
+      <c r="AV64" s="43"/>
+      <c r="AW64" s="43"/>
+      <c r="AX64" s="43"/>
+      <c r="AY64" s="43"/>
+      <c r="AZ64" s="43"/>
+      <c r="BA64" s="43"/>
+      <c r="BB64" s="43"/>
+      <c r="BC64" s="43"/>
+      <c r="BD64" s="43"/>
+      <c r="BE64" s="43"/>
+      <c r="BF64" s="43"/>
+      <c r="BG64" s="43"/>
+      <c r="BH64" s="43"/>
+      <c r="BI64" s="43"/>
+      <c r="BJ64" s="43"/>
+      <c r="BK64" s="43"/>
+      <c r="BL64" s="43"/>
+      <c r="BM64" s="43"/>
+      <c r="BN64" s="43"/>
+    </row>
+    <row r="65" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B65" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68" t="str">
-        <f t="shared" ref="F64:F70" si="44">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
+      <c r="D65" s="19"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68" t="str">
+        <f t="shared" ref="F65:F71" si="46">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="22" t="str">
-        <f t="shared" ref="I64:I70" si="45">IF(OR(F64=0,E64=0)," - ",NETWORKDAYS(E64,F64))</f>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="22" t="str">
+        <f t="shared" ref="I65:I71" si="47">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J64" s="41"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
-      <c r="U64" s="44"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="44"/>
-      <c r="X64" s="44"/>
-      <c r="Y64" s="44"/>
-      <c r="Z64" s="44"/>
-      <c r="AA64" s="44"/>
-      <c r="AB64" s="44"/>
-      <c r="AC64" s="44"/>
-      <c r="AD64" s="44"/>
-      <c r="AE64" s="44"/>
-      <c r="AF64" s="44"/>
-      <c r="AG64" s="44"/>
-      <c r="AH64" s="44"/>
-      <c r="AI64" s="44"/>
-      <c r="AJ64" s="44"/>
-      <c r="AK64" s="44"/>
-      <c r="AL64" s="44"/>
-      <c r="AM64" s="44"/>
-      <c r="AN64" s="44"/>
-      <c r="AO64" s="44"/>
-      <c r="AP64" s="44"/>
-      <c r="AQ64" s="44"/>
-      <c r="AR64" s="44"/>
-      <c r="AS64" s="44"/>
-      <c r="AT64" s="44"/>
-      <c r="AU64" s="44"/>
-      <c r="AV64" s="44"/>
-      <c r="AW64" s="44"/>
-      <c r="AX64" s="44"/>
-      <c r="AY64" s="44"/>
-      <c r="AZ64" s="44"/>
-      <c r="BA64" s="44"/>
-      <c r="BB64" s="44"/>
-      <c r="BC64" s="44"/>
-      <c r="BD64" s="44"/>
-      <c r="BE64" s="44"/>
-      <c r="BF64" s="44"/>
-      <c r="BG64" s="44"/>
-      <c r="BH64" s="44"/>
-      <c r="BI64" s="44"/>
-      <c r="BJ64" s="44"/>
-      <c r="BK64" s="44"/>
-      <c r="BL64" s="44"/>
-      <c r="BM64" s="44"/>
-      <c r="BN64" s="44"/>
-    </row>
-    <row r="65" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B65" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="67">
-        <v>44501</v>
-      </c>
-      <c r="F65" s="69">
-        <f t="shared" si="44"/>
-        <v>44501</v>
-      </c>
-      <c r="G65" s="25">
-        <v>1</v>
-      </c>
-      <c r="H65" s="26">
-        <v>0</v>
-      </c>
-      <c r="I65" s="27">
-        <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-      <c r="J65" s="40"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="43"/>
-      <c r="Z65" s="43"/>
-      <c r="AA65" s="43"/>
-      <c r="AB65" s="43"/>
-      <c r="AC65" s="43"/>
-      <c r="AD65" s="43"/>
-      <c r="AE65" s="43"/>
-      <c r="AF65" s="43"/>
-      <c r="AG65" s="43"/>
-      <c r="AH65" s="43"/>
-      <c r="AI65" s="43"/>
-      <c r="AJ65" s="43"/>
-      <c r="AK65" s="43"/>
-      <c r="AL65" s="43"/>
-      <c r="AM65" s="43"/>
-      <c r="AN65" s="43"/>
-      <c r="AO65" s="43"/>
-      <c r="AP65" s="43"/>
-      <c r="AQ65" s="43"/>
-      <c r="AR65" s="43"/>
-      <c r="AS65" s="43"/>
-      <c r="AT65" s="43"/>
-      <c r="AU65" s="43"/>
-      <c r="AV65" s="43"/>
-      <c r="AW65" s="43"/>
-      <c r="AX65" s="43"/>
-      <c r="AY65" s="43"/>
-      <c r="AZ65" s="43"/>
-      <c r="BA65" s="43"/>
-      <c r="BB65" s="43"/>
-      <c r="BC65" s="43"/>
-      <c r="BD65" s="43"/>
-      <c r="BE65" s="43"/>
-      <c r="BF65" s="43"/>
-      <c r="BG65" s="43"/>
-      <c r="BH65" s="43"/>
-      <c r="BI65" s="43"/>
-      <c r="BJ65" s="43"/>
-      <c r="BK65" s="43"/>
-      <c r="BL65" s="43"/>
-      <c r="BM65" s="43"/>
-      <c r="BN65" s="43"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="44"/>
+      <c r="AD65" s="44"/>
+      <c r="AE65" s="44"/>
+      <c r="AF65" s="44"/>
+      <c r="AG65" s="44"/>
+      <c r="AH65" s="44"/>
+      <c r="AI65" s="44"/>
+      <c r="AJ65" s="44"/>
+      <c r="AK65" s="44"/>
+      <c r="AL65" s="44"/>
+      <c r="AM65" s="44"/>
+      <c r="AN65" s="44"/>
+      <c r="AO65" s="44"/>
+      <c r="AP65" s="44"/>
+      <c r="AQ65" s="44"/>
+      <c r="AR65" s="44"/>
+      <c r="AS65" s="44"/>
+      <c r="AT65" s="44"/>
+      <c r="AU65" s="44"/>
+      <c r="AV65" s="44"/>
+      <c r="AW65" s="44"/>
+      <c r="AX65" s="44"/>
+      <c r="AY65" s="44"/>
+      <c r="AZ65" s="44"/>
+      <c r="BA65" s="44"/>
+      <c r="BB65" s="44"/>
+      <c r="BC65" s="44"/>
+      <c r="BD65" s="44"/>
+      <c r="BE65" s="44"/>
+      <c r="BF65" s="44"/>
+      <c r="BG65" s="44"/>
+      <c r="BH65" s="44"/>
+      <c r="BI65" s="44"/>
+      <c r="BJ65" s="44"/>
+      <c r="BK65" s="44"/>
+      <c r="BL65" s="44"/>
+      <c r="BM65" s="44"/>
+      <c r="BN65" s="44"/>
     </row>
     <row r="66" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="62"/>
       <c r="E66" s="67">
-        <v>44502</v>
+        <v>44508</v>
       </c>
       <c r="F66" s="69">
-        <f t="shared" si="44"/>
-        <v>44503</v>
+        <f t="shared" si="46"/>
+        <v>44508</v>
       </c>
       <c r="G66" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="26">
         <v>0</v>
       </c>
       <c r="I66" s="27">
-        <f t="shared" si="45"/>
-        <v>2</v>
+        <f t="shared" si="47"/>
+        <v>1</v>
       </c>
       <c r="J66" s="40"/>
       <c r="K66" s="43"/>
@@ -8728,21 +8757,21 @@
     <row r="67" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="62"/>
       <c r="E67" s="67">
-        <v>44503</v>
+        <v>44508</v>
       </c>
       <c r="F67" s="69">
-        <f t="shared" si="44"/>
-        <v>44504</v>
+        <f t="shared" si="46"/>
+        <v>44509</v>
       </c>
       <c r="G67" s="25">
         <v>2</v>
@@ -8751,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="J67" s="40"/>
@@ -8815,21 +8844,21 @@
     <row r="68" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="62"/>
       <c r="E68" s="67">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="F68" s="69">
-        <f t="shared" si="44"/>
-        <v>44506</v>
+        <f t="shared" si="46"/>
+        <v>44510</v>
       </c>
       <c r="G68" s="25">
         <v>2</v>
@@ -8838,8 +8867,8 @@
         <v>0</v>
       </c>
       <c r="I68" s="27">
-        <f t="shared" si="45"/>
-        <v>1</v>
+        <f t="shared" si="47"/>
+        <v>2</v>
       </c>
       <c r="J68" s="40"/>
       <c r="K68" s="43"/>
@@ -8899,199 +8928,199 @@
       <c r="BM68" s="43"/>
       <c r="BN68" s="43"/>
     </row>
-    <row r="69" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="str">
+    <row r="69" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.4</v>
+      </c>
+      <c r="B69" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="62"/>
+      <c r="E69" s="67">
+        <v>44510</v>
+      </c>
+      <c r="F69" s="69">
+        <f t="shared" si="46"/>
+        <v>44511</v>
+      </c>
+      <c r="G69" s="25">
+        <v>2</v>
+      </c>
+      <c r="H69" s="26">
+        <v>0</v>
+      </c>
+      <c r="I69" s="27">
+        <f t="shared" si="47"/>
+        <v>2</v>
+      </c>
+      <c r="J69" s="40"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="43"/>
+      <c r="AB69" s="43"/>
+      <c r="AC69" s="43"/>
+      <c r="AD69" s="43"/>
+      <c r="AE69" s="43"/>
+      <c r="AF69" s="43"/>
+      <c r="AG69" s="43"/>
+      <c r="AH69" s="43"/>
+      <c r="AI69" s="43"/>
+      <c r="AJ69" s="43"/>
+      <c r="AK69" s="43"/>
+      <c r="AL69" s="43"/>
+      <c r="AM69" s="43"/>
+      <c r="AN69" s="43"/>
+      <c r="AO69" s="43"/>
+      <c r="AP69" s="43"/>
+      <c r="AQ69" s="43"/>
+      <c r="AR69" s="43"/>
+      <c r="AS69" s="43"/>
+      <c r="AT69" s="43"/>
+      <c r="AU69" s="43"/>
+      <c r="AV69" s="43"/>
+      <c r="AW69" s="43"/>
+      <c r="AX69" s="43"/>
+      <c r="AY69" s="43"/>
+      <c r="AZ69" s="43"/>
+      <c r="BA69" s="43"/>
+      <c r="BB69" s="43"/>
+      <c r="BC69" s="43"/>
+      <c r="BD69" s="43"/>
+      <c r="BE69" s="43"/>
+      <c r="BF69" s="43"/>
+      <c r="BG69" s="43"/>
+      <c r="BH69" s="43"/>
+      <c r="BI69" s="43"/>
+      <c r="BJ69" s="43"/>
+      <c r="BK69" s="43"/>
+      <c r="BL69" s="43"/>
+      <c r="BM69" s="43"/>
+      <c r="BN69" s="43"/>
+    </row>
+    <row r="70" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B70" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68" t="str">
-        <f t="shared" si="44"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68" t="str">
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="22" t="str">
-        <f t="shared" si="45"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="22" t="str">
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J69" s="41"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44"/>
-      <c r="W69" s="44"/>
-      <c r="X69" s="44"/>
-      <c r="Y69" s="44"/>
-      <c r="Z69" s="44"/>
-      <c r="AA69" s="44"/>
-      <c r="AB69" s="44"/>
-      <c r="AC69" s="44"/>
-      <c r="AD69" s="44"/>
-      <c r="AE69" s="44"/>
-      <c r="AF69" s="44"/>
-      <c r="AG69" s="44"/>
-      <c r="AH69" s="44"/>
-      <c r="AI69" s="44"/>
-      <c r="AJ69" s="44"/>
-      <c r="AK69" s="44"/>
-      <c r="AL69" s="44"/>
-      <c r="AM69" s="44"/>
-      <c r="AN69" s="44"/>
-      <c r="AO69" s="44"/>
-      <c r="AP69" s="44"/>
-      <c r="AQ69" s="44"/>
-      <c r="AR69" s="44"/>
-      <c r="AS69" s="44"/>
-      <c r="AT69" s="44"/>
-      <c r="AU69" s="44"/>
-      <c r="AV69" s="44"/>
-      <c r="AW69" s="44"/>
-      <c r="AX69" s="44"/>
-      <c r="AY69" s="44"/>
-      <c r="AZ69" s="44"/>
-      <c r="BA69" s="44"/>
-      <c r="BB69" s="44"/>
-      <c r="BC69" s="44"/>
-      <c r="BD69" s="44"/>
-      <c r="BE69" s="44"/>
-      <c r="BF69" s="44"/>
-      <c r="BG69" s="44"/>
-      <c r="BH69" s="44"/>
-      <c r="BI69" s="44"/>
-      <c r="BJ69" s="44"/>
-      <c r="BK69" s="44"/>
-      <c r="BL69" s="44"/>
-      <c r="BM69" s="44"/>
-      <c r="BN69" s="44"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="44"/>
+      <c r="X70" s="44"/>
+      <c r="Y70" s="44"/>
+      <c r="Z70" s="44"/>
+      <c r="AA70" s="44"/>
+      <c r="AB70" s="44"/>
+      <c r="AC70" s="44"/>
+      <c r="AD70" s="44"/>
+      <c r="AE70" s="44"/>
+      <c r="AF70" s="44"/>
+      <c r="AG70" s="44"/>
+      <c r="AH70" s="44"/>
+      <c r="AI70" s="44"/>
+      <c r="AJ70" s="44"/>
+      <c r="AK70" s="44"/>
+      <c r="AL70" s="44"/>
+      <c r="AM70" s="44"/>
+      <c r="AN70" s="44"/>
+      <c r="AO70" s="44"/>
+      <c r="AP70" s="44"/>
+      <c r="AQ70" s="44"/>
+      <c r="AR70" s="44"/>
+      <c r="AS70" s="44"/>
+      <c r="AT70" s="44"/>
+      <c r="AU70" s="44"/>
+      <c r="AV70" s="44"/>
+      <c r="AW70" s="44"/>
+      <c r="AX70" s="44"/>
+      <c r="AY70" s="44"/>
+      <c r="AZ70" s="44"/>
+      <c r="BA70" s="44"/>
+      <c r="BB70" s="44"/>
+      <c r="BC70" s="44"/>
+      <c r="BD70" s="44"/>
+      <c r="BE70" s="44"/>
+      <c r="BF70" s="44"/>
+      <c r="BG70" s="44"/>
+      <c r="BH70" s="44"/>
+      <c r="BI70" s="44"/>
+      <c r="BJ70" s="44"/>
+      <c r="BK70" s="44"/>
+      <c r="BL70" s="44"/>
+      <c r="BM70" s="44"/>
+      <c r="BN70" s="44"/>
     </row>
-    <row r="70" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="str">
+    <row r="71" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.1</v>
       </c>
-      <c r="B70" s="61" t="s">
+      <c r="B71" s="61" t="s">
         <v>42</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="62"/>
-      <c r="E70" s="67">
-        <v>44505</v>
-      </c>
-      <c r="F70" s="69">
-        <f t="shared" si="44"/>
-        <v>44508</v>
-      </c>
-      <c r="G70" s="25">
-        <v>4</v>
-      </c>
-      <c r="H70" s="26">
-        <v>0</v>
-      </c>
-      <c r="I70" s="27">
-        <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="J70" s="40"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="43"/>
-      <c r="Z70" s="43"/>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="43"/>
-      <c r="AD70" s="43"/>
-      <c r="AE70" s="43"/>
-      <c r="AF70" s="43"/>
-      <c r="AG70" s="43"/>
-      <c r="AH70" s="43"/>
-      <c r="AI70" s="43"/>
-      <c r="AJ70" s="43"/>
-      <c r="AK70" s="43"/>
-      <c r="AL70" s="43"/>
-      <c r="AM70" s="43"/>
-      <c r="AN70" s="43"/>
-      <c r="AO70" s="43"/>
-      <c r="AP70" s="43"/>
-      <c r="AQ70" s="43"/>
-      <c r="AR70" s="43"/>
-      <c r="AS70" s="43"/>
-      <c r="AT70" s="43"/>
-      <c r="AU70" s="43"/>
-      <c r="AV70" s="43"/>
-      <c r="AW70" s="43"/>
-      <c r="AX70" s="43"/>
-      <c r="AY70" s="43"/>
-      <c r="AZ70" s="43"/>
-      <c r="BA70" s="43"/>
-      <c r="BB70" s="43"/>
-      <c r="BC70" s="43"/>
-      <c r="BD70" s="43"/>
-      <c r="BE70" s="43"/>
-      <c r="BF70" s="43"/>
-      <c r="BG70" s="43"/>
-      <c r="BH70" s="43"/>
-      <c r="BI70" s="43"/>
-      <c r="BJ70" s="43"/>
-      <c r="BK70" s="43"/>
-      <c r="BL70" s="43"/>
-      <c r="BM70" s="43"/>
-      <c r="BN70" s="43"/>
-    </row>
-    <row r="71" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.1</v>
-      </c>
-      <c r="B71" s="63" t="s">
-        <v>43</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="62"/>
       <c r="E71" s="67">
-        <v>44505</v>
+        <v>44512</v>
       </c>
       <c r="F71" s="69">
-        <f t="shared" ref="F71:F72" si="46">IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
-        <v>44506</v>
+        <f t="shared" si="46"/>
+        <v>44515</v>
       </c>
       <c r="G71" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H71" s="26">
         <v>0</v>
       </c>
       <c r="I71" s="27">
-        <f t="shared" ref="I71:I72" si="47">IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
-        <v>1</v>
+        <f t="shared" si="47"/>
+        <v>2</v>
       </c>
       <c r="J71" s="40"/>
       <c r="K71" s="43"/>
@@ -9151,24 +9180,24 @@
       <c r="BM71" s="43"/>
       <c r="BN71" s="43"/>
     </row>
-    <row r="72" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.2</v>
+        <v>6.1.1</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="62"/>
       <c r="E72" s="67">
-        <v>44507</v>
+        <v>44512</v>
       </c>
       <c r="F72" s="69">
-        <f t="shared" si="46"/>
-        <v>44508</v>
+        <f t="shared" ref="F72:F73" si="48">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
+        <v>44513</v>
       </c>
       <c r="G72" s="25">
         <v>2</v>
@@ -9177,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="I72:I73" si="49">IF(OR(F72=0,E72=0)," - ",NETWORKDAYS(E72,F72))</f>
         <v>1</v>
       </c>
       <c r="J72" s="40"/>
@@ -9240,32 +9269,32 @@
     </row>
     <row r="73" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
-      </c>
-      <c r="B73" s="61" t="s">
-        <v>45</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.1.2</v>
+      </c>
+      <c r="B73" s="63" t="s">
+        <v>44</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="62"/>
       <c r="E73" s="67">
-        <v>44509</v>
+        <v>44513</v>
       </c>
       <c r="F73" s="69">
-        <f>IF(ISBLANK(E73)," - ",IF(G73=0,E73,E73+G73-1))</f>
-        <v>44512</v>
+        <f t="shared" si="48"/>
+        <v>44514</v>
       </c>
       <c r="G73" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H73" s="26">
         <v>0</v>
       </c>
       <c r="I73" s="27">
-        <f>IF(OR(F73=0,E73=0)," - ",NETWORKDAYS(E73,F73))</f>
-        <v>4</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
       <c r="J73" s="40"/>
       <c r="K73" s="43"/>
@@ -9325,34 +9354,34 @@
       <c r="BM73" s="43"/>
       <c r="BN73" s="43"/>
     </row>
-    <row r="74" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="62"/>
       <c r="E74" s="67">
-        <v>44513</v>
+        <v>44515</v>
       </c>
       <c r="F74" s="69">
         <f>IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="G74" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H74" s="26">
         <v>0</v>
       </c>
       <c r="I74" s="27">
         <f>IF(OR(F74=0,E74=0)," - ",NETWORKDAYS(E74,F74))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J74" s="40"/>
       <c r="K74" s="43"/>
@@ -9412,18 +9441,96 @@
       <c r="BM74" s="43"/>
       <c r="BN74" s="43"/>
     </row>
+    <row r="75" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.3</v>
+      </c>
+      <c r="B75" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="62"/>
+      <c r="E75" s="67">
+        <v>44516</v>
+      </c>
+      <c r="F75" s="69">
+        <f>IF(ISBLANK(E75)," - ",IF(G75=0,E75,E75+G75-1))</f>
+        <v>44522</v>
+      </c>
+      <c r="G75" s="25">
+        <v>7</v>
+      </c>
+      <c r="H75" s="26">
+        <v>0</v>
+      </c>
+      <c r="I75" s="27">
+        <f>IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
+        <v>5</v>
+      </c>
+      <c r="J75" s="40"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="43"/>
+      <c r="AD75" s="43"/>
+      <c r="AE75" s="43"/>
+      <c r="AF75" s="43"/>
+      <c r="AG75" s="43"/>
+      <c r="AH75" s="43"/>
+      <c r="AI75" s="43"/>
+      <c r="AJ75" s="43"/>
+      <c r="AK75" s="43"/>
+      <c r="AL75" s="43"/>
+      <c r="AM75" s="43"/>
+      <c r="AN75" s="43"/>
+      <c r="AO75" s="43"/>
+      <c r="AP75" s="43"/>
+      <c r="AQ75" s="43"/>
+      <c r="AR75" s="43"/>
+      <c r="AS75" s="43"/>
+      <c r="AT75" s="43"/>
+      <c r="AU75" s="43"/>
+      <c r="AV75" s="43"/>
+      <c r="AW75" s="43"/>
+      <c r="AX75" s="43"/>
+      <c r="AY75" s="43"/>
+      <c r="AZ75" s="43"/>
+      <c r="BA75" s="43"/>
+      <c r="BB75" s="43"/>
+      <c r="BC75" s="43"/>
+      <c r="BD75" s="43"/>
+      <c r="BE75" s="43"/>
+      <c r="BF75" s="43"/>
+      <c r="BG75" s="43"/>
+      <c r="BH75" s="43"/>
+      <c r="BI75" s="43"/>
+      <c r="BJ75" s="43"/>
+      <c r="BK75" s="43"/>
+      <c r="BL75" s="43"/>
+      <c r="BM75" s="43"/>
+      <c r="BN75" s="43"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9434,10 +9541,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8 H36 H15 H45 H64:H66 H47 H10:H11 H26:H27">
-    <cfRule type="dataBar" priority="253">
+  <conditionalFormatting sqref="H8 H37 H15 H46 H65:H67 H48 H10:H11 H27:H28">
+    <cfRule type="dataBar" priority="257">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9451,25 +9567,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="66" priority="296">
+    <cfRule type="expression" dxfId="69" priority="300">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN8 K15:BN15 K10:BN11 K17:BN74">
-    <cfRule type="expression" dxfId="65" priority="299">
+  <conditionalFormatting sqref="K8:BN8 K15:BN15 K10:BN11 K17:BN25 K27:BN75">
+    <cfRule type="expression" dxfId="68" priority="303">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="300">
+    <cfRule type="expression" dxfId="67" priority="304">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN8 K36:BN36 K15:BN15 K45:BN45 K64:BN66 K47:BN47 K10:BN11 K26:BN27">
-    <cfRule type="expression" dxfId="63" priority="259">
+  <conditionalFormatting sqref="K6:BN8 K37:BN37 K15:BN15 K46:BN46 K65:BN67 K48:BN48 K10:BN11 K27:BN28">
+    <cfRule type="expression" dxfId="66" priority="263">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="248">
+    <cfRule type="dataBar" priority="252">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9483,12 +9599,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="62" priority="249">
+    <cfRule type="expression" dxfId="65" priority="253">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="244">
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9502,12 +9618,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="61" priority="245">
+    <cfRule type="expression" dxfId="64" priority="249">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="240">
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9521,12 +9637,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="60" priority="241">
+    <cfRule type="expression" dxfId="63" priority="245">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="236">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9540,12 +9656,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="59" priority="237">
+    <cfRule type="expression" dxfId="62" priority="241">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="232">
+    <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9559,12 +9675,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="58" priority="233">
+    <cfRule type="expression" dxfId="61" priority="237">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="228">
+    <cfRule type="dataBar" priority="232">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9578,12 +9694,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="57" priority="229">
+    <cfRule type="expression" dxfId="60" priority="233">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="216">
+    <cfRule type="dataBar" priority="220">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9597,12 +9713,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="56" priority="217">
+    <cfRule type="expression" dxfId="59" priority="221">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="220">
+    <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9616,12 +9732,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="55" priority="221">
+    <cfRule type="expression" dxfId="58" priority="225">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="196">
+    <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9635,12 +9751,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="54" priority="197">
+    <cfRule type="expression" dxfId="57" priority="201">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="192">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="dataBar" priority="196">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9653,13 +9769,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="53" priority="193">
+  <conditionalFormatting sqref="K29:BN29">
+    <cfRule type="expression" dxfId="56" priority="197">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="188">
+  <conditionalFormatting sqref="H36">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9672,13 +9788,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="52" priority="189">
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="55" priority="193">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="184">
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9691,13 +9807,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="51" priority="185">
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="54" priority="189">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="180">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9710,13 +9826,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="50" priority="181">
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="53" priority="185">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="176">
+  <conditionalFormatting sqref="H30">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9729,13 +9845,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="49" priority="177">
+  <conditionalFormatting sqref="K30:BN30">
+    <cfRule type="expression" dxfId="52" priority="181">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="174">
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9748,13 +9864,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="48" priority="175">
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="51" priority="179">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="172">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9767,13 +9883,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="47" priority="173">
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="50" priority="177">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="168">
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9786,13 +9902,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="46" priority="169">
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="49" priority="173">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="166">
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9805,13 +9921,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="45" priority="167">
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="48" priority="171">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="164">
+  <conditionalFormatting sqref="H35">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9824,13 +9940,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="44" priority="165">
+  <conditionalFormatting sqref="K35:BN35">
+    <cfRule type="expression" dxfId="47" priority="169">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9844,20 +9960,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="43" priority="162">
+    <cfRule type="expression" dxfId="46" priority="166">
       <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="163">
+    <cfRule type="expression" dxfId="45" priority="167">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="41" priority="161">
+    <cfRule type="expression" dxfId="44" priority="165">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="156">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9871,20 +9987,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="40" priority="158">
+    <cfRule type="expression" dxfId="43" priority="162">
       <formula>AND($E13&lt;=K$6,ROUNDDOWN(($F13-$E13+1)*$H13,0)+$E13-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="159">
+    <cfRule type="expression" dxfId="42" priority="163">
       <formula>AND(NOT(ISBLANK($E13)),$E13&lt;=K$6,$F13&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="38" priority="157">
+    <cfRule type="expression" dxfId="41" priority="161">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="132">
+  <conditionalFormatting sqref="H49">
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9897,13 +10013,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="37" priority="133">
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="40" priority="137">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="dataBar" priority="130">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9916,13 +10032,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="36" priority="131">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="39" priority="135">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="128">
+  <conditionalFormatting sqref="H53">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9935,13 +10051,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="35" priority="129">
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="38" priority="133">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="124">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9954,13 +10070,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="34" priority="125">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="37" priority="129">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="118">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9973,13 +10089,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="33" priority="119">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="36" priority="123">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="120">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9992,13 +10108,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="32" priority="121">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="35" priority="125">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="114">
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10011,13 +10127,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="31" priority="115">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="34" priority="119">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="110">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10030,13 +10146,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="30" priority="111">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="33" priority="115">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70 H73">
-    <cfRule type="dataBar" priority="89">
+  <conditionalFormatting sqref="H70:H71 H74">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10049,13 +10165,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN70 K73:BN73">
-    <cfRule type="expression" dxfId="29" priority="90">
+  <conditionalFormatting sqref="K70:BN71 K74:BN74">
+    <cfRule type="expression" dxfId="32" priority="94">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="dataBar" priority="85">
+  <conditionalFormatting sqref="H72">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10068,13 +10184,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="28" priority="86">
+  <conditionalFormatting sqref="K72:BN72">
+    <cfRule type="expression" dxfId="31" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="dataBar" priority="81">
+  <conditionalFormatting sqref="H73">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10087,13 +10203,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="27" priority="82">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="30" priority="86">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="77">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10106,13 +10222,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="26" priority="78">
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="29" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="75">
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10125,13 +10241,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="25" priority="76">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="28" priority="80">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="73">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10144,13 +10260,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="24" priority="74">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="27" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="71">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10163,13 +10279,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="23" priority="72">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="26" priority="76">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="dataBar" priority="67">
+  <conditionalFormatting sqref="H47">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10182,13 +10298,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="22" priority="68">
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="25" priority="72">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="dataBar" priority="63">
+  <conditionalFormatting sqref="H69">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10201,13 +10317,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="21" priority="64">
+  <conditionalFormatting sqref="K69:BN69">
+    <cfRule type="expression" dxfId="24" priority="68">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="H68">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10220,13 +10336,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="20" priority="60">
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="23" priority="64">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="55">
+  <conditionalFormatting sqref="H50">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10239,13 +10355,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="19" priority="56">
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="22" priority="60">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="49">
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10258,13 +10374,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="18" priority="50">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="21" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="45">
+  <conditionalFormatting sqref="H54">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10277,13 +10393,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="17" priority="46">
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="20" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="H56">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10296,13 +10412,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="16" priority="42">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="19" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10315,13 +10431,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="15" priority="38">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="18" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="H60">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10334,13 +10450,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="14" priority="34">
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="17" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10353,13 +10469,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="13" priority="30">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="16" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10372,13 +10488,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="12" priority="26">
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10391,13 +10507,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="11" priority="22">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="14" priority="26">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="H75">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10410,13 +10526,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="10" priority="18">
+  <conditionalFormatting sqref="K75:BN75">
+    <cfRule type="expression" dxfId="13" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10429,13 +10545,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="9" priority="14">
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10449,20 +10565,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:BN9">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND($E9&lt;=K$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=K$6,$F9&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:BN9">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10476,20 +10592,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>AND($E14&lt;=K$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$6,$F14&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10503,14 +10619,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:BN26">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
+      <formula>AND($E26&lt;=K$6,ROUNDDOWN(($F26-$E26+1)*$H26,0)+$E26-1&gt;=K$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
+      <formula>AND(NOT(ISBLANK($E26)),$E26&lt;=K$6,$F26&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E83597A1-7198-45DD-AB63-F61C2660B9FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:BN26">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -10525,8 +10668,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H10 E26 E45 E64 G26:H26 G45:H45 G64:H65 H36 H27 H66" unlockedFormula="1"/>
-    <ignoredError sqref="A64 A45 A26" formula="1"/>
+    <ignoredError sqref="H10 E27 E46 E65 G27:H27 G46:H46 G65:H66 H37 H28 H67" unlockedFormula="1"/>
+    <ignoredError sqref="A65 A46 A27" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -10574,7 +10717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8 H36 H15 H45 H64:H66 H47 H10:H11 H26:H27</xm:sqref>
+          <xm:sqref>H8 H37 H15 H46 H65:H67 H48 H10:H11 H27:H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59B11CE9-8D87-48BF-BF74-F1713D212F51}">
@@ -10724,7 +10867,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
+          <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E1771E53-3AD1-430E-A8E6-F4743135981B}">
@@ -10739,7 +10882,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
+          <xm:sqref>H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{80ED302E-9A51-4525-993F-2B76381C0769}">
@@ -10754,7 +10897,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H37</xm:sqref>
+          <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{23F127D9-9575-4355-BD03-1BB9057DD4DD}">
@@ -10769,7 +10912,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
+          <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0E337609-ACBA-4668-B5A0-2BDD495BE39D}">
@@ -10784,7 +10927,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
+          <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{554A9F1E-BF5C-467E-8086-9B01909C20E5}">
@@ -10799,7 +10942,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H30</xm:sqref>
+          <xm:sqref>H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F15EAED-48CB-4BDE-A4C3-8C904165ED0E}">
@@ -10814,7 +10957,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H31</xm:sqref>
+          <xm:sqref>H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CDA1F19A-65EB-4458-BAFE-7B95F2F3950D}">
@@ -10829,7 +10972,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
+          <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36EA0327-A3EF-4FA9-8EF4-AE533F50DEA9}">
@@ -10844,7 +10987,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
+          <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7ADB1AF6-20D8-4DB6-9648-ADCC9AF97510}">
@@ -10859,7 +11002,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
+          <xm:sqref>H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0185AD77-8DD3-4A88-B2FB-B7A6B63A3C2A}">
@@ -10904,7 +11047,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
+          <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F5B88501-27FF-4CC8-84E9-D9610DFAFC9C}">
@@ -10919,7 +11062,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
+          <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2ADCC9E0-CFB5-4DED-9CCD-A8BDE5EE6779}">
@@ -10934,7 +11077,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
+          <xm:sqref>H53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EE84C52D-6157-4E7F-B877-539A39A2D79F}">
@@ -10949,7 +11092,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FC173D3B-A71F-4841-8FEE-9D3D1C1C6AAD}">
@@ -10964,7 +11107,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
+          <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93820E9B-DFA8-4118-B762-3FD0E66C0003}">
@@ -10979,7 +11122,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
+          <xm:sqref>H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{92FA5D0A-F65A-4CF7-AE23-4592944CB9F3}">
@@ -10994,7 +11137,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51520B4E-13B4-4505-9824-AF1555C8DC52}">
@@ -11009,7 +11152,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
+          <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A0558DD-38BD-42B8-9B31-1F96890FC709}">
@@ -11024,7 +11167,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H69:H70 H73</xm:sqref>
+          <xm:sqref>H70:H71 H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{84AB0ABF-A82B-4950-BC7F-9E3DE674CBEE}">
@@ -11039,7 +11182,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
+          <xm:sqref>H72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{19041C87-12FB-4339-B66F-2ED2C9BB9BE4}">
@@ -11054,7 +11197,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
+          <xm:sqref>H73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F0BB4220-F045-4A7B-B213-4C370DB0FDF3}">
@@ -11069,7 +11212,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D05A7261-1687-42BA-9C7A-BE780C1B9748}">
@@ -11084,7 +11227,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
+          <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E2E2D14B-B1C9-4C94-B98C-1FF10C49C3CD}">
@@ -11099,7 +11242,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
+          <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D3C4557-8138-4691-95AC-6B5AC1D3D9FB}">
@@ -11114,7 +11257,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
+          <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17272C0C-E1AA-4F4A-AF4F-51740FABDC6A}">
@@ -11129,7 +11272,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
+          <xm:sqref>H47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{244463A8-2C09-48DD-9B25-E9B4D3B75AC7}">
@@ -11144,7 +11287,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H68</xm:sqref>
+          <xm:sqref>H69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{15DECAB3-CA3B-49A0-950D-FD82995C6384}">
@@ -11159,7 +11302,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H67</xm:sqref>
+          <xm:sqref>H68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BCAEF73-815D-4404-976A-A447BC1FDCEF}">
@@ -11174,7 +11317,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
+          <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{25FA016E-6803-4E22-9C76-663074DE3501}">
@@ -11189,7 +11332,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
+          <xm:sqref>H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93F908A3-1FF8-4D9B-8EFF-60F796C59B73}">
@@ -11204,7 +11347,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
+          <xm:sqref>H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C9CD4C7A-232F-4EDC-94FD-A5A31C464A29}">
@@ -11219,7 +11362,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
+          <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C40B286B-F49F-4C25-B272-FE733A695459}">
@@ -11234,7 +11377,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
+          <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{32AAC8E5-7840-4B83-A4A3-3991FE10D0CA}">
@@ -11249,7 +11392,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
+          <xm:sqref>H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B939AED-C1EC-4F3B-95B9-6B540A5A31A2}">
@@ -11264,7 +11407,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
+          <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B1A73DCF-EC56-4BEB-A4C3-D6BEDBE7248B}">
@@ -11279,7 +11422,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H63</xm:sqref>
+          <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D30E9DB7-6469-4A74-8541-458DA506F362}">
@@ -11294,7 +11437,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F5DCAA9-E51B-41E1-ABED-98B4180687C9}">
@@ -11309,7 +11452,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H74</xm:sqref>
+          <xm:sqref>H75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F7D37A11-F81A-43B9-9013-6FC0D07E8F9D}">
@@ -11324,7 +11467,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
+          <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{231F956C-6F8E-400D-95A0-95D859A5C02E}">
@@ -11371,6 +11514,21 @@
           </x14:cfRule>
           <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E83597A1-7198-45DD-AB63-F61C2660B9FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5190E75-F256-4D4E-8BED-FE067EF16288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4142B-45D3-4BAF-89D5-B638821E22EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$68</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>WBS</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>Make class diagram</t>
+  </si>
+  <si>
+    <t>Make Use case design narrative</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1623,33 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="73">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2884,11 +2913,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN75"/>
+  <dimension ref="A1:BN76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3682,7 +3711,7 @@
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
       <c r="I8" s="36" t="str">
-        <f t="shared" ref="I8:I37" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I38" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="39"/>
@@ -3756,11 +3785,11 @@
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="67">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="F9" s="69">
         <f t="shared" ref="F9" si="5">IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="G9" s="25">
         <v>2</v>
@@ -3933,7 +3962,7 @@
         <v>44459</v>
       </c>
       <c r="F11" s="69">
-        <f t="shared" ref="F11:F37" si="8">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <f t="shared" ref="F11:F38" si="8">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
         <v>44461</v>
       </c>
       <c r="G11" s="25">
@@ -5129,7 +5158,7 @@
     </row>
     <row r="25" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="str">
-        <f t="shared" ref="A25:A26" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A25:A28" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
       <c r="B25" s="61" t="s">
@@ -5379,13 +5408,13 @@
       <c r="BM27" s="44"/>
       <c r="BN27" s="44"/>
     </row>
-    <row r="28" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="18"/>
         <v>3.1</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>16</v>
@@ -5396,17 +5425,17 @@
       </c>
       <c r="F28" s="69">
         <f t="shared" si="8"/>
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="G28" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" s="40"/>
       <c r="K28" s="43"/>
@@ -5466,13 +5495,13 @@
       <c r="BM28" s="43"/>
       <c r="BN28" s="43"/>
     </row>
-    <row r="29" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>33</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>16</v>
@@ -5483,17 +5512,17 @@
       </c>
       <c r="F29" s="69">
         <f t="shared" si="8"/>
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="G29" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" s="26">
         <v>0</v>
       </c>
       <c r="I29" s="27">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" s="40"/>
       <c r="K29" s="43"/>
@@ -5553,13 +5582,13 @@
       <c r="BM29" s="43"/>
       <c r="BN29" s="43"/>
     </row>
-    <row r="30" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
-        <f t="shared" ref="A30:A36" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>16</v>
@@ -5642,11 +5671,11 @@
     </row>
     <row r="31" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>3.1.1.2</v>
+        <f t="shared" ref="A31:A37" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.2.1.1</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>16</v>
@@ -5730,10 +5759,10 @@
     <row r="32" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
         <f t="shared" si="23"/>
-        <v>3.1.1.3</v>
+        <v>3.2.1.2</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>16</v>
@@ -5817,21 +5846,21 @@
     <row r="33" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="str">
         <f t="shared" si="23"/>
-        <v>3.1.1.4</v>
+        <v>3.2.1.3</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="62"/>
       <c r="E33" s="67">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="F33" s="69">
         <f t="shared" si="8"/>
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="G33" s="25">
         <v>1</v>
@@ -5904,10 +5933,10 @@
     <row r="34" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="str">
         <f t="shared" si="23"/>
-        <v>3.1.1.5</v>
+        <v>3.2.1.4</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>16</v>
@@ -5988,13 +6017,13 @@
       <c r="BM34" s="43"/>
       <c r="BN34" s="43"/>
     </row>
-    <row r="35" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="str">
         <f t="shared" si="23"/>
-        <v>3.1.1.6</v>
+        <v>3.2.1.5</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>16</v>
@@ -6078,10 +6107,10 @@
     <row r="36" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="str">
         <f t="shared" si="23"/>
-        <v>3.1.1.7</v>
+        <v>3.2.1.6</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>16</v>
@@ -6091,7 +6120,7 @@
         <v>44489</v>
       </c>
       <c r="F36" s="69">
-        <f t="shared" ref="F36" si="24">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <f t="shared" si="8"/>
         <v>44489</v>
       </c>
       <c r="G36" s="25">
@@ -6101,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="27">
-        <f t="shared" ref="I36" si="25">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J36" s="40"/>
@@ -6164,11 +6193,11 @@
     </row>
     <row r="37" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B37" s="61" t="s">
-        <v>30</v>
+        <f t="shared" si="23"/>
+        <v>3.2.1.7</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>29</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>16</v>
@@ -6178,7 +6207,7 @@
         <v>44489</v>
       </c>
       <c r="F37" s="69">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F37" si="24">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
         <v>44489</v>
       </c>
       <c r="G37" s="25">
@@ -6188,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I37" si="25">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
         <v>1</v>
       </c>
       <c r="J37" s="40"/>
@@ -6249,13 +6278,13 @@
       <c r="BM37" s="43"/>
       <c r="BN37" s="43"/>
     </row>
-    <row r="38" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>31</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>30</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>16</v>
@@ -6265,7 +6294,7 @@
         <v>44489</v>
       </c>
       <c r="F38" s="69">
-        <f t="shared" ref="F38" si="26">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
+        <f t="shared" si="8"/>
         <v>44489</v>
       </c>
       <c r="G38" s="25">
@@ -6275,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="27">
-        <f t="shared" ref="I38" si="27">IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J38" s="40"/>
@@ -6339,10 +6368,10 @@
     <row r="39" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.2</v>
+        <v>3.3.1</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>16</v>
@@ -6352,7 +6381,7 @@
         <v>44489</v>
       </c>
       <c r="F39" s="69">
-        <f t="shared" ref="F39" si="28">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <f t="shared" ref="F39" si="26">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
         <v>44489</v>
       </c>
       <c r="G39" s="25">
@@ -6362,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="27">
-        <f t="shared" ref="I39" si="29">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
+        <f t="shared" ref="I39" si="27">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
         <v>1</v>
       </c>
       <c r="J39" s="40"/>
@@ -6425,32 +6454,32 @@
     </row>
     <row r="40" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B40" s="61" t="s">
-        <v>57</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.2</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>32</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="62"/>
       <c r="E40" s="67">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="F40" s="69">
-        <f>IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
-        <v>44492</v>
+        <f t="shared" ref="F40" si="28">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+        <v>44489</v>
       </c>
       <c r="G40" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" s="26">
         <v>0</v>
       </c>
       <c r="I40" s="27">
-        <f>IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
-        <v>2</v>
+        <f t="shared" ref="I40" si="29">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
+        <v>1</v>
       </c>
       <c r="J40" s="40"/>
       <c r="K40" s="43"/>
@@ -6516,28 +6545,28 @@
         <v>3.4</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="62"/>
       <c r="E41" s="67">
-        <v>44493</v>
+        <v>44490</v>
       </c>
       <c r="F41" s="69">
         <f>IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
-        <v>44496</v>
+        <v>44492</v>
       </c>
       <c r="G41" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="26">
         <v>0</v>
       </c>
       <c r="I41" s="27">
         <f>IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" s="40"/>
       <c r="K41" s="43"/>
@@ -6599,11 +6628,11 @@
     </row>
     <row r="42" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.1</v>
-      </c>
-      <c r="B42" s="63" t="s">
-        <v>35</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>49</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>16</v>
@@ -6613,18 +6642,18 @@
         <v>44493</v>
       </c>
       <c r="F42" s="69">
-        <f t="shared" ref="F42:F44" si="30">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
-        <v>44493</v>
+        <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <v>44496</v>
       </c>
       <c r="G42" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42" s="26">
         <v>0</v>
       </c>
       <c r="I42" s="27">
-        <f t="shared" ref="I42:I44" si="31">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
-        <v>0</v>
+        <f>IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+        <v>3</v>
       </c>
       <c r="J42" s="40"/>
       <c r="K42" s="43"/>
@@ -6684,13 +6713,13 @@
       <c r="BM42" s="43"/>
       <c r="BN42" s="43"/>
     </row>
-    <row r="43" spans="1:66" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.2</v>
+        <v>3.5.1</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>16</v>
@@ -6700,7 +6729,7 @@
         <v>44493</v>
       </c>
       <c r="F43" s="69">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="F43:F45" si="30">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
         <v>44493</v>
       </c>
       <c r="G43" s="25">
@@ -6710,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="27">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="I43:I45" si="31">IF(OR(F43=0,E43=0)," - ",NETWORKDAYS(E43,F43))</f>
         <v>0</v>
       </c>
       <c r="J43" s="40"/>
@@ -6771,13 +6800,13 @@
       <c r="BM43" s="43"/>
       <c r="BN43" s="43"/>
     </row>
-    <row r="44" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.3</v>
+        <v>3.5.2</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>16</v>
@@ -6788,17 +6817,17 @@
       </c>
       <c r="F44" s="69">
         <f t="shared" si="30"/>
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="G44" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="26">
         <v>0</v>
       </c>
       <c r="I44" s="27">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="40"/>
       <c r="K44" s="43"/>
@@ -6860,11 +6889,11 @@
     </row>
     <row r="45" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B45" s="61" t="s">
-        <v>55</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.5.3</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>16</v>
@@ -6874,18 +6903,18 @@
         <v>44493</v>
       </c>
       <c r="F45" s="69">
-        <f>IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
-        <v>44493</v>
+        <f t="shared" si="30"/>
+        <v>44494</v>
       </c>
       <c r="G45" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="26">
         <v>0</v>
       </c>
       <c r="I45" s="27">
-        <f>IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="J45" s="40"/>
       <c r="K45" s="43"/>
@@ -6945,178 +6974,178 @@
       <c r="BM45" s="43"/>
       <c r="BN45" s="43"/>
     </row>
-    <row r="46" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="str">
+    <row r="46" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.6</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="62"/>
+      <c r="E46" s="67">
+        <v>44493</v>
+      </c>
+      <c r="F46" s="69">
+        <f>IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
+        <v>44493</v>
+      </c>
+      <c r="G46" s="25">
+        <v>1</v>
+      </c>
+      <c r="H46" s="26">
+        <v>0</v>
+      </c>
+      <c r="I46" s="27">
+        <f>IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="40"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="43"/>
+      <c r="AB46" s="43"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="43"/>
+      <c r="AE46" s="43"/>
+      <c r="AF46" s="43"/>
+      <c r="AG46" s="43"/>
+      <c r="AH46" s="43"/>
+      <c r="AI46" s="43"/>
+      <c r="AJ46" s="43"/>
+      <c r="AK46" s="43"/>
+      <c r="AL46" s="43"/>
+      <c r="AM46" s="43"/>
+      <c r="AN46" s="43"/>
+      <c r="AO46" s="43"/>
+      <c r="AP46" s="43"/>
+      <c r="AQ46" s="43"/>
+      <c r="AR46" s="43"/>
+      <c r="AS46" s="43"/>
+      <c r="AT46" s="43"/>
+      <c r="AU46" s="43"/>
+      <c r="AV46" s="43"/>
+      <c r="AW46" s="43"/>
+      <c r="AX46" s="43"/>
+      <c r="AY46" s="43"/>
+      <c r="AZ46" s="43"/>
+      <c r="BA46" s="43"/>
+      <c r="BB46" s="43"/>
+      <c r="BC46" s="43"/>
+      <c r="BD46" s="43"/>
+      <c r="BE46" s="43"/>
+      <c r="BF46" s="43"/>
+      <c r="BG46" s="43"/>
+      <c r="BH46" s="43"/>
+      <c r="BI46" s="43"/>
+      <c r="BJ46" s="43"/>
+      <c r="BK46" s="43"/>
+      <c r="BL46" s="43"/>
+      <c r="BM46" s="43"/>
+      <c r="BN46" s="43"/>
+    </row>
+    <row r="47" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B47" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68" t="str">
-        <f>IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
+      <c r="D47" s="19"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68" t="str">
+        <f>IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22" t="str">
-        <f>IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="22" t="str">
+        <f>IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="44"/>
-      <c r="AC46" s="44"/>
-      <c r="AD46" s="44"/>
-      <c r="AE46" s="44"/>
-      <c r="AF46" s="44"/>
-      <c r="AG46" s="44"/>
-      <c r="AH46" s="44"/>
-      <c r="AI46" s="44"/>
-      <c r="AJ46" s="44"/>
-      <c r="AK46" s="44"/>
-      <c r="AL46" s="44"/>
-      <c r="AM46" s="44"/>
-      <c r="AN46" s="44"/>
-      <c r="AO46" s="44"/>
-      <c r="AP46" s="44"/>
-      <c r="AQ46" s="44"/>
-      <c r="AR46" s="44"/>
-      <c r="AS46" s="44"/>
-      <c r="AT46" s="44"/>
-      <c r="AU46" s="44"/>
-      <c r="AV46" s="44"/>
-      <c r="AW46" s="44"/>
-      <c r="AX46" s="44"/>
-      <c r="AY46" s="44"/>
-      <c r="AZ46" s="44"/>
-      <c r="BA46" s="44"/>
-      <c r="BB46" s="44"/>
-      <c r="BC46" s="44"/>
-      <c r="BD46" s="44"/>
-      <c r="BE46" s="44"/>
-      <c r="BF46" s="44"/>
-      <c r="BG46" s="44"/>
-      <c r="BH46" s="44"/>
-      <c r="BI46" s="44"/>
-      <c r="BJ46" s="44"/>
-      <c r="BK46" s="44"/>
-      <c r="BL46" s="44"/>
-      <c r="BM46" s="44"/>
-      <c r="BN46" s="44"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="44"/>
+      <c r="AM47" s="44"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="44"/>
+      <c r="AP47" s="44"/>
+      <c r="AQ47" s="44"/>
+      <c r="AR47" s="44"/>
+      <c r="AS47" s="44"/>
+      <c r="AT47" s="44"/>
+      <c r="AU47" s="44"/>
+      <c r="AV47" s="44"/>
+      <c r="AW47" s="44"/>
+      <c r="AX47" s="44"/>
+      <c r="AY47" s="44"/>
+      <c r="AZ47" s="44"/>
+      <c r="BA47" s="44"/>
+      <c r="BB47" s="44"/>
+      <c r="BC47" s="44"/>
+      <c r="BD47" s="44"/>
+      <c r="BE47" s="44"/>
+      <c r="BF47" s="44"/>
+      <c r="BG47" s="44"/>
+      <c r="BH47" s="44"/>
+      <c r="BI47" s="44"/>
+      <c r="BJ47" s="44"/>
+      <c r="BK47" s="44"/>
+      <c r="BL47" s="44"/>
+      <c r="BM47" s="44"/>
+      <c r="BN47" s="44"/>
     </row>
-    <row r="47" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="str">
+    <row r="48" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B48" s="63" t="s">
         <v>39</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="67">
-        <v>44494</v>
-      </c>
-      <c r="F47" s="69">
-        <f t="shared" ref="F47" si="32">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
-        <v>44494</v>
-      </c>
-      <c r="G47" s="25">
-        <v>1</v>
-      </c>
-      <c r="H47" s="26">
-        <v>0</v>
-      </c>
-      <c r="I47" s="27">
-        <f t="shared" ref="I47" si="33">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
-        <v>1</v>
-      </c>
-      <c r="J47" s="40"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="43"/>
-      <c r="AC47" s="43"/>
-      <c r="AD47" s="43"/>
-      <c r="AE47" s="43"/>
-      <c r="AF47" s="43"/>
-      <c r="AG47" s="43"/>
-      <c r="AH47" s="43"/>
-      <c r="AI47" s="43"/>
-      <c r="AJ47" s="43"/>
-      <c r="AK47" s="43"/>
-      <c r="AL47" s="43"/>
-      <c r="AM47" s="43"/>
-      <c r="AN47" s="43"/>
-      <c r="AO47" s="43"/>
-      <c r="AP47" s="43"/>
-      <c r="AQ47" s="43"/>
-      <c r="AR47" s="43"/>
-      <c r="AS47" s="43"/>
-      <c r="AT47" s="43"/>
-      <c r="AU47" s="43"/>
-      <c r="AV47" s="43"/>
-      <c r="AW47" s="43"/>
-      <c r="AX47" s="43"/>
-      <c r="AY47" s="43"/>
-      <c r="AZ47" s="43"/>
-      <c r="BA47" s="43"/>
-      <c r="BB47" s="43"/>
-      <c r="BC47" s="43"/>
-      <c r="BD47" s="43"/>
-      <c r="BE47" s="43"/>
-      <c r="BF47" s="43"/>
-      <c r="BG47" s="43"/>
-      <c r="BH47" s="43"/>
-      <c r="BI47" s="43"/>
-      <c r="BJ47" s="43"/>
-      <c r="BK47" s="43"/>
-      <c r="BL47" s="43"/>
-      <c r="BM47" s="43"/>
-      <c r="BN47" s="43"/>
-    </row>
-    <row r="48" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B48" s="61" t="s">
-        <v>48</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>16</v>
@@ -7126,18 +7155,18 @@
         <v>44494</v>
       </c>
       <c r="F48" s="69">
-        <f>IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
-        <v>44507</v>
+        <f t="shared" ref="F48" si="32">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
+        <v>44494</v>
       </c>
       <c r="G48" s="25">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H48" s="26">
         <v>0</v>
       </c>
       <c r="I48" s="27">
-        <f>IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
-        <v>10</v>
+        <f t="shared" ref="I48" si="33">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
+        <v>1</v>
       </c>
       <c r="J48" s="40"/>
       <c r="K48" s="43"/>
@@ -7197,13 +7226,13 @@
       <c r="BM48" s="43"/>
       <c r="BN48" s="43"/>
     </row>
-    <row r="49" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="str">
-        <f t="shared" ref="A49:A63" si="34">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.1</v>
-      </c>
-      <c r="B49" s="63" t="s">
-        <v>17</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>16</v>
@@ -7213,18 +7242,18 @@
         <v>44494</v>
       </c>
       <c r="F49" s="69">
-        <f t="shared" ref="F49:F64" si="35">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
-        <v>44495</v>
+        <f>IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <v>44507</v>
       </c>
       <c r="G49" s="25">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H49" s="26">
         <v>0</v>
       </c>
       <c r="I49" s="27">
-        <f t="shared" ref="I49:I64" si="36">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
-        <v>2</v>
+        <f>IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
+        <v>10</v>
       </c>
       <c r="J49" s="40"/>
       <c r="K49" s="43"/>
@@ -7286,32 +7315,32 @@
     </row>
     <row r="50" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="str">
-        <f t="shared" ref="A50:A64" si="37">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>4.2.1.1</v>
+        <f t="shared" ref="A50:A64" si="34">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.1</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="62"/>
       <c r="E50" s="67">
+        <v>44494</v>
+      </c>
+      <c r="F50" s="69">
+        <f t="shared" ref="F50:F65" si="35">IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
         <v>44495</v>
       </c>
-      <c r="F50" s="69">
-        <f t="shared" si="35"/>
-        <v>44495</v>
-      </c>
       <c r="G50" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="26">
         <v>0</v>
       </c>
       <c r="I50" s="27">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f t="shared" ref="I50:I65" si="36">IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
+        <v>2</v>
       </c>
       <c r="J50" s="40"/>
       <c r="K50" s="43"/>
@@ -7373,11 +7402,11 @@
     </row>
     <row r="51" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>4.2.2</v>
+        <f t="shared" ref="A51:A65" si="37">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>4.2.1.1</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>16</v>
@@ -7387,18 +7416,18 @@
         <v>44495</v>
       </c>
       <c r="F51" s="69">
-        <f>IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
-        <v>44496</v>
+        <f t="shared" si="35"/>
+        <v>44495</v>
       </c>
       <c r="G51" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="26">
         <v>0</v>
       </c>
       <c r="I51" s="27">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" s="40"/>
       <c r="K51" s="43"/>
@@ -7460,32 +7489,32 @@
     </row>
     <row r="52" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>4.2.2.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.2</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="62"/>
       <c r="E52" s="67">
+        <v>44495</v>
+      </c>
+      <c r="F52" s="69">
+        <f>IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
         <v>44496</v>
       </c>
-      <c r="F52" s="69">
-        <f t="shared" ref="F52" si="38">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
-        <v>44496</v>
-      </c>
       <c r="G52" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="26">
         <v>0</v>
       </c>
       <c r="I52" s="27">
-        <f t="shared" ref="I52" si="39">IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
       <c r="J52" s="40"/>
       <c r="K52" s="43"/>
@@ -7547,11 +7576,11 @@
     </row>
     <row r="53" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>4.2.3</v>
+        <f t="shared" si="37"/>
+        <v>4.2.2.1</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>16</v>
@@ -7561,18 +7590,18 @@
         <v>44496</v>
       </c>
       <c r="F53" s="69">
-        <f t="shared" si="35"/>
-        <v>44497</v>
+        <f t="shared" ref="F53" si="38">IF(ISBLANK(E53)," - ",IF(G53=0,E53,E53+G53-1))</f>
+        <v>44496</v>
       </c>
       <c r="G53" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="26">
         <v>0</v>
       </c>
       <c r="I53" s="27">
-        <f t="shared" si="36"/>
-        <v>2</v>
+        <f t="shared" ref="I53" si="39">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
+        <v>1</v>
       </c>
       <c r="J53" s="40"/>
       <c r="K53" s="43"/>
@@ -7634,32 +7663,32 @@
     </row>
     <row r="54" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>4.2.3.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.3</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="62"/>
       <c r="E54" s="67">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="F54" s="69">
         <f t="shared" si="35"/>
         <v>44497</v>
       </c>
       <c r="G54" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="26">
         <v>0</v>
       </c>
       <c r="I54" s="27">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" s="40"/>
       <c r="K54" s="43"/>
@@ -7721,11 +7750,11 @@
     </row>
     <row r="55" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>4.2.4</v>
+        <f t="shared" si="37"/>
+        <v>4.2.3.1</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>16</v>
@@ -7735,7 +7764,7 @@
         <v>44497</v>
       </c>
       <c r="F55" s="69">
-        <f t="shared" ref="F55:F56" si="40">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+        <f t="shared" si="35"/>
         <v>44497</v>
       </c>
       <c r="G55" s="25">
@@ -7745,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="27">
-        <f t="shared" ref="I55:I56" si="41">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J55" s="40"/>
@@ -7808,11 +7837,11 @@
     </row>
     <row r="56" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>4.2.4.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.4</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>16</v>
@@ -7822,7 +7851,7 @@
         <v>44497</v>
       </c>
       <c r="F56" s="69">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="F56:F57" si="40">IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
         <v>44497</v>
       </c>
       <c r="G56" s="25">
@@ -7832,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="I56:I57" si="41">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
         <v>1</v>
       </c>
       <c r="J56" s="40"/>
@@ -7895,31 +7924,31 @@
     </row>
     <row r="57" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>4.2.5</v>
+        <f t="shared" si="37"/>
+        <v>4.2.4.1</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="62"/>
       <c r="E57" s="67">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="F57" s="69">
-        <f t="shared" si="35"/>
-        <v>44500</v>
+        <f t="shared" si="40"/>
+        <v>44497</v>
       </c>
       <c r="G57" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" s="26">
         <v>0</v>
       </c>
       <c r="I57" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J57" s="40"/>
@@ -7982,32 +8011,32 @@
     </row>
     <row r="58" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>4.2.5.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.5</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="62"/>
       <c r="E58" s="67">
-        <v>44500</v>
+        <v>44498</v>
       </c>
       <c r="F58" s="69">
         <f t="shared" si="35"/>
         <v>44500</v>
       </c>
       <c r="G58" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H58" s="26">
         <v>0</v>
       </c>
       <c r="I58" s="27">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="40"/>
       <c r="K58" s="43"/>
@@ -8067,13 +8096,13 @@
       <c r="BM58" s="43"/>
       <c r="BN58" s="43"/>
     </row>
-    <row r="59" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>4.2.6</v>
+        <f t="shared" si="37"/>
+        <v>4.2.5.1</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>16</v>
@@ -8084,17 +8113,17 @@
       </c>
       <c r="F59" s="69">
         <f t="shared" si="35"/>
-        <v>44501</v>
+        <v>44500</v>
       </c>
       <c r="G59" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="26">
         <v>0</v>
       </c>
       <c r="I59" s="27">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="40"/>
       <c r="K59" s="43"/>
@@ -8154,33 +8183,33 @@
       <c r="BM59" s="43"/>
       <c r="BN59" s="43"/>
     </row>
-    <row r="60" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>4.2.6.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.6</v>
       </c>
       <c r="B60" s="63" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="62"/>
       <c r="E60" s="67">
+        <v>44500</v>
+      </c>
+      <c r="F60" s="69">
+        <f t="shared" si="35"/>
         <v>44501</v>
       </c>
-      <c r="F60" s="69">
-        <f t="shared" ref="F60" si="42">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
-        <v>44501</v>
-      </c>
       <c r="G60" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="26">
         <v>0</v>
       </c>
       <c r="I60" s="27">
-        <f t="shared" ref="I60" si="43">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J60" s="40"/>
@@ -8241,34 +8270,34 @@
       <c r="BM60" s="43"/>
       <c r="BN60" s="43"/>
     </row>
-    <row r="61" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>4.2.7</v>
+        <f t="shared" si="37"/>
+        <v>4.2.6.1</v>
       </c>
       <c r="B61" s="63" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="62"/>
       <c r="E61" s="67">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="F61" s="69">
-        <f t="shared" ref="F61:F62" si="44">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
-        <v>44504</v>
+        <f t="shared" ref="F61" si="42">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <v>44501</v>
       </c>
       <c r="G61" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" s="26">
         <v>0</v>
       </c>
       <c r="I61" s="27">
-        <f t="shared" ref="I61:I62" si="45">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
-        <v>3</v>
+        <f t="shared" ref="I61" si="43">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
+        <v>1</v>
       </c>
       <c r="J61" s="40"/>
       <c r="K61" s="43"/>
@@ -8328,34 +8357,34 @@
       <c r="BM61" s="43"/>
       <c r="BN61" s="43"/>
     </row>
-    <row r="62" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>4.2.7.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.7</v>
       </c>
       <c r="B62" s="63" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="62"/>
       <c r="E62" s="67">
+        <v>44502</v>
+      </c>
+      <c r="F62" s="69">
+        <f t="shared" ref="F62:F63" si="44">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
         <v>44504</v>
       </c>
-      <c r="F62" s="69">
-        <f t="shared" si="44"/>
-        <v>44504</v>
-      </c>
       <c r="G62" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" s="26">
         <v>0</v>
       </c>
       <c r="I62" s="27">
-        <f t="shared" si="45"/>
-        <v>1</v>
+        <f t="shared" ref="I62:I63" si="45">IF(OR(F62=0,E62=0)," - ",NETWORKDAYS(E62,F62))</f>
+        <v>3</v>
       </c>
       <c r="J62" s="40"/>
       <c r="K62" s="43"/>
@@ -8415,33 +8444,33 @@
       <c r="BM62" s="43"/>
       <c r="BN62" s="43"/>
     </row>
-    <row r="63" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="str">
-        <f t="shared" si="34"/>
-        <v>4.2.8</v>
+        <f t="shared" si="37"/>
+        <v>4.2.7.1</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="62"/>
       <c r="E63" s="67">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="F63" s="69">
-        <f t="shared" si="35"/>
-        <v>44507</v>
+        <f t="shared" si="44"/>
+        <v>44504</v>
       </c>
       <c r="G63" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" s="26">
         <v>0</v>
       </c>
       <c r="I63" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J63" s="40"/>
@@ -8502,34 +8531,34 @@
       <c r="BM63" s="43"/>
       <c r="BN63" s="43"/>
     </row>
-    <row r="64" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="str">
-        <f t="shared" si="37"/>
-        <v>4.2.8.1</v>
+        <f t="shared" si="34"/>
+        <v>4.2.8</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="62"/>
       <c r="E64" s="67">
-        <v>44507</v>
+        <v>44505</v>
       </c>
       <c r="F64" s="69">
         <f t="shared" si="35"/>
         <v>44507</v>
       </c>
       <c r="G64" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" s="26">
         <v>0</v>
       </c>
       <c r="I64" s="27">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="40"/>
       <c r="K64" s="43"/>
@@ -8589,178 +8618,178 @@
       <c r="BM64" s="43"/>
       <c r="BN64" s="43"/>
     </row>
-    <row r="65" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="str">
+    <row r="65" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>4.2.8.1</v>
+      </c>
+      <c r="B65" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="62"/>
+      <c r="E65" s="67">
+        <v>44507</v>
+      </c>
+      <c r="F65" s="69">
+        <f t="shared" si="35"/>
+        <v>44507</v>
+      </c>
+      <c r="G65" s="25">
+        <v>1</v>
+      </c>
+      <c r="H65" s="26">
+        <v>0</v>
+      </c>
+      <c r="I65" s="27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="40"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="43"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="43"/>
+      <c r="AB65" s="43"/>
+      <c r="AC65" s="43"/>
+      <c r="AD65" s="43"/>
+      <c r="AE65" s="43"/>
+      <c r="AF65" s="43"/>
+      <c r="AG65" s="43"/>
+      <c r="AH65" s="43"/>
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="43"/>
+      <c r="AK65" s="43"/>
+      <c r="AL65" s="43"/>
+      <c r="AM65" s="43"/>
+      <c r="AN65" s="43"/>
+      <c r="AO65" s="43"/>
+      <c r="AP65" s="43"/>
+      <c r="AQ65" s="43"/>
+      <c r="AR65" s="43"/>
+      <c r="AS65" s="43"/>
+      <c r="AT65" s="43"/>
+      <c r="AU65" s="43"/>
+      <c r="AV65" s="43"/>
+      <c r="AW65" s="43"/>
+      <c r="AX65" s="43"/>
+      <c r="AY65" s="43"/>
+      <c r="AZ65" s="43"/>
+      <c r="BA65" s="43"/>
+      <c r="BB65" s="43"/>
+      <c r="BC65" s="43"/>
+      <c r="BD65" s="43"/>
+      <c r="BE65" s="43"/>
+      <c r="BF65" s="43"/>
+      <c r="BG65" s="43"/>
+      <c r="BH65" s="43"/>
+      <c r="BI65" s="43"/>
+      <c r="BJ65" s="43"/>
+      <c r="BK65" s="43"/>
+      <c r="BL65" s="43"/>
+      <c r="BM65" s="43"/>
+      <c r="BN65" s="43"/>
+    </row>
+    <row r="66" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B66" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68" t="str">
-        <f t="shared" ref="F65:F71" si="46">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
+      <c r="D66" s="19"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68" t="str">
+        <f t="shared" ref="F66:F72" si="46">IF(ISBLANK(E66)," - ",IF(G66=0,E66,E66+G66-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="22" t="str">
-        <f t="shared" ref="I65:I71" si="47">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
+      <c r="G66" s="20"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="22" t="str">
+        <f t="shared" ref="I66:I72" si="47">IF(OR(F66=0,E66=0)," - ",NETWORKDAYS(E66,F66))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J65" s="41"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="44"/>
-      <c r="Y65" s="44"/>
-      <c r="Z65" s="44"/>
-      <c r="AA65" s="44"/>
-      <c r="AB65" s="44"/>
-      <c r="AC65" s="44"/>
-      <c r="AD65" s="44"/>
-      <c r="AE65" s="44"/>
-      <c r="AF65" s="44"/>
-      <c r="AG65" s="44"/>
-      <c r="AH65" s="44"/>
-      <c r="AI65" s="44"/>
-      <c r="AJ65" s="44"/>
-      <c r="AK65" s="44"/>
-      <c r="AL65" s="44"/>
-      <c r="AM65" s="44"/>
-      <c r="AN65" s="44"/>
-      <c r="AO65" s="44"/>
-      <c r="AP65" s="44"/>
-      <c r="AQ65" s="44"/>
-      <c r="AR65" s="44"/>
-      <c r="AS65" s="44"/>
-      <c r="AT65" s="44"/>
-      <c r="AU65" s="44"/>
-      <c r="AV65" s="44"/>
-      <c r="AW65" s="44"/>
-      <c r="AX65" s="44"/>
-      <c r="AY65" s="44"/>
-      <c r="AZ65" s="44"/>
-      <c r="BA65" s="44"/>
-      <c r="BB65" s="44"/>
-      <c r="BC65" s="44"/>
-      <c r="BD65" s="44"/>
-      <c r="BE65" s="44"/>
-      <c r="BF65" s="44"/>
-      <c r="BG65" s="44"/>
-      <c r="BH65" s="44"/>
-      <c r="BI65" s="44"/>
-      <c r="BJ65" s="44"/>
-      <c r="BK65" s="44"/>
-      <c r="BL65" s="44"/>
-      <c r="BM65" s="44"/>
-      <c r="BN65" s="44"/>
-    </row>
-    <row r="66" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B66" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="62"/>
-      <c r="E66" s="67">
-        <v>44508</v>
-      </c>
-      <c r="F66" s="69">
-        <f t="shared" si="46"/>
-        <v>44508</v>
-      </c>
-      <c r="G66" s="25">
-        <v>1</v>
-      </c>
-      <c r="H66" s="26">
-        <v>0</v>
-      </c>
-      <c r="I66" s="27">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="J66" s="40"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="43"/>
-      <c r="Z66" s="43"/>
-      <c r="AA66" s="43"/>
-      <c r="AB66" s="43"/>
-      <c r="AC66" s="43"/>
-      <c r="AD66" s="43"/>
-      <c r="AE66" s="43"/>
-      <c r="AF66" s="43"/>
-      <c r="AG66" s="43"/>
-      <c r="AH66" s="43"/>
-      <c r="AI66" s="43"/>
-      <c r="AJ66" s="43"/>
-      <c r="AK66" s="43"/>
-      <c r="AL66" s="43"/>
-      <c r="AM66" s="43"/>
-      <c r="AN66" s="43"/>
-      <c r="AO66" s="43"/>
-      <c r="AP66" s="43"/>
-      <c r="AQ66" s="43"/>
-      <c r="AR66" s="43"/>
-      <c r="AS66" s="43"/>
-      <c r="AT66" s="43"/>
-      <c r="AU66" s="43"/>
-      <c r="AV66" s="43"/>
-      <c r="AW66" s="43"/>
-      <c r="AX66" s="43"/>
-      <c r="AY66" s="43"/>
-      <c r="AZ66" s="43"/>
-      <c r="BA66" s="43"/>
-      <c r="BB66" s="43"/>
-      <c r="BC66" s="43"/>
-      <c r="BD66" s="43"/>
-      <c r="BE66" s="43"/>
-      <c r="BF66" s="43"/>
-      <c r="BG66" s="43"/>
-      <c r="BH66" s="43"/>
-      <c r="BI66" s="43"/>
-      <c r="BJ66" s="43"/>
-      <c r="BK66" s="43"/>
-      <c r="BL66" s="43"/>
-      <c r="BM66" s="43"/>
-      <c r="BN66" s="43"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="44"/>
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="44"/>
+      <c r="AD66" s="44"/>
+      <c r="AE66" s="44"/>
+      <c r="AF66" s="44"/>
+      <c r="AG66" s="44"/>
+      <c r="AH66" s="44"/>
+      <c r="AI66" s="44"/>
+      <c r="AJ66" s="44"/>
+      <c r="AK66" s="44"/>
+      <c r="AL66" s="44"/>
+      <c r="AM66" s="44"/>
+      <c r="AN66" s="44"/>
+      <c r="AO66" s="44"/>
+      <c r="AP66" s="44"/>
+      <c r="AQ66" s="44"/>
+      <c r="AR66" s="44"/>
+      <c r="AS66" s="44"/>
+      <c r="AT66" s="44"/>
+      <c r="AU66" s="44"/>
+      <c r="AV66" s="44"/>
+      <c r="AW66" s="44"/>
+      <c r="AX66" s="44"/>
+      <c r="AY66" s="44"/>
+      <c r="AZ66" s="44"/>
+      <c r="BA66" s="44"/>
+      <c r="BB66" s="44"/>
+      <c r="BC66" s="44"/>
+      <c r="BD66" s="44"/>
+      <c r="BE66" s="44"/>
+      <c r="BF66" s="44"/>
+      <c r="BG66" s="44"/>
+      <c r="BH66" s="44"/>
+      <c r="BI66" s="44"/>
+      <c r="BJ66" s="44"/>
+      <c r="BK66" s="44"/>
+      <c r="BL66" s="44"/>
+      <c r="BM66" s="44"/>
+      <c r="BN66" s="44"/>
     </row>
     <row r="67" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>16</v>
@@ -8771,17 +8800,17 @@
       </c>
       <c r="F67" s="69">
         <f t="shared" si="46"/>
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="G67" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="26">
         <v>0</v>
       </c>
       <c r="I67" s="27">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" s="40"/>
       <c r="K67" s="43"/>
@@ -8844,21 +8873,21 @@
     <row r="68" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="62"/>
       <c r="E68" s="67">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="F68" s="69">
         <f t="shared" si="46"/>
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="G68" s="25">
         <v>2</v>
@@ -8931,21 +8960,21 @@
     <row r="69" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="62"/>
       <c r="E69" s="67">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="F69" s="69">
         <f t="shared" si="46"/>
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="G69" s="25">
         <v>2</v>
@@ -9015,178 +9044,178 @@
       <c r="BM69" s="43"/>
       <c r="BN69" s="43"/>
     </row>
-    <row r="70" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="str">
+    <row r="70" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.4</v>
+      </c>
+      <c r="B70" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="62"/>
+      <c r="E70" s="67">
+        <v>44510</v>
+      </c>
+      <c r="F70" s="69">
+        <f t="shared" si="46"/>
+        <v>44511</v>
+      </c>
+      <c r="G70" s="25">
+        <v>2</v>
+      </c>
+      <c r="H70" s="26">
+        <v>0</v>
+      </c>
+      <c r="I70" s="27">
+        <f t="shared" si="47"/>
+        <v>2</v>
+      </c>
+      <c r="J70" s="40"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="43"/>
+      <c r="X70" s="43"/>
+      <c r="Y70" s="43"/>
+      <c r="Z70" s="43"/>
+      <c r="AA70" s="43"/>
+      <c r="AB70" s="43"/>
+      <c r="AC70" s="43"/>
+      <c r="AD70" s="43"/>
+      <c r="AE70" s="43"/>
+      <c r="AF70" s="43"/>
+      <c r="AG70" s="43"/>
+      <c r="AH70" s="43"/>
+      <c r="AI70" s="43"/>
+      <c r="AJ70" s="43"/>
+      <c r="AK70" s="43"/>
+      <c r="AL70" s="43"/>
+      <c r="AM70" s="43"/>
+      <c r="AN70" s="43"/>
+      <c r="AO70" s="43"/>
+      <c r="AP70" s="43"/>
+      <c r="AQ70" s="43"/>
+      <c r="AR70" s="43"/>
+      <c r="AS70" s="43"/>
+      <c r="AT70" s="43"/>
+      <c r="AU70" s="43"/>
+      <c r="AV70" s="43"/>
+      <c r="AW70" s="43"/>
+      <c r="AX70" s="43"/>
+      <c r="AY70" s="43"/>
+      <c r="AZ70" s="43"/>
+      <c r="BA70" s="43"/>
+      <c r="BB70" s="43"/>
+      <c r="BC70" s="43"/>
+      <c r="BD70" s="43"/>
+      <c r="BE70" s="43"/>
+      <c r="BF70" s="43"/>
+      <c r="BG70" s="43"/>
+      <c r="BH70" s="43"/>
+      <c r="BI70" s="43"/>
+      <c r="BJ70" s="43"/>
+      <c r="BK70" s="43"/>
+      <c r="BL70" s="43"/>
+      <c r="BM70" s="43"/>
+      <c r="BN70" s="43"/>
+    </row>
+    <row r="71" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B71" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68" t="str">
+      <c r="D71" s="19"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="22" t="str">
+      <c r="G71" s="20"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="22" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J70" s="41"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="44"/>
-      <c r="R70" s="44"/>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="44"/>
-      <c r="X70" s="44"/>
-      <c r="Y70" s="44"/>
-      <c r="Z70" s="44"/>
-      <c r="AA70" s="44"/>
-      <c r="AB70" s="44"/>
-      <c r="AC70" s="44"/>
-      <c r="AD70" s="44"/>
-      <c r="AE70" s="44"/>
-      <c r="AF70" s="44"/>
-      <c r="AG70" s="44"/>
-      <c r="AH70" s="44"/>
-      <c r="AI70" s="44"/>
-      <c r="AJ70" s="44"/>
-      <c r="AK70" s="44"/>
-      <c r="AL70" s="44"/>
-      <c r="AM70" s="44"/>
-      <c r="AN70" s="44"/>
-      <c r="AO70" s="44"/>
-      <c r="AP70" s="44"/>
-      <c r="AQ70" s="44"/>
-      <c r="AR70" s="44"/>
-      <c r="AS70" s="44"/>
-      <c r="AT70" s="44"/>
-      <c r="AU70" s="44"/>
-      <c r="AV70" s="44"/>
-      <c r="AW70" s="44"/>
-      <c r="AX70" s="44"/>
-      <c r="AY70" s="44"/>
-      <c r="AZ70" s="44"/>
-      <c r="BA70" s="44"/>
-      <c r="BB70" s="44"/>
-      <c r="BC70" s="44"/>
-      <c r="BD70" s="44"/>
-      <c r="BE70" s="44"/>
-      <c r="BF70" s="44"/>
-      <c r="BG70" s="44"/>
-      <c r="BH70" s="44"/>
-      <c r="BI70" s="44"/>
-      <c r="BJ70" s="44"/>
-      <c r="BK70" s="44"/>
-      <c r="BL70" s="44"/>
-      <c r="BM70" s="44"/>
-      <c r="BN70" s="44"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="44"/>
+      <c r="X71" s="44"/>
+      <c r="Y71" s="44"/>
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="44"/>
+      <c r="AC71" s="44"/>
+      <c r="AD71" s="44"/>
+      <c r="AE71" s="44"/>
+      <c r="AF71" s="44"/>
+      <c r="AG71" s="44"/>
+      <c r="AH71" s="44"/>
+      <c r="AI71" s="44"/>
+      <c r="AJ71" s="44"/>
+      <c r="AK71" s="44"/>
+      <c r="AL71" s="44"/>
+      <c r="AM71" s="44"/>
+      <c r="AN71" s="44"/>
+      <c r="AO71" s="44"/>
+      <c r="AP71" s="44"/>
+      <c r="AQ71" s="44"/>
+      <c r="AR71" s="44"/>
+      <c r="AS71" s="44"/>
+      <c r="AT71" s="44"/>
+      <c r="AU71" s="44"/>
+      <c r="AV71" s="44"/>
+      <c r="AW71" s="44"/>
+      <c r="AX71" s="44"/>
+      <c r="AY71" s="44"/>
+      <c r="AZ71" s="44"/>
+      <c r="BA71" s="44"/>
+      <c r="BB71" s="44"/>
+      <c r="BC71" s="44"/>
+      <c r="BD71" s="44"/>
+      <c r="BE71" s="44"/>
+      <c r="BF71" s="44"/>
+      <c r="BG71" s="44"/>
+      <c r="BH71" s="44"/>
+      <c r="BI71" s="44"/>
+      <c r="BJ71" s="44"/>
+      <c r="BK71" s="44"/>
+      <c r="BL71" s="44"/>
+      <c r="BM71" s="44"/>
+      <c r="BN71" s="44"/>
     </row>
-    <row r="71" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="str">
+    <row r="72" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.1</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B72" s="61" t="s">
         <v>42</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="67">
-        <v>44512</v>
-      </c>
-      <c r="F71" s="69">
-        <f t="shared" si="46"/>
-        <v>44515</v>
-      </c>
-      <c r="G71" s="25">
-        <v>4</v>
-      </c>
-      <c r="H71" s="26">
-        <v>0</v>
-      </c>
-      <c r="I71" s="27">
-        <f t="shared" si="47"/>
-        <v>2</v>
-      </c>
-      <c r="J71" s="40"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="43"/>
-      <c r="Z71" s="43"/>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="43"/>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="43"/>
-      <c r="AF71" s="43"/>
-      <c r="AG71" s="43"/>
-      <c r="AH71" s="43"/>
-      <c r="AI71" s="43"/>
-      <c r="AJ71" s="43"/>
-      <c r="AK71" s="43"/>
-      <c r="AL71" s="43"/>
-      <c r="AM71" s="43"/>
-      <c r="AN71" s="43"/>
-      <c r="AO71" s="43"/>
-      <c r="AP71" s="43"/>
-      <c r="AQ71" s="43"/>
-      <c r="AR71" s="43"/>
-      <c r="AS71" s="43"/>
-      <c r="AT71" s="43"/>
-      <c r="AU71" s="43"/>
-      <c r="AV71" s="43"/>
-      <c r="AW71" s="43"/>
-      <c r="AX71" s="43"/>
-      <c r="AY71" s="43"/>
-      <c r="AZ71" s="43"/>
-      <c r="BA71" s="43"/>
-      <c r="BB71" s="43"/>
-      <c r="BC71" s="43"/>
-      <c r="BD71" s="43"/>
-      <c r="BE71" s="43"/>
-      <c r="BF71" s="43"/>
-      <c r="BG71" s="43"/>
-      <c r="BH71" s="43"/>
-      <c r="BI71" s="43"/>
-      <c r="BJ71" s="43"/>
-      <c r="BK71" s="43"/>
-      <c r="BL71" s="43"/>
-      <c r="BM71" s="43"/>
-      <c r="BN71" s="43"/>
-    </row>
-    <row r="72" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.1</v>
-      </c>
-      <c r="B72" s="63" t="s">
-        <v>43</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>16</v>
@@ -9196,18 +9225,18 @@
         <v>44512</v>
       </c>
       <c r="F72" s="69">
-        <f t="shared" ref="F72:F73" si="48">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
-        <v>44513</v>
+        <f t="shared" si="46"/>
+        <v>44515</v>
       </c>
       <c r="G72" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H72" s="26">
         <v>0</v>
       </c>
       <c r="I72" s="27">
-        <f t="shared" ref="I72:I73" si="49">IF(OR(F72=0,E72=0)," - ",NETWORKDAYS(E72,F72))</f>
-        <v>1</v>
+        <f t="shared" si="47"/>
+        <v>2</v>
       </c>
       <c r="J72" s="40"/>
       <c r="K72" s="43"/>
@@ -9267,24 +9296,24 @@
       <c r="BM72" s="43"/>
       <c r="BN72" s="43"/>
     </row>
-    <row r="73" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.2</v>
+        <v>6.1.1</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="62"/>
       <c r="E73" s="67">
+        <v>44512</v>
+      </c>
+      <c r="F73" s="69">
+        <f t="shared" ref="F73:F74" si="48">IF(ISBLANK(E73)," - ",IF(G73=0,E73,E73+G73-1))</f>
         <v>44513</v>
-      </c>
-      <c r="F73" s="69">
-        <f t="shared" si="48"/>
-        <v>44514</v>
       </c>
       <c r="G73" s="25">
         <v>2</v>
@@ -9293,8 +9322,8 @@
         <v>0</v>
       </c>
       <c r="I73" s="27">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" ref="I73:I74" si="49">IF(OR(F73=0,E73=0)," - ",NETWORKDAYS(E73,F73))</f>
+        <v>1</v>
       </c>
       <c r="J73" s="40"/>
       <c r="K73" s="43"/>
@@ -9356,32 +9385,32 @@
     </row>
     <row r="74" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
-      </c>
-      <c r="B74" s="61" t="s">
-        <v>45</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.1.2</v>
+      </c>
+      <c r="B74" s="63" t="s">
+        <v>44</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="62"/>
       <c r="E74" s="67">
-        <v>44515</v>
+        <v>44513</v>
       </c>
       <c r="F74" s="69">
-        <f>IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
-        <v>44518</v>
+        <f t="shared" si="48"/>
+        <v>44514</v>
       </c>
       <c r="G74" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H74" s="26">
         <v>0</v>
       </c>
       <c r="I74" s="27">
-        <f>IF(OR(F74=0,E74=0)," - ",NETWORKDAYS(E74,F74))</f>
-        <v>4</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
       <c r="J74" s="40"/>
       <c r="K74" s="43"/>
@@ -9441,34 +9470,34 @@
       <c r="BM74" s="43"/>
       <c r="BN74" s="43"/>
     </row>
-    <row r="75" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="B75" s="61" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="62"/>
       <c r="E75" s="67">
-        <v>44516</v>
+        <v>44515</v>
       </c>
       <c r="F75" s="69">
         <f>IF(ISBLANK(E75)," - ",IF(G75=0,E75,E75+G75-1))</f>
-        <v>44522</v>
+        <v>44518</v>
       </c>
       <c r="G75" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H75" s="26">
         <v>0</v>
       </c>
       <c r="I75" s="27">
         <f>IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J75" s="40"/>
       <c r="K75" s="43"/>
@@ -9528,6 +9557,93 @@
       <c r="BM75" s="43"/>
       <c r="BN75" s="43"/>
     </row>
+    <row r="76" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.3</v>
+      </c>
+      <c r="B76" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="62"/>
+      <c r="E76" s="67">
+        <v>44516</v>
+      </c>
+      <c r="F76" s="69">
+        <f>IF(ISBLANK(E76)," - ",IF(G76=0,E76,E76+G76-1))</f>
+        <v>44522</v>
+      </c>
+      <c r="G76" s="25">
+        <v>7</v>
+      </c>
+      <c r="H76" s="26">
+        <v>0</v>
+      </c>
+      <c r="I76" s="27">
+        <f>IF(OR(F76=0,E76=0)," - ",NETWORKDAYS(E76,F76))</f>
+        <v>5</v>
+      </c>
+      <c r="J76" s="40"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="43"/>
+      <c r="Z76" s="43"/>
+      <c r="AA76" s="43"/>
+      <c r="AB76" s="43"/>
+      <c r="AC76" s="43"/>
+      <c r="AD76" s="43"/>
+      <c r="AE76" s="43"/>
+      <c r="AF76" s="43"/>
+      <c r="AG76" s="43"/>
+      <c r="AH76" s="43"/>
+      <c r="AI76" s="43"/>
+      <c r="AJ76" s="43"/>
+      <c r="AK76" s="43"/>
+      <c r="AL76" s="43"/>
+      <c r="AM76" s="43"/>
+      <c r="AN76" s="43"/>
+      <c r="AO76" s="43"/>
+      <c r="AP76" s="43"/>
+      <c r="AQ76" s="43"/>
+      <c r="AR76" s="43"/>
+      <c r="AS76" s="43"/>
+      <c r="AT76" s="43"/>
+      <c r="AU76" s="43"/>
+      <c r="AV76" s="43"/>
+      <c r="AW76" s="43"/>
+      <c r="AX76" s="43"/>
+      <c r="AY76" s="43"/>
+      <c r="AZ76" s="43"/>
+      <c r="BA76" s="43"/>
+      <c r="BB76" s="43"/>
+      <c r="BC76" s="43"/>
+      <c r="BD76" s="43"/>
+      <c r="BE76" s="43"/>
+      <c r="BF76" s="43"/>
+      <c r="BG76" s="43"/>
+      <c r="BH76" s="43"/>
+      <c r="BI76" s="43"/>
+      <c r="BJ76" s="43"/>
+      <c r="BK76" s="43"/>
+      <c r="BL76" s="43"/>
+      <c r="BM76" s="43"/>
+      <c r="BN76" s="43"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
@@ -9552,8 +9668,8 @@
     <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8 H37 H15 H46 H65:H67 H48 H10:H11 H27:H28">
-    <cfRule type="dataBar" priority="257">
+  <conditionalFormatting sqref="H8 H38 H15 H47 H66:H68 H49 H10:H11 H27 H29">
+    <cfRule type="dataBar" priority="261">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9567,25 +9683,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="69" priority="300">
+    <cfRule type="expression" dxfId="72" priority="304">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN8 K15:BN15 K10:BN11 K17:BN25 K27:BN75">
-    <cfRule type="expression" dxfId="68" priority="303">
+  <conditionalFormatting sqref="K8:BN8 K15:BN15 K10:BN11 K17:BN25 K27:BN27 K29:BN76">
+    <cfRule type="expression" dxfId="71" priority="307">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="304">
+    <cfRule type="expression" dxfId="70" priority="308">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN8 K37:BN37 K15:BN15 K46:BN46 K65:BN67 K48:BN48 K10:BN11 K27:BN28">
-    <cfRule type="expression" dxfId="66" priority="263">
+  <conditionalFormatting sqref="K6:BN8 K38:BN38 K15:BN15 K47:BN47 K66:BN68 K49:BN49 K10:BN11 K27:BN27 K29:BN29">
+    <cfRule type="expression" dxfId="69" priority="267">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="252">
+    <cfRule type="dataBar" priority="256">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9599,12 +9715,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="65" priority="253">
+    <cfRule type="expression" dxfId="68" priority="257">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="248">
+    <cfRule type="dataBar" priority="252">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9618,12 +9734,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="64" priority="249">
+    <cfRule type="expression" dxfId="67" priority="253">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="244">
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9637,12 +9753,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="63" priority="245">
+    <cfRule type="expression" dxfId="66" priority="249">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="240">
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9656,12 +9772,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="62" priority="241">
+    <cfRule type="expression" dxfId="65" priority="245">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="236">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9675,12 +9791,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="61" priority="237">
+    <cfRule type="expression" dxfId="64" priority="241">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="232">
+    <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9694,12 +9810,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="60" priority="233">
+    <cfRule type="expression" dxfId="63" priority="237">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="220">
+    <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9713,12 +9829,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="59" priority="221">
+    <cfRule type="expression" dxfId="62" priority="225">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="224">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9732,12 +9848,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="58" priority="225">
+    <cfRule type="expression" dxfId="61" priority="229">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="200">
+    <cfRule type="dataBar" priority="204">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9751,12 +9867,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="57" priority="201">
+    <cfRule type="expression" dxfId="60" priority="205">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="196">
+  <conditionalFormatting sqref="H30">
+    <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9769,13 +9885,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="56" priority="197">
+  <conditionalFormatting sqref="K30:BN30">
+    <cfRule type="expression" dxfId="59" priority="201">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="192">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="dataBar" priority="196">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9788,13 +9904,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="55" priority="193">
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="58" priority="197">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="188">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9807,13 +9923,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="54" priority="189">
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="57" priority="193">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="184">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9826,13 +9942,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="53" priority="185">
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="56" priority="189">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="180">
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9845,13 +9961,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="52" priority="181">
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="55" priority="185">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="178">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9864,13 +9980,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="51" priority="179">
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="54" priority="183">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="176">
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9883,13 +9999,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="50" priority="177">
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="53" priority="181">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="172">
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9902,13 +10018,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="49" priority="173">
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="52" priority="177">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="170">
+  <conditionalFormatting sqref="H35">
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9921,13 +10037,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="48" priority="171">
+  <conditionalFormatting sqref="K35:BN35">
+    <cfRule type="expression" dxfId="51" priority="175">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="168">
+  <conditionalFormatting sqref="H36">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9940,13 +10056,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="47" priority="169">
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="50" priority="173">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="164">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9960,20 +10076,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="46" priority="166">
+    <cfRule type="expression" dxfId="49" priority="170">
       <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="167">
+    <cfRule type="expression" dxfId="48" priority="171">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="44" priority="165">
+    <cfRule type="expression" dxfId="47" priority="169">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9987,20 +10103,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="43" priority="162">
+    <cfRule type="expression" dxfId="46" priority="166">
       <formula>AND($E13&lt;=K$6,ROUNDDOWN(($F13-$E13+1)*$H13,0)+$E13-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="163">
+    <cfRule type="expression" dxfId="45" priority="167">
       <formula>AND(NOT(ISBLANK($E13)),$E13&lt;=K$6,$F13&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="41" priority="161">
+    <cfRule type="expression" dxfId="44" priority="165">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="136">
+  <conditionalFormatting sqref="H50">
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10013,13 +10129,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="40" priority="137">
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="43" priority="141">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="134">
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10032,13 +10148,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="39" priority="135">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="42" priority="139">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="132">
+  <conditionalFormatting sqref="H54">
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10051,13 +10167,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="38" priority="133">
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="41" priority="137">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="128">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10070,13 +10186,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="37" priority="129">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="40" priority="133">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="122">
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10089,13 +10205,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="36" priority="123">
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="39" priority="127">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="124">
+  <conditionalFormatting sqref="H60">
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10108,13 +10224,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="35" priority="125">
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="38" priority="129">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="118">
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10127,13 +10243,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="34" priority="119">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="37" priority="123">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="114">
+  <conditionalFormatting sqref="H56">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10146,13 +10262,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="33" priority="115">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="36" priority="119">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:H71 H74">
-    <cfRule type="dataBar" priority="93">
+  <conditionalFormatting sqref="H71:H72 H75">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10165,13 +10281,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN71 K74:BN74">
-    <cfRule type="expression" dxfId="32" priority="94">
+  <conditionalFormatting sqref="K71:BN72 K75:BN75">
+    <cfRule type="expression" dxfId="35" priority="98">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="dataBar" priority="89">
+  <conditionalFormatting sqref="H73">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10184,13 +10300,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="31" priority="90">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="34" priority="94">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="dataBar" priority="85">
+  <conditionalFormatting sqref="H74">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10203,13 +10319,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="30" priority="86">
+  <conditionalFormatting sqref="K74:BN74">
+    <cfRule type="expression" dxfId="33" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="81">
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10222,13 +10338,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="29" priority="82">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="32" priority="86">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="79">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10241,13 +10357,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="28" priority="80">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="31" priority="84">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="77">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10260,13 +10376,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="27" priority="78">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="30" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="75">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10279,13 +10395,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="26" priority="76">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="29" priority="80">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="71">
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10298,13 +10414,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="25" priority="72">
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="28" priority="76">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="dataBar" priority="67">
+  <conditionalFormatting sqref="H70">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10317,13 +10433,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="24" priority="68">
+  <conditionalFormatting sqref="K70:BN70">
+    <cfRule type="expression" dxfId="27" priority="72">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="dataBar" priority="63">
+  <conditionalFormatting sqref="H69">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10336,13 +10452,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="23" priority="64">
+  <conditionalFormatting sqref="K69:BN69">
+    <cfRule type="expression" dxfId="26" priority="68">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10355,13 +10471,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="22" priority="60">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="25" priority="64">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="53">
+  <conditionalFormatting sqref="H53">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10374,13 +10490,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="21" priority="54">
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="24" priority="58">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="49">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10393,13 +10509,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="20" priority="50">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="23" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="45">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10412,13 +10528,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="19" priority="46">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="22" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10431,13 +10547,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="18" priority="42">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="21" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10450,13 +10566,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="17" priority="38">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="20" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10469,13 +10585,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="16" priority="34">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="19" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="H65">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10488,13 +10604,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="15" priority="30">
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="18" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10507,13 +10623,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="14" priority="26">
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="17" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="H76">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10526,13 +10642,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="13" priority="22">
+  <conditionalFormatting sqref="K76:BN76">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10545,13 +10661,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="12" priority="18">
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10565,20 +10681,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:BN9">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>AND($E9&lt;=K$6,ROUNDDOWN(($F9-$E9+1)*$H9,0)+$E9-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>AND(NOT(ISBLANK($E9)),$E9&lt;=K$6,$F9&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:BN9">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10592,20 +10708,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND($E14&lt;=K$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$6,$F14&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10619,28 +10735,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:BN26">
     <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
+      <formula>AND($E26&lt;=K$6,ROUNDDOWN(($F26-$E26+1)*$H26,0)+$E26-1&gt;=K$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E26&lt;=K$6,ROUNDDOWN(($F26-$E26+1)*$H26,0)+$E26-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(NOT(ISBLANK($E26)),$E26&lt;=K$6,$F26&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10654,6 +10770,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{893F2CD8-CAAB-4A1A-947F-FE153E31D73A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -10668,8 +10811,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H10 E27 E46 E65 G27:H27 G46:H46 G65:H66 H37 H28 H67" unlockedFormula="1"/>
-    <ignoredError sqref="A65 A46 A27" formula="1"/>
+    <ignoredError sqref="H10 E27 E47 E66 G27:H27 G47:H47 G66:H67 H38 H29 H68" unlockedFormula="1"/>
+    <ignoredError sqref="A66 A47 A27" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -10717,7 +10860,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8 H37 H15 H46 H65:H67 H48 H10:H11 H27:H28</xm:sqref>
+          <xm:sqref>H8 H38 H15 H47 H66:H68 H49 H10:H11 H27 H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59B11CE9-8D87-48BF-BF74-F1713D212F51}">
@@ -10867,7 +11010,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
+          <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E1771E53-3AD1-430E-A8E6-F4743135981B}">
@@ -10882,7 +11025,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
+          <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{80ED302E-9A51-4525-993F-2B76381C0769}">
@@ -10897,7 +11040,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
+          <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{23F127D9-9575-4355-BD03-1BB9057DD4DD}">
@@ -10912,7 +11055,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
+          <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0E337609-ACBA-4668-B5A0-2BDD495BE39D}">
@@ -10927,7 +11070,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H30</xm:sqref>
+          <xm:sqref>H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{554A9F1E-BF5C-467E-8086-9B01909C20E5}">
@@ -10942,7 +11085,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H31</xm:sqref>
+          <xm:sqref>H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F15EAED-48CB-4BDE-A4C3-8C904165ED0E}">
@@ -10957,7 +11100,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
+          <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CDA1F19A-65EB-4458-BAFE-7B95F2F3950D}">
@@ -10972,7 +11115,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
+          <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36EA0327-A3EF-4FA9-8EF4-AE533F50DEA9}">
@@ -10987,7 +11130,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
+          <xm:sqref>H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7ADB1AF6-20D8-4DB6-9648-ADCC9AF97510}">
@@ -11002,7 +11145,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
+          <xm:sqref>H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0185AD77-8DD3-4A88-B2FB-B7A6B63A3C2A}">
@@ -11047,7 +11190,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
+          <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F5B88501-27FF-4CC8-84E9-D9610DFAFC9C}">
@@ -11062,7 +11205,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
+          <xm:sqref>H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2ADCC9E0-CFB5-4DED-9CCD-A8BDE5EE6779}">
@@ -11077,7 +11220,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
+          <xm:sqref>H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EE84C52D-6157-4E7F-B877-539A39A2D79F}">
@@ -11092,7 +11235,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
+          <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FC173D3B-A71F-4841-8FEE-9D3D1C1C6AAD}">
@@ -11107,7 +11250,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H63</xm:sqref>
+          <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93820E9B-DFA8-4118-B762-3FD0E66C0003}">
@@ -11122,7 +11265,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
+          <xm:sqref>H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{92FA5D0A-F65A-4CF7-AE23-4592944CB9F3}">
@@ -11137,7 +11280,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
+          <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51520B4E-13B4-4505-9824-AF1555C8DC52}">
@@ -11152,7 +11295,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
+          <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A0558DD-38BD-42B8-9B31-1F96890FC709}">
@@ -11167,7 +11310,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H70:H71 H74</xm:sqref>
+          <xm:sqref>H71:H72 H75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{84AB0ABF-A82B-4950-BC7F-9E3DE674CBEE}">
@@ -11182,7 +11325,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
+          <xm:sqref>H73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{19041C87-12FB-4339-B66F-2ED2C9BB9BE4}">
@@ -11197,7 +11340,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H73</xm:sqref>
+          <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F0BB4220-F045-4A7B-B213-4C370DB0FDF3}">
@@ -11212,7 +11355,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
+          <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D05A7261-1687-42BA-9C7A-BE780C1B9748}">
@@ -11227,7 +11370,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
+          <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E2E2D14B-B1C9-4C94-B98C-1FF10C49C3CD}">
@@ -11242,7 +11385,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
+          <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D3C4557-8138-4691-95AC-6B5AC1D3D9FB}">
@@ -11257,7 +11400,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17272C0C-E1AA-4F4A-AF4F-51740FABDC6A}">
@@ -11272,7 +11415,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
+          <xm:sqref>H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{244463A8-2C09-48DD-9B25-E9B4D3B75AC7}">
@@ -11287,7 +11430,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
+          <xm:sqref>H70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{15DECAB3-CA3B-49A0-950D-FD82995C6384}">
@@ -11302,7 +11445,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H68</xm:sqref>
+          <xm:sqref>H69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BCAEF73-815D-4404-976A-A447BC1FDCEF}">
@@ -11317,7 +11460,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
+          <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{25FA016E-6803-4E22-9C76-663074DE3501}">
@@ -11332,7 +11475,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
+          <xm:sqref>H53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93F908A3-1FF8-4D9B-8EFF-60F796C59B73}">
@@ -11347,7 +11490,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
+          <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C9CD4C7A-232F-4EDC-94FD-A5A31C464A29}">
@@ -11362,7 +11505,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C40B286B-F49F-4C25-B272-FE733A695459}">
@@ -11377,7 +11520,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
+          <xm:sqref>H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{32AAC8E5-7840-4B83-A4A3-3991FE10D0CA}">
@@ -11392,7 +11535,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B939AED-C1EC-4F3B-95B9-6B540A5A31A2}">
@@ -11407,7 +11550,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
+          <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B1A73DCF-EC56-4BEB-A4C3-D6BEDBE7248B}">
@@ -11422,7 +11565,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
+          <xm:sqref>H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D30E9DB7-6469-4A74-8541-458DA506F362}">
@@ -11437,7 +11580,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
+          <xm:sqref>H46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F5DCAA9-E51B-41E1-ABED-98B4180687C9}">
@@ -11452,7 +11595,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H75</xm:sqref>
+          <xm:sqref>H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F7D37A11-F81A-43B9-9013-6FC0D07E8F9D}">
@@ -11467,7 +11610,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{231F956C-6F8E-400D-95A0-95D859A5C02E}">
@@ -11529,6 +11672,21 @@
           </x14:cfRule>
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{893F2CD8-CAAB-4A1A-947F-FE153E31D73A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4142B-45D3-4BAF-89D5-B638821E22EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7409254-635E-4ACF-8B99-089CD122D3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1547,13 +1547,6 @@
     <xf numFmtId="168" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,10 +1556,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,6 +1564,17 @@
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2917,7 +2917,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
+      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2945,29 +2945,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3012,11 +3012,11 @@
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="78">
         <v>44459</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
@@ -3026,182 +3026,182 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="72" t="str">
+      <c r="K4" s="70" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="72" t="str">
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="70" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="72" t="str">
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="70" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="72" t="str">
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="70" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="72" t="str">
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="70" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="72" t="str">
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="70" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="72" t="str">
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="70" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="73"/>
-      <c r="BG4" s="74"/>
-      <c r="BH4" s="72" t="str">
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="70" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="73"/>
-      <c r="BM4" s="73"/>
-      <c r="BN4" s="74"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="72"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="76">
+      <c r="K5" s="73">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="76">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="73">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="76">
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="73">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="76">
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="73">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="76">
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="73">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="78"/>
-      <c r="AT5" s="76">
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="73">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="77"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="78"/>
-      <c r="BA5" s="76">
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="73">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="77"/>
-      <c r="BF5" s="77"/>
-      <c r="BG5" s="78"/>
-      <c r="BH5" s="76">
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74"/>
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="75"/>
+      <c r="BH5" s="73">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="77"/>
-      <c r="BJ5" s="77"/>
-      <c r="BK5" s="77"/>
-      <c r="BL5" s="77"/>
-      <c r="BM5" s="77"/>
-      <c r="BN5" s="78"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="74"/>
+      <c r="BK5" s="74"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="74"/>
+      <c r="BN5" s="75"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -6562,7 +6562,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="27">
         <f>IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
@@ -9647,6 +9647,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9657,15 +9666,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8 H38 H15 H47 H66:H68 H49 H10:H11 H27 H29">

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7409254-635E-4ACF-8B99-089CD122D3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F0D1B-E097-4ED8-B659-AF3A25D12510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2916,8 +2916,8 @@
   <dimension ref="A1:BN76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
+      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6649,7 +6649,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I42" s="27">
         <f>IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F0D1B-E097-4ED8-B659-AF3A25D12510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC266DF6-E811-4BE1-B2A3-EE1D73E9B206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10932" yWindow="156" windowWidth="12072" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -1547,6 +1547,13 @@
     <xf numFmtId="168" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1556,6 +1563,10 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1564,17 +1575,6 @@
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2917,7 +2917,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2945,29 +2945,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3012,11 +3012,11 @@
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="75">
         <v>44459</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
@@ -3026,182 +3026,182 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="70" t="str">
+      <c r="K4" s="72" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="70" t="str">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="72" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="70" t="str">
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="72" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="70" t="str">
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="72" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="70" t="str">
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="72" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="70" t="str">
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="72" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="70" t="str">
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="72" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="70" t="str">
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="73"/>
+      <c r="BD4" s="73"/>
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="73"/>
+      <c r="BG4" s="74"/>
+      <c r="BH4" s="72" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="72"/>
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="73"/>
+      <c r="BM4" s="73"/>
+      <c r="BN4" s="74"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="73">
+      <c r="K5" s="76">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="73">
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="76">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="73">
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="76">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="73">
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="76">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="73">
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="76">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="75"/>
-      <c r="AT5" s="73">
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="76">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="73">
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="77"/>
+      <c r="AX5" s="77"/>
+      <c r="AY5" s="77"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="76">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="74"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="75"/>
-      <c r="BH5" s="73">
+      <c r="BB5" s="77"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="77"/>
+      <c r="BE5" s="77"/>
+      <c r="BF5" s="77"/>
+      <c r="BG5" s="78"/>
+      <c r="BH5" s="76">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="74"/>
-      <c r="BK5" s="74"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="74"/>
-      <c r="BN5" s="75"/>
+      <c r="BI5" s="77"/>
+      <c r="BJ5" s="77"/>
+      <c r="BK5" s="77"/>
+      <c r="BL5" s="77"/>
+      <c r="BM5" s="77"/>
+      <c r="BN5" s="78"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I30" s="27">
         <f t="shared" si="4"/>
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="27">
         <f t="shared" si="4"/>
@@ -9647,15 +9647,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9666,6 +9657,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8 H38 H15 H47 H66:H68 H49 H10:H11 H27 H29">

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC266DF6-E811-4BE1-B2A3-EE1D73E9B206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03715077-1C79-43D2-8E2C-78962A13ED88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10932" yWindow="156" windowWidth="12072" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -1363,7 +1363,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1547,13 +1547,6 @@
     <xf numFmtId="168" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,10 +1556,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,6 +1563,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2506,7 +2509,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="2"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2913,11 +2916,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN76"/>
+  <dimension ref="A1:BO76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="7" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2935,7 +2938,7 @@
     <col min="67" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>14</v>
       </c>
@@ -2945,31 +2948,31 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
     </row>
-    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2980,7 +2983,7 @@
       <c r="F2" s="66"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="11"/>
       <c r="C3" s="4"/>
@@ -3007,203 +3010,204 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="78">
         <v>44459</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="72" t="str">
+      <c r="K4" s="70" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="72" t="str">
+        <v>Week 2</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="70" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="72" t="str">
+        <v>Week 3</v>
+      </c>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="70" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="72" t="str">
+        <v>Week 4</v>
+      </c>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="70" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="72" t="str">
+        <v>Week 5</v>
+      </c>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="70" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="72" t="str">
+        <v>Week 6</v>
+      </c>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="70" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="72" t="str">
+        <v>Week 7</v>
+      </c>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="70" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="73"/>
-      <c r="BG4" s="74"/>
-      <c r="BH4" s="72" t="str">
+        <v>Week 8</v>
+      </c>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="70" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="73"/>
-      <c r="BM4" s="73"/>
-      <c r="BN4" s="74"/>
+        <v>Week 9</v>
+      </c>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="72"/>
+      <c r="BO4" s="79"/>
     </row>
-    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="76">
+      <c r="K5" s="73">
         <f>K6</f>
-        <v>44459</v>
-      </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="76">
+        <v>44466</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="73">
         <f>R6</f>
-        <v>44466</v>
-      </c>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="76">
+        <v>44473</v>
+      </c>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="73">
         <f>Y6</f>
-        <v>44473</v>
-      </c>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="76">
+        <v>44480</v>
+      </c>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="73">
         <f>AF6</f>
-        <v>44480</v>
-      </c>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="76">
+        <v>44487</v>
+      </c>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="73">
         <f>AM6</f>
-        <v>44487</v>
-      </c>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="78"/>
-      <c r="AT5" s="76">
+        <v>44494</v>
+      </c>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="73">
         <f>AT6</f>
-        <v>44494</v>
-      </c>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="77"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="78"/>
-      <c r="BA5" s="76">
+        <v>44501</v>
+      </c>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="73">
         <f>BA6</f>
-        <v>44501</v>
-      </c>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="77"/>
-      <c r="BF5" s="77"/>
-      <c r="BG5" s="78"/>
-      <c r="BH5" s="76">
+        <v>44508</v>
+      </c>
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74"/>
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="75"/>
+      <c r="BH5" s="73">
         <f>BH6</f>
-        <v>44508</v>
-      </c>
-      <c r="BI5" s="77"/>
-      <c r="BJ5" s="77"/>
-      <c r="BK5" s="77"/>
-      <c r="BL5" s="77"/>
-      <c r="BM5" s="77"/>
-      <c r="BN5" s="78"/>
+        <v>44515</v>
+      </c>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="74"/>
+      <c r="BK5" s="74"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="74"/>
+      <c r="BN5" s="75"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3216,230 +3220,230 @@
       <c r="J6" s="13"/>
       <c r="K6" s="37">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>44459</v>
+        <v>44466</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>44460</v>
+        <v>44467</v>
       </c>
       <c r="M6" s="28">
         <f t="shared" si="0"/>
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="N6" s="28">
         <f t="shared" si="0"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="0"/>
-        <v>44463</v>
+        <v>44470</v>
       </c>
       <c r="P6" s="28">
         <f t="shared" si="0"/>
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="Q6" s="38">
         <f t="shared" si="0"/>
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="R6" s="37">
         <f t="shared" si="0"/>
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="S6" s="28">
         <f t="shared" si="0"/>
-        <v>44467</v>
+        <v>44474</v>
       </c>
       <c r="T6" s="28">
         <f t="shared" si="0"/>
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="U6" s="28">
         <f t="shared" si="0"/>
-        <v>44469</v>
+        <v>44476</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" si="0"/>
-        <v>44470</v>
+        <v>44477</v>
       </c>
       <c r="W6" s="28">
         <f t="shared" si="0"/>
-        <v>44471</v>
+        <v>44478</v>
       </c>
       <c r="X6" s="38">
         <f t="shared" si="0"/>
-        <v>44472</v>
+        <v>44479</v>
       </c>
       <c r="Y6" s="37">
         <f t="shared" si="0"/>
-        <v>44473</v>
+        <v>44480</v>
       </c>
       <c r="Z6" s="28">
         <f t="shared" si="0"/>
-        <v>44474</v>
+        <v>44481</v>
       </c>
       <c r="AA6" s="28">
         <f t="shared" si="0"/>
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="AB6" s="28">
         <f t="shared" si="0"/>
-        <v>44476</v>
+        <v>44483</v>
       </c>
       <c r="AC6" s="28">
         <f t="shared" si="0"/>
-        <v>44477</v>
+        <v>44484</v>
       </c>
       <c r="AD6" s="28">
         <f t="shared" si="0"/>
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="AE6" s="38">
         <f t="shared" si="0"/>
-        <v>44479</v>
+        <v>44486</v>
       </c>
       <c r="AF6" s="37">
         <f t="shared" si="0"/>
-        <v>44480</v>
+        <v>44487</v>
       </c>
       <c r="AG6" s="28">
         <f t="shared" si="0"/>
-        <v>44481</v>
+        <v>44488</v>
       </c>
       <c r="AH6" s="28">
         <f t="shared" si="0"/>
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="AI6" s="28">
         <f t="shared" si="0"/>
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="AJ6" s="28">
         <f t="shared" si="0"/>
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="AK6" s="28">
         <f t="shared" si="0"/>
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="AL6" s="38">
         <f t="shared" si="0"/>
-        <v>44486</v>
+        <v>44493</v>
       </c>
       <c r="AM6" s="37">
         <f t="shared" si="0"/>
-        <v>44487</v>
+        <v>44494</v>
       </c>
       <c r="AN6" s="28">
         <f t="shared" si="0"/>
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="AO6" s="28">
         <f t="shared" si="0"/>
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="AP6" s="28">
         <f t="shared" si="0"/>
-        <v>44490</v>
+        <v>44497</v>
       </c>
       <c r="AQ6" s="28">
         <f t="shared" si="0"/>
-        <v>44491</v>
+        <v>44498</v>
       </c>
       <c r="AR6" s="28">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>44492</v>
+        <v>44499</v>
       </c>
       <c r="AS6" s="38">
         <f t="shared" si="1"/>
-        <v>44493</v>
+        <v>44500</v>
       </c>
       <c r="AT6" s="37">
         <f t="shared" si="1"/>
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="AU6" s="28">
         <f t="shared" si="1"/>
-        <v>44495</v>
+        <v>44502</v>
       </c>
       <c r="AV6" s="28">
         <f t="shared" si="1"/>
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="AW6" s="28">
         <f t="shared" si="1"/>
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="AX6" s="28">
         <f t="shared" si="1"/>
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="AY6" s="28">
         <f t="shared" si="1"/>
-        <v>44499</v>
+        <v>44506</v>
       </c>
       <c r="AZ6" s="38">
         <f t="shared" si="1"/>
-        <v>44500</v>
+        <v>44507</v>
       </c>
       <c r="BA6" s="37">
         <f t="shared" si="1"/>
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="BB6" s="28">
         <f t="shared" si="1"/>
-        <v>44502</v>
+        <v>44509</v>
       </c>
       <c r="BC6" s="28">
         <f t="shared" si="1"/>
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="BD6" s="28">
         <f t="shared" si="1"/>
-        <v>44504</v>
+        <v>44511</v>
       </c>
       <c r="BE6" s="28">
         <f t="shared" si="1"/>
-        <v>44505</v>
+        <v>44512</v>
       </c>
       <c r="BF6" s="28">
         <f t="shared" si="1"/>
-        <v>44506</v>
+        <v>44513</v>
       </c>
       <c r="BG6" s="38">
         <f t="shared" si="1"/>
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="BH6" s="37">
         <f t="shared" si="1"/>
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="BI6" s="28">
         <f t="shared" si="1"/>
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="BJ6" s="28">
         <f t="shared" si="1"/>
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="BK6" s="28">
         <f t="shared" si="1"/>
-        <v>44511</v>
+        <v>44518</v>
       </c>
       <c r="BL6" s="28">
         <f t="shared" si="1"/>
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="BM6" s="28">
         <f t="shared" si="1"/>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="BN6" s="38">
         <f t="shared" si="1"/>
-        <v>44514</v>
+        <v>44521</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="59" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" s="59" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>0</v>
       </c>
@@ -3692,8 +3696,9 @@
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
+      <c r="BO7" s="3"/>
     </row>
-    <row r="8" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -3771,8 +3776,9 @@
       <c r="BL8" s="42"/>
       <c r="BM8" s="42"/>
       <c r="BN8" s="42"/>
+      <c r="BO8" s="3"/>
     </row>
-    <row r="9" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -3858,8 +3864,9 @@
       <c r="BL9" s="43"/>
       <c r="BM9" s="43"/>
       <c r="BN9" s="43"/>
+      <c r="BO9" s="3"/>
     </row>
-    <row r="10" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
         <f t="shared" ref="A10:A13" si="7">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.2</v>
@@ -3945,8 +3952,9 @@
       <c r="BL10" s="43"/>
       <c r="BM10" s="43"/>
       <c r="BN10" s="43"/>
+      <c r="BO10" s="3"/>
     </row>
-    <row r="11" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
@@ -4032,8 +4040,9 @@
       <c r="BL11" s="43"/>
       <c r="BM11" s="43"/>
       <c r="BN11" s="43"/>
+      <c r="BO11" s="3"/>
     </row>
-    <row r="12" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="str">
         <f t="shared" si="7"/>
         <v>1.3</v>
@@ -4119,8 +4128,9 @@
       <c r="BL12" s="43"/>
       <c r="BM12" s="43"/>
       <c r="BN12" s="43"/>
+      <c r="BO12" s="3"/>
     </row>
-    <row r="13" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="str">
         <f t="shared" si="7"/>
         <v>1.4</v>
@@ -4206,8 +4216,9 @@
       <c r="BL13" s="43"/>
       <c r="BM13" s="43"/>
       <c r="BN13" s="43"/>
+      <c r="BO13" s="3"/>
     </row>
-    <row r="14" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -4285,8 +4296,9 @@
       <c r="BL14" s="42"/>
       <c r="BM14" s="42"/>
       <c r="BN14" s="42"/>
+      <c r="BO14" s="3"/>
     </row>
-    <row r="15" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -4372,8 +4384,9 @@
       <c r="BL15" s="43"/>
       <c r="BM15" s="43"/>
       <c r="BN15" s="43"/>
+      <c r="BO15" s="3"/>
     </row>
-    <row r="16" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -4459,8 +4472,9 @@
       <c r="BL16" s="43"/>
       <c r="BM16" s="43"/>
       <c r="BN16" s="43"/>
+      <c r="BO16" s="3"/>
     </row>
-    <row r="17" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="str">
         <f t="shared" ref="A17:A24" si="13">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.1</v>
@@ -4546,8 +4560,9 @@
       <c r="BL17" s="43"/>
       <c r="BM17" s="43"/>
       <c r="BN17" s="43"/>
+      <c r="BO17" s="3"/>
     </row>
-    <row r="18" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="str">
         <f t="shared" si="13"/>
         <v>2.2.2</v>
@@ -4633,8 +4648,9 @@
       <c r="BL18" s="43"/>
       <c r="BM18" s="43"/>
       <c r="BN18" s="43"/>
+      <c r="BO18" s="3"/>
     </row>
-    <row r="19" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="str">
         <f t="shared" si="13"/>
         <v>2.2.3</v>
@@ -4720,8 +4736,9 @@
       <c r="BL19" s="43"/>
       <c r="BM19" s="43"/>
       <c r="BN19" s="43"/>
+      <c r="BO19" s="3"/>
     </row>
-    <row r="20" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="str">
         <f t="shared" si="13"/>
         <v>2.2.4</v>
@@ -4807,8 +4824,9 @@
       <c r="BL20" s="43"/>
       <c r="BM20" s="43"/>
       <c r="BN20" s="43"/>
+      <c r="BO20" s="3"/>
     </row>
-    <row r="21" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="str">
         <f t="shared" si="13"/>
         <v>2.2.5</v>
@@ -4894,8 +4912,9 @@
       <c r="BL21" s="43"/>
       <c r="BM21" s="43"/>
       <c r="BN21" s="43"/>
+      <c r="BO21" s="3"/>
     </row>
-    <row r="22" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="str">
         <f t="shared" si="13"/>
         <v>2.2.6</v>
@@ -4981,8 +5000,9 @@
       <c r="BL22" s="43"/>
       <c r="BM22" s="43"/>
       <c r="BN22" s="43"/>
+      <c r="BO22" s="3"/>
     </row>
-    <row r="23" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="str">
         <f t="shared" si="13"/>
         <v>2.2.7</v>
@@ -5068,8 +5088,9 @@
       <c r="BL23" s="43"/>
       <c r="BM23" s="43"/>
       <c r="BN23" s="43"/>
+      <c r="BO23" s="3"/>
     </row>
-    <row r="24" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="str">
         <f t="shared" si="13"/>
         <v>2.2.8</v>
@@ -5155,8 +5176,9 @@
       <c r="BL24" s="43"/>
       <c r="BM24" s="43"/>
       <c r="BN24" s="43"/>
+      <c r="BO24" s="3"/>
     </row>
-    <row r="25" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="str">
         <f t="shared" ref="A25:A28" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
@@ -5242,8 +5264,9 @@
       <c r="BL25" s="43"/>
       <c r="BM25" s="43"/>
       <c r="BN25" s="43"/>
+      <c r="BO25" s="3"/>
     </row>
-    <row r="26" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="str">
         <f t="shared" si="18"/>
         <v>2.4</v>
@@ -5329,8 +5352,9 @@
       <c r="BL26" s="43"/>
       <c r="BM26" s="43"/>
       <c r="BN26" s="43"/>
+      <c r="BO26" s="3"/>
     </row>
-    <row r="27" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -5407,8 +5431,9 @@
       <c r="BL27" s="44"/>
       <c r="BM27" s="44"/>
       <c r="BN27" s="44"/>
+      <c r="BO27" s="3"/>
     </row>
-    <row r="28" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="str">
         <f t="shared" si="18"/>
         <v>3.1</v>
@@ -5494,8 +5519,9 @@
       <c r="BL28" s="43"/>
       <c r="BM28" s="43"/>
       <c r="BN28" s="43"/>
+      <c r="BO28" s="3"/>
     </row>
-    <row r="29" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -5518,7 +5544,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="27">
         <f t="shared" si="4"/>
@@ -5581,8 +5607,9 @@
       <c r="BL29" s="43"/>
       <c r="BM29" s="43"/>
       <c r="BN29" s="43"/>
+      <c r="BO29" s="3"/>
     </row>
-    <row r="30" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.1</v>
@@ -5605,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="26">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I30" s="27">
         <f t="shared" si="4"/>
@@ -5668,8 +5695,9 @@
       <c r="BL30" s="43"/>
       <c r="BM30" s="43"/>
       <c r="BN30" s="43"/>
+      <c r="BO30" s="3"/>
     </row>
-    <row r="31" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
         <f t="shared" ref="A31:A37" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.2.1.1</v>
@@ -5755,8 +5783,9 @@
       <c r="BL31" s="43"/>
       <c r="BM31" s="43"/>
       <c r="BN31" s="43"/>
+      <c r="BO31" s="3"/>
     </row>
-    <row r="32" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
         <f t="shared" si="23"/>
         <v>3.2.1.2</v>
@@ -5779,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="27">
         <f t="shared" si="4"/>
@@ -5842,8 +5871,9 @@
       <c r="BL32" s="43"/>
       <c r="BM32" s="43"/>
       <c r="BN32" s="43"/>
+      <c r="BO32" s="3"/>
     </row>
-    <row r="33" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="str">
         <f t="shared" si="23"/>
         <v>3.2.1.3</v>
@@ -5866,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="27">
         <f t="shared" si="4"/>
@@ -5929,8 +5959,9 @@
       <c r="BL33" s="43"/>
       <c r="BM33" s="43"/>
       <c r="BN33" s="43"/>
+      <c r="BO33" s="3"/>
     </row>
-    <row r="34" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="str">
         <f t="shared" si="23"/>
         <v>3.2.1.4</v>
@@ -5953,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="27">
         <f t="shared" si="4"/>
@@ -6016,8 +6047,9 @@
       <c r="BL34" s="43"/>
       <c r="BM34" s="43"/>
       <c r="BN34" s="43"/>
+      <c r="BO34" s="3"/>
     </row>
-    <row r="35" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="str">
         <f t="shared" si="23"/>
         <v>3.2.1.5</v>
@@ -6040,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="27">
         <f t="shared" si="4"/>
@@ -6103,8 +6135,9 @@
       <c r="BL35" s="43"/>
       <c r="BM35" s="43"/>
       <c r="BN35" s="43"/>
+      <c r="BO35" s="3"/>
     </row>
-    <row r="36" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="str">
         <f t="shared" si="23"/>
         <v>3.2.1.6</v>
@@ -6127,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="27">
         <f t="shared" si="4"/>
@@ -6190,8 +6223,9 @@
       <c r="BL36" s="43"/>
       <c r="BM36" s="43"/>
       <c r="BN36" s="43"/>
+      <c r="BO36" s="3"/>
     </row>
-    <row r="37" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="str">
         <f t="shared" si="23"/>
         <v>3.2.1.7</v>
@@ -6214,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="27">
         <f t="shared" ref="I37" si="25">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
@@ -6277,8 +6311,9 @@
       <c r="BL37" s="43"/>
       <c r="BM37" s="43"/>
       <c r="BN37" s="43"/>
+      <c r="BO37" s="3"/>
     </row>
-    <row r="38" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
@@ -6301,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="27">
         <f t="shared" si="4"/>
@@ -6364,8 +6399,9 @@
       <c r="BL38" s="43"/>
       <c r="BM38" s="43"/>
       <c r="BN38" s="43"/>
+      <c r="BO38" s="3"/>
     </row>
-    <row r="39" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.1</v>
@@ -6388,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="27">
         <f t="shared" ref="I39" si="27">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
@@ -6451,8 +6487,9 @@
       <c r="BL39" s="43"/>
       <c r="BM39" s="43"/>
       <c r="BN39" s="43"/>
+      <c r="BO39" s="3"/>
     </row>
-    <row r="40" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.2</v>
@@ -6475,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="27">
         <f t="shared" ref="I40" si="29">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
@@ -6538,8 +6575,9 @@
       <c r="BL40" s="43"/>
       <c r="BM40" s="43"/>
       <c r="BN40" s="43"/>
+      <c r="BO40" s="3"/>
     </row>
-    <row r="41" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
@@ -6625,8 +6663,9 @@
       <c r="BL41" s="43"/>
       <c r="BM41" s="43"/>
       <c r="BN41" s="43"/>
+      <c r="BO41" s="3"/>
     </row>
-    <row r="42" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
@@ -6712,8 +6751,9 @@
       <c r="BL42" s="43"/>
       <c r="BM42" s="43"/>
       <c r="BN42" s="43"/>
+      <c r="BO42" s="3"/>
     </row>
-    <row r="43" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.5.1</v>
@@ -6799,8 +6839,9 @@
       <c r="BL43" s="43"/>
       <c r="BM43" s="43"/>
       <c r="BN43" s="43"/>
+      <c r="BO43" s="3"/>
     </row>
-    <row r="44" spans="1:66" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:67" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.5.2</v>
@@ -6886,8 +6927,9 @@
       <c r="BL44" s="43"/>
       <c r="BM44" s="43"/>
       <c r="BN44" s="43"/>
+      <c r="BO44" s="3"/>
     </row>
-    <row r="45" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.5.3</v>
@@ -6973,8 +7015,9 @@
       <c r="BL45" s="43"/>
       <c r="BM45" s="43"/>
       <c r="BN45" s="43"/>
+      <c r="BO45" s="3"/>
     </row>
-    <row r="46" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.6</v>
@@ -7060,8 +7103,9 @@
       <c r="BL46" s="43"/>
       <c r="BM46" s="43"/>
       <c r="BN46" s="43"/>
+      <c r="BO46" s="3"/>
     </row>
-    <row r="47" spans="1:66" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:67" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -7138,8 +7182,9 @@
       <c r="BL47" s="44"/>
       <c r="BM47" s="44"/>
       <c r="BN47" s="44"/>
+      <c r="BO47" s="3"/>
     </row>
-    <row r="48" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1</v>
@@ -7152,11 +7197,11 @@
       </c>
       <c r="D48" s="62"/>
       <c r="E48" s="67">
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="F48" s="69">
         <f t="shared" ref="F48" si="32">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="G48" s="25">
         <v>1</v>
@@ -7225,8 +7270,9 @@
       <c r="BL48" s="43"/>
       <c r="BM48" s="43"/>
       <c r="BN48" s="43"/>
+      <c r="BO48" s="3"/>
     </row>
-    <row r="49" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
@@ -7239,11 +7285,11 @@
       </c>
       <c r="D49" s="62"/>
       <c r="E49" s="67">
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="F49" s="69">
         <f>IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="G49" s="25">
         <v>14</v>
@@ -7312,8 +7358,9 @@
       <c r="BL49" s="43"/>
       <c r="BM49" s="43"/>
       <c r="BN49" s="43"/>
+      <c r="BO49" s="3"/>
     </row>
-    <row r="50" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="str">
         <f t="shared" ref="A50:A64" si="34">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.2.1</v>
@@ -7326,11 +7373,11 @@
       </c>
       <c r="D50" s="62"/>
       <c r="E50" s="67">
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="F50" s="69">
         <f t="shared" ref="F50:F65" si="35">IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
-        <v>44495</v>
+        <v>44502</v>
       </c>
       <c r="G50" s="25">
         <v>2</v>
@@ -7399,8 +7446,9 @@
       <c r="BL50" s="43"/>
       <c r="BM50" s="43"/>
       <c r="BN50" s="43"/>
+      <c r="BO50" s="3"/>
     </row>
-    <row r="51" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="str">
         <f t="shared" ref="A51:A65" si="37">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>4.2.1.1</v>
@@ -7413,11 +7461,11 @@
       </c>
       <c r="D51" s="62"/>
       <c r="E51" s="67">
-        <v>44495</v>
+        <v>44502</v>
       </c>
       <c r="F51" s="69">
         <f t="shared" si="35"/>
-        <v>44495</v>
+        <v>44502</v>
       </c>
       <c r="G51" s="25">
         <v>1</v>
@@ -7486,8 +7534,9 @@
       <c r="BL51" s="43"/>
       <c r="BM51" s="43"/>
       <c r="BN51" s="43"/>
+      <c r="BO51" s="3"/>
     </row>
-    <row r="52" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="str">
         <f t="shared" si="34"/>
         <v>4.2.2</v>
@@ -7500,11 +7549,11 @@
       </c>
       <c r="D52" s="62"/>
       <c r="E52" s="67">
-        <v>44495</v>
+        <v>44503</v>
       </c>
       <c r="F52" s="69">
         <f>IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
-        <v>44496</v>
+        <v>44504</v>
       </c>
       <c r="G52" s="25">
         <v>2</v>
@@ -7573,8 +7622,9 @@
       <c r="BL52" s="43"/>
       <c r="BM52" s="43"/>
       <c r="BN52" s="43"/>
+      <c r="BO52" s="3"/>
     </row>
-    <row r="53" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="str">
         <f t="shared" si="37"/>
         <v>4.2.2.1</v>
@@ -7587,11 +7637,11 @@
       </c>
       <c r="D53" s="62"/>
       <c r="E53" s="67">
-        <v>44496</v>
+        <v>44504</v>
       </c>
       <c r="F53" s="69">
         <f t="shared" ref="F53" si="38">IF(ISBLANK(E53)," - ",IF(G53=0,E53,E53+G53-1))</f>
-        <v>44496</v>
+        <v>44504</v>
       </c>
       <c r="G53" s="25">
         <v>1</v>
@@ -7660,8 +7710,9 @@
       <c r="BL53" s="43"/>
       <c r="BM53" s="43"/>
       <c r="BN53" s="43"/>
+      <c r="BO53" s="3"/>
     </row>
-    <row r="54" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="str">
         <f t="shared" si="34"/>
         <v>4.2.3</v>
@@ -7674,11 +7725,11 @@
       </c>
       <c r="D54" s="62"/>
       <c r="E54" s="67">
-        <v>44496</v>
+        <v>44505</v>
       </c>
       <c r="F54" s="69">
         <f t="shared" si="35"/>
-        <v>44497</v>
+        <v>44506</v>
       </c>
       <c r="G54" s="25">
         <v>2</v>
@@ -7688,7 +7739,7 @@
       </c>
       <c r="I54" s="27">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" s="40"/>
       <c r="K54" s="43"/>
@@ -7747,8 +7798,9 @@
       <c r="BL54" s="43"/>
       <c r="BM54" s="43"/>
       <c r="BN54" s="43"/>
+      <c r="BO54" s="3"/>
     </row>
-    <row r="55" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="str">
         <f t="shared" si="37"/>
         <v>4.2.3.1</v>
@@ -7761,11 +7813,11 @@
       </c>
       <c r="D55" s="62"/>
       <c r="E55" s="67">
-        <v>44497</v>
+        <v>44506</v>
       </c>
       <c r="F55" s="69">
         <f t="shared" si="35"/>
-        <v>44497</v>
+        <v>44506</v>
       </c>
       <c r="G55" s="25">
         <v>1</v>
@@ -7775,7 +7827,7 @@
       </c>
       <c r="I55" s="27">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="40"/>
       <c r="K55" s="43"/>
@@ -7834,8 +7886,9 @@
       <c r="BL55" s="43"/>
       <c r="BM55" s="43"/>
       <c r="BN55" s="43"/>
+      <c r="BO55" s="3"/>
     </row>
-    <row r="56" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="str">
         <f t="shared" si="34"/>
         <v>4.2.4</v>
@@ -7848,11 +7901,11 @@
       </c>
       <c r="D56" s="62"/>
       <c r="E56" s="67">
-        <v>44497</v>
+        <v>44507</v>
       </c>
       <c r="F56" s="69">
         <f t="shared" ref="F56:F57" si="40">IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
-        <v>44497</v>
+        <v>44507</v>
       </c>
       <c r="G56" s="25">
         <v>1</v>
@@ -7862,7 +7915,7 @@
       </c>
       <c r="I56" s="27">
         <f t="shared" ref="I56:I57" si="41">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="40"/>
       <c r="K56" s="43"/>
@@ -7921,8 +7974,9 @@
       <c r="BL56" s="43"/>
       <c r="BM56" s="43"/>
       <c r="BN56" s="43"/>
+      <c r="BO56" s="3"/>
     </row>
-    <row r="57" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="str">
         <f t="shared" si="37"/>
         <v>4.2.4.1</v>
@@ -7935,11 +7989,11 @@
       </c>
       <c r="D57" s="62"/>
       <c r="E57" s="67">
-        <v>44497</v>
+        <v>44507</v>
       </c>
       <c r="F57" s="69">
         <f t="shared" si="40"/>
-        <v>44497</v>
+        <v>44507</v>
       </c>
       <c r="G57" s="25">
         <v>1</v>
@@ -7949,7 +8003,7 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="40"/>
       <c r="K57" s="43"/>
@@ -8008,8 +8062,9 @@
       <c r="BL57" s="43"/>
       <c r="BM57" s="43"/>
       <c r="BN57" s="43"/>
+      <c r="BO57" s="3"/>
     </row>
-    <row r="58" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="str">
         <f t="shared" si="34"/>
         <v>4.2.5</v>
@@ -8022,11 +8077,11 @@
       </c>
       <c r="D58" s="62"/>
       <c r="E58" s="67">
-        <v>44498</v>
+        <v>44508</v>
       </c>
       <c r="F58" s="69">
         <f t="shared" si="35"/>
-        <v>44500</v>
+        <v>44510</v>
       </c>
       <c r="G58" s="25">
         <v>3</v>
@@ -8036,7 +8091,7 @@
       </c>
       <c r="I58" s="27">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" s="40"/>
       <c r="K58" s="43"/>
@@ -8095,8 +8150,9 @@
       <c r="BL58" s="43"/>
       <c r="BM58" s="43"/>
       <c r="BN58" s="43"/>
+      <c r="BO58" s="3"/>
     </row>
-    <row r="59" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="str">
         <f t="shared" si="37"/>
         <v>4.2.5.1</v>
@@ -8109,11 +8165,11 @@
       </c>
       <c r="D59" s="62"/>
       <c r="E59" s="67">
-        <v>44500</v>
+        <v>44510</v>
       </c>
       <c r="F59" s="69">
         <f t="shared" si="35"/>
-        <v>44500</v>
+        <v>44510</v>
       </c>
       <c r="G59" s="25">
         <v>1</v>
@@ -8123,7 +8179,7 @@
       </c>
       <c r="I59" s="27">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="40"/>
       <c r="K59" s="43"/>
@@ -8182,8 +8238,9 @@
       <c r="BL59" s="43"/>
       <c r="BM59" s="43"/>
       <c r="BN59" s="43"/>
+      <c r="BO59" s="3"/>
     </row>
-    <row r="60" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="str">
         <f t="shared" si="34"/>
         <v>4.2.6</v>
@@ -8196,11 +8253,11 @@
       </c>
       <c r="D60" s="62"/>
       <c r="E60" s="67">
-        <v>44500</v>
+        <v>44511</v>
       </c>
       <c r="F60" s="69">
         <f t="shared" si="35"/>
-        <v>44501</v>
+        <v>44512</v>
       </c>
       <c r="G60" s="25">
         <v>2</v>
@@ -8210,7 +8267,7 @@
       </c>
       <c r="I60" s="27">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" s="40"/>
       <c r="K60" s="43"/>
@@ -8269,8 +8326,9 @@
       <c r="BL60" s="43"/>
       <c r="BM60" s="43"/>
       <c r="BN60" s="43"/>
+      <c r="BO60" s="3"/>
     </row>
-    <row r="61" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="str">
         <f t="shared" si="37"/>
         <v>4.2.6.1</v>
@@ -8283,11 +8341,11 @@
       </c>
       <c r="D61" s="62"/>
       <c r="E61" s="67">
-        <v>44501</v>
+        <v>44512</v>
       </c>
       <c r="F61" s="69">
         <f t="shared" ref="F61" si="42">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
-        <v>44501</v>
+        <v>44512</v>
       </c>
       <c r="G61" s="25">
         <v>1</v>
@@ -8356,8 +8414,9 @@
       <c r="BL61" s="43"/>
       <c r="BM61" s="43"/>
       <c r="BN61" s="43"/>
+      <c r="BO61" s="3"/>
     </row>
-    <row r="62" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="str">
         <f t="shared" si="34"/>
         <v>4.2.7</v>
@@ -8370,11 +8429,11 @@
       </c>
       <c r="D62" s="62"/>
       <c r="E62" s="67">
-        <v>44502</v>
+        <v>44513</v>
       </c>
       <c r="F62" s="69">
         <f t="shared" ref="F62:F63" si="44">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="G62" s="25">
         <v>3</v>
@@ -8384,7 +8443,7 @@
       </c>
       <c r="I62" s="27">
         <f t="shared" ref="I62:I63" si="45">IF(OR(F62=0,E62=0)," - ",NETWORKDAYS(E62,F62))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" s="40"/>
       <c r="K62" s="43"/>
@@ -8444,7 +8503,7 @@
       <c r="BM62" s="43"/>
       <c r="BN62" s="43"/>
     </row>
-    <row r="63" spans="1:66" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:67" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="str">
         <f t="shared" si="37"/>
         <v>4.2.7.1</v>
@@ -8457,11 +8516,11 @@
       </c>
       <c r="D63" s="62"/>
       <c r="E63" s="67">
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="F63" s="69">
         <f t="shared" si="44"/>
-        <v>44504</v>
+        <v>44515</v>
       </c>
       <c r="G63" s="25">
         <v>1</v>
@@ -8531,7 +8590,7 @@
       <c r="BM63" s="43"/>
       <c r="BN63" s="43"/>
     </row>
-    <row r="64" spans="1:66" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:67" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="str">
         <f t="shared" si="34"/>
         <v>4.2.8</v>
@@ -8544,11 +8603,11 @@
       </c>
       <c r="D64" s="62"/>
       <c r="E64" s="67">
-        <v>44505</v>
+        <v>44516</v>
       </c>
       <c r="F64" s="69">
         <f t="shared" si="35"/>
-        <v>44507</v>
+        <v>44518</v>
       </c>
       <c r="G64" s="25">
         <v>3</v>
@@ -8558,7 +8617,7 @@
       </c>
       <c r="I64" s="27">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" s="40"/>
       <c r="K64" s="43"/>
@@ -8631,11 +8690,11 @@
       </c>
       <c r="D65" s="62"/>
       <c r="E65" s="67">
-        <v>44507</v>
+        <v>44518</v>
       </c>
       <c r="F65" s="69">
         <f t="shared" si="35"/>
-        <v>44507</v>
+        <v>44518</v>
       </c>
       <c r="G65" s="25">
         <v>1</v>
@@ -8645,7 +8704,7 @@
       </c>
       <c r="I65" s="27">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="40"/>
       <c r="K65" s="43"/>
@@ -8796,11 +8855,11 @@
       </c>
       <c r="D67" s="62"/>
       <c r="E67" s="67">
-        <v>44508</v>
+        <v>44519</v>
       </c>
       <c r="F67" s="69">
         <f t="shared" si="46"/>
-        <v>44508</v>
+        <v>44519</v>
       </c>
       <c r="G67" s="25">
         <v>1</v>
@@ -8883,21 +8942,21 @@
       </c>
       <c r="D68" s="62"/>
       <c r="E68" s="67">
-        <v>44508</v>
+        <v>44519</v>
       </c>
       <c r="F68" s="69">
         <f t="shared" si="46"/>
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="G68" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="26">
         <v>0</v>
       </c>
       <c r="I68" s="27">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" s="40"/>
       <c r="K68" s="43"/>
@@ -8970,21 +9029,21 @@
       </c>
       <c r="D69" s="62"/>
       <c r="E69" s="67">
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="F69" s="69">
         <f t="shared" si="46"/>
-        <v>44510</v>
+        <v>44519</v>
       </c>
       <c r="G69" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="26">
         <v>0</v>
       </c>
       <c r="I69" s="27">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" s="40"/>
       <c r="K69" s="43"/>
@@ -9057,21 +9116,21 @@
       </c>
       <c r="D70" s="62"/>
       <c r="E70" s="67">
-        <v>44510</v>
+        <v>44519</v>
       </c>
       <c r="F70" s="69">
         <f t="shared" si="46"/>
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="G70" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="26">
         <v>0</v>
       </c>
       <c r="I70" s="27">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" s="40"/>
       <c r="K70" s="43"/>
@@ -9222,21 +9281,21 @@
       </c>
       <c r="D72" s="62"/>
       <c r="E72" s="67">
-        <v>44512</v>
+        <v>44520</v>
       </c>
       <c r="F72" s="69">
         <f t="shared" si="46"/>
-        <v>44515</v>
+        <v>44521</v>
       </c>
       <c r="G72" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H72" s="26">
         <v>0</v>
       </c>
       <c r="I72" s="27">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" s="40"/>
       <c r="K72" s="43"/>
@@ -9309,21 +9368,21 @@
       </c>
       <c r="D73" s="62"/>
       <c r="E73" s="67">
-        <v>44512</v>
+        <v>44520</v>
       </c>
       <c r="F73" s="69">
         <f t="shared" ref="F73:F74" si="48">IF(ISBLANK(E73)," - ",IF(G73=0,E73,E73+G73-1))</f>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="G73" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="26">
         <v>0</v>
       </c>
       <c r="I73" s="27">
         <f t="shared" ref="I73:I74" si="49">IF(OR(F73=0,E73=0)," - ",NETWORKDAYS(E73,F73))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="40"/>
       <c r="K73" s="43"/>
@@ -9396,14 +9455,14 @@
       </c>
       <c r="D74" s="62"/>
       <c r="E74" s="67">
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="F74" s="69">
         <f t="shared" si="48"/>
-        <v>44514</v>
+        <v>44520</v>
       </c>
       <c r="G74" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="26">
         <v>0</v>
@@ -9483,21 +9542,21 @@
       </c>
       <c r="D75" s="62"/>
       <c r="E75" s="67">
-        <v>44515</v>
+        <v>44521</v>
       </c>
       <c r="F75" s="69">
         <f>IF(ISBLANK(E75)," - ",IF(G75=0,E75,E75+G75-1))</f>
-        <v>44518</v>
+        <v>44521</v>
       </c>
       <c r="G75" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H75" s="26">
         <v>0</v>
       </c>
       <c r="I75" s="27">
         <f>IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J75" s="40"/>
       <c r="K75" s="43"/>
@@ -9570,21 +9629,21 @@
       </c>
       <c r="D76" s="62"/>
       <c r="E76" s="67">
-        <v>44516</v>
+        <v>44521</v>
       </c>
       <c r="F76" s="69">
         <f>IF(ISBLANK(E76)," - ",IF(G76=0,E76,E76+G76-1))</f>
-        <v>44522</v>
+        <v>44521</v>
       </c>
       <c r="G76" s="25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H76" s="26">
         <v>0</v>
       </c>
       <c r="I76" s="27">
         <f>IF(OR(F76=0,E76=0)," - ",NETWORKDAYS(E76,F76))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J76" s="40"/>
       <c r="K76" s="43"/>
@@ -9647,6 +9706,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9657,15 +9725,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8 H38 H15 H47 H66:H68 H49 H10:H11 H27 H29">
@@ -10811,7 +10870,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H10 E27 E47 E66 G27:H27 G47:H47 G66:H67 H38 H29 H68" unlockedFormula="1"/>
+    <ignoredError sqref="H10 E27 E47 E66 G27:H27 G47:H47 G66:H67 H68" unlockedFormula="1"/>
     <ignoredError sqref="A66 A47 A27" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03715077-1C79-43D2-8E2C-78962A13ED88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0801B52D-0979-4D6C-B6D0-232C4258D633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1547,6 +1547,16 @@
     <xf numFmtId="168" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1556,6 +1566,10 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,20 +1577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2919,8 +2919,8 @@
   <dimension ref="A1:BO76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <pane ySplit="7" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2948,29 +2948,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
     </row>
     <row r="2" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3015,11 +3015,11 @@
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="76">
         <v>44459</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
@@ -3029,183 +3029,183 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="70" t="str">
+      <c r="K4" s="73" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="70" t="str">
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="73" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="70" t="str">
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="73" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="70" t="str">
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="73" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="70" t="str">
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="73" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="70" t="str">
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="73" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="70" t="str">
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="75"/>
+      <c r="BA4" s="73" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="70" t="str">
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="74"/>
+      <c r="BE4" s="74"/>
+      <c r="BF4" s="74"/>
+      <c r="BG4" s="75"/>
+      <c r="BH4" s="73" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="72"/>
-      <c r="BO4" s="79"/>
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="74"/>
+      <c r="BM4" s="74"/>
+      <c r="BN4" s="75"/>
+      <c r="BO4" s="70"/>
     </row>
     <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="73">
+      <c r="K5" s="77">
         <f>K6</f>
         <v>44466</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="73">
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="77">
         <f>R6</f>
         <v>44473</v>
       </c>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="73">
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="77">
         <f>Y6</f>
         <v>44480</v>
       </c>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="73">
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="77">
         <f>AF6</f>
         <v>44487</v>
       </c>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="73">
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="77">
         <f>AM6</f>
         <v>44494</v>
       </c>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="75"/>
-      <c r="AT5" s="73">
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="77">
         <f>AT6</f>
         <v>44501</v>
       </c>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="73">
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="78"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="77">
         <f>BA6</f>
         <v>44508</v>
       </c>
-      <c r="BB5" s="74"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="75"/>
-      <c r="BH5" s="73">
+      <c r="BB5" s="78"/>
+      <c r="BC5" s="78"/>
+      <c r="BD5" s="78"/>
+      <c r="BE5" s="78"/>
+      <c r="BF5" s="78"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="77">
         <f>BH6</f>
         <v>44515</v>
       </c>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="74"/>
-      <c r="BK5" s="74"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="74"/>
-      <c r="BN5" s="75"/>
+      <c r="BI5" s="78"/>
+      <c r="BJ5" s="78"/>
+      <c r="BK5" s="78"/>
+      <c r="BL5" s="78"/>
+      <c r="BM5" s="78"/>
+      <c r="BN5" s="79"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -6688,7 +6688,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I42" s="27">
         <f>IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
@@ -6776,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="27">
         <f t="shared" ref="I43:I45" si="31">IF(OR(F43=0,E43=0)," - ",NETWORKDAYS(E43,F43))</f>
@@ -6864,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="27">
         <f t="shared" si="31"/>
@@ -6952,7 +6952,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="27">
         <f t="shared" si="31"/>
@@ -7040,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="27">
         <f>IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
@@ -7207,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="27">
         <f t="shared" ref="I48" si="33">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
@@ -7295,7 +7295,7 @@
         <v>14</v>
       </c>
       <c r="H49" s="26">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I49" s="27">
         <f>IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
@@ -7383,7 +7383,7 @@
         <v>2</v>
       </c>
       <c r="H50" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="27">
         <f t="shared" ref="I50:I65" si="36">IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
@@ -7559,7 +7559,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="26">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I52" s="27">
         <f t="shared" si="36"/>
@@ -9706,15 +9706,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9725,6 +9716,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8 H38 H15 H47 H66:H68 H49 H10:H11 H27 H29">
@@ -10870,7 +10870,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H10 E27 E47 E66 G27:H27 G47:H47 G66:H67 H68" unlockedFormula="1"/>
+    <ignoredError sqref="H10 E27 E47 E66 G27:H27 G47 G66:H67 H68" unlockedFormula="1"/>
     <ignoredError sqref="A66 A47 A27" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0801B52D-0979-4D6C-B6D0-232C4258D633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702A69B-B2B0-47E2-A751-EA6FAAA68641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,13 +1550,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,10 +1559,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1578,6 +1567,17 @@
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2919,8 +2919,8 @@
   <dimension ref="A1:BO76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <pane ySplit="7" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2948,29 +2948,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
     </row>
     <row r="2" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3015,11 +3015,11 @@
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="79">
         <v>44459</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
@@ -3029,86 +3029,86 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="73" t="str">
+      <c r="K4" s="71" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="73" t="str">
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="71" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="73" t="str">
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="71" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="73" t="str">
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="71" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="73" t="str">
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="71" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="75"/>
-      <c r="AT4" s="73" t="str">
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="71" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="73" t="str">
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="71" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="74"/>
-      <c r="BD4" s="74"/>
-      <c r="BE4" s="74"/>
-      <c r="BF4" s="74"/>
-      <c r="BG4" s="75"/>
-      <c r="BH4" s="73" t="str">
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="71" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="74"/>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="74"/>
-      <c r="BM4" s="74"/>
-      <c r="BN4" s="75"/>
+      <c r="BI4" s="72"/>
+      <c r="BJ4" s="72"/>
+      <c r="BK4" s="72"/>
+      <c r="BL4" s="72"/>
+      <c r="BM4" s="72"/>
+      <c r="BN4" s="73"/>
       <c r="BO4" s="70"/>
     </row>
     <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,96 +3116,96 @@
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="77">
+      <c r="K5" s="74">
         <f>K6</f>
         <v>44466</v>
       </c>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="77">
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="74">
         <f>R6</f>
         <v>44473</v>
       </c>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="77">
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="74">
         <f>Y6</f>
         <v>44480</v>
       </c>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="77">
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="74">
         <f>AF6</f>
         <v>44487</v>
       </c>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="77">
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="74">
         <f>AM6</f>
         <v>44494</v>
       </c>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="78"/>
-      <c r="AQ5" s="78"/>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="77">
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="76"/>
+      <c r="AT5" s="74">
         <f>AT6</f>
         <v>44501</v>
       </c>
-      <c r="AU5" s="78"/>
-      <c r="AV5" s="78"/>
-      <c r="AW5" s="78"/>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="78"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="77">
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="74">
         <f>BA6</f>
         <v>44508</v>
       </c>
-      <c r="BB5" s="78"/>
-      <c r="BC5" s="78"/>
-      <c r="BD5" s="78"/>
-      <c r="BE5" s="78"/>
-      <c r="BF5" s="78"/>
-      <c r="BG5" s="79"/>
-      <c r="BH5" s="77">
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="76"/>
+      <c r="BH5" s="74">
         <f>BH6</f>
         <v>44515</v>
       </c>
-      <c r="BI5" s="78"/>
-      <c r="BJ5" s="78"/>
-      <c r="BK5" s="78"/>
-      <c r="BL5" s="78"/>
-      <c r="BM5" s="78"/>
-      <c r="BN5" s="79"/>
+      <c r="BI5" s="75"/>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="76"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -7295,7 +7295,7 @@
         <v>14</v>
       </c>
       <c r="H49" s="26">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I49" s="27">
         <f>IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
@@ -7471,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="27">
         <f t="shared" si="36"/>
@@ -7559,7 +7559,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="26">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="I52" s="27">
         <f t="shared" si="36"/>
@@ -7647,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="27">
         <f t="shared" ref="I53" si="39">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
@@ -7729,10 +7729,10 @@
       </c>
       <c r="F54" s="69">
         <f t="shared" si="35"/>
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="G54" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="26">
         <v>0</v>
@@ -7813,11 +7813,11 @@
       </c>
       <c r="D55" s="62"/>
       <c r="E55" s="67">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="F55" s="69">
         <f t="shared" si="35"/>
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="G55" s="25">
         <v>1</v>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="I55" s="27">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="40"/>
       <c r="K55" s="43"/>
@@ -7901,14 +7901,14 @@
       </c>
       <c r="D56" s="62"/>
       <c r="E56" s="67">
-        <v>44507</v>
+        <v>44506</v>
       </c>
       <c r="F56" s="69">
         <f t="shared" ref="F56:F57" si="40">IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
         <v>44507</v>
       </c>
       <c r="G56" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="26">
         <v>0</v>
@@ -8081,17 +8081,17 @@
       </c>
       <c r="F58" s="69">
         <f t="shared" si="35"/>
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="G58" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" s="26">
         <v>0</v>
       </c>
       <c r="I58" s="27">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" s="40"/>
       <c r="K58" s="43"/>
@@ -8165,11 +8165,11 @@
       </c>
       <c r="D59" s="62"/>
       <c r="E59" s="67">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="F59" s="69">
         <f t="shared" si="35"/>
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="G59" s="25">
         <v>1</v>
@@ -8253,11 +8253,11 @@
       </c>
       <c r="D60" s="62"/>
       <c r="E60" s="67">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="F60" s="69">
         <f t="shared" si="35"/>
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="G60" s="25">
         <v>2</v>
@@ -8341,11 +8341,11 @@
       </c>
       <c r="D61" s="62"/>
       <c r="E61" s="67">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="F61" s="69">
         <f t="shared" ref="F61" si="42">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="G61" s="25">
         <v>1</v>
@@ -8429,14 +8429,14 @@
       </c>
       <c r="D62" s="62"/>
       <c r="E62" s="67">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="F62" s="69">
         <f t="shared" ref="F62:F63" si="44">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
-        <v>44515</v>
+        <v>44512</v>
       </c>
       <c r="G62" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="26">
         <v>0</v>
@@ -8516,11 +8516,11 @@
       </c>
       <c r="D63" s="62"/>
       <c r="E63" s="67">
-        <v>44515</v>
+        <v>44512</v>
       </c>
       <c r="F63" s="69">
         <f t="shared" si="44"/>
-        <v>44515</v>
+        <v>44512</v>
       </c>
       <c r="G63" s="25">
         <v>1</v>
@@ -8603,21 +8603,21 @@
       </c>
       <c r="D64" s="62"/>
       <c r="E64" s="67">
-        <v>44516</v>
+        <v>44513</v>
       </c>
       <c r="F64" s="69">
         <f t="shared" si="35"/>
-        <v>44518</v>
+        <v>44513</v>
       </c>
       <c r="G64" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" s="26">
         <v>0</v>
       </c>
       <c r="I64" s="27">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" s="40"/>
       <c r="K64" s="43"/>
@@ -8690,11 +8690,11 @@
       </c>
       <c r="D65" s="62"/>
       <c r="E65" s="67">
-        <v>44518</v>
+        <v>44513</v>
       </c>
       <c r="F65" s="69">
         <f t="shared" si="35"/>
-        <v>44518</v>
+        <v>44513</v>
       </c>
       <c r="G65" s="25">
         <v>1</v>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="I65" s="27">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="40"/>
       <c r="K65" s="43"/>
@@ -8855,11 +8855,11 @@
       </c>
       <c r="D67" s="62"/>
       <c r="E67" s="67">
-        <v>44519</v>
+        <v>44515</v>
       </c>
       <c r="F67" s="69">
         <f t="shared" si="46"/>
-        <v>44519</v>
+        <v>44515</v>
       </c>
       <c r="G67" s="25">
         <v>1</v>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="D68" s="62"/>
       <c r="E68" s="67">
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="F68" s="69">
         <f t="shared" si="46"/>
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="G68" s="25">
         <v>1</v>
@@ -9029,11 +9029,11 @@
       </c>
       <c r="D69" s="62"/>
       <c r="E69" s="67">
-        <v>44519</v>
+        <v>44517</v>
       </c>
       <c r="F69" s="69">
         <f t="shared" si="46"/>
-        <v>44519</v>
+        <v>44517</v>
       </c>
       <c r="G69" s="25">
         <v>1</v>
@@ -9116,11 +9116,11 @@
       </c>
       <c r="D70" s="62"/>
       <c r="E70" s="67">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="F70" s="69">
         <f t="shared" si="46"/>
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="G70" s="25">
         <v>1</v>
@@ -9706,6 +9706,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9716,15 +9725,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8 H38 H15 H47 H66:H68 H49 H10:H11 H27 H29">

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702A69B-B2B0-47E2-A751-EA6FAAA68641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F28BAA8-84C1-46C8-9E6A-7330961E4090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,6 +1550,13 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1559,6 +1566,10 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1567,17 +1578,6 @@
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2919,8 +2919,8 @@
   <dimension ref="A1:BO76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <pane ySplit="7" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2948,29 +2948,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
     </row>
     <row r="2" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3015,11 +3015,11 @@
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="76">
         <v>44459</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
@@ -3029,86 +3029,86 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="71" t="str">
+      <c r="K4" s="73" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="71" t="str">
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="73" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="71" t="str">
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="73" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="71" t="str">
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="73" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="71" t="str">
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="73" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="71" t="str">
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="73" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="71" t="str">
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="75"/>
+      <c r="BA4" s="73" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="72"/>
-      <c r="BG4" s="73"/>
-      <c r="BH4" s="71" t="str">
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="74"/>
+      <c r="BE4" s="74"/>
+      <c r="BF4" s="74"/>
+      <c r="BG4" s="75"/>
+      <c r="BH4" s="73" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BI4" s="72"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="72"/>
-      <c r="BM4" s="72"/>
-      <c r="BN4" s="73"/>
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="74"/>
+      <c r="BM4" s="74"/>
+      <c r="BN4" s="75"/>
       <c r="BO4" s="70"/>
     </row>
     <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,96 +3116,96 @@
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="74">
+      <c r="K5" s="77">
         <f>K6</f>
         <v>44466</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="74">
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="77">
         <f>R6</f>
         <v>44473</v>
       </c>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="74">
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="77">
         <f>Y6</f>
         <v>44480</v>
       </c>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="74">
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="77">
         <f>AF6</f>
         <v>44487</v>
       </c>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="75"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="74">
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="77">
         <f>AM6</f>
         <v>44494</v>
       </c>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="75"/>
-      <c r="AP5" s="75"/>
-      <c r="AQ5" s="75"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="76"/>
-      <c r="AT5" s="74">
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="77">
         <f>AT6</f>
         <v>44501</v>
       </c>
-      <c r="AU5" s="75"/>
-      <c r="AV5" s="75"/>
-      <c r="AW5" s="75"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="74">
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="78"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="77">
         <f>BA6</f>
         <v>44508</v>
       </c>
-      <c r="BB5" s="75"/>
-      <c r="BC5" s="75"/>
-      <c r="BD5" s="75"/>
-      <c r="BE5" s="75"/>
-      <c r="BF5" s="75"/>
-      <c r="BG5" s="76"/>
-      <c r="BH5" s="74">
+      <c r="BB5" s="78"/>
+      <c r="BC5" s="78"/>
+      <c r="BD5" s="78"/>
+      <c r="BE5" s="78"/>
+      <c r="BF5" s="78"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="77">
         <f>BH6</f>
         <v>44515</v>
       </c>
-      <c r="BI5" s="75"/>
-      <c r="BJ5" s="75"/>
-      <c r="BK5" s="75"/>
-      <c r="BL5" s="75"/>
-      <c r="BM5" s="75"/>
-      <c r="BN5" s="76"/>
+      <c r="BI5" s="78"/>
+      <c r="BJ5" s="78"/>
+      <c r="BK5" s="78"/>
+      <c r="BL5" s="78"/>
+      <c r="BM5" s="78"/>
+      <c r="BN5" s="79"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -7295,7 +7295,7 @@
         <v>14</v>
       </c>
       <c r="H49" s="26">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I49" s="27">
         <f>IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
@@ -7735,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="27">
         <f t="shared" si="36"/>
@@ -7823,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="27">
         <f t="shared" si="36"/>
@@ -7911,7 +7911,7 @@
         <v>2</v>
       </c>
       <c r="H56" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="27">
         <f t="shared" ref="I56:I57" si="41">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
@@ -7999,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="27">
         <f t="shared" si="41"/>
@@ -8087,7 +8087,7 @@
         <v>2</v>
       </c>
       <c r="H58" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="27">
         <f t="shared" si="36"/>
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="27">
         <f t="shared" si="36"/>
@@ -8263,7 +8263,7 @@
         <v>2</v>
       </c>
       <c r="H60" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="27">
         <f t="shared" si="36"/>
@@ -8351,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="27">
         <f t="shared" ref="I61" si="43">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
@@ -8439,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="27">
         <f t="shared" ref="I62:I63" si="45">IF(OR(F62=0,E62=0)," - ",NETWORKDAYS(E62,F62))</f>
@@ -8526,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="27">
         <f t="shared" si="45"/>
@@ -8613,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="27">
         <f t="shared" si="36"/>
@@ -8700,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="27">
         <f t="shared" si="36"/>
@@ -9706,15 +9706,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9725,6 +9716,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8 H38 H15 H47 H66:H68 H49 H10:H11 H27 H29">

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F28BAA8-84C1-46C8-9E6A-7330961E4090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300F2ACF-15E7-4E8B-8E86-0A77AC2600DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2919,8 +2919,8 @@
   <dimension ref="A1:BO76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <pane ySplit="7" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8865,7 +8865,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="27">
         <f t="shared" si="47"/>
@@ -8952,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="27">
         <f t="shared" si="47"/>
@@ -9039,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="27">
         <f t="shared" si="47"/>
@@ -9126,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="27">
         <f t="shared" si="47"/>
@@ -10870,7 +10870,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H10 E27 E47 E66 G27:H27 G47 G66:H67 H68" unlockedFormula="1"/>
+    <ignoredError sqref="H10 E27 E47 E66 G27:H27 G47 G66:H66 G67" unlockedFormula="1"/>
     <ignoredError sqref="A66 A47 A27" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Assessment 5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300F2ACF-15E7-4E8B-8E86-0A77AC2600DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB86641-2C92-45A0-80F2-C5CE95DF640E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,13 +1550,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,10 +1559,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1578,6 +1567,17 @@
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2919,8 +2919,8 @@
   <dimension ref="A1:BO76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
+      <pane ySplit="7" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2948,29 +2948,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="65"/>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
     </row>
     <row r="2" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3015,11 +3015,11 @@
       <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="79">
         <v>44459</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>9</v>
@@ -3029,86 +3029,86 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="73" t="str">
+      <c r="K4" s="71" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="73" t="str">
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="71" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="73" t="str">
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="71" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="73" t="str">
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="71" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="73" t="str">
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="71" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="75"/>
-      <c r="AT4" s="73" t="str">
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="71" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="73" t="str">
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="71" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="74"/>
-      <c r="BD4" s="74"/>
-      <c r="BE4" s="74"/>
-      <c r="BF4" s="74"/>
-      <c r="BG4" s="75"/>
-      <c r="BH4" s="73" t="str">
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="71" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="74"/>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="74"/>
-      <c r="BM4" s="74"/>
-      <c r="BN4" s="75"/>
+      <c r="BI4" s="72"/>
+      <c r="BJ4" s="72"/>
+      <c r="BK4" s="72"/>
+      <c r="BL4" s="72"/>
+      <c r="BM4" s="72"/>
+      <c r="BN4" s="73"/>
       <c r="BO4" s="70"/>
     </row>
     <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,96 +3116,96 @@
       <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="77">
+      <c r="K5" s="74">
         <f>K6</f>
         <v>44466</v>
       </c>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="77">
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="74">
         <f>R6</f>
         <v>44473</v>
       </c>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="77">
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="74">
         <f>Y6</f>
         <v>44480</v>
       </c>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="77">
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="74">
         <f>AF6</f>
         <v>44487</v>
       </c>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="77">
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="74">
         <f>AM6</f>
         <v>44494</v>
       </c>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="78"/>
-      <c r="AQ5" s="78"/>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="77">
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="76"/>
+      <c r="AT5" s="74">
         <f>AT6</f>
         <v>44501</v>
       </c>
-      <c r="AU5" s="78"/>
-      <c r="AV5" s="78"/>
-      <c r="AW5" s="78"/>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="78"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="77">
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="74">
         <f>BA6</f>
         <v>44508</v>
       </c>
-      <c r="BB5" s="78"/>
-      <c r="BC5" s="78"/>
-      <c r="BD5" s="78"/>
-      <c r="BE5" s="78"/>
-      <c r="BF5" s="78"/>
-      <c r="BG5" s="79"/>
-      <c r="BH5" s="77">
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="76"/>
+      <c r="BH5" s="74">
         <f>BH6</f>
         <v>44515</v>
       </c>
-      <c r="BI5" s="78"/>
-      <c r="BJ5" s="78"/>
-      <c r="BK5" s="78"/>
-      <c r="BL5" s="78"/>
-      <c r="BM5" s="78"/>
-      <c r="BN5" s="79"/>
+      <c r="BI5" s="75"/>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="76"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -9291,7 +9291,7 @@
         <v>2</v>
       </c>
       <c r="H72" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="27">
         <f t="shared" si="47"/>
@@ -9378,7 +9378,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="27">
         <f t="shared" ref="I73:I74" si="49">IF(OR(F73=0,E73=0)," - ",NETWORKDAYS(E73,F73))</f>
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="27">
         <f t="shared" si="49"/>
@@ -9552,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="27">
         <f>IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="27">
         <f>IF(OR(F76=0,E76=0)," - ",NETWORKDAYS(E76,F76))</f>
@@ -9706,6 +9706,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -9716,15 +9725,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8 H38 H15 H47 H66:H68 H49 H10:H11 H27 H29">
